--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5827" uniqueCount="2462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2491">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12490,6 +12490,96 @@
   <si>
     <t>是海蓝湾的用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10792</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10791</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10790</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_V3-V6</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10789</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10788</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10787</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_V1-V2</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10786</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10785</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10784</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_小额用户</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10783</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10782</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10781</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_免费用户</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actp_box_exchange_xxx </t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10779</t>
+  </si>
+  <si>
+    <t>actp_own_task_xxx  任务是否挂载</t>
+  </si>
+  <si>
+    <t>新人才能买全返礼包1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10775</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户6元</t>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户48元</t>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户98元</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10778</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10793</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10794</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10795</t>
   </si>
 </sst>
 </file>
@@ -13119,7 +13209,7 @@
   <dimension ref="A1:Q505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
@@ -19075,13 +19165,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD467"/>
+  <dimension ref="A1:XFD486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G443" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J474" sqref="J474"/>
+      <selection pane="bottomRight" activeCell="A474" sqref="A474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34967,7 +35057,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:15">
       <c r="A465" s="19">
         <v>464</v>
       </c>
@@ -34999,7 +35089,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:15">
       <c r="A466" s="19">
         <v>465</v>
       </c>
@@ -35031,7 +35121,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:15">
       <c r="A467" s="19">
         <v>466</v>
       </c>
@@ -35062,6 +35152,703 @@
       <c r="L467" s="20" t="s">
         <v>2436</v>
       </c>
+    </row>
+    <row r="468" spans="1:15" ht="16.5">
+      <c r="A468" s="19">
+        <v>467</v>
+      </c>
+      <c r="B468" s="16">
+        <v>1</v>
+      </c>
+      <c r="C468" s="15" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D468" s="15" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E468" s="16"/>
+      <c r="F468" s="16"/>
+      <c r="G468" s="16">
+        <v>18</v>
+      </c>
+      <c r="H468" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I468" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K468" s="16">
+        <v>0</v>
+      </c>
+      <c r="L468" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M468" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="N468" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="O468" s="19"/>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="19">
+        <v>468</v>
+      </c>
+      <c r="B469" s="16">
+        <v>1</v>
+      </c>
+      <c r="C469" s="15" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D469" s="60" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E469" s="16"/>
+      <c r="F469" s="16"/>
+      <c r="G469" s="16">
+        <v>1</v>
+      </c>
+      <c r="H469" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I469" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K469" s="16">
+        <v>0</v>
+      </c>
+      <c r="L469" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M469" s="18"/>
+      <c r="N469" s="18"/>
+    </row>
+    <row r="470" spans="1:15">
+      <c r="A470" s="19">
+        <v>469</v>
+      </c>
+      <c r="B470" s="16">
+        <v>1</v>
+      </c>
+      <c r="C470" s="15" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D470" s="60" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E470" s="16"/>
+      <c r="F470" s="16"/>
+      <c r="G470" s="16">
+        <v>1</v>
+      </c>
+      <c r="H470" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I470" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K470" s="16">
+        <v>0</v>
+      </c>
+      <c r="L470" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M470" s="18"/>
+      <c r="N470" s="18"/>
+    </row>
+    <row r="471" spans="1:15">
+      <c r="A471" s="19">
+        <v>470</v>
+      </c>
+      <c r="B471" s="16">
+        <v>1</v>
+      </c>
+      <c r="C471" s="15" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D471" s="60" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E471" s="16"/>
+      <c r="F471" s="16"/>
+      <c r="G471" s="16">
+        <v>1</v>
+      </c>
+      <c r="H471" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I471" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K471" s="16">
+        <v>0</v>
+      </c>
+      <c r="L471" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M471" s="18"/>
+      <c r="N471" s="18"/>
+    </row>
+    <row r="472" spans="1:15">
+      <c r="A472" s="19">
+        <v>471</v>
+      </c>
+      <c r="B472" s="16">
+        <v>1</v>
+      </c>
+      <c r="C472" s="15" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D472" s="15" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E472" s="16"/>
+      <c r="F472" s="16"/>
+      <c r="G472" s="16">
+        <v>2</v>
+      </c>
+      <c r="H472" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I472" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K472" s="16">
+        <v>0</v>
+      </c>
+      <c r="L472" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M472" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="N472" s="21" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15">
+      <c r="A473" s="19">
+        <v>472</v>
+      </c>
+      <c r="B473" s="16">
+        <v>1</v>
+      </c>
+      <c r="C473" s="15" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D473" s="15" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E473" s="16"/>
+      <c r="F473" s="16"/>
+      <c r="G473" s="16">
+        <v>2</v>
+      </c>
+      <c r="H473" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I473" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K473" s="16">
+        <v>0</v>
+      </c>
+      <c r="L473" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M473" s="21" t="s">
+        <v>2479</v>
+      </c>
+      <c r="N473" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15">
+      <c r="A474" s="19">
+        <v>473</v>
+      </c>
+      <c r="B474" s="16">
+        <v>1</v>
+      </c>
+      <c r="C474" s="15" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D474" s="15" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E474" s="16"/>
+      <c r="F474" s="16"/>
+      <c r="G474" s="16">
+        <v>2</v>
+      </c>
+      <c r="H474" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I474" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K474" s="16">
+        <v>0</v>
+      </c>
+      <c r="L474" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M474" s="18"/>
+      <c r="N474" s="18"/>
+    </row>
+    <row r="475" spans="1:15">
+      <c r="A475" s="19">
+        <v>474</v>
+      </c>
+      <c r="B475" s="16">
+        <v>1</v>
+      </c>
+      <c r="C475" s="15" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D475" s="15" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E475" s="16"/>
+      <c r="F475" s="16"/>
+      <c r="G475" s="16">
+        <v>3</v>
+      </c>
+      <c r="H475" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I475" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J475" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K475" s="16">
+        <v>0</v>
+      </c>
+      <c r="L475" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M475" s="18"/>
+      <c r="N475" s="18"/>
+    </row>
+    <row r="476" spans="1:15">
+      <c r="A476" s="19">
+        <v>475</v>
+      </c>
+      <c r="B476" s="16">
+        <v>1</v>
+      </c>
+      <c r="C476" s="15" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D476" s="15" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E476" s="16"/>
+      <c r="F476" s="16"/>
+      <c r="G476" s="16">
+        <v>3</v>
+      </c>
+      <c r="H476" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I476" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J476" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K476" s="16">
+        <v>0</v>
+      </c>
+      <c r="L476" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M476" s="18"/>
+      <c r="N476" s="18"/>
+    </row>
+    <row r="477" spans="1:15">
+      <c r="A477" s="19">
+        <v>476</v>
+      </c>
+      <c r="B477" s="16">
+        <v>1</v>
+      </c>
+      <c r="C477" s="15" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D477" s="15" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E477" s="16"/>
+      <c r="F477" s="16"/>
+      <c r="G477" s="16">
+        <v>3</v>
+      </c>
+      <c r="H477" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I477" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J477" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K477" s="16">
+        <v>0</v>
+      </c>
+      <c r="L477" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M477" s="18"/>
+      <c r="N477" s="18"/>
+    </row>
+    <row r="478" spans="1:15">
+      <c r="A478" s="19">
+        <v>477</v>
+      </c>
+      <c r="B478" s="16">
+        <v>1</v>
+      </c>
+      <c r="C478" s="15" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D478" s="15" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E478" s="16"/>
+      <c r="F478" s="16"/>
+      <c r="G478" s="16">
+        <v>4</v>
+      </c>
+      <c r="H478" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I478" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J478" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K478" s="16">
+        <v>0</v>
+      </c>
+      <c r="L478" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M478" s="18"/>
+      <c r="N478" s="18"/>
+    </row>
+    <row r="479" spans="1:15">
+      <c r="A479" s="19">
+        <v>478</v>
+      </c>
+      <c r="B479" s="16">
+        <v>1</v>
+      </c>
+      <c r="C479" s="15" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D479" s="15" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E479" s="16"/>
+      <c r="F479" s="16"/>
+      <c r="G479" s="16">
+        <v>4</v>
+      </c>
+      <c r="H479" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I479" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J479" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K479" s="16">
+        <v>0</v>
+      </c>
+      <c r="L479" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M479" s="18"/>
+      <c r="N479" s="18"/>
+    </row>
+    <row r="480" spans="1:15">
+      <c r="A480" s="19">
+        <v>479</v>
+      </c>
+      <c r="B480" s="16">
+        <v>1</v>
+      </c>
+      <c r="C480" s="15" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D480" s="15" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E480" s="16"/>
+      <c r="F480" s="16"/>
+      <c r="G480" s="16">
+        <v>4</v>
+      </c>
+      <c r="H480" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I480" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J480" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K480" s="16">
+        <v>0</v>
+      </c>
+      <c r="L480" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M480" s="18"/>
+      <c r="N480" s="18"/>
+    </row>
+    <row r="481" spans="1:14">
+      <c r="A481" s="19">
+        <v>480</v>
+      </c>
+      <c r="B481" s="16">
+        <v>1</v>
+      </c>
+      <c r="C481" s="15" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D481" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E481" s="16"/>
+      <c r="F481" s="16"/>
+      <c r="G481" s="16">
+        <v>5</v>
+      </c>
+      <c r="H481" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I481" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J481" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K481" s="16">
+        <v>0</v>
+      </c>
+      <c r="L481" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M481" s="18"/>
+      <c r="N481" s="18"/>
+    </row>
+    <row r="482" spans="1:14">
+      <c r="A482" s="19">
+        <v>481</v>
+      </c>
+      <c r="B482" s="16">
+        <v>1</v>
+      </c>
+      <c r="C482" s="15" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D482" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E482" s="16"/>
+      <c r="F482" s="16"/>
+      <c r="G482" s="16">
+        <v>5</v>
+      </c>
+      <c r="H482" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I482" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J482" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K482" s="16">
+        <v>0</v>
+      </c>
+      <c r="L482" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M482" s="18"/>
+      <c r="N482" s="18"/>
+    </row>
+    <row r="483" spans="1:14">
+      <c r="A483" s="19">
+        <v>482</v>
+      </c>
+      <c r="B483" s="16">
+        <v>1</v>
+      </c>
+      <c r="C483" s="15" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D483" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E483" s="16"/>
+      <c r="F483" s="16"/>
+      <c r="G483" s="16">
+        <v>5</v>
+      </c>
+      <c r="H483" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I483" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K483" s="16">
+        <v>0</v>
+      </c>
+      <c r="L483" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M483" s="18"/>
+      <c r="N483" s="18"/>
+    </row>
+    <row r="484" spans="1:14">
+      <c r="A484" s="19">
+        <v>483</v>
+      </c>
+      <c r="B484" s="16">
+        <v>1</v>
+      </c>
+      <c r="C484" s="15" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D484" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E484" s="16"/>
+      <c r="F484" s="16"/>
+      <c r="G484" s="16">
+        <v>6</v>
+      </c>
+      <c r="H484" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I484" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K484" s="16">
+        <v>0</v>
+      </c>
+      <c r="L484" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M484" s="18"/>
+      <c r="N484" s="18"/>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" s="19">
+        <v>484</v>
+      </c>
+      <c r="B485" s="16">
+        <v>1</v>
+      </c>
+      <c r="C485" s="15" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D485" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E485" s="16"/>
+      <c r="F485" s="16"/>
+      <c r="G485" s="16">
+        <v>6</v>
+      </c>
+      <c r="H485" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I485" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J485" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K485" s="16">
+        <v>0</v>
+      </c>
+      <c r="L485" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M485" s="18"/>
+      <c r="N485" s="18"/>
+    </row>
+    <row r="486" spans="1:14">
+      <c r="A486" s="19">
+        <v>485</v>
+      </c>
+      <c r="B486" s="16">
+        <v>1</v>
+      </c>
+      <c r="C486" s="15" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D486" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="E486" s="16"/>
+      <c r="F486" s="16"/>
+      <c r="G486" s="16">
+        <v>6</v>
+      </c>
+      <c r="H486" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I486" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J486" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K486" s="16">
+        <v>0</v>
+      </c>
+      <c r="L486" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="M486" s="18"/>
+      <c r="N486" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N435"/>
@@ -35075,8 +35862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B190" sqref="B190"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="2493">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12580,6 +12580,13 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_10795</t>
+  </si>
+  <si>
+    <t>treasure_bowl</t>
+  </si>
+  <si>
+    <t>聚宝盆限制（v0）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13206,11 +13213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q505"/>
+  <dimension ref="A1:Q507"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B507" sqref="B507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19156,6 +19163,17 @@
         <v>2452</v>
       </c>
     </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B507" s="69" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C507" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19167,7 +19185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -35863,10 +35881,10 @@
   <dimension ref="A1:I1109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B190" sqref="B190"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5907" uniqueCount="2493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5961" uniqueCount="2519">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12586,6 +12586,89 @@
   </si>
   <si>
     <t>VIP1直通礼包（只有VIP0显示）</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10834</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP2钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP3钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP4钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP5钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP6钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP7钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP8钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP9钜惠礼包</t>
+  </si>
+  <si>
+    <t>VIP10钜惠礼包</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10835</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10836</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10837</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10838</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10839</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10840</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10841</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10842</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10843</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10844</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10845</t>
+  </si>
+  <si>
+    <t>VIP11钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要Vip11才可体验，商城充值可以提升Vip等级！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要Vip12才可体验，商城充值可以提升Vip等级！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12684,7 +12767,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12712,6 +12795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12744,7 +12833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12935,6 +13024,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13214,9 +13306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C248" sqref="C248"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19193,13 +19285,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD486"/>
+  <dimension ref="A1:XFD498"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A474" sqref="A474"/>
+      <selection pane="bottomRight" activeCell="F491" sqref="F491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -35878,6 +35970,390 @@
       <c r="M486" s="18"/>
       <c r="N486" s="18"/>
     </row>
+    <row r="487" spans="1:14">
+      <c r="A487" s="19">
+        <v>486</v>
+      </c>
+      <c r="B487" s="19">
+        <v>1</v>
+      </c>
+      <c r="C487" s="20" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D487" s="71" t="s">
+        <v>2494</v>
+      </c>
+      <c r="G487" s="8">
+        <v>8</v>
+      </c>
+      <c r="H487" t="b">
+        <v>1</v>
+      </c>
+      <c r="I487" t="b">
+        <v>1</v>
+      </c>
+      <c r="J487" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K487" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L487" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
+      <c r="A488" s="19">
+        <v>487</v>
+      </c>
+      <c r="B488" s="19">
+        <v>1</v>
+      </c>
+      <c r="C488" s="20" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D488" s="71" t="s">
+        <v>2495</v>
+      </c>
+      <c r="G488" s="8">
+        <v>9</v>
+      </c>
+      <c r="H488" t="b">
+        <v>1</v>
+      </c>
+      <c r="I488" t="b">
+        <v>1</v>
+      </c>
+      <c r="J488" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K488" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L488" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14">
+      <c r="A489" s="19">
+        <v>488</v>
+      </c>
+      <c r="B489" s="19">
+        <v>1</v>
+      </c>
+      <c r="C489" s="20" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D489" s="71" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G489" s="8">
+        <v>10</v>
+      </c>
+      <c r="H489" t="b">
+        <v>1</v>
+      </c>
+      <c r="I489" t="b">
+        <v>1</v>
+      </c>
+      <c r="J489" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K489" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L489" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14">
+      <c r="A490" s="19">
+        <v>489</v>
+      </c>
+      <c r="B490" s="19">
+        <v>1</v>
+      </c>
+      <c r="C490" s="20" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D490" s="71" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G490" s="8">
+        <v>11</v>
+      </c>
+      <c r="H490" t="b">
+        <v>1</v>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K490" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L490" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14">
+      <c r="A491" s="19">
+        <v>490</v>
+      </c>
+      <c r="B491" s="19">
+        <v>1</v>
+      </c>
+      <c r="C491" s="20" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D491" s="71" t="s">
+        <v>2498</v>
+      </c>
+      <c r="G491" s="8">
+        <v>12</v>
+      </c>
+      <c r="H491" t="b">
+        <v>1</v>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K491" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L491" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14">
+      <c r="A492" s="19">
+        <v>491</v>
+      </c>
+      <c r="B492" s="19">
+        <v>1</v>
+      </c>
+      <c r="C492" s="20" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D492" s="71" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G492" s="8">
+        <v>13</v>
+      </c>
+      <c r="H492" t="b">
+        <v>1</v>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K492" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L492" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14">
+      <c r="A493" s="19">
+        <v>492</v>
+      </c>
+      <c r="B493" s="19">
+        <v>1</v>
+      </c>
+      <c r="C493" s="20" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D493" s="71" t="s">
+        <v>2500</v>
+      </c>
+      <c r="G493" s="8">
+        <v>14</v>
+      </c>
+      <c r="H493" t="b">
+        <v>1</v>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K493" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L493" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14">
+      <c r="A494" s="19">
+        <v>493</v>
+      </c>
+      <c r="B494" s="19">
+        <v>1</v>
+      </c>
+      <c r="C494" s="20" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D494" s="71" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G494" s="8">
+        <v>15</v>
+      </c>
+      <c r="H494" t="b">
+        <v>1</v>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K494" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L494" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14">
+      <c r="A495" s="19">
+        <v>494</v>
+      </c>
+      <c r="B495" s="19">
+        <v>1</v>
+      </c>
+      <c r="C495" s="20" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D495" s="71" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G495" s="8">
+        <v>16</v>
+      </c>
+      <c r="H495" t="b">
+        <v>1</v>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K495" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L495" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14">
+      <c r="A496" s="19">
+        <v>495</v>
+      </c>
+      <c r="B496" s="19">
+        <v>1</v>
+      </c>
+      <c r="C496" s="20" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D496" s="71" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G496" s="8">
+        <v>465</v>
+      </c>
+      <c r="H496" t="b">
+        <v>1</v>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K496" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L496" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497" s="19">
+        <v>496</v>
+      </c>
+      <c r="B497" s="19">
+        <v>1</v>
+      </c>
+      <c r="C497" s="20" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D497" s="71" t="s">
+        <v>2515</v>
+      </c>
+      <c r="G497" s="8">
+        <v>466</v>
+      </c>
+      <c r="H497" t="b">
+        <v>1</v>
+      </c>
+      <c r="I497" t="b">
+        <v>1</v>
+      </c>
+      <c r="J497" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K497" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L497" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498" s="19">
+        <v>497</v>
+      </c>
+      <c r="B498" s="19">
+        <v>1</v>
+      </c>
+      <c r="C498" s="20" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D498" s="71" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G498" s="8">
+        <v>467</v>
+      </c>
+      <c r="H498" t="b">
+        <v>1</v>
+      </c>
+      <c r="I498" t="b">
+        <v>1</v>
+      </c>
+      <c r="J498" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K498" s="19">
+        <v>1588028400</v>
+      </c>
+      <c r="L498" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N435"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -35888,13 +36364,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1107"/>
+  <dimension ref="A1:I1110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1084" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="B46:D46"/>
+      <selection pane="bottomRight" activeCell="G1110" sqref="G1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61418,6 +61894,75 @@
       </c>
       <c r="G1107" s="10" t="s">
         <v>2452</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" s="8" customFormat="1">
+      <c r="A1108" s="8">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="8">
+        <v>465</v>
+      </c>
+      <c r="C1108" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1108" s="8">
+        <v>10</v>
+      </c>
+      <c r="E1108" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1108" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" s="8" customFormat="1">
+      <c r="A1109" s="8">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="8">
+        <v>466</v>
+      </c>
+      <c r="C1109" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1109" s="8">
+        <v>11</v>
+      </c>
+      <c r="E1109" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1109" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1109" s="10" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" s="8" customFormat="1">
+      <c r="A1110" s="8">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="8">
+        <v>467</v>
+      </c>
+      <c r="C1110" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1110" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1110" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1110" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="10" t="s">
+        <v>2518</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5961" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="2528">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9591,10 +9591,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_gswzq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>高手五子棋平台屏蔽广播的权限</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12391,14 +12387,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>market_channel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>market_channel</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12668,6 +12656,54 @@
   </si>
   <si>
     <t>需要Vip12才可体验，商城充值可以提升Vip等级！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_gswzq</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_nothlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非海蓝湾平台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlw_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hlw",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是海蓝湾官方玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是海蓝湾官方玩家才可游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13304,11 +13340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q508"/>
+  <dimension ref="A1:Q511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A444" sqref="A444"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13366,7 +13402,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
@@ -13380,7 +13416,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C3" s="14">
         <v>414</v>
@@ -13403,7 +13439,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C4" s="14">
         <v>414</v>
@@ -16367,7 +16403,7 @@
         <v>311</v>
       </c>
       <c r="B219" s="66" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C219" s="67">
         <v>77</v>
@@ -16718,10 +16754,10 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="69" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="C247" s="3">
         <v>34</v>
@@ -16744,7 +16780,7 @@
     </row>
     <row r="249" spans="1:10" s="17" customFormat="1">
       <c r="A249" s="21" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>366</v>
@@ -16828,13 +16864,13 @@
         <v>372</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C256" s="29">
         <v>109</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J256" s="8"/>
     </row>
@@ -16977,7 +17013,7 @@
     </row>
     <row r="271" spans="1:10" s="17" customFormat="1">
       <c r="A271" s="21" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B271" s="15" t="s">
         <v>393</v>
@@ -18026,13 +18062,13 @@
         <v>1630</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C379" s="14">
         <v>311</v>
       </c>
       <c r="D379" s="28" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J379" s="8"/>
     </row>
@@ -18041,13 +18077,13 @@
         <v>1631</v>
       </c>
       <c r="B380" s="28" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C380" s="14">
         <v>311</v>
       </c>
       <c r="D380" s="28" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="J380" s="8"/>
     </row>
@@ -18062,7 +18098,7 @@
         <v>311</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="J381" s="8"/>
     </row>
@@ -18077,7 +18113,7 @@
         <v>312</v>
       </c>
       <c r="D382" s="28" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="J382" s="8"/>
     </row>
@@ -18092,7 +18128,7 @@
         <v>312</v>
       </c>
       <c r="D383" s="28" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="J383" s="8"/>
     </row>
@@ -18107,7 +18143,7 @@
         <v>312</v>
       </c>
       <c r="D384" s="28" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="J384" s="8"/>
     </row>
@@ -18379,16 +18415,16 @@
     </row>
     <row r="412" spans="1:10" s="17" customFormat="1">
       <c r="A412" s="21" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B412" s="17" t="s">
         <v>1901</v>
-      </c>
-      <c r="B412" s="17" t="s">
-        <v>1902</v>
       </c>
       <c r="C412" s="17">
         <v>377</v>
       </c>
       <c r="D412" s="17" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J412" s="8"/>
     </row>
@@ -18397,46 +18433,46 @@
     </row>
     <row r="414" spans="1:10" s="17" customFormat="1" ht="16.5">
       <c r="A414" s="44" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B414" s="21" t="s">
         <v>1904</v>
-      </c>
-      <c r="B414" s="21" t="s">
-        <v>1905</v>
       </c>
       <c r="C414" s="17">
         <v>378</v>
       </c>
       <c r="D414" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="J414" s="8"/>
     </row>
     <row r="415" spans="1:10" s="17" customFormat="1">
       <c r="A415" s="21" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B415" s="21" t="s">
         <v>1907</v>
-      </c>
-      <c r="B415" s="21" t="s">
-        <v>1908</v>
       </c>
       <c r="C415" s="17">
         <v>380</v>
       </c>
       <c r="D415" s="21" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="J415" s="8"/>
     </row>
     <row r="416" spans="1:10" s="17" customFormat="1">
       <c r="A416" s="21" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B416" s="21" t="s">
         <v>1910</v>
-      </c>
-      <c r="B416" s="21" t="s">
-        <v>1911</v>
       </c>
       <c r="C416" s="8">
         <v>390</v>
       </c>
       <c r="D416" s="21" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="J416" s="8"/>
     </row>
@@ -18448,16 +18484,16 @@
     </row>
     <row r="419" spans="1:10" s="17" customFormat="1">
       <c r="A419" s="21" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B419" s="21" t="s">
         <v>1995</v>
-      </c>
-      <c r="B419" s="21" t="s">
-        <v>1996</v>
       </c>
       <c r="C419" s="17">
         <v>392</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J419" s="8"/>
     </row>
@@ -18466,10 +18502,10 @@
     </row>
     <row r="421" spans="1:10" s="17" customFormat="1">
       <c r="A421" s="21" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B421" s="21" t="s">
         <v>1999</v>
-      </c>
-      <c r="B421" s="21" t="s">
-        <v>2000</v>
       </c>
       <c r="C421" s="8">
         <v>127</v>
@@ -18478,10 +18514,10 @@
     </row>
     <row r="422" spans="1:10" s="17" customFormat="1">
       <c r="A422" s="21" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B422" s="21" t="s">
         <v>2001</v>
-      </c>
-      <c r="B422" s="21" t="s">
-        <v>2002</v>
       </c>
       <c r="C422" s="8">
         <v>128</v>
@@ -18490,10 +18526,10 @@
     </row>
     <row r="423" spans="1:10" s="17" customFormat="1">
       <c r="A423" s="21" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B423" s="21" t="s">
         <v>2003</v>
-      </c>
-      <c r="B423" s="21" t="s">
-        <v>2004</v>
       </c>
       <c r="C423" s="8">
         <v>129</v>
@@ -18502,10 +18538,10 @@
     </row>
     <row r="424" spans="1:10" s="17" customFormat="1">
       <c r="A424" s="21" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B424" s="21" t="s">
         <v>2005</v>
-      </c>
-      <c r="B424" s="21" t="s">
-        <v>2006</v>
       </c>
       <c r="C424" s="8">
         <v>130</v>
@@ -18514,10 +18550,10 @@
     </row>
     <row r="425" spans="1:10" s="17" customFormat="1">
       <c r="A425" s="21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B425" s="21" t="s">
         <v>2007</v>
-      </c>
-      <c r="B425" s="21" t="s">
-        <v>2008</v>
       </c>
       <c r="C425" s="8">
         <v>131</v>
@@ -18526,10 +18562,10 @@
     </row>
     <row r="426" spans="1:10" s="17" customFormat="1">
       <c r="A426" s="21" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B426" s="21" t="s">
         <v>2009</v>
-      </c>
-      <c r="B426" s="21" t="s">
-        <v>2010</v>
       </c>
       <c r="C426" s="8">
         <v>132</v>
@@ -18538,10 +18574,10 @@
     </row>
     <row r="427" spans="1:10" s="17" customFormat="1">
       <c r="A427" s="21" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B427" s="21" t="s">
         <v>2011</v>
-      </c>
-      <c r="B427" s="21" t="s">
-        <v>2012</v>
       </c>
       <c r="C427" s="8">
         <v>133</v>
@@ -18550,10 +18586,10 @@
     </row>
     <row r="428" spans="1:10" s="17" customFormat="1">
       <c r="A428" s="21" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B428" s="21" t="s">
         <v>2013</v>
-      </c>
-      <c r="B428" s="21" t="s">
-        <v>2014</v>
       </c>
       <c r="C428" s="8">
         <v>134</v>
@@ -18562,10 +18598,10 @@
     </row>
     <row r="429" spans="1:10" s="17" customFormat="1">
       <c r="A429" s="21" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B429" s="21" t="s">
         <v>2015</v>
-      </c>
-      <c r="B429" s="21" t="s">
-        <v>2016</v>
       </c>
       <c r="C429" s="8">
         <v>135</v>
@@ -18580,61 +18616,61 @@
     </row>
     <row r="432" spans="1:10" s="17" customFormat="1">
       <c r="A432" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B432" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C432" s="17">
         <v>399</v>
       </c>
       <c r="D432" s="21" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="J432" s="8"/>
     </row>
     <row r="433" spans="1:10" s="17" customFormat="1">
       <c r="A433" s="28" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B433" s="28" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C433" s="14">
         <v>413</v>
       </c>
       <c r="D433" s="28" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J433" s="8"/>
     </row>
     <row r="434" spans="1:10" s="17" customFormat="1">
       <c r="A434" s="21" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B434" s="21" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C434" s="17">
         <v>400</v>
       </c>
       <c r="D434" s="21" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="J434" s="8"/>
     </row>
     <row r="435" spans="1:10" s="17" customFormat="1">
       <c r="A435" s="21" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B435" s="21" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C435" s="17">
         <v>401</v>
       </c>
       <c r="D435" s="21" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="J435" s="8"/>
     </row>
@@ -18646,10 +18682,10 @@
     </row>
     <row r="438" spans="1:10" s="17" customFormat="1">
       <c r="A438" s="21" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B438" s="21" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C438" s="17">
         <v>403</v>
@@ -18658,10 +18694,10 @@
     </row>
     <row r="439" spans="1:10" s="17" customFormat="1">
       <c r="A439" s="21" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B439" s="21" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C439" s="17">
         <v>404</v>
@@ -18676,60 +18712,60 @@
     </row>
     <row r="442" spans="1:10" s="17" customFormat="1">
       <c r="A442" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B442" s="10" t="s">
         <v>2060</v>
-      </c>
-      <c r="B442" s="10" t="s">
-        <v>2061</v>
       </c>
       <c r="C442" s="8"/>
       <c r="J442" s="8"/>
     </row>
     <row r="443" spans="1:10" s="17" customFormat="1">
       <c r="A443" s="8" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B443" s="10" t="s">
         <v>2062</v>
-      </c>
-      <c r="B443" s="10" t="s">
-        <v>2063</v>
       </c>
       <c r="C443" s="8"/>
       <c r="J443" s="8"/>
     </row>
     <row r="444" spans="1:10" s="17" customFormat="1">
       <c r="A444" s="8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B444" s="10" t="s">
         <v>2064</v>
-      </c>
-      <c r="B444" s="10" t="s">
-        <v>2065</v>
       </c>
       <c r="C444" s="8"/>
       <c r="J444" s="8"/>
     </row>
     <row r="445" spans="1:10" s="17" customFormat="1">
       <c r="A445" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B445" s="10" t="s">
         <v>2066</v>
-      </c>
-      <c r="B445" s="10" t="s">
-        <v>2067</v>
       </c>
       <c r="C445" s="8"/>
       <c r="J445" s="8"/>
     </row>
     <row r="446" spans="1:10" s="17" customFormat="1">
       <c r="A446" s="8" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B446" s="10" t="s">
         <v>2068</v>
-      </c>
-      <c r="B446" s="10" t="s">
-        <v>2069</v>
       </c>
       <c r="C446" s="36"/>
       <c r="J446" s="8"/>
     </row>
     <row r="447" spans="1:10" s="17" customFormat="1">
       <c r="A447" s="8" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C447" s="36">
         <v>32</v>
@@ -18738,10 +18774,10 @@
     </row>
     <row r="448" spans="1:10" s="17" customFormat="1">
       <c r="A448" s="8" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B448" s="10" t="s">
         <v>2071</v>
-      </c>
-      <c r="B448" s="10" t="s">
-        <v>2072</v>
       </c>
       <c r="C448" s="36">
         <v>32</v>
@@ -18750,10 +18786,10 @@
     </row>
     <row r="449" spans="1:10" s="17" customFormat="1">
       <c r="A449" s="8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B449" s="10" t="s">
         <v>2073</v>
-      </c>
-      <c r="B449" s="10" t="s">
-        <v>2074</v>
       </c>
       <c r="C449" s="36">
         <v>22</v>
@@ -18762,10 +18798,10 @@
     </row>
     <row r="450" spans="1:10" s="17" customFormat="1">
       <c r="A450" s="8" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B450" s="10" t="s">
         <v>2075</v>
-      </c>
-      <c r="B450" s="10" t="s">
-        <v>2076</v>
       </c>
       <c r="C450" s="8">
         <v>23</v>
@@ -18774,10 +18810,10 @@
     </row>
     <row r="451" spans="1:10" s="17" customFormat="1">
       <c r="A451" s="8" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B451" s="10" t="s">
         <v>2077</v>
-      </c>
-      <c r="B451" s="10" t="s">
-        <v>2078</v>
       </c>
       <c r="C451" s="8">
         <v>24</v>
@@ -18786,10 +18822,10 @@
     </row>
     <row r="452" spans="1:10" s="17" customFormat="1">
       <c r="A452" s="8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B452" s="10" t="s">
         <v>2079</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>2080</v>
       </c>
       <c r="C452" s="8">
         <v>25</v>
@@ -18798,10 +18834,10 @@
     </row>
     <row r="453" spans="1:10" s="17" customFormat="1">
       <c r="A453" s="8" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B453" s="10" t="s">
         <v>2081</v>
-      </c>
-      <c r="B453" s="10" t="s">
-        <v>2082</v>
       </c>
       <c r="C453" s="8">
         <v>26</v>
@@ -18810,10 +18846,10 @@
     </row>
     <row r="454" spans="1:10" s="17" customFormat="1">
       <c r="A454" s="8" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B454" s="10" t="s">
         <v>2083</v>
-      </c>
-      <c r="B454" s="10" t="s">
-        <v>2084</v>
       </c>
       <c r="C454" s="8">
         <v>26</v>
@@ -18828,16 +18864,16 @@
     </row>
     <row r="456" spans="1:10" s="17" customFormat="1">
       <c r="A456" s="17" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B456" s="17" t="s">
         <v>2110</v>
-      </c>
-      <c r="B456" s="17" t="s">
-        <v>2111</v>
       </c>
       <c r="C456" s="17">
         <v>408</v>
       </c>
       <c r="D456" s="17" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J456" s="8"/>
     </row>
@@ -18846,10 +18882,10 @@
     </row>
     <row r="458" spans="1:10" s="17" customFormat="1">
       <c r="A458" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="29"/>
@@ -18857,10 +18893,10 @@
     </row>
     <row r="459" spans="1:10" s="17" customFormat="1">
       <c r="A459" s="31" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B459" s="31" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="29"/>
@@ -18868,10 +18904,10 @@
     </row>
     <row r="460" spans="1:10" s="17" customFormat="1">
       <c r="A460" s="31" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B460" s="31" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="29"/>
@@ -18879,10 +18915,10 @@
     </row>
     <row r="461" spans="1:10" s="17" customFormat="1">
       <c r="A461" s="31" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B461" s="31" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="29"/>
@@ -18890,10 +18926,10 @@
     </row>
     <row r="462" spans="1:10" s="17" customFormat="1">
       <c r="A462" s="31" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C462" s="47">
         <v>32</v>
@@ -18903,10 +18939,10 @@
     </row>
     <row r="463" spans="1:10" s="17" customFormat="1">
       <c r="A463" s="31" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C463" s="47">
         <v>32</v>
@@ -18916,10 +18952,10 @@
     </row>
     <row r="464" spans="1:10" s="17" customFormat="1">
       <c r="A464" s="31" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C464" s="47">
         <v>22</v>
@@ -18929,10 +18965,10 @@
     </row>
     <row r="465" spans="1:10" s="17" customFormat="1">
       <c r="A465" s="31" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B465" s="31" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C465" s="14">
         <v>23</v>
@@ -18942,10 +18978,10 @@
     </row>
     <row r="466" spans="1:10" s="17" customFormat="1">
       <c r="A466" s="31" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B466" s="31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C466" s="14">
         <v>24</v>
@@ -18955,10 +18991,10 @@
     </row>
     <row r="467" spans="1:10" s="17" customFormat="1">
       <c r="A467" s="31" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B467" s="31" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C467" s="14">
         <v>25</v>
@@ -18968,10 +19004,10 @@
     </row>
     <row r="468" spans="1:10" s="17" customFormat="1">
       <c r="A468" s="31" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C468" s="14">
         <v>26</v>
@@ -18988,16 +19024,16 @@
     </row>
     <row r="470" spans="1:10" s="17" customFormat="1">
       <c r="A470" s="28" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C470" s="29">
         <v>408</v>
       </c>
       <c r="D470" s="29" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J470" s="8"/>
     </row>
@@ -19006,10 +19042,10 @@
     </row>
     <row r="473" spans="1:10" s="17" customFormat="1">
       <c r="A473" s="17" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B473" s="17" t="s">
         <v>2124</v>
-      </c>
-      <c r="B473" s="17" t="s">
-        <v>2125</v>
       </c>
       <c r="C473" s="17">
         <v>411</v>
@@ -19021,31 +19057,31 @@
     </row>
     <row r="475" spans="1:10" s="17" customFormat="1">
       <c r="A475" s="21" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B475" s="21" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C475" s="8">
         <v>415</v>
       </c>
       <c r="D475" s="21" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="J475" s="8"/>
     </row>
     <row r="476" spans="1:10" s="17" customFormat="1">
       <c r="A476" s="17" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B476" s="17" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C476" s="17">
         <v>416</v>
       </c>
       <c r="D476" s="17" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="J476" s="8"/>
     </row>
@@ -19054,14 +19090,14 @@
     </row>
     <row r="478" spans="1:10" s="17" customFormat="1">
       <c r="A478" s="17" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B478" s="17" t="s">
         <v>2163</v>
-      </c>
-      <c r="B478" s="17" t="s">
-        <v>2164</v>
       </c>
       <c r="C478" s="8"/>
       <c r="D478" s="21" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J478" s="8"/>
     </row>
@@ -19073,61 +19109,61 @@
     </row>
     <row r="481" spans="1:10" s="17" customFormat="1">
       <c r="A481" s="17" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B481" s="17" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C481" s="17">
         <v>419</v>
       </c>
       <c r="D481" s="17" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="J481" s="8"/>
     </row>
     <row r="482" spans="1:10" s="17" customFormat="1">
       <c r="A482" s="17" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C482" s="17">
         <v>420</v>
       </c>
       <c r="D482" s="17" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="J482" s="8"/>
     </row>
     <row r="486" spans="1:10" s="17" customFormat="1">
       <c r="A486" s="21" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C486" s="17">
         <v>440</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="J486" s="8"/>
     </row>
     <row r="487" spans="1:10" s="17" customFormat="1">
       <c r="A487" s="17" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B487" s="17" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C487" s="17">
         <v>441</v>
       </c>
       <c r="D487" s="17" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="J487" s="8"/>
     </row>
@@ -19139,141 +19175,163 @@
     </row>
     <row r="490" spans="1:10" s="17" customFormat="1">
       <c r="A490" s="21" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B490" s="21" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C490" s="17">
         <v>403</v>
       </c>
       <c r="D490" s="21" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="J490" s="8"/>
     </row>
     <row r="491" spans="1:10" s="17" customFormat="1">
       <c r="A491" s="21" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C491" s="17">
         <v>404</v>
       </c>
       <c r="D491" s="21" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="J491" s="8"/>
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="66" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B494" s="66" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C494" s="67">
         <v>452</v>
       </c>
       <c r="D494" s="66" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="495" spans="1:10">
       <c r="A495" s="66" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B495" s="66" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C495" s="67">
         <v>453</v>
       </c>
       <c r="D495" s="66" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="69" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B497" s="69" t="s">
         <v>2373</v>
-      </c>
-      <c r="B497" s="69" t="s">
-        <v>2374</v>
       </c>
       <c r="C497" s="3">
         <v>455</v>
       </c>
       <c r="D497" s="69" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="3" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C500" s="3">
         <v>457</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C501" s="3">
         <v>458</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B504" s="3" t="s">
         <v>2440</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>2441</v>
       </c>
       <c r="C504" s="3">
         <v>463</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="69" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="B506" s="69" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="C506" s="3">
         <v>464</v>
       </c>
       <c r="D506" s="69" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="3" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="B508" s="69" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C508" s="3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="69" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B510" s="69" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C510" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="69" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B511" s="69" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C511" s="3">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -19287,7 +19345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -19321,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>443</v>
@@ -19526,10 +19584,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>2017</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>2018</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -19549,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>463</v>
@@ -19673,7 +19731,7 @@
         <v>452</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>472</v>
@@ -27504,7 +27562,7 @@
         <v>1254</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
@@ -27810,7 +27868,7 @@
         <v>1248</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="32"/>
@@ -27830,7 +27888,7 @@
         <v>1602545400</v>
       </c>
       <c r="L248" s="33" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="40" customFormat="1">
@@ -27844,7 +27902,7 @@
         <v>1247</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E249" s="32"/>
       <c r="F249" s="32"/>
@@ -27864,7 +27922,7 @@
         <v>1602545400</v>
       </c>
       <c r="L249" s="33" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="250" spans="1:12" s="40" customFormat="1">
@@ -27878,7 +27936,7 @@
         <v>1361</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E250" s="32"/>
       <c r="F250" s="32"/>
@@ -27898,7 +27956,7 @@
         <v>1602545400</v>
       </c>
       <c r="L250" s="33" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="251" spans="1:12" s="40" customFormat="1">
@@ -27912,7 +27970,7 @@
         <v>1734</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="32"/>
@@ -27932,7 +27990,7 @@
         <v>1602545400</v>
       </c>
       <c r="L251" s="33" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="252" spans="1:12" s="18" customFormat="1">
@@ -30836,7 +30894,7 @@
         <v>1719</v>
       </c>
       <c r="D337" s="57" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E337" s="56"/>
       <c r="F337" s="56"/>
@@ -30856,7 +30914,7 @@
         <v>1609803000</v>
       </c>
       <c r="L337" s="57" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="338" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -30870,7 +30928,7 @@
         <v>1720</v>
       </c>
       <c r="D338" s="57" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E338" s="56"/>
       <c r="F338" s="56"/>
@@ -30890,7 +30948,7 @@
         <v>1609803000</v>
       </c>
       <c r="L338" s="57" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="339" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -30904,7 +30962,7 @@
         <v>1721</v>
       </c>
       <c r="D339" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E339" s="56"/>
       <c r="F339" s="56"/>
@@ -30924,7 +30982,7 @@
         <v>1609803000</v>
       </c>
       <c r="L339" s="57" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="340" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -30938,7 +30996,7 @@
         <v>1722</v>
       </c>
       <c r="D340" s="57" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E340" s="56"/>
       <c r="F340" s="56"/>
@@ -30958,7 +31016,7 @@
         <v>1609803000</v>
       </c>
       <c r="L340" s="57" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="341" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -30969,10 +31027,10 @@
         <v>0</v>
       </c>
       <c r="C341" s="57" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D341" s="57" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E341" s="56"/>
       <c r="F341" s="56"/>
@@ -30992,7 +31050,7 @@
         <v>1609803000</v>
       </c>
       <c r="L341" s="57" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="342" spans="1:12 16384:16384" s="18" customFormat="1">
@@ -31412,7 +31470,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D354" s="15" t="s">
         <v>1767</v>
@@ -32124,10 +32182,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D375" s="15" t="s">
         <v>1913</v>
-      </c>
-      <c r="D375" s="15" t="s">
-        <v>1914</v>
       </c>
       <c r="E375" s="16"/>
       <c r="F375" s="16"/>
@@ -32141,13 +32199,13 @@
         <v>1</v>
       </c>
       <c r="J375" s="15" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K375" s="16">
         <v>946677600</v>
       </c>
       <c r="L375" s="15" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="18" customFormat="1">
@@ -32158,10 +32216,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E376" s="16"/>
       <c r="F376" s="16"/>
@@ -32192,10 +32250,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="15" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
@@ -32226,10 +32284,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="15" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
@@ -32260,10 +32318,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="15" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E379" s="16"/>
       <c r="F379" s="16"/>
@@ -32294,10 +32352,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="15" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D380" s="15" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E380" s="16"/>
       <c r="F380" s="16"/>
@@ -32328,10 +32386,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="15" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E381" s="16"/>
       <c r="F381" s="16"/>
@@ -32362,10 +32420,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="15" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E382" s="16"/>
       <c r="F382" s="16"/>
@@ -32396,10 +32454,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="15" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E383" s="16"/>
       <c r="F383" s="16"/>
@@ -32430,10 +32488,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="15" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E384" s="16"/>
       <c r="F384" s="16"/>
@@ -32464,10 +32522,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="15" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E385" s="16"/>
       <c r="F385" s="16"/>
@@ -32498,10 +32556,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="15" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E386" s="16"/>
       <c r="F386" s="16"/>
@@ -32532,10 +32590,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E387" s="16"/>
       <c r="F387" s="16"/>
@@ -32566,10 +32624,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E388" s="16"/>
       <c r="F388" s="16"/>
@@ -32600,10 +32658,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E389" s="16"/>
       <c r="F389" s="16"/>
@@ -32634,10 +32692,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E390" s="16"/>
       <c r="F390" s="16"/>
@@ -32668,10 +32726,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D391" s="15" t="s">
         <v>1926</v>
-      </c>
-      <c r="D391" s="15" t="s">
-        <v>1927</v>
       </c>
       <c r="E391" s="16"/>
       <c r="F391" s="16"/>
@@ -32685,13 +32743,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="16" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K391" s="16">
         <v>946677600</v>
       </c>
       <c r="L391" s="15" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="18" customFormat="1">
@@ -32702,10 +32760,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D392" s="15" t="s">
         <v>1929</v>
-      </c>
-      <c r="D392" s="15" t="s">
-        <v>1930</v>
       </c>
       <c r="E392" s="16"/>
       <c r="F392" s="16"/>
@@ -32719,13 +32777,13 @@
         <v>1</v>
       </c>
       <c r="J392" s="16" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="K392" s="16">
         <v>946677600</v>
       </c>
       <c r="L392" s="15" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="18" customFormat="1">
@@ -32736,10 +32794,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E393" s="16"/>
       <c r="F393" s="16"/>
@@ -32770,10 +32828,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E394" s="16"/>
       <c r="F394" s="16"/>
@@ -32804,10 +32862,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E395" s="16"/>
       <c r="F395" s="16"/>
@@ -32838,10 +32896,10 @@
         <v>0</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D396" s="16" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E396" s="16"/>
       <c r="F396" s="16"/>
@@ -32861,7 +32919,7 @@
         <v>1606779000</v>
       </c>
       <c r="L396" s="15" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="18" customFormat="1">
@@ -32872,10 +32930,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -32889,13 +32947,13 @@
         <v>1</v>
       </c>
       <c r="J397" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K397" s="16">
         <v>1607988600</v>
       </c>
       <c r="L397" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="398" spans="1:12" s="18" customFormat="1">
@@ -32906,10 +32964,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E398" s="16"/>
       <c r="F398" s="16"/>
@@ -32923,13 +32981,13 @@
         <v>1</v>
       </c>
       <c r="J398" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K398" s="16">
         <v>1607988600</v>
       </c>
       <c r="L398" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="399" spans="1:12" s="18" customFormat="1">
@@ -32940,10 +32998,10 @@
         <v>1</v>
       </c>
       <c r="C399" s="33" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D399" s="33" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
@@ -32957,13 +33015,13 @@
         <v>1</v>
       </c>
       <c r="J399" s="33" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K399" s="32">
         <v>1607988600</v>
       </c>
       <c r="L399" s="33" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="400" spans="1:12" s="18" customFormat="1">
@@ -32974,10 +33032,10 @@
         <v>1</v>
       </c>
       <c r="C400" s="15" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E400" s="16"/>
       <c r="F400" s="16"/>
@@ -32991,13 +33049,13 @@
         <v>1</v>
       </c>
       <c r="J400" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K400" s="16">
         <v>1607988600</v>
       </c>
       <c r="L400" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="401" spans="1:12" s="18" customFormat="1">
@@ -33008,10 +33066,10 @@
         <v>1</v>
       </c>
       <c r="C401" s="15" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E401" s="16"/>
       <c r="F401" s="16"/>
@@ -33025,13 +33083,13 @@
         <v>1</v>
       </c>
       <c r="J401" s="15" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K401" s="16">
         <v>1607988600</v>
       </c>
       <c r="L401" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="402" spans="1:12" s="18" customFormat="1">
@@ -33042,10 +33100,10 @@
         <v>0</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E402" s="16"/>
       <c r="F402" s="16"/>
@@ -33059,13 +33117,13 @@
         <v>1</v>
       </c>
       <c r="J402" s="15" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="K402" s="16">
         <v>1607988600</v>
       </c>
       <c r="L402" s="15" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="403" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33076,10 +33134,10 @@
         <v>0</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E403" s="16"/>
       <c r="F403" s="16"/>
@@ -33099,7 +33157,7 @@
         <v>1609198200</v>
       </c>
       <c r="L403" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="404" spans="1:12" s="18" customFormat="1">
@@ -33110,10 +33168,10 @@
         <v>0</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E404" s="16"/>
       <c r="F404" s="16"/>
@@ -33133,7 +33191,7 @@
         <v>1609198200</v>
       </c>
       <c r="L404" s="15" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="405" spans="1:12" s="18" customFormat="1">
@@ -33144,10 +33202,10 @@
         <v>0</v>
       </c>
       <c r="C405" s="15" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D405" s="15" t="s">
         <v>2098</v>
-      </c>
-      <c r="D405" s="15" t="s">
-        <v>2099</v>
       </c>
       <c r="E405" s="16"/>
       <c r="F405" s="16"/>
@@ -33161,7 +33219,7 @@
         <v>0</v>
       </c>
       <c r="J405" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="K405" s="16">
         <v>0</v>
@@ -33178,10 +33236,10 @@
         <v>0</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E406" s="16"/>
       <c r="F406" s="16"/>
@@ -33201,7 +33259,7 @@
         <v>1609171200</v>
       </c>
       <c r="L406" s="16" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="407" spans="1:12" s="18" customFormat="1">
@@ -33212,10 +33270,10 @@
         <v>1</v>
       </c>
       <c r="C407" s="16" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D407" s="16" t="s">
         <v>2119</v>
-      </c>
-      <c r="D407" s="16" t="s">
-        <v>2120</v>
       </c>
       <c r="E407" s="16"/>
       <c r="F407" s="16"/>
@@ -33235,7 +33293,7 @@
         <v>1609198200</v>
       </c>
       <c r="L407" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="408" spans="1:12" s="18" customFormat="1">
@@ -33246,10 +33304,10 @@
         <v>1</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E408" s="16"/>
       <c r="F408" s="16"/>
@@ -33269,7 +33327,7 @@
         <v>0</v>
       </c>
       <c r="L408" s="15" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="409" spans="1:12" s="18" customFormat="1">
@@ -33280,10 +33338,10 @@
         <v>0</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E409" s="16"/>
       <c r="F409" s="16"/>
@@ -33303,7 +33361,7 @@
         <v>1609716600</v>
       </c>
       <c r="L409" s="15" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="410" spans="1:12" s="18" customFormat="1">
@@ -33314,10 +33372,10 @@
         <v>0</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E410" s="16"/>
       <c r="F410" s="16"/>
@@ -33331,13 +33389,13 @@
         <v>1</v>
       </c>
       <c r="J410" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K410" s="16">
         <v>1609716600</v>
       </c>
       <c r="L410" s="15" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="411" spans="1:12" s="18" customFormat="1">
@@ -33348,10 +33406,10 @@
         <v>0</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E411" s="16"/>
       <c r="F411" s="16"/>
@@ -33365,13 +33423,13 @@
         <v>1</v>
       </c>
       <c r="J411" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K411" s="16">
         <v>1609716600</v>
       </c>
       <c r="L411" s="15" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="412" spans="1:12" s="18" customFormat="1">
@@ -33382,10 +33440,10 @@
         <v>0</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E412" s="16"/>
       <c r="F412" s="16"/>
@@ -33399,13 +33457,13 @@
         <v>1</v>
       </c>
       <c r="J412" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K412" s="16">
         <v>1609716600</v>
       </c>
       <c r="L412" s="15" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="413" spans="1:12" s="18" customFormat="1">
@@ -33416,10 +33474,10 @@
         <v>0</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D413" s="15" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E413" s="16"/>
       <c r="F413" s="16"/>
@@ -33433,13 +33491,13 @@
         <v>1</v>
       </c>
       <c r="J413" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K413" s="16">
         <v>1609716600</v>
       </c>
       <c r="L413" s="15" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="414" spans="1:12" s="18" customFormat="1">
@@ -33450,10 +33508,10 @@
         <v>0</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E414" s="16"/>
       <c r="F414" s="16"/>
@@ -33467,13 +33525,13 @@
         <v>1</v>
       </c>
       <c r="J414" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K414" s="16">
         <v>1610380800</v>
       </c>
       <c r="L414" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="415" spans="1:12" s="18" customFormat="1">
@@ -33484,10 +33542,10 @@
         <v>0</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E415" s="16"/>
       <c r="F415" s="16"/>
@@ -33501,13 +33559,13 @@
         <v>1</v>
       </c>
       <c r="J415" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K415" s="16">
         <v>1611012600</v>
       </c>
       <c r="L415" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="416" spans="1:12" s="18" customFormat="1">
@@ -33518,10 +33576,10 @@
         <v>0</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E416" s="16"/>
       <c r="F416" s="16"/>
@@ -33535,13 +33593,13 @@
         <v>1</v>
       </c>
       <c r="J416" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K416" s="16">
         <v>1611012600</v>
       </c>
       <c r="L416" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="417" spans="1:13" s="18" customFormat="1">
@@ -33552,10 +33610,10 @@
         <v>0</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E417" s="16"/>
       <c r="F417" s="16"/>
@@ -33569,13 +33627,13 @@
         <v>1</v>
       </c>
       <c r="J417" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K417" s="16">
         <v>1611012600</v>
       </c>
       <c r="L417" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="418" spans="1:13" s="18" customFormat="1">
@@ -33586,10 +33644,10 @@
         <v>0</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E418" s="16"/>
       <c r="F418" s="16"/>
@@ -33603,13 +33661,13 @@
         <v>1</v>
       </c>
       <c r="J418" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K418" s="16">
         <v>1611012600</v>
       </c>
       <c r="L418" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="419" spans="1:13" s="18" customFormat="1">
@@ -33620,10 +33678,10 @@
         <v>0</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E419" s="16"/>
       <c r="F419" s="16"/>
@@ -33637,13 +33695,13 @@
         <v>1</v>
       </c>
       <c r="J419" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K419" s="16">
         <v>1610380800</v>
       </c>
       <c r="L419" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="420" spans="1:13" s="18" customFormat="1">
@@ -33654,10 +33712,10 @@
         <v>0</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E420" s="16"/>
       <c r="F420" s="16"/>
@@ -33677,7 +33735,7 @@
         <v>1610380800</v>
       </c>
       <c r="L420" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="421" spans="1:13" s="18" customFormat="1">
@@ -33688,10 +33746,10 @@
         <v>0</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E421" s="16"/>
       <c r="F421" s="16"/>
@@ -33705,13 +33763,13 @@
         <v>1</v>
       </c>
       <c r="J421" s="15" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="K421" s="16">
         <v>1611012600</v>
       </c>
       <c r="L421" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="422" spans="1:13" s="18" customFormat="1">
@@ -33722,10 +33780,10 @@
         <v>0</v>
       </c>
       <c r="C422" s="15" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D422" s="15" t="s">
         <v>2222</v>
-      </c>
-      <c r="D422" s="15" t="s">
-        <v>2223</v>
       </c>
       <c r="E422" s="16"/>
       <c r="F422" s="16"/>
@@ -33739,13 +33797,13 @@
         <v>1</v>
       </c>
       <c r="J422" s="15" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="K422" s="16">
         <v>1611012600</v>
       </c>
       <c r="L422" s="15" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="423" spans="1:13" s="18" customFormat="1">
@@ -33756,10 +33814,10 @@
         <v>0</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D423" s="60" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E423" s="16"/>
       <c r="F423" s="16"/>
@@ -33773,13 +33831,13 @@
         <v>0</v>
       </c>
       <c r="J423" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K423" s="16">
         <v>1611012600</v>
       </c>
       <c r="L423" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="424" spans="1:13" s="18" customFormat="1">
@@ -33790,10 +33848,10 @@
         <v>0</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D424" s="60" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E424" s="16"/>
       <c r="F424" s="16"/>
@@ -33807,13 +33865,13 @@
         <v>0</v>
       </c>
       <c r="J424" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K424" s="16">
         <v>1611012600</v>
       </c>
       <c r="L424" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="425" spans="1:13" s="18" customFormat="1">
@@ -33824,10 +33882,10 @@
         <v>0</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D425" s="60" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E425" s="16"/>
       <c r="F425" s="16"/>
@@ -33841,13 +33899,13 @@
         <v>0</v>
       </c>
       <c r="J425" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K425" s="16">
         <v>1611012600</v>
       </c>
       <c r="L425" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="426" spans="1:13" s="18" customFormat="1">
@@ -33858,10 +33916,10 @@
         <v>0</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D426" s="60" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E426" s="16"/>
       <c r="F426" s="16"/>
@@ -33875,13 +33933,13 @@
         <v>0</v>
       </c>
       <c r="J426" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K426" s="16">
         <v>1611012600</v>
       </c>
       <c r="L426" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="427" spans="1:13" s="18" customFormat="1">
@@ -33892,10 +33950,10 @@
         <v>0</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D427" s="60" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E427" s="16"/>
       <c r="F427" s="16"/>
@@ -33909,13 +33967,13 @@
         <v>0</v>
       </c>
       <c r="J427" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K427" s="16">
         <v>1611012600</v>
       </c>
       <c r="L427" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="428" spans="1:13" s="18" customFormat="1">
@@ -33926,10 +33984,10 @@
         <v>0</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D428" s="60" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E428" s="16"/>
       <c r="F428" s="16"/>
@@ -33943,13 +34001,13 @@
         <v>0</v>
       </c>
       <c r="J428" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K428" s="16">
         <v>1611012600</v>
       </c>
       <c r="L428" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="429" spans="1:13" s="18" customFormat="1">
@@ -33960,10 +34018,10 @@
         <v>0</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D429" s="60" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E429" s="16"/>
       <c r="F429" s="16"/>
@@ -33977,13 +34035,13 @@
         <v>0</v>
       </c>
       <c r="J429" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K429" s="16">
         <v>1611012600</v>
       </c>
       <c r="L429" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="430" spans="1:13" s="18" customFormat="1">
@@ -33994,10 +34052,10 @@
         <v>0</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D430" s="60" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E430" s="16"/>
       <c r="F430" s="16"/>
@@ -34011,13 +34069,13 @@
         <v>0</v>
       </c>
       <c r="J430" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K430" s="16">
         <v>1611012600</v>
       </c>
       <c r="L430" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="431" spans="1:13" s="18" customFormat="1">
@@ -34028,10 +34086,10 @@
         <v>0</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D431" s="60" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E431" s="16"/>
       <c r="F431" s="16"/>
@@ -34045,16 +34103,16 @@
         <v>0</v>
       </c>
       <c r="J431" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K431" s="16">
         <v>1611012600</v>
       </c>
       <c r="L431" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="M431" s="25" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="432" spans="1:13" s="18" customFormat="1">
@@ -34065,10 +34123,10 @@
         <v>0</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D432" s="60" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E432" s="16"/>
       <c r="F432" s="16"/>
@@ -34082,13 +34140,13 @@
         <v>0</v>
       </c>
       <c r="J432" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K432" s="16">
         <v>1611012600</v>
       </c>
       <c r="L432" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="433" spans="1:12" s="18" customFormat="1">
@@ -34099,10 +34157,10 @@
         <v>0</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D433" s="60" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E433" s="16"/>
       <c r="F433" s="16"/>
@@ -34116,13 +34174,13 @@
         <v>0</v>
       </c>
       <c r="J433" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K433" s="16">
         <v>1611012600</v>
       </c>
       <c r="L433" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="434" spans="1:12" s="18" customFormat="1">
@@ -34133,10 +34191,10 @@
         <v>0</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="D434" s="60" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E434" s="16"/>
       <c r="F434" s="16"/>
@@ -34150,13 +34208,13 @@
         <v>0</v>
       </c>
       <c r="J434" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K434" s="16">
         <v>1611012600</v>
       </c>
       <c r="L434" s="15" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="435" spans="1:12" s="18" customFormat="1">
@@ -34167,10 +34225,10 @@
         <v>0</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E435" s="16"/>
       <c r="F435" s="16"/>
@@ -34184,13 +34242,13 @@
         <v>1</v>
       </c>
       <c r="J435" s="15" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K435" s="16">
         <v>1611617400</v>
       </c>
       <c r="L435" s="15" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="436" spans="1:12" s="18" customFormat="1">
@@ -34201,10 +34259,10 @@
         <v>0</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D436" s="15" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E436" s="16"/>
       <c r="F436" s="16"/>
@@ -34224,7 +34282,7 @@
         <v>1611617400</v>
       </c>
       <c r="L436" s="15" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="437" spans="1:12" s="18" customFormat="1">
@@ -34235,10 +34293,10 @@
         <v>0</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D437" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E437" s="16"/>
       <c r="F437" s="16"/>
@@ -34258,7 +34316,7 @@
         <v>1611617400</v>
       </c>
       <c r="L437" s="15" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="438" spans="1:12" s="18" customFormat="1">
@@ -34269,10 +34327,10 @@
         <v>0</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D438" s="15" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E438" s="16"/>
       <c r="F438" s="16"/>
@@ -34292,7 +34350,7 @@
         <v>1611617400</v>
       </c>
       <c r="L438" s="15" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="439" spans="1:12" s="18" customFormat="1">
@@ -34303,10 +34361,10 @@
         <v>0</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E439" s="16"/>
       <c r="F439" s="16"/>
@@ -34326,7 +34384,7 @@
         <v>1611617400</v>
       </c>
       <c r="L439" s="15" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="440" spans="1:12" s="18" customFormat="1">
@@ -34337,10 +34395,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D440" s="15" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E440" s="16"/>
       <c r="F440" s="16"/>
@@ -34360,7 +34418,7 @@
         <v>1612222200</v>
       </c>
       <c r="L440" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="441" spans="1:12" s="18" customFormat="1">
@@ -34371,10 +34429,10 @@
         <v>0</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D441" s="15" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E441" s="16"/>
       <c r="F441" s="16"/>
@@ -34394,7 +34452,7 @@
         <v>1612222200</v>
       </c>
       <c r="L441" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="442" spans="1:12" s="18" customFormat="1">
@@ -34405,10 +34463,10 @@
         <v>0</v>
       </c>
       <c r="C442" s="15" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D442" s="15" t="s">
         <v>2286</v>
-      </c>
-      <c r="D442" s="15" t="s">
-        <v>2287</v>
       </c>
       <c r="E442" s="16"/>
       <c r="F442" s="16"/>
@@ -34428,7 +34486,7 @@
         <v>1612222200</v>
       </c>
       <c r="L442" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="443" spans="1:12" s="18" customFormat="1">
@@ -34439,10 +34497,10 @@
         <v>0</v>
       </c>
       <c r="C443" s="15" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D443" s="15" t="s">
         <v>2289</v>
-      </c>
-      <c r="D443" s="15" t="s">
-        <v>2290</v>
       </c>
       <c r="E443" s="16"/>
       <c r="F443" s="16"/>
@@ -34462,7 +34520,7 @@
         <v>1612195200</v>
       </c>
       <c r="L443" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="444" spans="1:12" s="18" customFormat="1">
@@ -34473,10 +34531,10 @@
         <v>0</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D444" s="15" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E444" s="16"/>
       <c r="F444" s="16"/>
@@ -34496,7 +34554,7 @@
         <v>1612222200</v>
       </c>
       <c r="L444" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="445" spans="1:12" s="18" customFormat="1">
@@ -34507,10 +34565,10 @@
         <v>0</v>
       </c>
       <c r="C445" s="15" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D445" s="15" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E445" s="16"/>
       <c r="F445" s="16"/>
@@ -34530,7 +34588,7 @@
         <v>1612222200</v>
       </c>
       <c r="L445" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="446" spans="1:12" s="18" customFormat="1">
@@ -34541,10 +34599,10 @@
         <v>0</v>
       </c>
       <c r="C446" s="15" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D446" s="15" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E446" s="16"/>
       <c r="F446" s="16"/>
@@ -34564,7 +34622,7 @@
         <v>1612222200</v>
       </c>
       <c r="L446" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="447" spans="1:12" s="18" customFormat="1">
@@ -34575,10 +34633,10 @@
         <v>0</v>
       </c>
       <c r="C447" s="15" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D447" s="15" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E447" s="16"/>
       <c r="F447" s="16"/>
@@ -34598,7 +34656,7 @@
         <v>1612222200</v>
       </c>
       <c r="L447" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="448" spans="1:12" s="18" customFormat="1">
@@ -34609,10 +34667,10 @@
         <v>0</v>
       </c>
       <c r="C448" s="16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D448" s="16" t="s">
         <v>2301</v>
-      </c>
-      <c r="D448" s="16" t="s">
-        <v>2302</v>
       </c>
       <c r="E448" s="16"/>
       <c r="F448" s="16"/>
@@ -34632,7 +34690,7 @@
         <v>1612195200</v>
       </c>
       <c r="L448" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="449" spans="1:12" s="18" customFormat="1">
@@ -34643,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E449" s="16"/>
       <c r="F449" s="16"/>
@@ -34666,7 +34724,7 @@
         <v>1613431800</v>
       </c>
       <c r="L449" s="15" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="450" spans="1:12" s="18" customFormat="1">
@@ -34677,10 +34735,10 @@
         <v>0</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E450" s="16"/>
       <c r="F450" s="16"/>
@@ -34700,7 +34758,7 @@
         <v>1613431800</v>
       </c>
       <c r="L450" s="15" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="451" spans="1:12" s="18" customFormat="1">
@@ -34711,10 +34769,10 @@
         <v>0</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E451" s="16"/>
       <c r="F451" s="16"/>
@@ -34734,7 +34792,7 @@
         <v>1613431800</v>
       </c>
       <c r="L451" s="15" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="452" spans="1:12" s="18" customFormat="1">
@@ -34745,10 +34803,10 @@
         <v>0</v>
       </c>
       <c r="C452" s="15" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E452" s="16"/>
       <c r="F452" s="16"/>
@@ -34768,7 +34826,7 @@
         <v>1613431800</v>
       </c>
       <c r="L452" s="15" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="453" spans="1:12" s="18" customFormat="1">
@@ -34779,10 +34837,10 @@
         <v>0</v>
       </c>
       <c r="C453" s="15" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E453" s="16"/>
       <c r="F453" s="16"/>
@@ -34802,7 +34860,7 @@
         <v>1614036600</v>
       </c>
       <c r="L453" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="454" spans="1:12" s="18" customFormat="1">
@@ -34813,10 +34871,10 @@
         <v>1</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E454" s="16"/>
       <c r="F454" s="16"/>
@@ -34836,7 +34894,7 @@
         <v>1614036600</v>
       </c>
       <c r="L454" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="455" spans="1:12" s="18" customFormat="1">
@@ -34847,10 +34905,10 @@
         <v>1</v>
       </c>
       <c r="C455" s="15" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E455" s="16"/>
       <c r="F455" s="16"/>
@@ -34870,7 +34928,7 @@
         <v>1614036600</v>
       </c>
       <c r="L455" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="456" spans="1:12" s="18" customFormat="1">
@@ -34881,10 +34939,10 @@
         <v>1</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
@@ -34904,7 +34962,7 @@
         <v>1614036600</v>
       </c>
       <c r="L456" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="457" spans="1:12" s="18" customFormat="1">
@@ -34915,10 +34973,10 @@
         <v>1</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
@@ -34938,7 +34996,7 @@
         <v>1614036600</v>
       </c>
       <c r="L457" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="458" spans="1:12" s="18" customFormat="1">
@@ -34949,10 +35007,10 @@
         <v>0</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D458" s="15" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E458" s="16"/>
       <c r="F458" s="16"/>
@@ -34972,7 +35030,7 @@
         <v>1614614400</v>
       </c>
       <c r="L458" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="459" spans="1:12" s="18" customFormat="1">
@@ -34983,10 +35041,10 @@
         <v>0</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E459" s="16"/>
       <c r="F459" s="16"/>
@@ -35006,7 +35064,7 @@
         <v>1614614400</v>
       </c>
       <c r="L459" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="460" spans="1:12" s="18" customFormat="1">
@@ -35017,10 +35075,10 @@
         <v>0</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E460" s="16"/>
       <c r="F460" s="16"/>
@@ -35040,7 +35098,7 @@
         <v>1614614400</v>
       </c>
       <c r="L460" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="461" spans="1:12" s="18" customFormat="1">
@@ -35051,10 +35109,10 @@
         <v>0</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E461" s="16"/>
       <c r="F461" s="16"/>
@@ -35074,7 +35132,7 @@
         <v>1614614400</v>
       </c>
       <c r="L461" s="15" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="462" spans="1:12" s="63" customFormat="1">
@@ -35085,10 +35143,10 @@
         <v>1</v>
       </c>
       <c r="C462" s="62" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D462" s="62" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E462" s="61"/>
       <c r="F462" s="61"/>
@@ -35108,7 +35166,7 @@
         <v>1615246200</v>
       </c>
       <c r="L462" s="62" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="463" spans="1:12" s="63" customFormat="1">
@@ -35119,10 +35177,10 @@
         <v>1</v>
       </c>
       <c r="C463" s="62" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D463" s="62" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E463" s="61"/>
       <c r="F463" s="61"/>
@@ -35142,7 +35200,7 @@
         <v>1615851000</v>
       </c>
       <c r="L463" s="62" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -35153,10 +35211,10 @@
         <v>1</v>
       </c>
       <c r="C464" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D464" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="G464" s="19">
         <v>459</v>
@@ -35174,7 +35232,7 @@
         <v>1617638400</v>
       </c>
       <c r="L464" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="465" spans="1:15">
@@ -35185,10 +35243,10 @@
         <v>1</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D465" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="G465" s="19">
         <v>460</v>
@@ -35206,7 +35264,7 @@
         <v>1617638400</v>
       </c>
       <c r="L465" s="20" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="466" spans="1:15">
@@ -35217,10 +35275,10 @@
         <v>1</v>
       </c>
       <c r="C466" s="20" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D466" s="20" t="s">
         <v>2394</v>
-      </c>
-      <c r="D466" s="20" t="s">
-        <v>2395</v>
       </c>
       <c r="G466" s="19">
         <v>461</v>
@@ -35232,13 +35290,13 @@
         <v>1</v>
       </c>
       <c r="J466" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K466" s="19">
         <v>1617060600</v>
       </c>
       <c r="L466" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="467" spans="1:15">
@@ -35249,10 +35307,10 @@
         <v>1</v>
       </c>
       <c r="C467" s="20" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D467" s="20" t="s">
         <v>2432</v>
-      </c>
-      <c r="D467" s="20" t="s">
-        <v>2433</v>
       </c>
       <c r="G467" s="19">
         <v>462</v>
@@ -35264,13 +35322,13 @@
         <v>1</v>
       </c>
       <c r="J467" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K467" s="19">
         <v>1619479800</v>
       </c>
       <c r="L467" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="16.5">
@@ -35281,10 +35339,10 @@
         <v>1</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
@@ -35322,10 +35380,10 @@
         <v>1</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D469" s="60" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="E469" s="16"/>
       <c r="F469" s="16"/>
@@ -35358,10 +35416,10 @@
         <v>1</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D470" s="60" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="E470" s="16"/>
       <c r="F470" s="16"/>
@@ -35394,10 +35452,10 @@
         <v>1</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D471" s="60" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="E471" s="16"/>
       <c r="F471" s="16"/>
@@ -35430,10 +35488,10 @@
         <v>1</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="D472" s="15" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="E472" s="16"/>
       <c r="F472" s="16"/>
@@ -35459,7 +35517,7 @@
         <v>470</v>
       </c>
       <c r="N472" s="21" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="473" spans="1:15">
@@ -35470,10 +35528,10 @@
         <v>1</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="E473" s="16"/>
       <c r="F473" s="16"/>
@@ -35496,7 +35554,7 @@
         <v>452</v>
       </c>
       <c r="M473" s="21" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="N473" s="21" t="s">
         <v>472</v>
@@ -35510,10 +35568,10 @@
         <v>1</v>
       </c>
       <c r="C474" s="15" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D474" s="15" t="s">
         <v>2471</v>
-      </c>
-      <c r="D474" s="15" t="s">
-        <v>2474</v>
       </c>
       <c r="E474" s="16"/>
       <c r="F474" s="16"/>
@@ -35546,10 +35604,10 @@
         <v>1</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="D475" s="15" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
@@ -35582,10 +35640,10 @@
         <v>1</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E476" s="16"/>
       <c r="F476" s="16"/>
@@ -35618,10 +35676,10 @@
         <v>1</v>
       </c>
       <c r="C477" s="15" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D477" s="15" t="s">
         <v>2467</v>
-      </c>
-      <c r="D477" s="15" t="s">
-        <v>2470</v>
       </c>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
@@ -35654,10 +35712,10 @@
         <v>1</v>
       </c>
       <c r="C478" s="15" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="D478" s="15" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
@@ -35690,10 +35748,10 @@
         <v>1</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="E479" s="16"/>
       <c r="F479" s="16"/>
@@ -35726,10 +35784,10 @@
         <v>1</v>
       </c>
       <c r="C480" s="15" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D480" s="15" t="s">
         <v>2463</v>
-      </c>
-      <c r="D480" s="15" t="s">
-        <v>2466</v>
       </c>
       <c r="E480" s="16"/>
       <c r="F480" s="16"/>
@@ -35762,10 +35820,10 @@
         <v>1</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="D481" s="15" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="E481" s="16"/>
       <c r="F481" s="16"/>
@@ -35798,10 +35856,10 @@
         <v>1</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="E482" s="16"/>
       <c r="F482" s="16"/>
@@ -35834,10 +35892,10 @@
         <v>1</v>
       </c>
       <c r="C483" s="15" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D483" s="15" t="s">
         <v>2459</v>
-      </c>
-      <c r="D483" s="15" t="s">
-        <v>2462</v>
       </c>
       <c r="E483" s="16"/>
       <c r="F483" s="16"/>
@@ -35870,7 +35928,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D484" s="15" t="s">
         <v>487</v>
@@ -35906,7 +35964,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="D485" s="15" t="s">
         <v>487</v>
@@ -35942,7 +36000,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D486" s="15" t="s">
         <v>487</v>
@@ -35978,10 +36036,10 @@
         <v>1</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="D487" s="71" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="G487" s="8">
         <v>8</v>
@@ -36010,10 +36068,10 @@
         <v>1</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="D488" s="71" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="G488" s="8">
         <v>9</v>
@@ -36042,10 +36100,10 @@
         <v>1</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="D489" s="71" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="G489" s="8">
         <v>10</v>
@@ -36074,10 +36132,10 @@
         <v>1</v>
       </c>
       <c r="C490" s="20" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="D490" s="71" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="G490" s="8">
         <v>11</v>
@@ -36106,10 +36164,10 @@
         <v>1</v>
       </c>
       <c r="C491" s="20" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="D491" s="71" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="G491" s="8">
         <v>12</v>
@@ -36138,10 +36196,10 @@
         <v>1</v>
       </c>
       <c r="C492" s="20" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="D492" s="71" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="G492" s="8">
         <v>13</v>
@@ -36170,10 +36228,10 @@
         <v>1</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="D493" s="71" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="G493" s="8">
         <v>14</v>
@@ -36202,10 +36260,10 @@
         <v>1</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="D494" s="71" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="G494" s="8">
         <v>15</v>
@@ -36234,10 +36292,10 @@
         <v>1</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="D495" s="71" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="G495" s="8">
         <v>16</v>
@@ -36266,10 +36324,10 @@
         <v>1</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="D496" s="71" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="G496" s="8">
         <v>465</v>
@@ -36298,10 +36356,10 @@
         <v>1</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="D497" s="71" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="G497" s="8">
         <v>466</v>
@@ -36330,10 +36388,10 @@
         <v>1</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="D498" s="71" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="G498" s="8">
         <v>467</v>
@@ -36364,13 +36422,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1110"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1084" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1110" sqref="G1110"/>
+      <selection pane="bottomRight" activeCell="G1112" sqref="G1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36485,7 +36543,7 @@
         <v>847</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E4" s="14">
         <v>5</v>
@@ -36494,7 +36552,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I4" s="13"/>
     </row>
@@ -36538,7 +36596,7 @@
         <v>847</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E6" s="14">
         <v>5</v>
@@ -36547,7 +36605,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I6" s="13"/>
     </row>
@@ -36611,7 +36669,7 @@
         <v>847</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E9" s="14">
         <v>5</v>
@@ -36620,7 +36678,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1">
@@ -36643,7 +36701,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>864</v>
@@ -36683,7 +36741,7 @@
         <v>847</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E12" s="14">
         <v>5</v>
@@ -36692,7 +36750,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1">
@@ -36729,7 +36787,7 @@
         <v>847</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E14" s="14">
         <v>5</v>
@@ -36738,7 +36796,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1">
@@ -37094,7 +37152,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D30" s="12">
         <v>1576684800</v>
@@ -37382,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
@@ -38681,7 +38739,7 @@
         <v>56</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>1047</v>
@@ -38693,7 +38751,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1">
@@ -38707,7 +38765,7 @@
         <v>847</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E100" s="14">
         <v>5</v>
@@ -38716,7 +38774,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1">
@@ -38739,7 +38797,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
@@ -38980,7 +39038,7 @@
         <v>60</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1071</v>
@@ -39820,7 +39878,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="31" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="8" customFormat="1">
@@ -39880,7 +39938,7 @@
         <v>1023</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E151" s="14">
         <v>2</v>
@@ -39889,7 +39947,7 @@
         <v>3</v>
       </c>
       <c r="G151" s="31" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="8" customFormat="1">
@@ -39912,7 +39970,7 @@
         <v>4</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="8" customFormat="1">
@@ -43146,16 +43204,16 @@
         <v>847</v>
       </c>
       <c r="D293" s="31" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E293" s="14">
+        <v>2</v>
+      </c>
+      <c r="F293" s="14">
+        <v>1</v>
+      </c>
+      <c r="G293" s="31" t="s">
         <v>2116</v>
-      </c>
-      <c r="E293" s="14">
-        <v>2</v>
-      </c>
-      <c r="F293" s="14">
-        <v>1</v>
-      </c>
-      <c r="G293" s="31" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="8" customFormat="1">
@@ -43166,10 +43224,10 @@
         <v>109</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="E294" s="14">
         <v>2</v>
@@ -43178,7 +43236,7 @@
         <v>1</v>
       </c>
       <c r="G294" s="31" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1">
@@ -43189,10 +43247,10 @@
         <v>109</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="E295" s="14">
         <v>2</v>
@@ -43201,7 +43259,7 @@
         <v>1</v>
       </c>
       <c r="G295" s="31" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="8" customFormat="1">
@@ -45067,19 +45125,19 @@
         <v>142</v>
       </c>
       <c r="C376" s="31" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D376" s="31" t="s">
         <v>1943</v>
       </c>
-      <c r="D376" s="31" t="s">
+      <c r="E376" s="14">
+        <v>2</v>
+      </c>
+      <c r="F376" s="14">
+        <v>1</v>
+      </c>
+      <c r="G376" s="31" t="s">
         <v>1944</v>
-      </c>
-      <c r="E376" s="14">
-        <v>2</v>
-      </c>
-      <c r="F376" s="14">
-        <v>1</v>
-      </c>
-      <c r="G376" s="31" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="8" customFormat="1">
@@ -45116,7 +45174,7 @@
         <v>1142</v>
       </c>
       <c r="D378" s="31" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E378" s="14">
         <v>2</v>
@@ -45139,7 +45197,7 @@
         <v>847</v>
       </c>
       <c r="D379" s="46" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E379" s="14">
         <v>2</v>
@@ -45148,7 +45206,7 @@
         <v>3</v>
       </c>
       <c r="G379" s="14" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="380" spans="1:7" s="8" customFormat="1">
@@ -46620,7 +46678,7 @@
         <v>1</v>
       </c>
       <c r="G443" s="10" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="444" spans="1:7" s="8" customFormat="1">
@@ -46712,7 +46770,7 @@
         <v>1</v>
       </c>
       <c r="G447" s="10" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="448" spans="1:7" s="8" customFormat="1">
@@ -48034,7 +48092,7 @@
         <v>174</v>
       </c>
       <c r="C505" s="31" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D505" s="31">
         <v>600</v>
@@ -48069,7 +48127,7 @@
         <v>3</v>
       </c>
       <c r="G506" s="31" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="507" spans="1:7" s="8" customFormat="1">
@@ -48897,7 +48955,7 @@
         <v>1</v>
       </c>
       <c r="G542" s="65" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="8" customFormat="1">
@@ -48966,7 +49024,7 @@
         <v>2</v>
       </c>
       <c r="G545" s="65" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="546" spans="1:7" s="8" customFormat="1">
@@ -48989,7 +49047,7 @@
         <v>2</v>
       </c>
       <c r="G546" s="65" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="8" customFormat="1">
@@ -49104,7 +49162,7 @@
         <v>2</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="8" customFormat="1">
@@ -49518,7 +49576,7 @@
         <v>2</v>
       </c>
       <c r="G569" s="52" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="570" spans="1:7" s="8" customFormat="1">
@@ -49667,10 +49725,10 @@
         <v>208</v>
       </c>
       <c r="C576" s="52" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D576" s="52" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E576" s="51">
         <v>5</v>
@@ -49690,19 +49748,19 @@
         <v>208</v>
       </c>
       <c r="C577" s="52" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D577" s="52" t="s">
         <v>1972</v>
       </c>
-      <c r="D577" s="52" t="s">
+      <c r="E577" s="51">
+        <v>2</v>
+      </c>
+      <c r="F577" s="51">
+        <v>2</v>
+      </c>
+      <c r="G577" s="52" t="s">
         <v>1973</v>
-      </c>
-      <c r="E577" s="51">
-        <v>2</v>
-      </c>
-      <c r="F577" s="51">
-        <v>2</v>
-      </c>
-      <c r="G577" s="52" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="8" customFormat="1">
@@ -51658,7 +51716,7 @@
         <v>1</v>
       </c>
       <c r="G662" s="10" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="663" spans="1:7" s="8" customFormat="1">
@@ -53981,7 +54039,7 @@
         <v>1</v>
       </c>
       <c r="G763" s="31" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="764" spans="1:7" s="8" customFormat="1">
@@ -54027,7 +54085,7 @@
         <v>1</v>
       </c>
       <c r="G765" s="31" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="766" spans="1:7" s="8" customFormat="1">
@@ -54064,7 +54122,7 @@
         <v>847</v>
       </c>
       <c r="D767" s="46" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E767" s="14">
         <v>5</v>
@@ -54073,7 +54131,7 @@
         <v>1</v>
       </c>
       <c r="G767" s="31" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="768" spans="1:7" s="8" customFormat="1">
@@ -54271,7 +54329,7 @@
         <v>847</v>
       </c>
       <c r="D776" s="31" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E776" s="14">
         <v>5</v>
@@ -54280,7 +54338,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="31" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="777" spans="1:7" s="8" customFormat="1">
@@ -54317,7 +54375,7 @@
         <v>847</v>
       </c>
       <c r="D778" s="31" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E778" s="14">
         <v>2</v>
@@ -54326,7 +54384,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="31" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="779" spans="1:7" s="8" customFormat="1">
@@ -54993,7 +55051,7 @@
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="808" spans="1:7" s="8" customFormat="1">
@@ -55315,7 +55373,7 @@
         <v>1</v>
       </c>
       <c r="G821" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="822" spans="1:7" s="8" customFormat="1">
@@ -55361,7 +55419,7 @@
         <v>2</v>
       </c>
       <c r="G823" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="824" spans="1:7" s="8" customFormat="1">
@@ -55384,7 +55442,7 @@
         <v>3</v>
       </c>
       <c r="G824" s="52" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="825" spans="1:7" s="8" customFormat="1">
@@ -55476,7 +55534,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="829" spans="1:7" s="8" customFormat="1">
@@ -55568,7 +55626,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="833" spans="1:7" s="8" customFormat="1">
@@ -55660,7 +55718,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="837" spans="1:7" s="8" customFormat="1">
@@ -55683,7 +55741,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="838" spans="1:7" s="8" customFormat="1">
@@ -57698,16 +57756,16 @@
         <v>847</v>
       </c>
       <c r="D925" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E925" s="8">
+        <v>2</v>
+      </c>
+      <c r="F925" s="8">
+        <v>1</v>
+      </c>
+      <c r="G925" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E925" s="8">
-        <v>2</v>
-      </c>
-      <c r="F925" s="8">
-        <v>1</v>
-      </c>
-      <c r="G925" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="926" spans="1:7">
@@ -57721,16 +57779,16 @@
         <v>847</v>
       </c>
       <c r="D926" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E926" s="8">
+        <v>2</v>
+      </c>
+      <c r="F926" s="8">
+        <v>1</v>
+      </c>
+      <c r="G926" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E926" s="8">
-        <v>2</v>
-      </c>
-      <c r="F926" s="8">
-        <v>1</v>
-      </c>
-      <c r="G926" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="927" spans="1:7">
@@ -57744,16 +57802,16 @@
         <v>847</v>
       </c>
       <c r="D927" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E927" s="8">
+        <v>2</v>
+      </c>
+      <c r="F927" s="8">
+        <v>1</v>
+      </c>
+      <c r="G927" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E927" s="8">
-        <v>2</v>
-      </c>
-      <c r="F927" s="8">
-        <v>1</v>
-      </c>
-      <c r="G927" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -57767,16 +57825,16 @@
         <v>847</v>
       </c>
       <c r="D928" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E928" s="8">
+        <v>2</v>
+      </c>
+      <c r="F928" s="8">
+        <v>1</v>
+      </c>
+      <c r="G928" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E928" s="8">
-        <v>2</v>
-      </c>
-      <c r="F928" s="8">
-        <v>1</v>
-      </c>
-      <c r="G928" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -57787,19 +57845,19 @@
         <v>379</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D929" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E929" s="8">
+        <v>2</v>
+      </c>
+      <c r="F929" s="8">
+        <v>1</v>
+      </c>
+      <c r="G929" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E929" s="8">
-        <v>2</v>
-      </c>
-      <c r="F929" s="8">
-        <v>1</v>
-      </c>
-      <c r="G929" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -57813,7 +57871,7 @@
         <v>847</v>
       </c>
       <c r="D930" s="30" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -57822,7 +57880,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="8" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -57836,7 +57894,7 @@
         <v>847</v>
       </c>
       <c r="D931" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -57845,7 +57903,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -57868,7 +57926,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="933" spans="1:7">
@@ -57882,7 +57940,7 @@
         <v>847</v>
       </c>
       <c r="D933" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E933" s="8">
         <v>5</v>
@@ -57891,7 +57949,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -57905,7 +57963,7 @@
         <v>847</v>
       </c>
       <c r="D934" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E934" s="8">
         <v>5</v>
@@ -57914,7 +57972,7 @@
         <v>1</v>
       </c>
       <c r="G934" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -57928,7 +57986,7 @@
         <v>847</v>
       </c>
       <c r="D935" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -57951,7 +58009,7 @@
         <v>847</v>
       </c>
       <c r="D936" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -57960,7 +58018,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -57971,10 +58029,10 @@
         <v>385</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D937" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -58006,7 +58064,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -58017,10 +58075,10 @@
         <v>386</v>
       </c>
       <c r="C939" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D939" s="11" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -58052,7 +58110,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -58063,19 +58121,19 @@
         <v>387</v>
       </c>
       <c r="C941" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D941" s="11" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E941" s="8">
+        <v>2</v>
+      </c>
+      <c r="F941" s="8">
+        <v>1</v>
+      </c>
+      <c r="G941" s="10" t="s">
         <v>1990</v>
-      </c>
-      <c r="E941" s="8">
-        <v>2</v>
-      </c>
-      <c r="F941" s="8">
-        <v>1</v>
-      </c>
-      <c r="G941" s="10" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58089,7 +58147,7 @@
         <v>847</v>
       </c>
       <c r="D942" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -58098,7 +58156,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -58109,19 +58167,19 @@
         <v>388</v>
       </c>
       <c r="C943" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D943" s="11" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E943" s="8">
+        <v>2</v>
+      </c>
+      <c r="F943" s="8">
+        <v>1</v>
+      </c>
+      <c r="G943" s="10" t="s">
         <v>1992</v>
-      </c>
-      <c r="E943" s="8">
-        <v>2</v>
-      </c>
-      <c r="F943" s="8">
-        <v>1</v>
-      </c>
-      <c r="G943" s="10" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -58135,7 +58193,7 @@
         <v>847</v>
       </c>
       <c r="D944" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E944" s="8">
         <v>2</v>
@@ -58144,7 +58202,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -58181,7 +58239,7 @@
         <v>847</v>
       </c>
       <c r="D946" s="30" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
@@ -58190,7 +58248,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -58204,16 +58262,16 @@
         <v>847</v>
       </c>
       <c r="D947" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E947" s="8">
+        <v>2</v>
+      </c>
+      <c r="F947" s="8">
+        <v>1</v>
+      </c>
+      <c r="G947" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="E947" s="8">
-        <v>2</v>
-      </c>
-      <c r="F947" s="8">
-        <v>1</v>
-      </c>
-      <c r="G947" s="8" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -58259,7 +58317,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="52" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -58282,7 +58340,7 @@
         <v>1</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="951" spans="1:7">
@@ -58328,7 +58386,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="953" spans="1:7">
@@ -58339,7 +58397,7 @@
         <v>394</v>
       </c>
       <c r="C953" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D953" s="8">
         <v>1607356800</v>
@@ -58351,7 +58409,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -58374,7 +58432,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -58385,7 +58443,7 @@
         <v>395</v>
       </c>
       <c r="C955" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D955" s="8">
         <v>1607356800</v>
@@ -58397,7 +58455,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58420,7 +58478,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -58431,7 +58489,7 @@
         <v>395</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D957" s="8">
         <v>1607356800</v>
@@ -58443,7 +58501,7 @@
         <v>2</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58466,7 +58524,7 @@
         <v>2</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -58477,7 +58535,7 @@
         <v>396</v>
       </c>
       <c r="C959" s="31" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D959" s="14">
         <v>1607356800</v>
@@ -58489,7 +58547,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="31" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -58558,7 +58616,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58581,7 +58639,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="964" spans="1:7">
@@ -58604,7 +58662,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1">
@@ -58650,7 +58708,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="8" customFormat="1">
@@ -58673,7 +58731,7 @@
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="8" customFormat="1">
@@ -58719,7 +58777,7 @@
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="8" customFormat="1" ht="16.5">
@@ -58730,19 +58788,19 @@
         <v>407</v>
       </c>
       <c r="C970" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D970" s="44" t="s">
         <v>2088</v>
       </c>
-      <c r="D970" s="44" t="s">
+      <c r="E970" s="8">
+        <v>2</v>
+      </c>
+      <c r="F970" s="8">
+        <v>1</v>
+      </c>
+      <c r="G970" s="10" t="s">
         <v>2089</v>
-      </c>
-      <c r="E970" s="8">
-        <v>2</v>
-      </c>
-      <c r="F970" s="8">
-        <v>1</v>
-      </c>
-      <c r="G970" s="10" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="8" customFormat="1">
@@ -58756,16 +58814,16 @@
         <v>1023</v>
       </c>
       <c r="D971" s="8" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E971" s="8">
+        <v>2</v>
+      </c>
+      <c r="F971" s="8">
+        <v>2</v>
+      </c>
+      <c r="G971" s="10" t="s">
         <v>2091</v>
-      </c>
-      <c r="E971" s="8">
-        <v>2</v>
-      </c>
-      <c r="F971" s="8">
-        <v>2</v>
-      </c>
-      <c r="G971" s="10" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="8" customFormat="1">
@@ -58776,19 +58834,19 @@
         <v>407</v>
       </c>
       <c r="C972" s="8" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D972" s="10" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E972" s="8">
+        <v>2</v>
+      </c>
+      <c r="F972" s="8">
+        <v>2</v>
+      </c>
+      <c r="G972" s="10" t="s">
         <v>2095</v>
-      </c>
-      <c r="E972" s="8">
-        <v>2</v>
-      </c>
-      <c r="F972" s="8">
-        <v>2</v>
-      </c>
-      <c r="G972" s="10" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -58811,7 +58869,7 @@
         <v>3</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -58822,10 +58880,10 @@
         <v>407</v>
       </c>
       <c r="C974" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D974" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E974" s="8">
         <v>2</v>
@@ -58834,7 +58892,7 @@
         <v>3</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -58848,7 +58906,7 @@
         <v>1023</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E975" s="8">
         <v>2</v>
@@ -58857,7 +58915,7 @@
         <v>2</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -58871,7 +58929,7 @@
         <v>847</v>
       </c>
       <c r="D976" s="30" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E976" s="8">
         <v>5</v>
@@ -58880,7 +58938,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -58903,7 +58961,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -58926,7 +58984,7 @@
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -58949,7 +59007,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -58972,7 +59030,7 @@
         <v>1</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="981" spans="1:7" s="8" customFormat="1">
@@ -58995,7 +59053,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59009,16 +59067,16 @@
         <v>847</v>
       </c>
       <c r="D982" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E982" s="8">
+        <v>2</v>
+      </c>
+      <c r="F982" s="8">
+        <v>1</v>
+      </c>
+      <c r="G982" s="10" t="s">
         <v>2139</v>
-      </c>
-      <c r="E982" s="8">
-        <v>2</v>
-      </c>
-      <c r="F982" s="8">
-        <v>1</v>
-      </c>
-      <c r="G982" s="10" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59064,7 +59122,7 @@
         <v>1</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="985" spans="1:7" s="8" customFormat="1">
@@ -59087,7 +59145,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59098,19 +59156,19 @@
         <v>418</v>
       </c>
       <c r="C986" s="10" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D986" s="10" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E986" s="8">
+        <v>2</v>
+      </c>
+      <c r="F986" s="8">
+        <v>1</v>
+      </c>
+      <c r="G986" s="10" t="s">
         <v>2153</v>
-      </c>
-      <c r="E986" s="8">
-        <v>2</v>
-      </c>
-      <c r="F986" s="8">
-        <v>1</v>
-      </c>
-      <c r="G986" s="10" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59121,11 +59179,11 @@
         <v>418</v>
       </c>
       <c r="C987" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D987" s="10" t="s">
         <v>2088</v>
       </c>
-      <c r="D987" s="10" t="s">
-        <v>2089</v>
-      </c>
       <c r="E987" s="8">
         <v>2</v>
       </c>
@@ -59133,7 +59191,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59144,19 +59202,19 @@
         <v>418</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D988" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E988" s="8">
+        <v>2</v>
+      </c>
+      <c r="F988" s="8">
+        <v>2</v>
+      </c>
+      <c r="G988" s="10" t="s">
         <v>2156</v>
-      </c>
-      <c r="E988" s="8">
-        <v>2</v>
-      </c>
-      <c r="F988" s="8">
-        <v>2</v>
-      </c>
-      <c r="G988" s="10" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59167,19 +59225,19 @@
         <v>418</v>
       </c>
       <c r="C989" s="10" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D989" s="10" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E989" s="8">
+        <v>2</v>
+      </c>
+      <c r="F989" s="8">
+        <v>2</v>
+      </c>
+      <c r="G989" s="10" t="s">
         <v>2158</v>
-      </c>
-      <c r="D989" s="10" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E989" s="8">
-        <v>2</v>
-      </c>
-      <c r="F989" s="8">
-        <v>2</v>
-      </c>
-      <c r="G989" s="10" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59190,10 +59248,10 @@
         <v>418</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D990" s="8" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -59202,7 +59260,7 @@
         <v>3</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59213,10 +59271,10 @@
         <v>418</v>
       </c>
       <c r="C991" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D991" s="10" t="s">
         <v>2088</v>
-      </c>
-      <c r="D991" s="10" t="s">
-        <v>2089</v>
       </c>
       <c r="E991" s="8">
         <v>2</v>
@@ -59225,7 +59283,7 @@
         <v>3</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59239,7 +59297,7 @@
         <v>1023</v>
       </c>
       <c r="D992" s="15" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
@@ -59248,7 +59306,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59259,7 +59317,7 @@
         <v>419</v>
       </c>
       <c r="C993" s="8" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D993" s="8">
         <v>600</v>
@@ -59271,7 +59329,7 @@
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59285,7 +59343,7 @@
         <v>1023</v>
       </c>
       <c r="D994" s="15" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E994" s="8">
         <v>2</v>
@@ -59294,7 +59352,7 @@
         <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59305,7 +59363,7 @@
         <v>420</v>
       </c>
       <c r="C995" s="8" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D995" s="8">
         <v>600</v>
@@ -59317,7 +59375,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59340,7 +59398,7 @@
         <v>1</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59363,7 +59421,7 @@
         <v>1</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59386,7 +59444,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59409,7 +59467,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59432,7 +59490,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59455,7 +59513,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59478,7 +59536,7 @@
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59501,7 +59559,7 @@
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59524,7 +59582,7 @@
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59547,7 +59605,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59570,7 +59628,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59593,7 +59651,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59616,7 +59674,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
@@ -59662,7 +59720,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
@@ -59685,7 +59743,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -59731,7 +59789,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -59754,7 +59812,7 @@
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -59777,7 +59835,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -59800,7 +59858,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -59823,7 +59881,7 @@
         <v>2</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -59846,7 +59904,7 @@
         <v>2</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -59869,7 +59927,7 @@
         <v>3</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
@@ -59892,7 +59950,7 @@
         <v>3</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
@@ -59906,7 +59964,7 @@
         <v>847</v>
       </c>
       <c r="D1021" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1021" s="8">
         <v>5</v>
@@ -59915,7 +59973,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
@@ -59938,7 +59996,7 @@
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -59961,7 +60019,7 @@
         <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -59984,7 +60042,7 @@
         <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60007,7 +60065,7 @@
         <v>2</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1026" spans="1:7" s="8" customFormat="1">
@@ -60030,7 +60088,7 @@
         <v>2</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60053,7 +60111,7 @@
         <v>2</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60076,7 +60134,7 @@
         <v>3</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60099,7 +60157,7 @@
         <v>3</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60122,7 +60180,7 @@
         <v>3</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60136,7 +60194,7 @@
         <v>847</v>
       </c>
       <c r="D1031" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1031" s="8">
         <v>5</v>
@@ -60145,7 +60203,7 @@
         <v>3</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60168,7 +60226,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60191,7 +60249,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60214,7 +60272,7 @@
         <v>2</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60237,7 +60295,7 @@
         <v>2</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60260,7 +60318,7 @@
         <v>3</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60283,7 +60341,7 @@
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60297,7 +60355,7 @@
         <v>847</v>
       </c>
       <c r="D1038" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1038" s="8">
         <v>5</v>
@@ -60306,7 +60364,7 @@
         <v>3</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60628,7 +60686,7 @@
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60651,7 +60709,7 @@
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1054" spans="1:7">
@@ -60674,7 +60732,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1055" spans="1:7">
@@ -60688,7 +60746,7 @@
         <v>1023</v>
       </c>
       <c r="D1055" s="8" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E1055" s="8">
         <v>2</v>
@@ -60697,7 +60755,7 @@
         <v>2</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1056" spans="1:7">
@@ -60711,7 +60769,7 @@
         <v>1023</v>
       </c>
       <c r="D1056" s="10" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E1056" s="8">
         <v>2</v>
@@ -60720,7 +60778,7 @@
         <v>3</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1057" spans="1:7">
@@ -60734,7 +60792,7 @@
         <v>1023</v>
       </c>
       <c r="D1057" s="10" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E1057" s="8">
         <v>2</v>
@@ -60743,7 +60801,7 @@
         <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1058" spans="1:7">
@@ -60757,7 +60815,7 @@
         <v>1023</v>
       </c>
       <c r="D1058" s="10" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E1058" s="8">
         <v>2</v>
@@ -60766,7 +60824,7 @@
         <v>2</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1059" spans="1:7">
@@ -60780,7 +60838,7 @@
         <v>1023</v>
       </c>
       <c r="D1059" s="10" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1059" s="8">
         <v>2</v>
@@ -60789,7 +60847,7 @@
         <v>3</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -60812,7 +60870,7 @@
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1061" spans="1:7">
@@ -60835,7 +60893,7 @@
         <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -60858,7 +60916,7 @@
         <v>2</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -60881,7 +60939,7 @@
         <v>2</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -60904,7 +60962,7 @@
         <v>1</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61203,7 +61261,7 @@
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61226,7 +61284,7 @@
         <v>2</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1079" spans="1:7" s="8" customFormat="1">
@@ -61272,7 +61330,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1081" spans="1:7" s="8" customFormat="1">
@@ -61318,7 +61376,7 @@
         <v>2</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -61341,7 +61399,7 @@
         <v>1</v>
       </c>
       <c r="G1083" s="65" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61364,7 +61422,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="65" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -61387,7 +61445,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="65" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -61410,7 +61468,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="65" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -61433,7 +61491,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="65" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -61456,7 +61514,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="65" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -61479,7 +61537,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="65" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -61502,7 +61560,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="65" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61525,7 +61583,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61548,7 +61606,7 @@
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61571,7 +61629,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61594,7 +61652,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61617,7 +61675,7 @@
         <v>1</v>
       </c>
       <c r="G1095" s="65" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -61628,19 +61686,19 @@
         <v>456</v>
       </c>
       <c r="C1096" s="65" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1096" s="62" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E1096" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1096" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="65" t="s">
         <v>2381</v>
-      </c>
-      <c r="E1096" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1096" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1096" s="65" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61686,7 +61744,7 @@
         <v>1</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -61696,8 +61754,8 @@
       <c r="B1099" s="9">
         <v>458</v>
       </c>
-      <c r="C1099" s="64" t="s">
-        <v>847</v>
+      <c r="C1099" s="65" t="s">
+        <v>2517</v>
       </c>
       <c r="D1099" s="65" t="s">
         <v>916</v>
@@ -61709,7 +61767,7 @@
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -61789,10 +61847,10 @@
         <v>461</v>
       </c>
       <c r="C1103" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D1103" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E1103" s="8">
         <v>5</v>
@@ -61801,7 +61859,7 @@
         <v>2</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -61812,10 +61870,10 @@
         <v>462</v>
       </c>
       <c r="C1104" s="26" t="s">
-        <v>2443</v>
+        <v>1942</v>
       </c>
       <c r="D1104" s="26" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1104" s="9">
         <v>5</v>
@@ -61824,7 +61882,7 @@
         <v>2</v>
       </c>
       <c r="G1104" s="26" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -61834,11 +61892,11 @@
       <c r="B1105" s="9">
         <v>463</v>
       </c>
-      <c r="C1105" s="9" t="s">
-        <v>2445</v>
+      <c r="C1105" s="26" t="s">
+        <v>2164</v>
       </c>
       <c r="D1105" s="9" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="E1105" s="9">
         <v>2</v>
@@ -61847,7 +61905,7 @@
         <v>1</v>
       </c>
       <c r="G1105" s="26" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -61858,10 +61916,10 @@
         <v>463</v>
       </c>
       <c r="C1106" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D1106" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E1106" s="9">
         <v>2</v>
@@ -61870,7 +61928,7 @@
         <v>1</v>
       </c>
       <c r="G1106" s="26" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -61893,7 +61951,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1108" spans="1:7" s="8" customFormat="1">
@@ -61939,7 +61997,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1110" spans="1:7" s="8" customFormat="1">
@@ -61962,7 +62020,53 @@
         <v>1</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>2518</v>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7">
+      <c r="A1111" s="8">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="8">
+        <v>468</v>
+      </c>
+      <c r="C1111" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1111" s="26" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E1111" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="26" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7">
+      <c r="A1112" s="8">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="8">
+        <v>469</v>
+      </c>
+      <c r="C1112" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1112" s="26" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E1112" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="26" t="s">
+        <v>2527</v>
       </c>
     </row>
   </sheetData>
@@ -61975,10 +62079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62025,7 +62129,7 @@
         <v>878</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -62065,7 +62169,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>878</v>
@@ -62094,7 +62198,7 @@
         <v>878</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -62111,13 +62215,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>878</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E6" s="40">
         <v>2</v>
@@ -62126,7 +62230,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -62134,13 +62238,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>878</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E7" s="40">
         <v>2</v>
@@ -62149,8 +62253,34 @@
         <v>1</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>1952</v>
-      </c>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="2528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="2532">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12704,6 +12704,22 @@
   </si>
   <si>
     <t>不是海蓝湾官方玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_hlw_plat_server_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾平台权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是海蓝湾的玩家才可游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13340,11 +13356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q511"/>
+  <dimension ref="A1:Q513"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A513" sqref="A513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19333,6 +19349,21 @@
       <c r="C511" s="3">
         <v>469</v>
       </c>
+    </row>
+    <row r="513" spans="1:10" s="17" customFormat="1">
+      <c r="A513" s="21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B513" s="21" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C513" s="17">
+        <v>470</v>
+      </c>
+      <c r="D513" s="21" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J513" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -36422,13 +36453,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1084" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1089" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1112" sqref="G1112"/>
+      <selection pane="bottomRight" activeCell="G1113" sqref="G1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62067,6 +62098,29 @@
       </c>
       <c r="G1112" s="26" t="s">
         <v>2527</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7">
+      <c r="A1113" s="8">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="8">
+        <v>470</v>
+      </c>
+      <c r="C1113" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1113" s="30" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E1113" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="10" t="s">
+        <v>2531</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="2545">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12759,11 +12759,32 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>海蓝湾每日任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_task_fish_daily_cpl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>海蓝湾每日任务</t>
+    <r>
+      <t>actp_own_task_p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ljyjcfk_hlw</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾累计赢金抽福卡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -19418,13 +19439,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD500"/>
+  <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A500" sqref="A500"/>
+      <selection pane="bottomRight" activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36526,11 +36547,11 @@
       <c r="B500" s="19">
         <v>1</v>
       </c>
-      <c r="C500" s="19" t="s">
+      <c r="C500" s="20" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D500" s="19" t="s">
         <v>2541</v>
-      </c>
-      <c r="D500" s="19" t="s">
-        <v>2542</v>
       </c>
       <c r="G500" s="19">
         <v>470</v>
@@ -36548,6 +36569,38 @@
         <v>0</v>
       </c>
       <c r="L500" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
+      <c r="A501" s="19">
+        <v>500</v>
+      </c>
+      <c r="B501" s="19">
+        <v>1</v>
+      </c>
+      <c r="C501" s="20" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D501" s="20" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G501" s="19">
+        <v>470</v>
+      </c>
+      <c r="H501" t="b">
+        <v>1</v>
+      </c>
+      <c r="I501" t="b">
+        <v>1</v>
+      </c>
+      <c r="J501" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K501" s="19">
+        <v>0</v>
+      </c>
+      <c r="L501" s="20" t="s">
         <v>452</v>
       </c>
     </row>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="2545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2548">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12785,6 +12785,18 @@
   </si>
   <si>
     <t>海蓝湾累计赢金抽福卡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlw_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo_hlw",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -19441,7 +19453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -62342,8 +62354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62541,7 +62553,27 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2547</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="2548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="2556">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -11921,10 +11921,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>drt_new_player_deal_wqp_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>玩棋牌官方渠道玩家初始鲸币</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12797,6 +12793,42 @@
   </si>
   <si>
     <t>海蓝湾cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_new_player_deal_wqp_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾初始邮件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_new_player_deal_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo_hlw","hlw",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlw_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlw_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_wqp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13433,11 +13465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q513"/>
+  <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D518" sqref="D518"/>
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16847,10 +16879,10 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="69" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B247" s="21" t="s">
         <v>2487</v>
-      </c>
-      <c r="B247" s="21" t="s">
-        <v>2488</v>
       </c>
       <c r="C247" s="3">
         <v>34</v>
@@ -16873,7 +16905,7 @@
     </row>
     <row r="249" spans="1:10" s="17" customFormat="1">
       <c r="A249" s="21" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>366</v>
@@ -18508,7 +18540,7 @@
     </row>
     <row r="412" spans="1:10" s="17" customFormat="1">
       <c r="A412" s="21" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B412" s="17" t="s">
         <v>1901</v>
@@ -18858,7 +18890,7 @@
         <v>2069</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C447" s="36">
         <v>32</v>
@@ -18975,10 +19007,10 @@
     </row>
     <row r="458" spans="1:10" s="17" customFormat="1">
       <c r="A458" s="31" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="29"/>
@@ -18986,10 +19018,10 @@
     </row>
     <row r="459" spans="1:10" s="17" customFormat="1">
       <c r="A459" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B459" s="31" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="29"/>
@@ -18997,10 +19029,10 @@
     </row>
     <row r="460" spans="1:10" s="17" customFormat="1">
       <c r="A460" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B460" s="31" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="29"/>
@@ -19008,10 +19040,10 @@
     </row>
     <row r="461" spans="1:10" s="17" customFormat="1">
       <c r="A461" s="31" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B461" s="31" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="29"/>
@@ -19019,10 +19051,10 @@
     </row>
     <row r="462" spans="1:10" s="17" customFormat="1">
       <c r="A462" s="31" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C462" s="47">
         <v>32</v>
@@ -19032,10 +19064,10 @@
     </row>
     <row r="463" spans="1:10" s="17" customFormat="1">
       <c r="A463" s="31" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C463" s="47">
         <v>32</v>
@@ -19045,10 +19077,10 @@
     </row>
     <row r="464" spans="1:10" s="17" customFormat="1">
       <c r="A464" s="31" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C464" s="47">
         <v>22</v>
@@ -19058,10 +19090,10 @@
     </row>
     <row r="465" spans="1:10" s="17" customFormat="1">
       <c r="A465" s="31" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B465" s="31" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C465" s="14">
         <v>23</v>
@@ -19071,10 +19103,10 @@
     </row>
     <row r="466" spans="1:10" s="17" customFormat="1">
       <c r="A466" s="31" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B466" s="31" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C466" s="14">
         <v>24</v>
@@ -19084,10 +19116,10 @@
     </row>
     <row r="467" spans="1:10" s="17" customFormat="1">
       <c r="A467" s="31" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B467" s="31" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C467" s="14">
         <v>25</v>
@@ -19097,10 +19129,10 @@
     </row>
     <row r="468" spans="1:10" s="17" customFormat="1">
       <c r="A468" s="31" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C468" s="14">
         <v>26</v>
@@ -19117,10 +19149,10 @@
     </row>
     <row r="470" spans="1:10" s="17" customFormat="1">
       <c r="A470" s="28" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C470" s="29">
         <v>408</v>
@@ -19298,7 +19330,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="66" t="s">
-        <v>2364</v>
+        <v>2547</v>
       </c>
       <c r="B494" s="66" t="s">
         <v>2361</v>
@@ -19312,7 +19344,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495" s="66" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B495" s="66" t="s">
         <v>2362</v>
@@ -19321,126 +19353,140 @@
         <v>453</v>
       </c>
       <c r="D495" s="66" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="69" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B497" s="66" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C497" s="67">
+        <v>472</v>
+      </c>
+      <c r="D497" s="66" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="69" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B499" s="69" t="s">
         <v>2372</v>
       </c>
-      <c r="B497" s="69" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C497" s="3">
+      <c r="C499" s="3">
         <v>455</v>
       </c>
-      <c r="D497" s="69" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="3" t="s">
+      <c r="D499" s="69" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="3" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C502" s="3">
+        <v>457</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>2383</v>
       </c>
-      <c r="C500" s="3">
-        <v>457</v>
-      </c>
-      <c r="D500" s="3" t="s">
+      <c r="C503" s="3">
+        <v>458</v>
+      </c>
+      <c r="D503" s="3" t="s">
         <v>2385</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="3" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>2384</v>
-      </c>
-      <c r="C501" s="3">
-        <v>458</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="3" t="s">
+    <row r="506" spans="1:4">
+      <c r="A506" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B506" s="3" t="s">
         <v>2438</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="C506" s="3">
+        <v>463</v>
+      </c>
+      <c r="D506" s="3" t="s">
         <v>2439</v>
       </c>
-      <c r="C504" s="3">
-        <v>463</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="69" t="s">
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="69" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B508" s="69" t="s">
         <v>2445</v>
       </c>
-      <c r="B506" s="69" t="s">
+      <c r="C508" s="3">
+        <v>464</v>
+      </c>
+      <c r="D508" s="69" t="s">
         <v>2446</v>
       </c>
-      <c r="C506" s="3">
-        <v>464</v>
-      </c>
-      <c r="D506" s="69" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="3" t="s">
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="3" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B510" s="69" t="s">
         <v>2484</v>
       </c>
-      <c r="B508" s="69" t="s">
-        <v>2485</v>
-      </c>
-      <c r="C508" s="3">
+      <c r="C510" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="69" t="s">
+    <row r="512" spans="1:4">
+      <c r="A512" s="69" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B512" s="69" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C512" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10">
+      <c r="A513" s="69" t="s">
         <v>2517</v>
       </c>
-      <c r="B510" s="69" t="s">
+      <c r="B513" s="69" t="s">
         <v>2519</v>
       </c>
-      <c r="C510" s="3">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="69" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B511" s="69" t="s">
-        <v>2520</v>
-      </c>
-      <c r="C511" s="3">
+      <c r="C513" s="3">
         <v>469</v>
       </c>
     </row>
-    <row r="513" spans="1:10" s="17" customFormat="1">
-      <c r="A513" s="21" t="s">
+    <row r="515" spans="1:10" s="17" customFormat="1">
+      <c r="A515" s="21" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B515" s="21" t="s">
         <v>2527</v>
       </c>
-      <c r="B513" s="21" t="s">
-        <v>2528</v>
-      </c>
-      <c r="C513" s="17">
+      <c r="C515" s="17">
         <v>470</v>
       </c>
-      <c r="D513" s="21" t="s">
+      <c r="D515" s="21" t="s">
         <v>1908</v>
       </c>
-      <c r="J513" s="8"/>
+      <c r="J515" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -19487,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>443</v>
@@ -27670,7 +27716,7 @@
         <v>1254</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
@@ -35016,7 +35062,7 @@
         <v>2344</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E455" s="16"/>
       <c r="F455" s="16"/>
@@ -35050,7 +35096,7 @@
         <v>2345</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
@@ -35081,7 +35127,7 @@
         <v>1</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D457" s="15" t="s">
         <v>2347</v>
@@ -35152,7 +35198,7 @@
         <v>2353</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E459" s="16"/>
       <c r="F459" s="16"/>
@@ -35186,7 +35232,7 @@
         <v>2354</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E460" s="16"/>
       <c r="F460" s="16"/>
@@ -35220,7 +35266,7 @@
         <v>2355</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E461" s="16"/>
       <c r="F461" s="16"/>
@@ -35251,10 +35297,10 @@
         <v>1</v>
       </c>
       <c r="C462" s="62" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D462" s="62" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E462" s="61"/>
       <c r="F462" s="61"/>
@@ -35274,7 +35320,7 @@
         <v>1615246200</v>
       </c>
       <c r="L462" s="62" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="463" spans="1:12" s="63" customFormat="1">
@@ -35285,10 +35331,10 @@
         <v>1</v>
       </c>
       <c r="C463" s="62" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D463" s="62" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E463" s="61"/>
       <c r="F463" s="61"/>
@@ -35308,7 +35354,7 @@
         <v>1615851000</v>
       </c>
       <c r="L463" s="62" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -35319,10 +35365,10 @@
         <v>1</v>
       </c>
       <c r="C464" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D464" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="G464" s="19">
         <v>459</v>
@@ -35340,7 +35386,7 @@
         <v>1617638400</v>
       </c>
       <c r="L464" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="465" spans="1:15">
@@ -35351,10 +35397,10 @@
         <v>1</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D465" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G465" s="19">
         <v>460</v>
@@ -35372,7 +35418,7 @@
         <v>1617638400</v>
       </c>
       <c r="L465" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="466" spans="1:15">
@@ -35383,10 +35429,10 @@
         <v>1</v>
       </c>
       <c r="C466" s="20" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D466" s="20" t="s">
         <v>2392</v>
-      </c>
-      <c r="D466" s="20" t="s">
-        <v>2393</v>
       </c>
       <c r="G466" s="19">
         <v>461</v>
@@ -35398,13 +35444,13 @@
         <v>1</v>
       </c>
       <c r="J466" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="K466" s="19">
         <v>1617060600</v>
       </c>
       <c r="L466" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="467" spans="1:15">
@@ -35415,10 +35461,10 @@
         <v>1</v>
       </c>
       <c r="C467" s="20" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D467" s="20" t="s">
         <v>2430</v>
-      </c>
-      <c r="D467" s="20" t="s">
-        <v>2431</v>
       </c>
       <c r="G467" s="19">
         <v>462</v>
@@ -35430,13 +35476,13 @@
         <v>1</v>
       </c>
       <c r="J467" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="K467" s="19">
         <v>1619479800</v>
       </c>
       <c r="L467" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="16.5">
@@ -35447,10 +35493,10 @@
         <v>1</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
@@ -35488,10 +35534,10 @@
         <v>1</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D469" s="60" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E469" s="16"/>
       <c r="F469" s="16"/>
@@ -35524,10 +35570,10 @@
         <v>1</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D470" s="60" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E470" s="16"/>
       <c r="F470" s="16"/>
@@ -35560,10 +35606,10 @@
         <v>1</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D471" s="60" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E471" s="16"/>
       <c r="F471" s="16"/>
@@ -35596,10 +35642,10 @@
         <v>1</v>
       </c>
       <c r="C472" s="15" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D472" s="15" t="s">
         <v>2469</v>
-      </c>
-      <c r="D472" s="15" t="s">
-        <v>2470</v>
       </c>
       <c r="E472" s="16"/>
       <c r="F472" s="16"/>
@@ -35625,7 +35671,7 @@
         <v>470</v>
       </c>
       <c r="N472" s="21" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="473" spans="1:15">
@@ -35636,10 +35682,10 @@
         <v>1</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E473" s="16"/>
       <c r="F473" s="16"/>
@@ -35662,7 +35708,7 @@
         <v>452</v>
       </c>
       <c r="M473" s="21" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="N473" s="21" t="s">
         <v>472</v>
@@ -35676,10 +35722,10 @@
         <v>1</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E474" s="16"/>
       <c r="F474" s="16"/>
@@ -35712,10 +35758,10 @@
         <v>1</v>
       </c>
       <c r="C475" s="15" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D475" s="15" t="s">
         <v>2465</v>
-      </c>
-      <c r="D475" s="15" t="s">
-        <v>2466</v>
       </c>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
@@ -35748,10 +35794,10 @@
         <v>1</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E476" s="16"/>
       <c r="F476" s="16"/>
@@ -35784,10 +35830,10 @@
         <v>1</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D477" s="15" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
@@ -35820,10 +35866,10 @@
         <v>1</v>
       </c>
       <c r="C478" s="15" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D478" s="15" t="s">
         <v>2461</v>
-      </c>
-      <c r="D478" s="15" t="s">
-        <v>2462</v>
       </c>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
@@ -35856,10 +35902,10 @@
         <v>1</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E479" s="16"/>
       <c r="F479" s="16"/>
@@ -35892,10 +35938,10 @@
         <v>1</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D480" s="15" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E480" s="16"/>
       <c r="F480" s="16"/>
@@ -35928,10 +35974,10 @@
         <v>1</v>
       </c>
       <c r="C481" s="15" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D481" s="15" t="s">
         <v>2457</v>
-      </c>
-      <c r="D481" s="15" t="s">
-        <v>2458</v>
       </c>
       <c r="E481" s="16"/>
       <c r="F481" s="16"/>
@@ -35964,10 +36010,10 @@
         <v>1</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E482" s="16"/>
       <c r="F482" s="16"/>
@@ -36000,10 +36046,10 @@
         <v>1</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D483" s="15" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E483" s="16"/>
       <c r="F483" s="16"/>
@@ -36036,7 +36082,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D484" s="15" t="s">
         <v>487</v>
@@ -36072,7 +36118,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D485" s="15" t="s">
         <v>487</v>
@@ -36108,7 +36154,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D486" s="15" t="s">
         <v>487</v>
@@ -36144,10 +36190,10 @@
         <v>1</v>
       </c>
       <c r="C487" s="20" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D487" s="71" t="s">
         <v>2489</v>
-      </c>
-      <c r="D487" s="71" t="s">
-        <v>2490</v>
       </c>
       <c r="G487" s="8">
         <v>8</v>
@@ -36176,10 +36222,10 @@
         <v>1</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D488" s="71" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="G488" s="8">
         <v>9</v>
@@ -36208,10 +36254,10 @@
         <v>1</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D489" s="71" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G489" s="8">
         <v>10</v>
@@ -36240,10 +36286,10 @@
         <v>1</v>
       </c>
       <c r="C490" s="20" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D490" s="71" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G490" s="8">
         <v>11</v>
@@ -36272,10 +36318,10 @@
         <v>1</v>
       </c>
       <c r="C491" s="20" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D491" s="71" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="G491" s="8">
         <v>12</v>
@@ -36304,10 +36350,10 @@
         <v>1</v>
       </c>
       <c r="C492" s="20" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D492" s="71" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="G492" s="8">
         <v>13</v>
@@ -36336,10 +36382,10 @@
         <v>1</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D493" s="71" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="G493" s="8">
         <v>14</v>
@@ -36368,10 +36414,10 @@
         <v>1</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D494" s="71" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="G494" s="8">
         <v>15</v>
@@ -36400,10 +36446,10 @@
         <v>1</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D495" s="71" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="G495" s="8">
         <v>16</v>
@@ -36432,10 +36478,10 @@
         <v>1</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D496" s="71" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="G496" s="8">
         <v>465</v>
@@ -36464,10 +36510,10 @@
         <v>1</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D497" s="71" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="G497" s="8">
         <v>466</v>
@@ -36496,10 +36542,10 @@
         <v>1</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D498" s="71" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="G498" s="8">
         <v>467</v>
@@ -36528,10 +36574,10 @@
         <v>1</v>
       </c>
       <c r="C499" s="20" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D499" s="20" t="s">
         <v>2532</v>
-      </c>
-      <c r="D499" s="20" t="s">
-        <v>2533</v>
       </c>
       <c r="G499" s="19">
         <v>471</v>
@@ -36543,7 +36589,7 @@
         <v>1</v>
       </c>
       <c r="J499" s="20" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="K499" s="19">
         <v>0</v>
@@ -36560,10 +36606,10 @@
         <v>1</v>
       </c>
       <c r="C500" s="20" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D500" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G500" s="19">
         <v>470</v>
@@ -36592,10 +36638,10 @@
         <v>1</v>
       </c>
       <c r="C501" s="20" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D501" s="20" t="s">
         <v>2543</v>
-      </c>
-      <c r="D501" s="20" t="s">
-        <v>2544</v>
       </c>
       <c r="G501" s="19">
         <v>470</v>
@@ -36626,13 +36672,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1115"/>
+  <dimension ref="A1:I1117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1089" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1113" sqref="B1113:G1113"/>
+      <selection pane="bottomRight" activeCell="C1112" sqref="C1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -39242,7 +39288,7 @@
         <v>60</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1071</v>
@@ -43428,19 +43474,19 @@
         <v>109</v>
       </c>
       <c r="C294" s="31" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D294" s="31" t="s">
         <v>2449</v>
       </c>
-      <c r="D294" s="31" t="s">
+      <c r="E294" s="14">
+        <v>2</v>
+      </c>
+      <c r="F294" s="14">
+        <v>1</v>
+      </c>
+      <c r="G294" s="31" t="s">
         <v>2450</v>
-      </c>
-      <c r="E294" s="14">
-        <v>2</v>
-      </c>
-      <c r="F294" s="14">
-        <v>1</v>
-      </c>
-      <c r="G294" s="31" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1">
@@ -43451,19 +43497,19 @@
         <v>109</v>
       </c>
       <c r="C295" s="31" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D295" s="31" t="s">
         <v>2452</v>
       </c>
-      <c r="D295" s="31" t="s">
+      <c r="E295" s="14">
+        <v>2</v>
+      </c>
+      <c r="F295" s="14">
+        <v>1</v>
+      </c>
+      <c r="G295" s="31" t="s">
         <v>2453</v>
-      </c>
-      <c r="E295" s="14">
-        <v>2</v>
-      </c>
-      <c r="F295" s="14">
-        <v>1</v>
-      </c>
-      <c r="G295" s="31" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="8" customFormat="1">
@@ -49159,7 +49205,7 @@
         <v>1</v>
       </c>
       <c r="G542" s="65" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="8" customFormat="1">
@@ -49228,7 +49274,7 @@
         <v>2</v>
       </c>
       <c r="G545" s="65" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="546" spans="1:7" s="8" customFormat="1">
@@ -49251,7 +49297,7 @@
         <v>2</v>
       </c>
       <c r="G546" s="65" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="8" customFormat="1">
@@ -49366,7 +49412,7 @@
         <v>2</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="8" customFormat="1">
@@ -61617,7 +61663,7 @@
         <v>847</v>
       </c>
       <c r="D1084" s="65" t="s">
-        <v>916</v>
+        <v>2554</v>
       </c>
       <c r="E1084" s="64">
         <v>2</v>
@@ -61764,7 +61810,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="65" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61787,7 +61833,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61856,7 +61902,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61890,19 +61936,19 @@
         <v>456</v>
       </c>
       <c r="C1096" s="65" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D1096" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1096" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1096" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="65" t="s">
         <v>2379</v>
-      </c>
-      <c r="E1096" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1096" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1096" s="65" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61913,10 +61959,10 @@
         <v>456</v>
       </c>
       <c r="C1097" s="65" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D1097" s="65" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="E1097" s="64">
         <v>2</v>
@@ -61925,7 +61971,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61959,7 +62005,7 @@
         <v>458</v>
       </c>
       <c r="C1099" s="65" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D1099" s="65" t="s">
         <v>916</v>
@@ -62063,7 +62109,7 @@
         <v>2</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62077,7 +62123,7 @@
         <v>1942</v>
       </c>
       <c r="D1104" s="26" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E1104" s="9">
         <v>5</v>
@@ -62086,7 +62132,7 @@
         <v>2</v>
       </c>
       <c r="G1104" s="26" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62100,16 +62146,16 @@
         <v>2164</v>
       </c>
       <c r="D1105" s="9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1105" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1105" s="26" t="s">
         <v>2442</v>
-      </c>
-      <c r="E1105" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1105" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1105" s="26" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62132,7 +62178,7 @@
         <v>1</v>
       </c>
       <c r="G1106" s="26" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62155,7 +62201,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1108" spans="1:7" s="8" customFormat="1">
@@ -62201,7 +62247,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1110" spans="1:7" s="8" customFormat="1">
@@ -62224,7 +62270,7 @@
         <v>1</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62238,7 +62284,7 @@
         <v>1942</v>
       </c>
       <c r="D1111" s="26" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E1111" s="9">
         <v>2</v>
@@ -62247,7 +62293,7 @@
         <v>1</v>
       </c>
       <c r="G1111" s="26" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62261,7 +62307,7 @@
         <v>1942</v>
       </c>
       <c r="D1112" s="26" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E1112" s="9">
         <v>5</v>
@@ -62270,7 +62316,7 @@
         <v>1</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62284,16 +62330,16 @@
         <v>847</v>
       </c>
       <c r="D1113" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1113" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="10" t="s">
         <v>2529</v>
-      </c>
-      <c r="E1113" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="10" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -62307,16 +62353,16 @@
         <v>847</v>
       </c>
       <c r="D1114" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1114" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="10" t="s">
         <v>2529</v>
-      </c>
-      <c r="E1114" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1114" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="10" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -62327,10 +62373,10 @@
         <v>471</v>
       </c>
       <c r="C1115" s="26" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D1115" s="26" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E1115" s="9">
         <v>2</v>
@@ -62339,7 +62385,53 @@
         <v>1</v>
       </c>
       <c r="G1115" s="26" t="s">
-        <v>2540</v>
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7">
+      <c r="A1116" s="8">
+        <v>1115</v>
+      </c>
+      <c r="B1116" s="64">
+        <v>472</v>
+      </c>
+      <c r="C1116" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1116" s="65" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E1116" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1116" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="65" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="A1117" s="8">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="64">
+        <v>472</v>
+      </c>
+      <c r="C1117" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1117" s="65" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1117" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="65" t="s">
+        <v>2248</v>
       </c>
     </row>
   </sheetData>
@@ -62352,10 +62444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62442,7 +62534,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>878</v>
@@ -62471,7 +62563,7 @@
         <v>878</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -62534,22 +62626,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>878</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>2523</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -62557,22 +62649,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>878</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>2546</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2547</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1082</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1083</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="2557">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12825,6 +12825,10 @@
   </si>
   <si>
     <t>tag_plat_wqp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13468,8 +13472,8 @@
   <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A497" sqref="A497"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -36672,13 +36676,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1117"/>
+  <dimension ref="A1:I1118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1089" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1112" sqref="C1112"/>
+      <selection pane="bottomRight" activeCell="D928" sqref="D928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58046,13 +58050,13 @@
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C927" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D927" s="30" t="s">
-        <v>1979</v>
+        <v>2556</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
@@ -58061,7 +58065,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="8" t="s">
-        <v>1980</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -58069,7 +58073,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C928" s="8" t="s">
         <v>847</v>
@@ -58092,10 +58096,10 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>379</v>
-      </c>
-      <c r="C929" s="10" t="s">
-        <v>1981</v>
+        <v>378</v>
+      </c>
+      <c r="C929" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="D929" s="30" t="s">
         <v>1979</v>
@@ -58115,13 +58119,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>380</v>
-      </c>
-      <c r="C930" s="8" t="s">
-        <v>847</v>
+        <v>379</v>
+      </c>
+      <c r="C930" s="10" t="s">
+        <v>1981</v>
       </c>
       <c r="D930" s="30" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -58138,13 +58142,13 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C931" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D931" s="30" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -58152,8 +58156,8 @@
       <c r="F931" s="8">
         <v>1</v>
       </c>
-      <c r="G931" s="10" t="s">
-        <v>1983</v>
+      <c r="G931" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -58163,11 +58167,11 @@
       <c r="B932" s="8">
         <v>381</v>
       </c>
-      <c r="C932" s="10" t="s">
+      <c r="C932" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D932" s="10" t="s">
-        <v>900</v>
+      <c r="D932" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -58176,7 +58180,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="933" spans="1:7">
@@ -58184,22 +58188,22 @@
         <v>932</v>
       </c>
       <c r="B933" s="8">
-        <v>382</v>
-      </c>
-      <c r="C933" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C933" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D933" s="30" t="s">
-        <v>1979</v>
+      <c r="D933" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E933" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
       <c r="G933" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -58207,7 +58211,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C934" s="8" t="s">
         <v>847</v>
@@ -58230,22 +58234,22 @@
         <v>934</v>
       </c>
       <c r="B935" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C935" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D935" s="10" t="s">
-        <v>1986</v>
+      <c r="D935" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E935" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F935" s="8">
         <v>1</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>853</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="936" spans="1:7">
@@ -58258,8 +58262,8 @@
       <c r="C936" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D936" s="30" t="s">
-        <v>1979</v>
+      <c r="D936" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -58268,7 +58272,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>1983</v>
+        <v>853</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -58276,13 +58280,13 @@
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>385</v>
-      </c>
-      <c r="C937" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D937" s="10" t="s">
-        <v>1987</v>
+        <v>384</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D937" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -58291,7 +58295,7 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>857</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="938" spans="1:7">
@@ -58301,11 +58305,11 @@
       <c r="B938" s="8">
         <v>385</v>
       </c>
-      <c r="C938" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D938" s="30" t="s">
-        <v>1839</v>
+      <c r="C938" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D938" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -58314,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1983</v>
+        <v>857</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -58322,13 +58326,13 @@
         <v>938</v>
       </c>
       <c r="B939" s="8">
-        <v>386</v>
-      </c>
-      <c r="C939" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D939" s="11" t="s">
-        <v>1988</v>
+        <v>385</v>
+      </c>
+      <c r="C939" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D939" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -58337,7 +58341,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>861</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -58347,11 +58351,11 @@
       <c r="B940" s="8">
         <v>386</v>
       </c>
-      <c r="C940" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D940" s="30" t="s">
-        <v>1839</v>
+      <c r="C940" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D940" s="11" t="s">
+        <v>1988</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
@@ -58360,7 +58364,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>1983</v>
+        <v>861</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -58368,13 +58372,13 @@
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>387</v>
-      </c>
-      <c r="C941" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D941" s="11" t="s">
-        <v>1989</v>
+        <v>386</v>
+      </c>
+      <c r="C941" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D941" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -58383,7 +58387,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58393,11 +58397,11 @@
       <c r="B942" s="8">
         <v>387</v>
       </c>
-      <c r="C942" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D942" s="30" t="s">
-        <v>1979</v>
+      <c r="C942" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D942" s="11" t="s">
+        <v>1989</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -58406,7 +58410,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -58414,13 +58418,13 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>388</v>
-      </c>
-      <c r="C943" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D943" s="11" t="s">
-        <v>1991</v>
+        <v>387</v>
+      </c>
+      <c r="C943" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D943" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E943" s="8">
         <v>2</v>
@@ -58429,7 +58433,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -58439,11 +58443,11 @@
       <c r="B944" s="8">
         <v>388</v>
       </c>
-      <c r="C944" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D944" s="30" t="s">
-        <v>1979</v>
+      <c r="C944" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D944" s="11" t="s">
+        <v>1991</v>
       </c>
       <c r="E944" s="8">
         <v>2</v>
@@ -58452,7 +58456,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>1983</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -58460,13 +58464,13 @@
         <v>944</v>
       </c>
       <c r="B945" s="8">
-        <v>389</v>
-      </c>
-      <c r="C945" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C945" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D945" s="10" t="s">
-        <v>848</v>
+      <c r="D945" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E945" s="8">
         <v>2</v>
@@ -58475,7 +58479,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>849</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -58485,11 +58489,11 @@
       <c r="B946" s="8">
         <v>389</v>
       </c>
-      <c r="C946" s="8" t="s">
+      <c r="C946" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D946" s="30" t="s">
-        <v>1979</v>
+      <c r="D946" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
@@ -58498,7 +58502,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>1983</v>
+        <v>849</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -58506,7 +58510,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C947" s="8" t="s">
         <v>847</v>
@@ -58520,31 +58524,31 @@
       <c r="F947" s="8">
         <v>1</v>
       </c>
-      <c r="G947" s="8" t="s">
-        <v>1980</v>
+      <c r="G947" s="10" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="948" spans="1:7">
       <c r="A948" s="8">
         <v>947</v>
       </c>
-      <c r="B948" s="51">
-        <v>391</v>
-      </c>
-      <c r="C948" s="52" t="s">
+      <c r="B948" s="8">
+        <v>390</v>
+      </c>
+      <c r="C948" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D948" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="E948" s="51">
-        <v>5</v>
-      </c>
-      <c r="F948" s="51">
-        <v>1</v>
-      </c>
-      <c r="G948" s="52" t="s">
-        <v>904</v>
+      <c r="D948" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E948" s="8">
+        <v>2</v>
+      </c>
+      <c r="F948" s="8">
+        <v>1</v>
+      </c>
+      <c r="G948" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="949" spans="1:7">
@@ -58554,11 +58558,11 @@
       <c r="B949" s="51">
         <v>391</v>
       </c>
-      <c r="C949" s="51" t="s">
+      <c r="C949" s="52" t="s">
         <v>847</v>
       </c>
-      <c r="D949" s="59" t="s">
-        <v>1840</v>
+      <c r="D949" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="E949" s="51">
         <v>5</v>
@@ -58567,30 +58571,30 @@
         <v>1</v>
       </c>
       <c r="G949" s="52" t="s">
-        <v>1937</v>
+        <v>904</v>
       </c>
     </row>
     <row r="950" spans="1:7">
       <c r="A950" s="8">
         <v>949</v>
       </c>
-      <c r="B950" s="8">
-        <v>392</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D950" s="8">
-        <v>1</v>
-      </c>
-      <c r="E950" s="8">
-        <v>3</v>
-      </c>
-      <c r="F950" s="8">
-        <v>1</v>
-      </c>
-      <c r="G950" s="10" t="s">
-        <v>1997</v>
+      <c r="B950" s="51">
+        <v>391</v>
+      </c>
+      <c r="C950" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D950" s="59" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E950" s="51">
+        <v>5</v>
+      </c>
+      <c r="F950" s="51">
+        <v>1</v>
+      </c>
+      <c r="G950" s="52" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="951" spans="1:7">
@@ -58598,22 +58602,22 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D951" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E951" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F951" s="8">
         <v>1</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>865</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -58623,20 +58627,20 @@
       <c r="B952" s="8">
         <v>393</v>
       </c>
-      <c r="C952" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D952" s="30" t="s">
-        <v>1839</v>
+      <c r="C952" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D952" s="8">
+        <v>0</v>
       </c>
       <c r="E952" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F952" s="8">
         <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>1975</v>
+        <v>865</v>
       </c>
     </row>
     <row r="953" spans="1:7">
@@ -58644,22 +58648,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="8">
-        <v>394</v>
-      </c>
-      <c r="C953" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D953" s="8">
-        <v>1607356800</v>
+        <v>393</v>
+      </c>
+      <c r="C953" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D953" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E953" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F953" s="8">
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2029</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -58669,20 +58673,20 @@
       <c r="B954" s="8">
         <v>394</v>
       </c>
-      <c r="C954" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D954" s="30" t="s">
-        <v>1839</v>
+      <c r="C954" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D954" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E954" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>1975</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -58690,22 +58694,22 @@
         <v>954</v>
       </c>
       <c r="B955" s="8">
-        <v>395</v>
-      </c>
-      <c r="C955" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D955" s="8">
-        <v>1607356800</v>
+        <v>394</v>
+      </c>
+      <c r="C955" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D955" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E955" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2029</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58716,19 +58720,19 @@
         <v>395</v>
       </c>
       <c r="C956" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D956" s="15" t="s">
-        <v>1029</v>
+        <v>2028</v>
+      </c>
+      <c r="D956" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E956" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -58739,19 +58743,19 @@
         <v>395</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D957" s="8">
-        <v>1607356800</v>
+        <v>1023</v>
+      </c>
+      <c r="D957" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E957" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F957" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58762,65 +58766,65 @@
         <v>395</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D958" s="15" t="s">
-        <v>1748</v>
+        <v>2028</v>
+      </c>
+      <c r="D958" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E958" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F958" s="8">
         <v>2</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="959" spans="1:7">
       <c r="A959" s="8">
         <v>958</v>
       </c>
-      <c r="B959" s="14">
-        <v>396</v>
-      </c>
-      <c r="C959" s="31" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D959" s="14">
-        <v>1607356800</v>
-      </c>
-      <c r="E959" s="14">
-        <v>3</v>
-      </c>
-      <c r="F959" s="14">
-        <v>1</v>
-      </c>
-      <c r="G959" s="31" t="s">
-        <v>2029</v>
+      <c r="B959" s="8">
+        <v>395</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D959" s="15" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E959" s="8">
+        <v>2</v>
+      </c>
+      <c r="F959" s="8">
+        <v>2</v>
+      </c>
+      <c r="G959" s="10" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="960" spans="1:7">
       <c r="A960" s="8">
         <v>959</v>
       </c>
-      <c r="B960" s="8">
-        <v>397</v>
-      </c>
-      <c r="C960" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D960" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E960" s="8">
-        <v>2</v>
-      </c>
-      <c r="F960" s="8">
-        <v>1</v>
-      </c>
-      <c r="G960" s="10" t="s">
-        <v>911</v>
+      <c r="B960" s="14">
+        <v>396</v>
+      </c>
+      <c r="C960" s="31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D960" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E960" s="14">
+        <v>3</v>
+      </c>
+      <c r="F960" s="14">
+        <v>1</v>
+      </c>
+      <c r="G960" s="31" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -58828,13 +58832,13 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C961" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D961" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E961" s="8">
         <v>2</v>
@@ -58843,44 +58847,44 @@
         <v>1</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="962" spans="1:7" s="8" customFormat="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7">
       <c r="A962" s="8">
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>399</v>
-      </c>
-      <c r="C962" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D962" s="8">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="C962" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D962" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E962" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="963" spans="1:7">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" s="8" customFormat="1">
       <c r="A963" s="8">
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C963" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D963" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E963" s="8">
         <v>3</v>
@@ -58889,7 +58893,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2045</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="964" spans="1:7">
@@ -58897,13 +58901,13 @@
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C964" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D964" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E964" s="8">
         <v>3</v>
@@ -58912,30 +58916,30 @@
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7" s="8" customFormat="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7">
       <c r="A965" s="8">
         <v>964</v>
       </c>
       <c r="B965" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C965" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D965" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D965" s="8">
+        <v>8</v>
       </c>
       <c r="E965" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F965" s="8">
         <v>1</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>904</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="966" spans="1:7" s="8" customFormat="1">
@@ -58943,22 +58947,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C966" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D966" s="8">
-        <v>0</v>
+        <v>847</v>
+      </c>
+      <c r="D966" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E966" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F966" s="8">
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2057</v>
+        <v>904</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="8" customFormat="1">
@@ -58966,7 +58970,7 @@
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C967" s="10" t="s">
         <v>1117</v>
@@ -58975,13 +58979,13 @@
         <v>0</v>
       </c>
       <c r="E967" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F967" s="8">
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="8" customFormat="1">
@@ -58989,22 +58993,22 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C968" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D968" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D968" s="8">
+        <v>0</v>
       </c>
       <c r="E968" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>904</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="969" spans="1:7" s="8" customFormat="1">
@@ -59012,13 +59016,13 @@
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>406</v>
-      </c>
-      <c r="C969" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C969" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D969" s="30" t="s">
-        <v>1839</v>
+      <c r="D969" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E969" s="8">
         <v>5</v>
@@ -59027,53 +59031,53 @@
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" s="8" customFormat="1">
       <c r="A970" s="8">
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C970" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D970" s="44" t="s">
-        <v>2088</v>
+        <v>847</v>
+      </c>
+      <c r="D970" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E970" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F970" s="8">
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7" s="8" customFormat="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A971" s="8">
         <v>970</v>
       </c>
       <c r="B971" s="8">
         <v>407</v>
       </c>
-      <c r="C971" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D971" s="8" t="s">
-        <v>2090</v>
+      <c r="C971" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D971" s="44" t="s">
+        <v>2088</v>
       </c>
       <c r="E971" s="8">
         <v>2</v>
       </c>
       <c r="F971" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="8" customFormat="1">
@@ -59083,11 +59087,11 @@
       <c r="B972" s="8">
         <v>407</v>
       </c>
-      <c r="C972" s="8" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D972" s="10" t="s">
-        <v>2094</v>
+      <c r="C972" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D972" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E972" s="8">
         <v>2</v>
@@ -59096,7 +59100,7 @@
         <v>2</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59106,20 +59110,20 @@
       <c r="B973" s="8">
         <v>407</v>
       </c>
-      <c r="C973" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D973" s="15" t="s">
-        <v>1029</v>
+      <c r="C973" s="8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D973" s="10" t="s">
+        <v>2094</v>
       </c>
       <c r="E973" s="8">
         <v>2</v>
       </c>
       <c r="F973" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59129,11 +59133,11 @@
       <c r="B974" s="8">
         <v>407</v>
       </c>
-      <c r="C974" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D974" s="10" t="s">
-        <v>2093</v>
+      <c r="C974" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D974" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E974" s="8">
         <v>2</v>
@@ -59142,7 +59146,7 @@
         <v>3</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59150,22 +59154,22 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>408</v>
-      </c>
-      <c r="C975" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D975" s="8" t="s">
-        <v>2090</v>
+        <v>407</v>
+      </c>
+      <c r="C975" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D975" s="10" t="s">
+        <v>2093</v>
       </c>
       <c r="E975" s="8">
         <v>2</v>
       </c>
       <c r="F975" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2112</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -59173,22 +59177,22 @@
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>409</v>
-      </c>
-      <c r="C976" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D976" s="30" t="s">
-        <v>2246</v>
+        <v>408</v>
+      </c>
+      <c r="C976" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D976" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E976" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>1975</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59196,22 +59200,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C977" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D977" s="30" t="s">
-        <v>1839</v>
+        <v>2246</v>
       </c>
       <c r="E977" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F977" s="8">
         <v>1</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2121</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -59219,7 +59223,7 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C978" s="8" t="s">
         <v>847</v>
@@ -59228,13 +59232,13 @@
         <v>1839</v>
       </c>
       <c r="E978" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F978" s="8">
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>1975</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59242,7 +59246,7 @@
         <v>978</v>
       </c>
       <c r="B979" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C979" s="8" t="s">
         <v>847</v>
@@ -59251,13 +59255,13 @@
         <v>1839</v>
       </c>
       <c r="E979" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F979" s="8">
         <v>1</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2127</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59265,22 +59269,22 @@
         <v>979</v>
       </c>
       <c r="B980" s="8">
-        <v>413</v>
-      </c>
-      <c r="C980" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D980" s="8">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="C980" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D980" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E980" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F980" s="8">
         <v>1</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="981" spans="1:7" s="8" customFormat="1">
@@ -59288,10 +59292,10 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C981" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D981" s="8">
         <v>2</v>
@@ -59303,7 +59307,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59311,22 +59315,22 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>415</v>
-      </c>
-      <c r="C982" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D982" s="30" t="s">
-        <v>2138</v>
+        <v>414</v>
+      </c>
+      <c r="C982" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D982" s="8">
+        <v>2</v>
       </c>
       <c r="E982" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F982" s="8">
         <v>1</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59337,19 +59341,19 @@
         <v>415</v>
       </c>
       <c r="C983" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D983" s="10">
-        <v>86400</v>
+        <v>847</v>
+      </c>
+      <c r="D983" s="30" t="s">
+        <v>2138</v>
       </c>
       <c r="E983" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F983" s="8">
         <v>1</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>937</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59357,22 +59361,22 @@
         <v>983</v>
       </c>
       <c r="B984" s="8">
-        <v>416</v>
-      </c>
-      <c r="C984" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D984" s="8">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="C984" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D984" s="10">
+        <v>86400</v>
       </c>
       <c r="E984" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F984" s="8">
         <v>1</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>2146</v>
+        <v>937</v>
       </c>
     </row>
     <row r="985" spans="1:7" s="8" customFormat="1">
@@ -59380,22 +59384,22 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>417</v>
-      </c>
-      <c r="C985" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D985" s="30" t="s">
-        <v>1839</v>
+        <v>416</v>
+      </c>
+      <c r="C985" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D985" s="8">
+        <v>0</v>
       </c>
       <c r="E985" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F985" s="8">
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>1975</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59403,22 +59407,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>418</v>
-      </c>
-      <c r="C986" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D986" s="10" t="s">
-        <v>2152</v>
+        <v>417</v>
+      </c>
+      <c r="C986" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D986" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E986" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>2153</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59429,10 +59433,10 @@
         <v>418</v>
       </c>
       <c r="C987" s="10" t="s">
-        <v>2087</v>
+        <v>2164</v>
       </c>
       <c r="D987" s="10" t="s">
-        <v>2088</v>
+        <v>2152</v>
       </c>
       <c r="E987" s="8">
         <v>2</v>
@@ -59441,7 +59445,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59452,19 +59456,19 @@
         <v>418</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D988" s="8" t="s">
-        <v>2155</v>
+        <v>2087</v>
+      </c>
+      <c r="D988" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E988" s="8">
         <v>2</v>
       </c>
       <c r="F988" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59475,10 +59479,10 @@
         <v>418</v>
       </c>
       <c r="C989" s="10" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D989" s="10" t="s">
-        <v>2088</v>
+        <v>2165</v>
+      </c>
+      <c r="D989" s="8" t="s">
+        <v>2155</v>
       </c>
       <c r="E989" s="8">
         <v>2</v>
@@ -59487,7 +59491,7 @@
         <v>2</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59498,19 +59502,19 @@
         <v>418</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D990" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
+      </c>
+      <c r="D990" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
       </c>
       <c r="F990" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59521,10 +59525,10 @@
         <v>418</v>
       </c>
       <c r="C991" s="10" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D991" s="10" t="s">
-        <v>2088</v>
+        <v>2166</v>
+      </c>
+      <c r="D991" s="8" t="s">
+        <v>2159</v>
       </c>
       <c r="E991" s="8">
         <v>2</v>
@@ -59533,7 +59537,7 @@
         <v>3</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59541,22 +59545,22 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D992" s="15" t="s">
-        <v>2034</v>
+        <v>2087</v>
+      </c>
+      <c r="D992" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
       </c>
       <c r="F992" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2036</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59566,20 +59570,20 @@
       <c r="B993" s="8">
         <v>419</v>
       </c>
-      <c r="C993" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D993" s="8">
-        <v>600</v>
+      <c r="C993" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D993" s="15" t="s">
+        <v>2034</v>
       </c>
       <c r="E993" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F993" s="8">
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2350</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59587,22 +59591,22 @@
         <v>993</v>
       </c>
       <c r="B994" s="8">
-        <v>420</v>
-      </c>
-      <c r="C994" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D994" s="15" t="s">
-        <v>2033</v>
+        <v>419</v>
+      </c>
+      <c r="C994" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D994" s="8">
+        <v>600</v>
       </c>
       <c r="E994" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F994" s="8">
         <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2035</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59612,20 +59616,20 @@
       <c r="B995" s="8">
         <v>420</v>
       </c>
-      <c r="C995" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D995" s="8">
-        <v>600</v>
+      <c r="C995" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D995" s="15" t="s">
+        <v>2033</v>
       </c>
       <c r="E995" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F995" s="8">
         <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2351</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59633,22 +59637,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="8">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C996" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D996" s="30" t="s">
-        <v>1839</v>
+        <v>2174</v>
+      </c>
+      <c r="D996" s="8">
+        <v>600</v>
       </c>
       <c r="E996" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F996" s="8">
         <v>1</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>1975</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59656,22 +59660,22 @@
         <v>996</v>
       </c>
       <c r="B997" s="8">
-        <v>422</v>
-      </c>
-      <c r="C997" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D997" s="8">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="C997" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D997" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E997" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F997" s="8">
         <v>1</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2189</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59679,22 +59683,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C998" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D998" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E998" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F998" s="8">
         <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59708,16 +59712,16 @@
         <v>1117</v>
       </c>
       <c r="D999" s="8">
+        <v>1</v>
+      </c>
+      <c r="E999" s="8">
         <v>3</v>
       </c>
-      <c r="E999" s="8">
-        <v>4</v>
-      </c>
       <c r="F999" s="8">
         <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59725,22 +59729,22 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1000" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1000" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1000" s="8">
         <v>4</v>
       </c>
-      <c r="E1000" s="8">
-        <v>3</v>
-      </c>
       <c r="F1000" s="8">
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59754,16 +59758,16 @@
         <v>1117</v>
       </c>
       <c r="D1001" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1001" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1001" s="8">
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59771,68 +59775,68 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1002" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1002" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1002" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>1992</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
       <c r="A1003" s="8">
         <v>1002</v>
       </c>
-      <c r="B1003" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1003" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1003" s="30" t="s">
-        <v>1839</v>
+      <c r="B1003" s="8">
+        <v>425</v>
+      </c>
+      <c r="C1003" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1003" s="8">
+        <v>8</v>
       </c>
       <c r="E1003" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2188</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
       <c r="A1004" s="8">
         <v>1003</v>
       </c>
-      <c r="B1004" s="8">
-        <v>427</v>
-      </c>
-      <c r="C1004" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1004" s="8">
-        <v>0</v>
+      <c r="B1004" s="16">
+        <v>426</v>
+      </c>
+      <c r="C1004" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1004" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1004" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59842,20 +59846,20 @@
       <c r="B1005" s="8">
         <v>427</v>
       </c>
-      <c r="C1005" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1005" s="30" t="s">
-        <v>1839</v>
+      <c r="C1005" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1005" s="8">
+        <v>0</v>
       </c>
       <c r="E1005" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59863,22 +59867,22 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1006" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1006" s="8">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="C1006" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1006" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1006" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59892,16 +59896,16 @@
         <v>1117</v>
       </c>
       <c r="D1007" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1007" s="8">
         <v>3</v>
       </c>
-      <c r="E1007" s="8">
-        <v>4</v>
-      </c>
       <c r="F1007" s="8">
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59911,20 +59915,20 @@
       <c r="B1008" s="8">
         <v>428</v>
       </c>
-      <c r="C1008" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1008" s="30" t="s">
-        <v>1839</v>
+      <c r="C1008" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1008" s="8">
+        <v>3</v>
       </c>
       <c r="E1008" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1008" s="8">
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
@@ -59932,22 +59936,22 @@
         <v>1008</v>
       </c>
       <c r="B1009" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1009" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1009" s="8">
-        <v>4</v>
+        <v>428</v>
+      </c>
+      <c r="C1009" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1009" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1009" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>1228</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59961,16 +59965,16 @@
         <v>1117</v>
       </c>
       <c r="D1010" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1010" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2191</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
@@ -59980,20 +59984,20 @@
       <c r="B1011" s="8">
         <v>429</v>
       </c>
-      <c r="C1011" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1011" s="30" t="s">
-        <v>1839</v>
+      <c r="C1011" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1011" s="8">
+        <v>7</v>
       </c>
       <c r="E1011" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1011" s="8">
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -60001,22 +60005,22 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1012" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1012" s="8">
-        <v>8</v>
+        <v>429</v>
+      </c>
+      <c r="C1012" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1012" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1012" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>1227</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60026,20 +60030,20 @@
       <c r="B1013" s="8">
         <v>430</v>
       </c>
-      <c r="C1013" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1013" s="30" t="s">
-        <v>1839</v>
+      <c r="C1013" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1013" s="8">
+        <v>8</v>
       </c>
       <c r="E1013" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2188</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60047,7 +60051,7 @@
         <v>1013</v>
       </c>
       <c r="B1014" s="8">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1014" s="8" t="s">
         <v>847</v>
@@ -60069,23 +60073,23 @@
       <c r="A1015" s="8">
         <v>1014</v>
       </c>
-      <c r="B1015" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1015" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1015" s="8">
-        <v>0</v>
+      <c r="B1015" s="8">
+        <v>431</v>
+      </c>
+      <c r="C1015" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1015" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1015" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60095,11 +60099,11 @@
       <c r="B1016" s="16">
         <v>432</v>
       </c>
-      <c r="C1016" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1016" s="10" t="s">
-        <v>1533</v>
+      <c r="C1016" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1016" s="8">
+        <v>0</v>
       </c>
       <c r="E1016" s="8">
         <v>2</v>
@@ -60108,7 +60112,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2247</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60118,20 +60122,20 @@
       <c r="B1017" s="16">
         <v>432</v>
       </c>
-      <c r="C1017" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1017" s="8">
-        <v>0</v>
+      <c r="C1017" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1017" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1017" s="8">
         <v>2</v>
       </c>
       <c r="F1017" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2189</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60141,11 +60145,11 @@
       <c r="B1018" s="16">
         <v>432</v>
       </c>
-      <c r="C1018" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1018" s="10" t="s">
-        <v>916</v>
+      <c r="C1018" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1018" s="8">
+        <v>0</v>
       </c>
       <c r="E1018" s="8">
         <v>2</v>
@@ -60154,7 +60158,7 @@
         <v>2</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2248</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60164,20 +60168,20 @@
       <c r="B1019" s="16">
         <v>432</v>
       </c>
-      <c r="C1019" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1019" s="8">
-        <v>0</v>
+      <c r="C1019" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1019" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1019" s="8">
         <v>2</v>
       </c>
       <c r="F1019" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2189</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
@@ -60187,11 +60191,11 @@
       <c r="B1020" s="16">
         <v>432</v>
       </c>
-      <c r="C1020" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1020" s="30" t="s">
-        <v>1839</v>
+      <c r="C1020" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1020" s="8">
+        <v>0</v>
       </c>
       <c r="E1020" s="8">
         <v>2</v>
@@ -60200,7 +60204,7 @@
         <v>3</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2243</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
@@ -60210,20 +60214,20 @@
       <c r="B1021" s="16">
         <v>432</v>
       </c>
-      <c r="C1021" s="10" t="s">
+      <c r="C1021" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1021" s="10" t="s">
-        <v>2245</v>
+      <c r="D1021" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1021" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1021" s="8">
         <v>3</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
@@ -60231,22 +60235,22 @@
         <v>1021</v>
       </c>
       <c r="B1022" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1022" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1022" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1022" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1022" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1022" s="8">
         <v>3</v>
       </c>
-      <c r="F1022" s="8">
-        <v>1</v>
-      </c>
       <c r="G1022" s="10" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60260,16 +60264,16 @@
         <v>1117</v>
       </c>
       <c r="D1023" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1023" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1023" s="8">
         <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -60279,20 +60283,20 @@
       <c r="B1024" s="16">
         <v>433</v>
       </c>
-      <c r="C1024" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1024" s="10" t="s">
-        <v>1533</v>
+      <c r="C1024" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1024" s="8">
+        <v>7</v>
       </c>
       <c r="E1024" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1024" s="8">
         <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60302,20 +60306,20 @@
       <c r="B1025" s="16">
         <v>433</v>
       </c>
-      <c r="C1025" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1025" s="8">
-        <v>1</v>
+      <c r="C1025" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1025" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1025" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1025" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1026" spans="1:7" s="8" customFormat="1">
@@ -60329,16 +60333,16 @@
         <v>1117</v>
       </c>
       <c r="D1026" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1026" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1026" s="8">
         <v>2</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60348,20 +60352,20 @@
       <c r="B1027" s="16">
         <v>433</v>
       </c>
-      <c r="C1027" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1027" s="10" t="s">
-        <v>916</v>
+      <c r="C1027" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1027" s="8">
+        <v>7</v>
       </c>
       <c r="E1027" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1027" s="8">
         <v>2</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60371,20 +60375,20 @@
       <c r="B1028" s="16">
         <v>433</v>
       </c>
-      <c r="C1028" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1028" s="8">
-        <v>1</v>
+      <c r="C1028" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1028" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1028" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1028" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2189</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60398,16 +60402,16 @@
         <v>1117</v>
       </c>
       <c r="D1029" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1029" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1029" s="8">
         <v>3</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2249</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60417,20 +60421,20 @@
       <c r="B1030" s="16">
         <v>433</v>
       </c>
-      <c r="C1030" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1030" s="30" t="s">
-        <v>1839</v>
+      <c r="C1030" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1030" s="8">
+        <v>7</v>
       </c>
       <c r="E1030" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1030" s="8">
         <v>3</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60440,20 +60444,20 @@
       <c r="B1031" s="16">
         <v>433</v>
       </c>
-      <c r="C1031" s="10" t="s">
+      <c r="C1031" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1031" s="10" t="s">
-        <v>2245</v>
+      <c r="D1031" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1031" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1031" s="8">
         <v>3</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60461,22 +60465,22 @@
         <v>1031</v>
       </c>
       <c r="B1032" s="16">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1032" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1032" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1032" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1032" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1032" s="8">
         <v>3</v>
       </c>
-      <c r="F1032" s="8">
-        <v>1</v>
-      </c>
       <c r="G1032" s="10" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60486,20 +60490,20 @@
       <c r="B1033" s="16">
         <v>434</v>
       </c>
-      <c r="C1033" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1033" s="10" t="s">
-        <v>1533</v>
+      <c r="C1033" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1033" s="8">
+        <v>8</v>
       </c>
       <c r="E1033" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1033" s="8">
         <v>1</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2247</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60509,20 +60513,20 @@
       <c r="B1034" s="16">
         <v>434</v>
       </c>
-      <c r="C1034" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1034" s="8">
-        <v>8</v>
+      <c r="C1034" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1034" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1034" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1034" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60532,20 +60536,20 @@
       <c r="B1035" s="16">
         <v>434</v>
       </c>
-      <c r="C1035" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1035" s="10" t="s">
-        <v>916</v>
+      <c r="C1035" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1035" s="8">
+        <v>8</v>
       </c>
       <c r="E1035" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1035" s="8">
         <v>2</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60555,20 +60559,20 @@
       <c r="B1036" s="16">
         <v>434</v>
       </c>
-      <c r="C1036" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1036" s="8">
-        <v>8</v>
+      <c r="C1036" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1036" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1036" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1036" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60578,20 +60582,20 @@
       <c r="B1037" s="16">
         <v>434</v>
       </c>
-      <c r="C1037" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1037" s="30" t="s">
-        <v>1839</v>
+      <c r="C1037" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1037" s="8">
+        <v>8</v>
       </c>
       <c r="E1037" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1037" s="8">
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2243</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60601,43 +60605,43 @@
       <c r="B1038" s="16">
         <v>434</v>
       </c>
-      <c r="C1038" s="10" t="s">
+      <c r="C1038" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1038" s="10" t="s">
-        <v>2245</v>
+      <c r="D1038" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1038" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1038" s="8">
         <v>3</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
       <c r="A1039" s="8">
         <v>1038</v>
       </c>
-      <c r="B1039" s="8">
-        <v>435</v>
+      <c r="B1039" s="16">
+        <v>434</v>
       </c>
       <c r="C1039" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1039" s="10" t="s">
-        <v>900</v>
+        <v>2245</v>
       </c>
       <c r="E1039" s="8">
         <v>5</v>
       </c>
       <c r="F1039" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>904</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60645,22 +60649,22 @@
         <v>1039</v>
       </c>
       <c r="B1040" s="8">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1040" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1040" s="10" t="s">
-        <v>852</v>
+        <v>900</v>
       </c>
       <c r="E1040" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1040" s="8">
         <v>1</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1041" spans="1:7" s="8" customFormat="1">
@@ -60674,16 +60678,16 @@
         <v>847</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E1041" s="8">
         <v>2</v>
       </c>
       <c r="F1041" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60697,16 +60701,16 @@
         <v>847</v>
       </c>
       <c r="D1042" s="10" t="s">
-        <v>1205</v>
+        <v>856</v>
       </c>
       <c r="E1042" s="8">
         <v>2</v>
       </c>
       <c r="F1042" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>1238</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1043" spans="1:7" s="8" customFormat="1">
@@ -60714,22 +60718,22 @@
         <v>1042</v>
       </c>
       <c r="B1043" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1043" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1043" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1043" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1043" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1043" s="8">
         <v>3</v>
       </c>
-      <c r="F1043" s="8">
-        <v>1</v>
-      </c>
       <c r="G1043" s="10" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60743,16 +60747,16 @@
         <v>1117</v>
       </c>
       <c r="D1044" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1044" s="8">
         <v>3</v>
       </c>
-      <c r="E1044" s="8">
-        <v>4</v>
-      </c>
       <c r="F1044" s="8">
         <v>1</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
@@ -60763,19 +60767,19 @@
         <v>437</v>
       </c>
       <c r="C1045" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1045" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1045" s="8">
+        <v>3</v>
       </c>
       <c r="E1045" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1045" s="8">
         <v>1</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
@@ -60783,22 +60787,22 @@
         <v>1045</v>
       </c>
       <c r="B1046" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1046" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1046" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1046" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1046" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1046" s="8">
         <v>1</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>1333</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60812,16 +60816,16 @@
         <v>1117</v>
       </c>
       <c r="D1047" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1047" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1047" s="8">
         <v>1</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60832,19 +60836,19 @@
         <v>438</v>
       </c>
       <c r="C1048" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1048" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1048" s="8">
+        <v>7</v>
       </c>
       <c r="E1048" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1048" s="8">
         <v>1</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60852,22 +60856,22 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1049" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1049" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1049" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1049" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1049" s="8">
         <v>1</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60881,16 +60885,16 @@
         <v>1117</v>
       </c>
       <c r="D1050" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1050" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1050" s="8">
         <v>1</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60901,19 +60905,19 @@
         <v>439</v>
       </c>
       <c r="C1051" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1051" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1051" s="8">
+        <v>12</v>
       </c>
       <c r="E1051" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60921,13 +60925,13 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1052" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1052" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1052" s="30" t="s">
-        <v>1839</v>
+      <c r="D1052" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1052" s="8">
         <v>5</v>
@@ -60936,7 +60940,7 @@
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>2188</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60944,7 +60948,7 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1053" s="8" t="s">
         <v>847</v>
@@ -60953,27 +60957,27 @@
         <v>1839</v>
       </c>
       <c r="E1053" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1053" s="8">
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:7">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" s="8" customFormat="1">
       <c r="A1054" s="8">
         <v>1053</v>
       </c>
       <c r="B1054" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1054" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1054" s="15" t="s">
-        <v>1029</v>
+        <v>441</v>
+      </c>
+      <c r="C1054" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1054" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1054" s="8">
         <v>2</v>
@@ -60982,7 +60986,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1055" spans="1:7">
@@ -60995,17 +60999,17 @@
       <c r="C1055" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1055" s="8" t="s">
-        <v>2090</v>
+      <c r="D1055" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E1055" s="8">
         <v>2</v>
       </c>
       <c r="F1055" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>2112</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1056" spans="1:7">
@@ -61018,17 +61022,17 @@
       <c r="C1056" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1056" s="10" t="s">
-        <v>2303</v>
+      <c r="D1056" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E1056" s="8">
         <v>2</v>
       </c>
       <c r="F1056" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>2304</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1057" spans="1:7">
@@ -61036,22 +61040,22 @@
         <v>1056</v>
       </c>
       <c r="B1057" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1057" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D1057" s="10" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="E1057" s="8">
         <v>2</v>
       </c>
       <c r="F1057" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1058" spans="1:7">
@@ -61065,16 +61069,16 @@
         <v>1023</v>
       </c>
       <c r="D1058" s="10" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E1058" s="8">
         <v>2</v>
       </c>
       <c r="F1058" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1059" spans="1:7">
@@ -61088,16 +61092,16 @@
         <v>1023</v>
       </c>
       <c r="D1059" s="10" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="E1059" s="8">
         <v>2</v>
       </c>
       <c r="F1059" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -61105,22 +61109,22 @@
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1060" s="8" t="s">
-        <v>847</v>
+        <v>443</v>
+      </c>
+      <c r="C1060" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D1060" s="10" t="s">
-        <v>1533</v>
+        <v>2308</v>
       </c>
       <c r="E1060" s="8">
         <v>2</v>
       </c>
       <c r="F1060" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2247</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1061" spans="1:7">
@@ -61130,20 +61134,20 @@
       <c r="B1061" s="8">
         <v>444</v>
       </c>
-      <c r="C1061" s="10" t="s">
+      <c r="C1061" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1061" s="10" t="s">
-        <v>1205</v>
+        <v>1533</v>
       </c>
       <c r="E1061" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1061" s="8">
         <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2341</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61153,20 +61157,20 @@
       <c r="B1062" s="8">
         <v>444</v>
       </c>
-      <c r="C1062" s="8" t="s">
+      <c r="C1062" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1062" s="10" t="s">
-        <v>916</v>
+        <v>1205</v>
       </c>
       <c r="E1062" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1062" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2248</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61176,20 +61180,20 @@
       <c r="B1063" s="8">
         <v>444</v>
       </c>
-      <c r="C1063" s="10" t="s">
+      <c r="C1063" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1063" s="10" t="s">
-        <v>1205</v>
+        <v>916</v>
       </c>
       <c r="E1063" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1063" s="8">
         <v>2</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2341</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61197,22 +61201,22 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>445</v>
-      </c>
-      <c r="C1064" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1064" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1064" s="30" t="s">
-        <v>1839</v>
+      <c r="D1064" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1064" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1064" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2116</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61220,13 +61224,13 @@
         <v>1064</v>
       </c>
       <c r="B1065" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1065" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1065" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1065" s="10" t="s">
-        <v>852</v>
+      <c r="D1065" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
@@ -61235,7 +61239,7 @@
         <v>1</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>903</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61249,16 +61253,16 @@
         <v>847</v>
       </c>
       <c r="D1066" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
       </c>
       <c r="F1066" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61272,16 +61276,16 @@
         <v>847</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>1205</v>
+        <v>856</v>
       </c>
       <c r="E1067" s="8">
         <v>2</v>
       </c>
       <c r="F1067" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>1238</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61289,22 +61293,22 @@
         <v>1067</v>
       </c>
       <c r="B1068" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1068" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1068" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1068" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1068" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="8">
         <v>3</v>
       </c>
-      <c r="F1068" s="8">
-        <v>1</v>
-      </c>
       <c r="G1068" s="10" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61318,16 +61322,16 @@
         <v>1117</v>
       </c>
       <c r="D1069" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1069" s="8">
         <v>3</v>
       </c>
-      <c r="E1069" s="8">
-        <v>4</v>
-      </c>
       <c r="F1069" s="8">
         <v>1</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -61338,19 +61342,19 @@
         <v>447</v>
       </c>
       <c r="C1070" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1070" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1070" s="8">
+        <v>3</v>
       </c>
       <c r="E1070" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1070" s="8">
         <v>1</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61358,22 +61362,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1071" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1071" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1071" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1071" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1071" s="8">
         <v>1</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>1333</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61387,16 +61391,16 @@
         <v>1117</v>
       </c>
       <c r="D1072" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1072" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1072" s="8">
         <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61407,19 +61411,19 @@
         <v>448</v>
       </c>
       <c r="C1073" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1073" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1073" s="8">
+        <v>7</v>
       </c>
       <c r="E1073" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1073" s="8">
         <v>1</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61427,22 +61431,22 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1074" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1074" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1074" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1074" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1074" s="8">
         <v>1</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61456,16 +61460,16 @@
         <v>1117</v>
       </c>
       <c r="D1075" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1075" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1075" s="8">
         <v>1</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61476,19 +61480,19 @@
         <v>449</v>
       </c>
       <c r="C1076" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1076" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1076" s="8">
+        <v>12</v>
       </c>
       <c r="E1076" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61496,22 +61500,22 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1077" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1077" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1077" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1077" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>2247</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61525,39 +61529,39 @@
         <v>847</v>
       </c>
       <c r="D1078" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1078" s="8">
         <v>2</v>
       </c>
       <c r="F1078" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:7" s="8" customFormat="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7">
       <c r="A1079" s="8">
         <v>1078</v>
       </c>
       <c r="B1079" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1079" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1079" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1079" s="10" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E1079" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1079" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>904</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1080" spans="1:7" s="8" customFormat="1">
@@ -61567,20 +61571,20 @@
       <c r="B1080" s="8">
         <v>451</v>
       </c>
-      <c r="C1080" s="8" t="s">
+      <c r="C1080" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1080" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1080" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1080" s="8">
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>2247</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1081" spans="1:7" s="8" customFormat="1">
@@ -61590,20 +61594,20 @@
       <c r="B1081" s="8">
         <v>451</v>
       </c>
-      <c r="C1081" s="10" t="s">
+      <c r="C1081" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1081" s="10" t="s">
-        <v>900</v>
+        <v>1533</v>
       </c>
       <c r="E1081" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1081" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>904</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1082" spans="1:7" s="8" customFormat="1">
@@ -61613,43 +61617,43 @@
       <c r="B1082" s="8">
         <v>451</v>
       </c>
-      <c r="C1082" s="8" t="s">
+      <c r="C1082" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1082" s="10" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1082" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1082" s="8">
         <v>2</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:7">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" s="8" customFormat="1">
       <c r="A1083" s="8">
         <v>1082</v>
       </c>
-      <c r="B1083" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1083" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1083" s="65" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E1083" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1083" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1083" s="65" t="s">
-        <v>2309</v>
+      <c r="B1083" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1083" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1083" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1083" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1083" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1083" s="10" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61659,11 +61663,11 @@
       <c r="B1084" s="64">
         <v>452</v>
       </c>
-      <c r="C1084" s="64" t="s">
-        <v>847</v>
+      <c r="C1084" s="65" t="s">
+        <v>1023</v>
       </c>
       <c r="D1084" s="65" t="s">
-        <v>2554</v>
+        <v>1050</v>
       </c>
       <c r="E1084" s="64">
         <v>2</v>
@@ -61672,7 +61676,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="65" t="s">
-        <v>2248</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -61682,11 +61686,11 @@
       <c r="B1085" s="64">
         <v>452</v>
       </c>
-      <c r="C1085" s="65" t="s">
+      <c r="C1085" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1085" s="65" t="s">
-        <v>900</v>
+        <v>2554</v>
       </c>
       <c r="E1085" s="64">
         <v>2</v>
@@ -61695,7 +61699,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="65" t="s">
-        <v>2363</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -61703,13 +61707,13 @@
         <v>1085</v>
       </c>
       <c r="B1086" s="64">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1086" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1086" s="62" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D1086" s="65" t="s">
+        <v>900</v>
       </c>
       <c r="E1086" s="64">
         <v>2</v>
@@ -61718,7 +61722,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="65" t="s">
-        <v>2096</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -61728,11 +61732,11 @@
       <c r="B1087" s="64">
         <v>453</v>
       </c>
-      <c r="C1087" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1087" s="65" t="s">
-        <v>916</v>
+      <c r="C1087" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1087" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1087" s="64">
         <v>2</v>
@@ -61741,7 +61745,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="65" t="s">
-        <v>2248</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -61751,11 +61755,11 @@
       <c r="B1088" s="64">
         <v>453</v>
       </c>
-      <c r="C1088" s="65" t="s">
+      <c r="C1088" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1088" s="65" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E1088" s="64">
         <v>2</v>
@@ -61764,7 +61768,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="65" t="s">
-        <v>2363</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -61772,13 +61776,13 @@
         <v>1088</v>
       </c>
       <c r="B1089" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1089" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1089" s="65" t="s">
         <v>847</v>
       </c>
       <c r="D1089" s="65" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1089" s="64">
         <v>2</v>
@@ -61787,7 +61791,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="65" t="s">
-        <v>2248</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -61798,19 +61802,19 @@
         <v>454</v>
       </c>
       <c r="C1090" s="64" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1090" s="68">
-        <v>691200</v>
+        <v>847</v>
+      </c>
+      <c r="D1090" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1090" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1090" s="64">
         <v>1</v>
       </c>
       <c r="G1090" s="65" t="s">
-        <v>2369</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61820,20 +61824,20 @@
       <c r="B1091" s="64">
         <v>454</v>
       </c>
-      <c r="C1091" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1091" s="70">
-        <v>1615246200</v>
+      <c r="C1091" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1091" s="68">
+        <v>691200</v>
       </c>
       <c r="E1091" s="64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1091" s="64">
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61841,22 +61845,22 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="64">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1092" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1092" s="62" t="s">
-        <v>1029</v>
+        <v>1812</v>
+      </c>
+      <c r="D1092" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1092" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1092" s="64">
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2096</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61866,11 +61870,11 @@
       <c r="B1093" s="64">
         <v>455</v>
       </c>
-      <c r="C1093" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1093" s="65" t="s">
-        <v>916</v>
+      <c r="C1093" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1093" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1093" s="64">
         <v>2</v>
@@ -61879,7 +61883,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2248</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61889,20 +61893,20 @@
       <c r="B1094" s="64">
         <v>455</v>
       </c>
-      <c r="C1094" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1094" s="70">
-        <v>1615246200</v>
+      <c r="C1094" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1094" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1094" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1094" s="64">
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2373</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61910,22 +61914,22 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1095" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1095" s="65" t="s">
-        <v>1533</v>
+        <v>455</v>
+      </c>
+      <c r="C1095" s="65" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1095" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1095" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1095" s="64">
         <v>1</v>
       </c>
       <c r="G1095" s="65" t="s">
-        <v>2247</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -61935,11 +61939,11 @@
       <c r="B1096" s="64">
         <v>456</v>
       </c>
-      <c r="C1096" s="65" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D1096" s="62" t="s">
-        <v>2378</v>
+      <c r="C1096" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1096" s="65" t="s">
+        <v>1533</v>
       </c>
       <c r="E1096" s="64">
         <v>2</v>
@@ -61948,7 +61952,7 @@
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2379</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61959,10 +61963,10 @@
         <v>456</v>
       </c>
       <c r="C1097" s="65" t="s">
-        <v>2534</v>
-      </c>
-      <c r="D1097" s="65" t="s">
-        <v>2536</v>
+        <v>2435</v>
+      </c>
+      <c r="D1097" s="62" t="s">
+        <v>2378</v>
       </c>
       <c r="E1097" s="64">
         <v>2</v>
@@ -61971,30 +61975,30 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2538</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
       <c r="A1098" s="8">
         <v>1097</v>
       </c>
-      <c r="B1098" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1098" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1098" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E1098" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1098" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1098" s="10" t="s">
-        <v>2247</v>
+      <c r="B1098" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1098" s="65" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1098" s="65" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1098" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1098" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1098" s="65" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62002,22 +62006,22 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="9">
-        <v>458</v>
-      </c>
-      <c r="C1099" s="65" t="s">
-        <v>2515</v>
-      </c>
-      <c r="D1099" s="65" t="s">
-        <v>916</v>
-      </c>
-      <c r="E1099" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1099" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1099" s="65" t="s">
-        <v>2248</v>
+        <v>457</v>
+      </c>
+      <c r="C1099" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1099" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E1099" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1099" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="10" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62025,22 +62029,22 @@
         <v>1099</v>
       </c>
       <c r="B1100" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1100" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1100" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1100" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1100" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1100" s="10" t="s">
-        <v>1333</v>
+        <v>458</v>
+      </c>
+      <c r="C1100" s="65" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1100" s="65" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1100" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1100" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="65" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62054,16 +62058,16 @@
         <v>1117</v>
       </c>
       <c r="D1101" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1101" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1101" s="8">
         <v>1</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62071,13 +62075,13 @@
         <v>1101</v>
       </c>
       <c r="B1102" s="9">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1102" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1102" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1102" s="8">
         <v>4</v>
@@ -62086,7 +62090,7 @@
         <v>1</v>
       </c>
       <c r="G1102" s="10" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62094,22 +62098,22 @@
         <v>1102</v>
       </c>
       <c r="B1103" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1103" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1103" s="10" t="s">
-        <v>2093</v>
+        <v>460</v>
+      </c>
+      <c r="C1103" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1103" s="8">
+        <v>3</v>
       </c>
       <c r="E1103" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1103" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>2395</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62117,22 +62121,22 @@
         <v>1103</v>
       </c>
       <c r="B1104" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1104" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1104" s="26" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E1104" s="9">
+        <v>461</v>
+      </c>
+      <c r="C1104" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1104" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1104" s="8">
         <v>5</v>
       </c>
-      <c r="F1104" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1104" s="26" t="s">
-        <v>2436</v>
+      <c r="F1104" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1104" s="10" t="s">
+        <v>2395</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62140,22 +62144,22 @@
         <v>1104</v>
       </c>
       <c r="B1105" s="9">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1105" s="26" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1105" s="9" t="s">
-        <v>2441</v>
+        <v>1942</v>
+      </c>
+      <c r="D1105" s="26" t="s">
+        <v>2434</v>
       </c>
       <c r="E1105" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1105" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1105" s="26" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62165,11 +62169,11 @@
       <c r="B1106" s="9">
         <v>463</v>
       </c>
-      <c r="C1106" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1106" s="10" t="s">
-        <v>2093</v>
+      <c r="C1106" s="26" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1106" s="9" t="s">
+        <v>2441</v>
       </c>
       <c r="E1106" s="9">
         <v>2</v>
@@ -62178,7 +62182,7 @@
         <v>1</v>
       </c>
       <c r="G1106" s="26" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62186,36 +62190,36 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1107" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1107" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1107" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1107" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="10" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:7" s="8" customFormat="1">
+        <v>463</v>
+      </c>
+      <c r="C1107" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1107" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1107" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="26" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7">
       <c r="A1108" s="8">
         <v>1107</v>
       </c>
-      <c r="B1108" s="8">
-        <v>465</v>
+      <c r="B1108" s="9">
+        <v>464</v>
       </c>
       <c r="C1108" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D1108" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1108" s="8">
         <v>3</v>
@@ -62224,7 +62228,7 @@
         <v>1</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>874</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1109" spans="1:7" s="8" customFormat="1">
@@ -62232,13 +62236,13 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="8">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1109" s="10" t="s">
         <v>860</v>
       </c>
       <c r="D1109" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1109" s="8">
         <v>3</v>
@@ -62247,7 +62251,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2512</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1110" spans="1:7" s="8" customFormat="1">
@@ -62255,13 +62259,13 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="8">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1110" s="10" t="s">
         <v>860</v>
       </c>
       <c r="D1110" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1110" s="8">
         <v>3</v>
@@ -62270,30 +62274,30 @@
         <v>1</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:7">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" s="8" customFormat="1">
       <c r="A1111" s="8">
         <v>1110</v>
       </c>
       <c r="B1111" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1111" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1111" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1111" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1111" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="26" t="s">
-        <v>2524</v>
+        <v>467</v>
+      </c>
+      <c r="C1111" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1111" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1111" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="10" t="s">
+        <v>2513</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62301,7 +62305,7 @@
         <v>1111</v>
       </c>
       <c r="B1112" s="8">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1112" s="26" t="s">
         <v>1942</v>
@@ -62310,13 +62314,13 @@
         <v>2520</v>
       </c>
       <c r="E1112" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1112" s="9">
         <v>1</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62324,30 +62328,30 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1113" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1113" s="30" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1113" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="10" t="s">
-        <v>2529</v>
+        <v>469</v>
+      </c>
+      <c r="C1113" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1113" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="26" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
       <c r="A1114" s="8">
         <v>1113</v>
       </c>
-      <c r="B1114" s="9">
-        <v>471</v>
+      <c r="B1114" s="8">
+        <v>470</v>
       </c>
       <c r="C1114" s="8" t="s">
         <v>847</v>
@@ -62372,43 +62376,43 @@
       <c r="B1115" s="9">
         <v>471</v>
       </c>
-      <c r="C1115" s="26" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D1115" s="26" t="s">
-        <v>2537</v>
-      </c>
-      <c r="E1115" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1115" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1115" s="26" t="s">
-        <v>2539</v>
+      <c r="C1115" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1115" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1115" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1115" s="10" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="1116" spans="1:7">
       <c r="A1116" s="8">
         <v>1115</v>
       </c>
-      <c r="B1116" s="64">
-        <v>472</v>
-      </c>
-      <c r="C1116" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1116" s="65" t="s">
-        <v>2553</v>
-      </c>
-      <c r="E1116" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1116" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1116" s="65" t="s">
-        <v>2309</v>
+      <c r="B1116" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1116" s="26" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1116" s="26" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1116" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="26" t="s">
+        <v>2539</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
@@ -62418,24 +62422,47 @@
       <c r="B1117" s="64">
         <v>472</v>
       </c>
-      <c r="C1117" s="64" t="s">
+      <c r="C1117" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1117" s="65" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E1117" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="65" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="A1118" s="8">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="64">
+        <v>472</v>
+      </c>
+      <c r="C1118" s="64" t="s">
         <v>847</v>
       </c>
-      <c r="D1117" s="65" t="s">
+      <c r="D1118" s="65" t="s">
         <v>2555</v>
       </c>
-      <c r="E1117" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="65" t="s">
+      <c r="E1118" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1118" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="65" t="s">
         <v>2248</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1082"/>
+  <autoFilter ref="C1:C1083"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="2555">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12820,15 +12820,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>hlw_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>tag_plat_wqp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_plat_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13471,9 +13463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q515"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19368,7 +19360,7 @@
         <v>2548</v>
       </c>
       <c r="C497" s="67">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D497" s="66" t="s">
         <v>2549</v>
@@ -19507,7 +19499,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D508" sqref="D508"/>
+      <selection pane="bottomRight" activeCell="C499" sqref="C499:G499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36676,13 +36668,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1118"/>
+  <dimension ref="A1:I1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1090" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D928" sqref="D928"/>
+      <selection pane="bottomRight" activeCell="B1113" sqref="B1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58056,7 +58048,7 @@
         <v>847</v>
       </c>
       <c r="D927" s="30" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
@@ -61690,7 +61682,7 @@
         <v>847</v>
       </c>
       <c r="D1085" s="65" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="E1085" s="64">
         <v>2</v>
@@ -62413,52 +62405,6 @@
       </c>
       <c r="G1116" s="26" t="s">
         <v>2539</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7">
-      <c r="A1117" s="8">
-        <v>1116</v>
-      </c>
-      <c r="B1117" s="64">
-        <v>472</v>
-      </c>
-      <c r="C1117" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1117" s="65" t="s">
-        <v>2553</v>
-      </c>
-      <c r="E1117" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="65" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7">
-      <c r="A1118" s="8">
-        <v>1117</v>
-      </c>
-      <c r="B1118" s="64">
-        <v>472</v>
-      </c>
-      <c r="C1118" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1118" s="65" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E1118" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1118" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="65" t="s">
-        <v>2248</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="2555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6021" uniqueCount="2556">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12825,6 +12825,10 @@
   </si>
   <si>
     <t>tag_plat_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_vivo_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13463,9 +13467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
+      <selection pane="bottomLeft" activeCell="C495" sqref="C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -36668,13 +36672,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1116"/>
+  <dimension ref="A1:I1119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1090" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1113" sqref="B1113"/>
+      <selection pane="bottomRight" activeCell="B1117" sqref="B1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62365,14 +62369,14 @@
       <c r="A1115" s="8">
         <v>1114</v>
       </c>
-      <c r="B1115" s="9">
-        <v>471</v>
+      <c r="B1115" s="8">
+        <v>470</v>
       </c>
       <c r="C1115" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1115" s="30" t="s">
-        <v>2528</v>
+        <v>2555</v>
       </c>
       <c r="E1115" s="8">
         <v>2</v>
@@ -62391,20 +62395,89 @@
       <c r="B1116" s="9">
         <v>471</v>
       </c>
-      <c r="C1116" s="26" t="s">
+      <c r="C1116" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1116" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1116" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1116" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="A1117" s="8">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1117" s="26" t="s">
         <v>2535</v>
       </c>
-      <c r="D1116" s="26" t="s">
+      <c r="D1117" s="26" t="s">
         <v>2537</v>
       </c>
-      <c r="E1116" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1116" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1116" s="26" t="s">
+      <c r="E1117" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="26" t="s">
         <v>2539</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="A1118" s="8">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1118" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1118" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1118" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1118" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1118" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7">
+      <c r="A1119" s="8">
+        <v>1118</v>
+      </c>
+      <c r="B1119" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1119" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1119" s="26" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1119" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1119" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1119" s="26" t="s">
+        <v>1696</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -13469,7 +13469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C495" sqref="C495"/>
+      <selection pane="bottomLeft" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19503,7 +19503,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C499" sqref="C499:G499"/>
+      <selection pane="bottomRight" activeCell="C500" sqref="C500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36678,7 +36678,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C1090" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1117" sqref="B1117"/>
+      <selection pane="bottomRight" activeCell="A1115" sqref="A1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -62382,7 +62382,7 @@
         <v>2</v>
       </c>
       <c r="F1115" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1115" s="10" t="s">
         <v>2529</v>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1083</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1084</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6021" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="2557">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12825,6 +12825,10 @@
   </si>
   <si>
     <t>tag_plat_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_vivo_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13468,8 +13472,8 @@
   <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A497" sqref="A497"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -36672,13 +36676,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1119"/>
+  <dimension ref="A1:I1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1090" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1115" sqref="A1115"/>
+      <selection pane="bottomRight" activeCell="B927" sqref="B927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58058,7 +58062,7 @@
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G927" s="8" t="s">
         <v>1941</v>
@@ -58069,22 +58073,22 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C928" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D928" s="30" t="s">
-        <v>1979</v>
+        <v>2556</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
       </c>
       <c r="F928" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G928" s="8" t="s">
-        <v>1980</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -58092,7 +58096,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C929" s="8" t="s">
         <v>847</v>
@@ -58115,10 +58119,10 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>379</v>
-      </c>
-      <c r="C930" s="10" t="s">
-        <v>1981</v>
+        <v>378</v>
+      </c>
+      <c r="C930" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="D930" s="30" t="s">
         <v>1979</v>
@@ -58138,13 +58142,13 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>380</v>
-      </c>
-      <c r="C931" s="8" t="s">
-        <v>847</v>
+        <v>379</v>
+      </c>
+      <c r="C931" s="10" t="s">
+        <v>1981</v>
       </c>
       <c r="D931" s="30" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -58161,13 +58165,13 @@
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C932" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D932" s="30" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -58175,8 +58179,8 @@
       <c r="F932" s="8">
         <v>1</v>
       </c>
-      <c r="G932" s="10" t="s">
-        <v>1983</v>
+      <c r="G932" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="933" spans="1:7">
@@ -58186,11 +58190,11 @@
       <c r="B933" s="8">
         <v>381</v>
       </c>
-      <c r="C933" s="10" t="s">
+      <c r="C933" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D933" s="10" t="s">
-        <v>900</v>
+      <c r="D933" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E933" s="8">
         <v>2</v>
@@ -58199,7 +58203,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -58207,22 +58211,22 @@
         <v>933</v>
       </c>
       <c r="B934" s="8">
-        <v>382</v>
-      </c>
-      <c r="C934" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C934" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D934" s="30" t="s">
-        <v>1979</v>
+      <c r="D934" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E934" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F934" s="8">
         <v>1</v>
       </c>
       <c r="G934" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -58230,7 +58234,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C935" s="8" t="s">
         <v>847</v>
@@ -58253,22 +58257,22 @@
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C936" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D936" s="10" t="s">
-        <v>1986</v>
+      <c r="D936" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E936" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F936" s="8">
         <v>1</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>853</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -58281,8 +58285,8 @@
       <c r="C937" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D937" s="30" t="s">
-        <v>1979</v>
+      <c r="D937" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -58291,7 +58295,7 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>1983</v>
+        <v>853</v>
       </c>
     </row>
     <row r="938" spans="1:7">
@@ -58299,13 +58303,13 @@
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>385</v>
-      </c>
-      <c r="C938" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D938" s="10" t="s">
-        <v>1987</v>
+        <v>384</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D938" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -58314,7 +58318,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>857</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -58324,11 +58328,11 @@
       <c r="B939" s="8">
         <v>385</v>
       </c>
-      <c r="C939" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D939" s="30" t="s">
-        <v>1839</v>
+      <c r="C939" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D939" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -58337,7 +58341,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>1983</v>
+        <v>857</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -58345,13 +58349,13 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>386</v>
-      </c>
-      <c r="C940" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D940" s="11" t="s">
-        <v>1988</v>
+        <v>385</v>
+      </c>
+      <c r="C940" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D940" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
@@ -58360,7 +58364,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>861</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -58370,11 +58374,11 @@
       <c r="B941" s="8">
         <v>386</v>
       </c>
-      <c r="C941" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D941" s="30" t="s">
-        <v>1839</v>
+      <c r="C941" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D941" s="11" t="s">
+        <v>1988</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -58383,7 +58387,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>1983</v>
+        <v>861</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58391,13 +58395,13 @@
         <v>941</v>
       </c>
       <c r="B942" s="8">
-        <v>387</v>
-      </c>
-      <c r="C942" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D942" s="11" t="s">
-        <v>1989</v>
+        <v>386</v>
+      </c>
+      <c r="C942" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D942" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -58406,7 +58410,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -58416,11 +58420,11 @@
       <c r="B943" s="8">
         <v>387</v>
       </c>
-      <c r="C943" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D943" s="30" t="s">
-        <v>1979</v>
+      <c r="C943" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D943" s="11" t="s">
+        <v>1989</v>
       </c>
       <c r="E943" s="8">
         <v>2</v>
@@ -58429,7 +58433,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -58437,13 +58441,13 @@
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>388</v>
-      </c>
-      <c r="C944" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D944" s="11" t="s">
-        <v>1991</v>
+        <v>387</v>
+      </c>
+      <c r="C944" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D944" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E944" s="8">
         <v>2</v>
@@ -58452,7 +58456,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -58462,11 +58466,11 @@
       <c r="B945" s="8">
         <v>388</v>
       </c>
-      <c r="C945" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D945" s="30" t="s">
-        <v>1979</v>
+      <c r="C945" s="10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D945" s="11" t="s">
+        <v>1991</v>
       </c>
       <c r="E945" s="8">
         <v>2</v>
@@ -58475,7 +58479,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>1983</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -58483,13 +58487,13 @@
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>389</v>
-      </c>
-      <c r="C946" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C946" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D946" s="10" t="s">
-        <v>848</v>
+      <c r="D946" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
@@ -58498,7 +58502,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>849</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -58508,11 +58512,11 @@
       <c r="B947" s="8">
         <v>389</v>
       </c>
-      <c r="C947" s="8" t="s">
+      <c r="C947" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D947" s="30" t="s">
-        <v>1979</v>
+      <c r="D947" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
@@ -58521,7 +58525,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>1983</v>
+        <v>849</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -58529,7 +58533,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C948" s="8" t="s">
         <v>847</v>
@@ -58543,31 +58547,31 @@
       <c r="F948" s="8">
         <v>1</v>
       </c>
-      <c r="G948" s="8" t="s">
-        <v>1980</v>
+      <c r="G948" s="10" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="949" spans="1:7">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="51">
-        <v>391</v>
-      </c>
-      <c r="C949" s="52" t="s">
+      <c r="B949" s="8">
+        <v>390</v>
+      </c>
+      <c r="C949" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D949" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="E949" s="51">
-        <v>5</v>
-      </c>
-      <c r="F949" s="51">
-        <v>1</v>
-      </c>
-      <c r="G949" s="52" t="s">
-        <v>904</v>
+      <c r="D949" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E949" s="8">
+        <v>2</v>
+      </c>
+      <c r="F949" s="8">
+        <v>1</v>
+      </c>
+      <c r="G949" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -58577,11 +58581,11 @@
       <c r="B950" s="51">
         <v>391</v>
       </c>
-      <c r="C950" s="51" t="s">
+      <c r="C950" s="52" t="s">
         <v>847</v>
       </c>
-      <c r="D950" s="59" t="s">
-        <v>1840</v>
+      <c r="D950" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="E950" s="51">
         <v>5</v>
@@ -58590,30 +58594,30 @@
         <v>1</v>
       </c>
       <c r="G950" s="52" t="s">
-        <v>1937</v>
+        <v>904</v>
       </c>
     </row>
     <row r="951" spans="1:7">
       <c r="A951" s="8">
         <v>950</v>
       </c>
-      <c r="B951" s="8">
-        <v>392</v>
-      </c>
-      <c r="C951" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D951" s="8">
-        <v>1</v>
-      </c>
-      <c r="E951" s="8">
-        <v>3</v>
-      </c>
-      <c r="F951" s="8">
-        <v>1</v>
-      </c>
-      <c r="G951" s="10" t="s">
-        <v>1997</v>
+      <c r="B951" s="51">
+        <v>391</v>
+      </c>
+      <c r="C951" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D951" s="59" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E951" s="51">
+        <v>5</v>
+      </c>
+      <c r="F951" s="51">
+        <v>1</v>
+      </c>
+      <c r="G951" s="52" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -58621,22 +58625,22 @@
         <v>951</v>
       </c>
       <c r="B952" s="8">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D952" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E952" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F952" s="8">
         <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>865</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="953" spans="1:7">
@@ -58646,20 +58650,20 @@
       <c r="B953" s="8">
         <v>393</v>
       </c>
-      <c r="C953" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D953" s="30" t="s">
-        <v>1839</v>
+      <c r="C953" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D953" s="8">
+        <v>0</v>
       </c>
       <c r="E953" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F953" s="8">
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>1975</v>
+        <v>865</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -58667,22 +58671,22 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>394</v>
-      </c>
-      <c r="C954" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D954" s="8">
-        <v>1607356800</v>
+        <v>393</v>
+      </c>
+      <c r="C954" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D954" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E954" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2029</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -58692,20 +58696,20 @@
       <c r="B955" s="8">
         <v>394</v>
       </c>
-      <c r="C955" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D955" s="30" t="s">
-        <v>1839</v>
+      <c r="C955" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D955" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E955" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>1975</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58713,22 +58717,22 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>395</v>
-      </c>
-      <c r="C956" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D956" s="8">
-        <v>1607356800</v>
+        <v>394</v>
+      </c>
+      <c r="C956" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D956" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E956" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2029</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -58739,19 +58743,19 @@
         <v>395</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D957" s="15" t="s">
-        <v>1029</v>
+        <v>2028</v>
+      </c>
+      <c r="D957" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E957" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58762,19 +58766,19 @@
         <v>395</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D958" s="8">
-        <v>1607356800</v>
+        <v>1023</v>
+      </c>
+      <c r="D958" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E958" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F958" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -58785,65 +58789,65 @@
         <v>395</v>
       </c>
       <c r="C959" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D959" s="15" t="s">
-        <v>1748</v>
+        <v>2028</v>
+      </c>
+      <c r="D959" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E959" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F959" s="8">
         <v>2</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="960" spans="1:7">
       <c r="A960" s="8">
         <v>959</v>
       </c>
-      <c r="B960" s="14">
-        <v>396</v>
-      </c>
-      <c r="C960" s="31" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D960" s="14">
-        <v>1607356800</v>
-      </c>
-      <c r="E960" s="14">
-        <v>3</v>
-      </c>
-      <c r="F960" s="14">
-        <v>1</v>
-      </c>
-      <c r="G960" s="31" t="s">
-        <v>2029</v>
+      <c r="B960" s="8">
+        <v>395</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D960" s="15" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E960" s="8">
+        <v>2</v>
+      </c>
+      <c r="F960" s="8">
+        <v>2</v>
+      </c>
+      <c r="G960" s="10" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="961" spans="1:7">
       <c r="A961" s="8">
         <v>960</v>
       </c>
-      <c r="B961" s="8">
-        <v>397</v>
-      </c>
-      <c r="C961" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D961" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E961" s="8">
-        <v>2</v>
-      </c>
-      <c r="F961" s="8">
-        <v>1</v>
-      </c>
-      <c r="G961" s="10" t="s">
-        <v>911</v>
+      <c r="B961" s="14">
+        <v>396</v>
+      </c>
+      <c r="C961" s="31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D961" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E961" s="14">
+        <v>3</v>
+      </c>
+      <c r="F961" s="14">
+        <v>1</v>
+      </c>
+      <c r="G961" s="31" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="962" spans="1:7">
@@ -58851,13 +58855,13 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C962" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E962" s="8">
         <v>2</v>
@@ -58866,44 +58870,44 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="963" spans="1:7" s="8" customFormat="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7">
       <c r="A963" s="8">
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>399</v>
-      </c>
-      <c r="C963" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D963" s="8">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="C963" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D963" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E963" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F963" s="8">
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="964" spans="1:7">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" s="8" customFormat="1">
       <c r="A964" s="8">
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C964" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D964" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E964" s="8">
         <v>3</v>
@@ -58912,7 +58916,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2045</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="965" spans="1:7">
@@ -58920,13 +58924,13 @@
         <v>964</v>
       </c>
       <c r="B965" s="8">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C965" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D965" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E965" s="8">
         <v>3</v>
@@ -58935,30 +58939,30 @@
         <v>1</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="966" spans="1:7" s="8" customFormat="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7">
       <c r="A966" s="8">
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C966" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D966" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D966" s="8">
+        <v>8</v>
       </c>
       <c r="E966" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F966" s="8">
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>904</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="967" spans="1:7" s="8" customFormat="1">
@@ -58966,22 +58970,22 @@
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C967" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D967" s="8">
-        <v>0</v>
+        <v>847</v>
+      </c>
+      <c r="D967" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E967" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F967" s="8">
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2057</v>
+        <v>904</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="8" customFormat="1">
@@ -58989,7 +58993,7 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C968" s="10" t="s">
         <v>1117</v>
@@ -58998,13 +59002,13 @@
         <v>0</v>
       </c>
       <c r="E968" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="969" spans="1:7" s="8" customFormat="1">
@@ -59012,22 +59016,22 @@
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C969" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D969" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D969" s="8">
+        <v>0</v>
       </c>
       <c r="E969" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F969" s="8">
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>904</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="970" spans="1:7" s="8" customFormat="1">
@@ -59035,13 +59039,13 @@
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>406</v>
-      </c>
-      <c r="C970" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C970" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D970" s="30" t="s">
-        <v>1839</v>
+      <c r="D970" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E970" s="8">
         <v>5</v>
@@ -59050,53 +59054,53 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" s="8" customFormat="1">
       <c r="A971" s="8">
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C971" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D971" s="44" t="s">
-        <v>2088</v>
+        <v>847</v>
+      </c>
+      <c r="D971" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E971" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F971" s="8">
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7" s="8" customFormat="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A972" s="8">
         <v>971</v>
       </c>
       <c r="B972" s="8">
         <v>407</v>
       </c>
-      <c r="C972" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D972" s="8" t="s">
-        <v>2090</v>
+      <c r="C972" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D972" s="44" t="s">
+        <v>2088</v>
       </c>
       <c r="E972" s="8">
         <v>2</v>
       </c>
       <c r="F972" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59106,11 +59110,11 @@
       <c r="B973" s="8">
         <v>407</v>
       </c>
-      <c r="C973" s="8" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D973" s="10" t="s">
-        <v>2094</v>
+      <c r="C973" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D973" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E973" s="8">
         <v>2</v>
@@ -59119,7 +59123,7 @@
         <v>2</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59129,20 +59133,20 @@
       <c r="B974" s="8">
         <v>407</v>
       </c>
-      <c r="C974" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D974" s="15" t="s">
-        <v>1029</v>
+      <c r="C974" s="8" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D974" s="10" t="s">
+        <v>2094</v>
       </c>
       <c r="E974" s="8">
         <v>2</v>
       </c>
       <c r="F974" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59152,11 +59156,11 @@
       <c r="B975" s="8">
         <v>407</v>
       </c>
-      <c r="C975" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D975" s="10" t="s">
-        <v>2093</v>
+      <c r="C975" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D975" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E975" s="8">
         <v>2</v>
@@ -59165,7 +59169,7 @@
         <v>3</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -59173,22 +59177,22 @@
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>408</v>
-      </c>
-      <c r="C976" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D976" s="8" t="s">
-        <v>2090</v>
+        <v>407</v>
+      </c>
+      <c r="C976" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D976" s="10" t="s">
+        <v>2093</v>
       </c>
       <c r="E976" s="8">
         <v>2</v>
       </c>
       <c r="F976" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2112</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59196,22 +59200,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>409</v>
-      </c>
-      <c r="C977" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D977" s="30" t="s">
-        <v>2246</v>
+        <v>408</v>
+      </c>
+      <c r="C977" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D977" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E977" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F977" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>1975</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -59219,22 +59223,22 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C978" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D978" s="30" t="s">
-        <v>1839</v>
+        <v>2246</v>
       </c>
       <c r="E978" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F978" s="8">
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2121</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59242,7 +59246,7 @@
         <v>978</v>
       </c>
       <c r="B979" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C979" s="8" t="s">
         <v>847</v>
@@ -59251,13 +59255,13 @@
         <v>1839</v>
       </c>
       <c r="E979" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F979" s="8">
         <v>1</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>1975</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59265,7 +59269,7 @@
         <v>979</v>
       </c>
       <c r="B980" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C980" s="8" t="s">
         <v>847</v>
@@ -59274,13 +59278,13 @@
         <v>1839</v>
       </c>
       <c r="E980" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F980" s="8">
         <v>1</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>2127</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="981" spans="1:7" s="8" customFormat="1">
@@ -59288,22 +59292,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>413</v>
-      </c>
-      <c r="C981" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D981" s="8">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="C981" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D981" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E981" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F981" s="8">
         <v>1</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59311,10 +59315,10 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C982" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D982" s="8">
         <v>2</v>
@@ -59326,7 +59330,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59334,22 +59338,22 @@
         <v>982</v>
       </c>
       <c r="B983" s="8">
-        <v>415</v>
-      </c>
-      <c r="C983" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D983" s="30" t="s">
-        <v>2138</v>
+        <v>414</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D983" s="8">
+        <v>2</v>
       </c>
       <c r="E983" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F983" s="8">
         <v>1</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59360,19 +59364,19 @@
         <v>415</v>
       </c>
       <c r="C984" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D984" s="10">
-        <v>86400</v>
+        <v>847</v>
+      </c>
+      <c r="D984" s="30" t="s">
+        <v>2138</v>
       </c>
       <c r="E984" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F984" s="8">
         <v>1</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>937</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="985" spans="1:7" s="8" customFormat="1">
@@ -59380,22 +59384,22 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>416</v>
-      </c>
-      <c r="C985" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D985" s="8">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="C985" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D985" s="10">
+        <v>86400</v>
       </c>
       <c r="E985" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F985" s="8">
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2146</v>
+        <v>937</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59403,22 +59407,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>417</v>
-      </c>
-      <c r="C986" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D986" s="30" t="s">
-        <v>1839</v>
+        <v>416</v>
+      </c>
+      <c r="C986" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D986" s="8">
+        <v>0</v>
       </c>
       <c r="E986" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>1975</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59426,22 +59430,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>418</v>
-      </c>
-      <c r="C987" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D987" s="10" t="s">
-        <v>2152</v>
+        <v>417</v>
+      </c>
+      <c r="C987" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D987" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E987" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F987" s="8">
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2153</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59452,10 +59456,10 @@
         <v>418</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>2087</v>
+        <v>2164</v>
       </c>
       <c r="D988" s="10" t="s">
-        <v>2088</v>
+        <v>2152</v>
       </c>
       <c r="E988" s="8">
         <v>2</v>
@@ -59464,7 +59468,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59475,19 +59479,19 @@
         <v>418</v>
       </c>
       <c r="C989" s="10" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D989" s="8" t="s">
-        <v>2155</v>
+        <v>2087</v>
+      </c>
+      <c r="D989" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E989" s="8">
         <v>2</v>
       </c>
       <c r="F989" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59498,10 +59502,10 @@
         <v>418</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D990" s="10" t="s">
-        <v>2088</v>
+        <v>2165</v>
+      </c>
+      <c r="D990" s="8" t="s">
+        <v>2155</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -59510,7 +59514,7 @@
         <v>2</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59521,19 +59525,19 @@
         <v>418</v>
       </c>
       <c r="C991" s="10" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D991" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
+      </c>
+      <c r="D991" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E991" s="8">
         <v>2</v>
       </c>
       <c r="F991" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59544,10 +59548,10 @@
         <v>418</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D992" s="10" t="s">
-        <v>2088</v>
+        <v>2166</v>
+      </c>
+      <c r="D992" s="8" t="s">
+        <v>2159</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
@@ -59556,7 +59560,7 @@
         <v>3</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59564,22 +59568,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C993" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D993" s="15" t="s">
-        <v>2034</v>
+        <v>2087</v>
+      </c>
+      <c r="D993" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E993" s="8">
         <v>2</v>
       </c>
       <c r="F993" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2036</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59589,20 +59593,20 @@
       <c r="B994" s="8">
         <v>419</v>
       </c>
-      <c r="C994" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D994" s="8">
-        <v>600</v>
+      <c r="C994" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D994" s="15" t="s">
+        <v>2034</v>
       </c>
       <c r="E994" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F994" s="8">
         <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2350</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59610,22 +59614,22 @@
         <v>994</v>
       </c>
       <c r="B995" s="8">
-        <v>420</v>
-      </c>
-      <c r="C995" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D995" s="15" t="s">
-        <v>2033</v>
+        <v>419</v>
+      </c>
+      <c r="C995" s="8" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D995" s="8">
+        <v>600</v>
       </c>
       <c r="E995" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F995" s="8">
         <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2035</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59635,20 +59639,20 @@
       <c r="B996" s="8">
         <v>420</v>
       </c>
-      <c r="C996" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D996" s="8">
-        <v>600</v>
+      <c r="C996" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D996" s="15" t="s">
+        <v>2033</v>
       </c>
       <c r="E996" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F996" s="8">
         <v>1</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2351</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59656,22 +59660,22 @@
         <v>996</v>
       </c>
       <c r="B997" s="8">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C997" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D997" s="30" t="s">
-        <v>1839</v>
+        <v>2174</v>
+      </c>
+      <c r="D997" s="8">
+        <v>600</v>
       </c>
       <c r="E997" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F997" s="8">
         <v>1</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>1975</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59679,22 +59683,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>422</v>
-      </c>
-      <c r="C998" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D998" s="8">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="C998" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D998" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E998" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F998" s="8">
         <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2189</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59702,22 +59706,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C999" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D999" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E999" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F999" s="8">
         <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59731,16 +59735,16 @@
         <v>1117</v>
       </c>
       <c r="D1000" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1000" s="8">
         <v>3</v>
       </c>
-      <c r="E1000" s="8">
-        <v>4</v>
-      </c>
       <c r="F1000" s="8">
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59748,22 +59752,22 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1001" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1001" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1001" s="8">
         <v>4</v>
       </c>
-      <c r="E1001" s="8">
-        <v>3</v>
-      </c>
       <c r="F1001" s="8">
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59777,16 +59781,16 @@
         <v>1117</v>
       </c>
       <c r="D1002" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1002" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59794,68 +59798,68 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1003" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1003" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1003" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>1992</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
       <c r="A1004" s="8">
         <v>1003</v>
       </c>
-      <c r="B1004" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1004" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1004" s="30" t="s">
-        <v>1839</v>
+      <c r="B1004" s="8">
+        <v>425</v>
+      </c>
+      <c r="C1004" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1004" s="8">
+        <v>8</v>
       </c>
       <c r="E1004" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2188</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
       <c r="A1005" s="8">
         <v>1004</v>
       </c>
-      <c r="B1005" s="8">
-        <v>427</v>
-      </c>
-      <c r="C1005" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1005" s="8">
-        <v>0</v>
+      <c r="B1005" s="16">
+        <v>426</v>
+      </c>
+      <c r="C1005" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1005" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1005" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59865,20 +59869,20 @@
       <c r="B1006" s="8">
         <v>427</v>
       </c>
-      <c r="C1006" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1006" s="30" t="s">
-        <v>1839</v>
+      <c r="C1006" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1006" s="8">
+        <v>0</v>
       </c>
       <c r="E1006" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59886,22 +59890,22 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1007" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1007" s="8">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="C1007" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1007" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1007" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1007" s="8">
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59915,16 +59919,16 @@
         <v>1117</v>
       </c>
       <c r="D1008" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1008" s="8">
         <v>3</v>
       </c>
-      <c r="E1008" s="8">
-        <v>4</v>
-      </c>
       <c r="F1008" s="8">
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
@@ -59934,20 +59938,20 @@
       <c r="B1009" s="8">
         <v>428</v>
       </c>
-      <c r="C1009" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1009" s="30" t="s">
-        <v>1839</v>
+      <c r="C1009" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1009" s="8">
+        <v>3</v>
       </c>
       <c r="E1009" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59955,22 +59959,22 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1010" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1010" s="8">
-        <v>4</v>
+        <v>428</v>
+      </c>
+      <c r="C1010" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1010" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1010" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>1228</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
@@ -59984,16 +59988,16 @@
         <v>1117</v>
       </c>
       <c r="D1011" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1011" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1011" s="8">
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2191</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -60003,20 +60007,20 @@
       <c r="B1012" s="8">
         <v>429</v>
       </c>
-      <c r="C1012" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1012" s="30" t="s">
-        <v>1839</v>
+      <c r="C1012" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1012" s="8">
+        <v>7</v>
       </c>
       <c r="E1012" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60024,22 +60028,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1013" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1013" s="8">
-        <v>8</v>
+        <v>429</v>
+      </c>
+      <c r="C1013" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1013" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1013" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>1227</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60049,20 +60053,20 @@
       <c r="B1014" s="8">
         <v>430</v>
       </c>
-      <c r="C1014" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1014" s="30" t="s">
-        <v>1839</v>
+      <c r="C1014" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>8</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2188</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60070,7 +60074,7 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1015" s="8" t="s">
         <v>847</v>
@@ -60092,23 +60096,23 @@
       <c r="A1016" s="8">
         <v>1015</v>
       </c>
-      <c r="B1016" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1016" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1016" s="8">
-        <v>0</v>
+      <c r="B1016" s="8">
+        <v>431</v>
+      </c>
+      <c r="C1016" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1016" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1016" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60118,11 +60122,11 @@
       <c r="B1017" s="16">
         <v>432</v>
       </c>
-      <c r="C1017" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1017" s="10" t="s">
-        <v>1533</v>
+      <c r="C1017" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1017" s="8">
+        <v>0</v>
       </c>
       <c r="E1017" s="8">
         <v>2</v>
@@ -60131,7 +60135,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2247</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60141,20 +60145,20 @@
       <c r="B1018" s="16">
         <v>432</v>
       </c>
-      <c r="C1018" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1018" s="8">
-        <v>0</v>
+      <c r="C1018" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1018" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1018" s="8">
         <v>2</v>
       </c>
       <c r="F1018" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2189</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60164,11 +60168,11 @@
       <c r="B1019" s="16">
         <v>432</v>
       </c>
-      <c r="C1019" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1019" s="10" t="s">
-        <v>916</v>
+      <c r="C1019" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1019" s="8">
+        <v>0</v>
       </c>
       <c r="E1019" s="8">
         <v>2</v>
@@ -60177,7 +60181,7 @@
         <v>2</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2248</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
@@ -60187,20 +60191,20 @@
       <c r="B1020" s="16">
         <v>432</v>
       </c>
-      <c r="C1020" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1020" s="8">
-        <v>0</v>
+      <c r="C1020" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1020" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1020" s="8">
         <v>2</v>
       </c>
       <c r="F1020" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2189</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
@@ -60210,11 +60214,11 @@
       <c r="B1021" s="16">
         <v>432</v>
       </c>
-      <c r="C1021" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1021" s="30" t="s">
-        <v>1839</v>
+      <c r="C1021" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1021" s="8">
+        <v>0</v>
       </c>
       <c r="E1021" s="8">
         <v>2</v>
@@ -60223,7 +60227,7 @@
         <v>3</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2243</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
@@ -60233,20 +60237,20 @@
       <c r="B1022" s="16">
         <v>432</v>
       </c>
-      <c r="C1022" s="10" t="s">
+      <c r="C1022" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1022" s="10" t="s">
-        <v>2245</v>
+      <c r="D1022" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1022" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1022" s="8">
         <v>3</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60254,22 +60258,22 @@
         <v>1022</v>
       </c>
       <c r="B1023" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1023" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1023" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1023" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1023" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1023" s="8">
         <v>3</v>
       </c>
-      <c r="F1023" s="8">
-        <v>1</v>
-      </c>
       <c r="G1023" s="10" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -60283,16 +60287,16 @@
         <v>1117</v>
       </c>
       <c r="D1024" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1024" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1024" s="8">
         <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60302,20 +60306,20 @@
       <c r="B1025" s="16">
         <v>433</v>
       </c>
-      <c r="C1025" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1025" s="10" t="s">
-        <v>1533</v>
+      <c r="C1025" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1025" s="8">
+        <v>7</v>
       </c>
       <c r="E1025" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1025" s="8">
         <v>1</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1026" spans="1:7" s="8" customFormat="1">
@@ -60325,20 +60329,20 @@
       <c r="B1026" s="16">
         <v>433</v>
       </c>
-      <c r="C1026" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1026" s="8">
-        <v>1</v>
+      <c r="C1026" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1026" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1026" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1026" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60352,16 +60356,16 @@
         <v>1117</v>
       </c>
       <c r="D1027" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1027" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1027" s="8">
         <v>2</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60371,20 +60375,20 @@
       <c r="B1028" s="16">
         <v>433</v>
       </c>
-      <c r="C1028" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1028" s="10" t="s">
-        <v>916</v>
+      <c r="C1028" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1028" s="8">
+        <v>7</v>
       </c>
       <c r="E1028" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1028" s="8">
         <v>2</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60394,20 +60398,20 @@
       <c r="B1029" s="16">
         <v>433</v>
       </c>
-      <c r="C1029" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1029" s="8">
-        <v>1</v>
+      <c r="C1029" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1029" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1029" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1029" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2189</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60421,16 +60425,16 @@
         <v>1117</v>
       </c>
       <c r="D1030" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1030" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1030" s="8">
         <v>3</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2249</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60440,20 +60444,20 @@
       <c r="B1031" s="16">
         <v>433</v>
       </c>
-      <c r="C1031" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1031" s="30" t="s">
-        <v>1839</v>
+      <c r="C1031" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1031" s="8">
+        <v>7</v>
       </c>
       <c r="E1031" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1031" s="8">
         <v>3</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60463,20 +60467,20 @@
       <c r="B1032" s="16">
         <v>433</v>
       </c>
-      <c r="C1032" s="10" t="s">
+      <c r="C1032" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1032" s="10" t="s">
-        <v>2245</v>
+      <c r="D1032" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1032" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1032" s="8">
         <v>3</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60484,22 +60488,22 @@
         <v>1032</v>
       </c>
       <c r="B1033" s="16">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1033" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1033" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1033" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1033" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1033" s="8">
         <v>3</v>
       </c>
-      <c r="F1033" s="8">
-        <v>1</v>
-      </c>
       <c r="G1033" s="10" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60509,20 +60513,20 @@
       <c r="B1034" s="16">
         <v>434</v>
       </c>
-      <c r="C1034" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1034" s="10" t="s">
-        <v>1533</v>
+      <c r="C1034" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1034" s="8">
+        <v>8</v>
       </c>
       <c r="E1034" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1034" s="8">
         <v>1</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2247</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60532,20 +60536,20 @@
       <c r="B1035" s="16">
         <v>434</v>
       </c>
-      <c r="C1035" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1035" s="8">
-        <v>8</v>
+      <c r="C1035" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1035" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1035" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1035" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60555,20 +60559,20 @@
       <c r="B1036" s="16">
         <v>434</v>
       </c>
-      <c r="C1036" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1036" s="10" t="s">
-        <v>916</v>
+      <c r="C1036" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1036" s="8">
+        <v>8</v>
       </c>
       <c r="E1036" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1036" s="8">
         <v>2</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60578,20 +60582,20 @@
       <c r="B1037" s="16">
         <v>434</v>
       </c>
-      <c r="C1037" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1037" s="8">
-        <v>8</v>
+      <c r="C1037" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1037" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1037" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1037" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60601,20 +60605,20 @@
       <c r="B1038" s="16">
         <v>434</v>
       </c>
-      <c r="C1038" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1038" s="30" t="s">
-        <v>1839</v>
+      <c r="C1038" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1038" s="8">
+        <v>8</v>
       </c>
       <c r="E1038" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1038" s="8">
         <v>3</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2243</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60624,43 +60628,43 @@
       <c r="B1039" s="16">
         <v>434</v>
       </c>
-      <c r="C1039" s="10" t="s">
+      <c r="C1039" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1039" s="10" t="s">
-        <v>2245</v>
+      <c r="D1039" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1039" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1039" s="8">
         <v>3</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
       <c r="A1040" s="8">
         <v>1039</v>
       </c>
-      <c r="B1040" s="8">
-        <v>435</v>
+      <c r="B1040" s="16">
+        <v>434</v>
       </c>
       <c r="C1040" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1040" s="10" t="s">
-        <v>900</v>
+        <v>2245</v>
       </c>
       <c r="E1040" s="8">
         <v>5</v>
       </c>
       <c r="F1040" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>904</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1041" spans="1:7" s="8" customFormat="1">
@@ -60668,22 +60672,22 @@
         <v>1040</v>
       </c>
       <c r="B1041" s="8">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1041" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>852</v>
+        <v>900</v>
       </c>
       <c r="E1041" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1041" s="8">
         <v>1</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60697,16 +60701,16 @@
         <v>847</v>
       </c>
       <c r="D1042" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E1042" s="8">
         <v>2</v>
       </c>
       <c r="F1042" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1043" spans="1:7" s="8" customFormat="1">
@@ -60720,16 +60724,16 @@
         <v>847</v>
       </c>
       <c r="D1043" s="10" t="s">
-        <v>1205</v>
+        <v>856</v>
       </c>
       <c r="E1043" s="8">
         <v>2</v>
       </c>
       <c r="F1043" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>1238</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60737,22 +60741,22 @@
         <v>1043</v>
       </c>
       <c r="B1044" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1044" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1044" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1044" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1044" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1044" s="8">
         <v>3</v>
       </c>
-      <c r="F1044" s="8">
-        <v>1</v>
-      </c>
       <c r="G1044" s="10" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
@@ -60766,16 +60770,16 @@
         <v>1117</v>
       </c>
       <c r="D1045" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1045" s="8">
         <v>3</v>
       </c>
-      <c r="E1045" s="8">
-        <v>4</v>
-      </c>
       <c r="F1045" s="8">
         <v>1</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
@@ -60786,19 +60790,19 @@
         <v>437</v>
       </c>
       <c r="C1046" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1046" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1046" s="8">
+        <v>3</v>
       </c>
       <c r="E1046" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1046" s="8">
         <v>1</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60806,22 +60810,22 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1047" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1047" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1047" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1047" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1047" s="8">
         <v>1</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>1333</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60835,16 +60839,16 @@
         <v>1117</v>
       </c>
       <c r="D1048" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1048" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1048" s="8">
         <v>1</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60855,19 +60859,19 @@
         <v>438</v>
       </c>
       <c r="C1049" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1049" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1049" s="8">
+        <v>7</v>
       </c>
       <c r="E1049" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1049" s="8">
         <v>1</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60875,22 +60879,22 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1050" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1050" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1050" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1050" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1050" s="8">
         <v>1</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60904,16 +60908,16 @@
         <v>1117</v>
       </c>
       <c r="D1051" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1051" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60924,19 +60928,19 @@
         <v>439</v>
       </c>
       <c r="C1052" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1052" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1052" s="8">
+        <v>12</v>
       </c>
       <c r="E1052" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1052" s="8">
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60944,13 +60948,13 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1053" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1053" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1053" s="30" t="s">
-        <v>1839</v>
+      <c r="D1053" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1053" s="8">
         <v>5</v>
@@ -60959,7 +60963,7 @@
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>2188</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -60967,7 +60971,7 @@
         <v>1053</v>
       </c>
       <c r="B1054" s="8">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1054" s="8" t="s">
         <v>847</v>
@@ -60976,27 +60980,27 @@
         <v>1839</v>
       </c>
       <c r="E1054" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1054" s="8">
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:7">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" s="8" customFormat="1">
       <c r="A1055" s="8">
         <v>1054</v>
       </c>
       <c r="B1055" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1055" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1055" s="15" t="s">
-        <v>1029</v>
+        <v>441</v>
+      </c>
+      <c r="C1055" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1055" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1055" s="8">
         <v>2</v>
@@ -61005,7 +61009,7 @@
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1056" spans="1:7">
@@ -61018,17 +61022,17 @@
       <c r="C1056" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1056" s="8" t="s">
-        <v>2090</v>
+      <c r="D1056" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E1056" s="8">
         <v>2</v>
       </c>
       <c r="F1056" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>2112</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1057" spans="1:7">
@@ -61041,17 +61045,17 @@
       <c r="C1057" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1057" s="10" t="s">
-        <v>2303</v>
+      <c r="D1057" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E1057" s="8">
         <v>2</v>
       </c>
       <c r="F1057" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>2304</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1058" spans="1:7">
@@ -61059,22 +61063,22 @@
         <v>1057</v>
       </c>
       <c r="B1058" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1058" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D1058" s="10" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="E1058" s="8">
         <v>2</v>
       </c>
       <c r="F1058" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1059" spans="1:7">
@@ -61088,16 +61092,16 @@
         <v>1023</v>
       </c>
       <c r="D1059" s="10" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E1059" s="8">
         <v>2</v>
       </c>
       <c r="F1059" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -61111,16 +61115,16 @@
         <v>1023</v>
       </c>
       <c r="D1060" s="10" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="E1060" s="8">
         <v>2</v>
       </c>
       <c r="F1060" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1061" spans="1:7">
@@ -61128,22 +61132,22 @@
         <v>1060</v>
       </c>
       <c r="B1061" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1061" s="8" t="s">
-        <v>847</v>
+        <v>443</v>
+      </c>
+      <c r="C1061" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D1061" s="10" t="s">
-        <v>1533</v>
+        <v>2308</v>
       </c>
       <c r="E1061" s="8">
         <v>2</v>
       </c>
       <c r="F1061" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2247</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61153,20 +61157,20 @@
       <c r="B1062" s="8">
         <v>444</v>
       </c>
-      <c r="C1062" s="10" t="s">
+      <c r="C1062" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1062" s="10" t="s">
-        <v>1205</v>
+        <v>1533</v>
       </c>
       <c r="E1062" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1062" s="8">
         <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2341</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61176,20 +61180,20 @@
       <c r="B1063" s="8">
         <v>444</v>
       </c>
-      <c r="C1063" s="8" t="s">
+      <c r="C1063" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1063" s="10" t="s">
-        <v>916</v>
+        <v>1205</v>
       </c>
       <c r="E1063" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1063" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2248</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61199,20 +61203,20 @@
       <c r="B1064" s="8">
         <v>444</v>
       </c>
-      <c r="C1064" s="10" t="s">
+      <c r="C1064" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>1205</v>
+        <v>916</v>
       </c>
       <c r="E1064" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1064" s="8">
         <v>2</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2341</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61220,22 +61224,22 @@
         <v>1064</v>
       </c>
       <c r="B1065" s="8">
-        <v>445</v>
-      </c>
-      <c r="C1065" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1065" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1065" s="30" t="s">
-        <v>1839</v>
+      <c r="D1065" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1065" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1065" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2116</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61243,13 +61247,13 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1066" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1066" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1066" s="10" t="s">
-        <v>852</v>
+      <c r="D1066" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
@@ -61258,7 +61262,7 @@
         <v>1</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>903</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61272,16 +61276,16 @@
         <v>847</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E1067" s="8">
         <v>2</v>
       </c>
       <c r="F1067" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61295,16 +61299,16 @@
         <v>847</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>1205</v>
+        <v>856</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
       </c>
       <c r="F1068" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>1238</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61312,22 +61316,22 @@
         <v>1068</v>
       </c>
       <c r="B1069" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1069" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1069" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1069" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1069" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="8">
         <v>3</v>
       </c>
-      <c r="F1069" s="8">
-        <v>1</v>
-      </c>
       <c r="G1069" s="10" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -61341,16 +61345,16 @@
         <v>1117</v>
       </c>
       <c r="D1070" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1070" s="8">
         <v>3</v>
       </c>
-      <c r="E1070" s="8">
-        <v>4</v>
-      </c>
       <c r="F1070" s="8">
         <v>1</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61361,19 +61365,19 @@
         <v>447</v>
       </c>
       <c r="C1071" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1071" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1071" s="8">
+        <v>3</v>
       </c>
       <c r="E1071" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1071" s="8">
         <v>1</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61381,22 +61385,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1072" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1072" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1072" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1072" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1072" s="8">
         <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>1333</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61410,16 +61414,16 @@
         <v>1117</v>
       </c>
       <c r="D1073" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1073" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1073" s="8">
         <v>1</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61430,19 +61434,19 @@
         <v>448</v>
       </c>
       <c r="C1074" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1074" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1074" s="8">
+        <v>7</v>
       </c>
       <c r="E1074" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1074" s="8">
         <v>1</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61450,22 +61454,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1075" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1075" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1075" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1075" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1075" s="8">
         <v>1</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61479,16 +61483,16 @@
         <v>1117</v>
       </c>
       <c r="D1076" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1076" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61499,19 +61503,19 @@
         <v>449</v>
       </c>
       <c r="C1077" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1077" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1077" s="8">
+        <v>12</v>
       </c>
       <c r="E1077" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61519,22 +61523,22 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1078" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1078" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1078" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1078" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1078" s="8">
         <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>2247</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61548,39 +61552,39 @@
         <v>847</v>
       </c>
       <c r="D1079" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1079" s="8">
         <v>2</v>
       </c>
       <c r="F1079" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:7" s="8" customFormat="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7">
       <c r="A1080" s="8">
         <v>1079</v>
       </c>
       <c r="B1080" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1080" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1080" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1080" s="10" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E1080" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1080" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>904</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1081" spans="1:7" s="8" customFormat="1">
@@ -61590,20 +61594,20 @@
       <c r="B1081" s="8">
         <v>451</v>
       </c>
-      <c r="C1081" s="8" t="s">
+      <c r="C1081" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1081" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1081" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>2247</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1082" spans="1:7" s="8" customFormat="1">
@@ -61613,20 +61617,20 @@
       <c r="B1082" s="8">
         <v>451</v>
       </c>
-      <c r="C1082" s="10" t="s">
+      <c r="C1082" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1082" s="10" t="s">
-        <v>900</v>
+        <v>1533</v>
       </c>
       <c r="E1082" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1082" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>904</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1083" spans="1:7" s="8" customFormat="1">
@@ -61636,43 +61640,43 @@
       <c r="B1083" s="8">
         <v>451</v>
       </c>
-      <c r="C1083" s="8" t="s">
+      <c r="C1083" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1083" s="10" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1083" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1083" s="8">
         <v>2</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:7">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" s="8" customFormat="1">
       <c r="A1084" s="8">
         <v>1083</v>
       </c>
-      <c r="B1084" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1084" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1084" s="65" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E1084" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1084" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1084" s="65" t="s">
-        <v>2309</v>
+      <c r="B1084" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1084" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1084" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1084" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1084" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1084" s="10" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -61682,11 +61686,11 @@
       <c r="B1085" s="64">
         <v>452</v>
       </c>
-      <c r="C1085" s="64" t="s">
-        <v>847</v>
+      <c r="C1085" s="65" t="s">
+        <v>1023</v>
       </c>
       <c r="D1085" s="65" t="s">
-        <v>2553</v>
+        <v>1050</v>
       </c>
       <c r="E1085" s="64">
         <v>2</v>
@@ -61695,7 +61699,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="65" t="s">
-        <v>2248</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -61705,11 +61709,11 @@
       <c r="B1086" s="64">
         <v>452</v>
       </c>
-      <c r="C1086" s="65" t="s">
+      <c r="C1086" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1086" s="65" t="s">
-        <v>900</v>
+        <v>2553</v>
       </c>
       <c r="E1086" s="64">
         <v>2</v>
@@ -61718,7 +61722,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="65" t="s">
-        <v>2363</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -61726,13 +61730,13 @@
         <v>1086</v>
       </c>
       <c r="B1087" s="64">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1087" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1087" s="62" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D1087" s="65" t="s">
+        <v>900</v>
       </c>
       <c r="E1087" s="64">
         <v>2</v>
@@ -61741,7 +61745,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="65" t="s">
-        <v>2096</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -61751,11 +61755,11 @@
       <c r="B1088" s="64">
         <v>453</v>
       </c>
-      <c r="C1088" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1088" s="65" t="s">
-        <v>916</v>
+      <c r="C1088" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1088" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1088" s="64">
         <v>2</v>
@@ -61764,7 +61768,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="65" t="s">
-        <v>2248</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -61774,11 +61778,11 @@
       <c r="B1089" s="64">
         <v>453</v>
       </c>
-      <c r="C1089" s="65" t="s">
+      <c r="C1089" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1089" s="65" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E1089" s="64">
         <v>2</v>
@@ -61787,7 +61791,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="65" t="s">
-        <v>2363</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -61795,13 +61799,13 @@
         <v>1089</v>
       </c>
       <c r="B1090" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1090" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1090" s="65" t="s">
         <v>847</v>
       </c>
       <c r="D1090" s="65" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1090" s="64">
         <v>2</v>
@@ -61810,7 +61814,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="65" t="s">
-        <v>2248</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61821,19 +61825,19 @@
         <v>454</v>
       </c>
       <c r="C1091" s="64" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1091" s="68">
-        <v>691200</v>
+        <v>847</v>
+      </c>
+      <c r="D1091" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1091" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1091" s="64">
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2369</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61843,20 +61847,20 @@
       <c r="B1092" s="64">
         <v>454</v>
       </c>
-      <c r="C1092" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1092" s="70">
-        <v>1615246200</v>
+      <c r="C1092" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1092" s="68">
+        <v>691200</v>
       </c>
       <c r="E1092" s="64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1092" s="64">
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61864,22 +61868,22 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="64">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1093" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1093" s="62" t="s">
-        <v>1029</v>
+        <v>1812</v>
+      </c>
+      <c r="D1093" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1093" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1093" s="64">
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2096</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61889,11 +61893,11 @@
       <c r="B1094" s="64">
         <v>455</v>
       </c>
-      <c r="C1094" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1094" s="65" t="s">
-        <v>916</v>
+      <c r="C1094" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1094" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1094" s="64">
         <v>2</v>
@@ -61902,7 +61906,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2248</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61912,20 +61916,20 @@
       <c r="B1095" s="64">
         <v>455</v>
       </c>
-      <c r="C1095" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1095" s="70">
-        <v>1615246200</v>
+      <c r="C1095" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1095" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1095" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1095" s="64">
         <v>1</v>
       </c>
       <c r="G1095" s="65" t="s">
-        <v>2373</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -61933,22 +61937,22 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1096" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1096" s="65" t="s">
-        <v>1533</v>
+        <v>455</v>
+      </c>
+      <c r="C1096" s="65" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1096" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1096" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1096" s="64">
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2247</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61958,11 +61962,11 @@
       <c r="B1097" s="64">
         <v>456</v>
       </c>
-      <c r="C1097" s="65" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D1097" s="62" t="s">
-        <v>2378</v>
+      <c r="C1097" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1097" s="65" t="s">
+        <v>1533</v>
       </c>
       <c r="E1097" s="64">
         <v>2</v>
@@ -61971,7 +61975,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2379</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61982,10 +61986,10 @@
         <v>456</v>
       </c>
       <c r="C1098" s="65" t="s">
-        <v>2534</v>
-      </c>
-      <c r="D1098" s="65" t="s">
-        <v>2536</v>
+        <v>2435</v>
+      </c>
+      <c r="D1098" s="62" t="s">
+        <v>2378</v>
       </c>
       <c r="E1098" s="64">
         <v>2</v>
@@ -61994,30 +61998,30 @@
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2538</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
       <c r="A1099" s="8">
         <v>1098</v>
       </c>
-      <c r="B1099" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1099" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1099" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E1099" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1099" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1099" s="10" t="s">
-        <v>2247</v>
+      <c r="B1099" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1099" s="65" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1099" s="65" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1099" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1099" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="65" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62025,22 +62029,22 @@
         <v>1099</v>
       </c>
       <c r="B1100" s="9">
-        <v>458</v>
-      </c>
-      <c r="C1100" s="65" t="s">
-        <v>2515</v>
-      </c>
-      <c r="D1100" s="65" t="s">
-        <v>916</v>
-      </c>
-      <c r="E1100" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1100" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1100" s="65" t="s">
-        <v>2248</v>
+        <v>457</v>
+      </c>
+      <c r="C1100" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1100" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E1100" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="10" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62048,22 +62052,22 @@
         <v>1100</v>
       </c>
       <c r="B1101" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1101" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1101" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1101" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1101" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1101" s="10" t="s">
-        <v>1333</v>
+        <v>458</v>
+      </c>
+      <c r="C1101" s="65" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1101" s="65" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1101" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1101" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1101" s="65" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62077,16 +62081,16 @@
         <v>1117</v>
       </c>
       <c r="D1102" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1102" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1102" s="8">
         <v>1</v>
       </c>
       <c r="G1102" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62094,13 +62098,13 @@
         <v>1102</v>
       </c>
       <c r="B1103" s="9">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1103" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1103" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1103" s="8">
         <v>4</v>
@@ -62109,7 +62113,7 @@
         <v>1</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62117,22 +62121,22 @@
         <v>1103</v>
       </c>
       <c r="B1104" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1104" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1104" s="10" t="s">
-        <v>2093</v>
+        <v>460</v>
+      </c>
+      <c r="C1104" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1104" s="8">
+        <v>3</v>
       </c>
       <c r="E1104" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1104" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>2395</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62140,22 +62144,22 @@
         <v>1104</v>
       </c>
       <c r="B1105" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1105" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1105" s="26" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E1105" s="9">
+        <v>461</v>
+      </c>
+      <c r="C1105" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1105" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1105" s="8">
         <v>5</v>
       </c>
-      <c r="F1105" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1105" s="26" t="s">
-        <v>2436</v>
+      <c r="F1105" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1105" s="10" t="s">
+        <v>2395</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62163,22 +62167,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="9">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1106" s="26" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1106" s="9" t="s">
-        <v>2441</v>
+        <v>1942</v>
+      </c>
+      <c r="D1106" s="26" t="s">
+        <v>2434</v>
       </c>
       <c r="E1106" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1106" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1106" s="26" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62188,11 +62192,11 @@
       <c r="B1107" s="9">
         <v>463</v>
       </c>
-      <c r="C1107" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1107" s="10" t="s">
-        <v>2093</v>
+      <c r="C1107" s="26" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1107" s="9" t="s">
+        <v>2441</v>
       </c>
       <c r="E1107" s="9">
         <v>2</v>
@@ -62201,7 +62205,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="26" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62209,36 +62213,36 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1108" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1108" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1108" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1108" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1108" s="10" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:7" s="8" customFormat="1">
+        <v>463</v>
+      </c>
+      <c r="C1108" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1108" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1108" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1108" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="26" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7">
       <c r="A1109" s="8">
         <v>1108</v>
       </c>
-      <c r="B1109" s="8">
-        <v>465</v>
+      <c r="B1109" s="9">
+        <v>464</v>
       </c>
       <c r="C1109" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D1109" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1109" s="8">
         <v>3</v>
@@ -62247,7 +62251,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>874</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1110" spans="1:7" s="8" customFormat="1">
@@ -62255,13 +62259,13 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="8">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1110" s="10" t="s">
         <v>860</v>
       </c>
       <c r="D1110" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1110" s="8">
         <v>3</v>
@@ -62270,7 +62274,7 @@
         <v>1</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>2512</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1111" spans="1:7" s="8" customFormat="1">
@@ -62278,13 +62282,13 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="8">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1111" s="10" t="s">
         <v>860</v>
       </c>
       <c r="D1111" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1111" s="8">
         <v>3</v>
@@ -62293,30 +62297,30 @@
         <v>1</v>
       </c>
       <c r="G1111" s="10" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:7">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" s="8" customFormat="1">
       <c r="A1112" s="8">
         <v>1111</v>
       </c>
       <c r="B1112" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1112" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1112" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1112" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1112" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1112" s="26" t="s">
-        <v>2524</v>
+        <v>467</v>
+      </c>
+      <c r="C1112" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1112" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1112" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1112" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="10" t="s">
+        <v>2513</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62324,7 +62328,7 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="8">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1113" s="26" t="s">
         <v>1942</v>
@@ -62333,13 +62337,13 @@
         <v>2520</v>
       </c>
       <c r="E1113" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1113" s="9">
         <v>1</v>
       </c>
       <c r="G1113" s="26" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -62347,22 +62351,22 @@
         <v>1113</v>
       </c>
       <c r="B1114" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1114" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1114" s="30" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1114" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1114" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="10" t="s">
-        <v>2529</v>
+        <v>469</v>
+      </c>
+      <c r="C1114" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1114" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E1114" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="26" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -62376,13 +62380,13 @@
         <v>847</v>
       </c>
       <c r="D1115" s="30" t="s">
-        <v>2555</v>
+        <v>2528</v>
       </c>
       <c r="E1115" s="8">
         <v>2</v>
       </c>
       <c r="F1115" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
         <v>2529</v>
@@ -62392,20 +62396,20 @@
       <c r="A1116" s="8">
         <v>1115</v>
       </c>
-      <c r="B1116" s="9">
-        <v>471</v>
+      <c r="B1116" s="8">
+        <v>470</v>
       </c>
       <c r="C1116" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1116" s="30" t="s">
-        <v>2528</v>
+        <v>2555</v>
       </c>
       <c r="E1116" s="8">
         <v>2</v>
       </c>
       <c r="F1116" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1116" s="10" t="s">
         <v>2529</v>
@@ -62418,20 +62422,20 @@
       <c r="B1117" s="9">
         <v>471</v>
       </c>
-      <c r="C1117" s="26" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D1117" s="26" t="s">
-        <v>2537</v>
-      </c>
-      <c r="E1117" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="26" t="s">
-        <v>2539</v>
+      <c r="C1117" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1117" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1117" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="10" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -62441,20 +62445,20 @@
       <c r="B1118" s="9">
         <v>471</v>
       </c>
-      <c r="C1118" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1118" s="30" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E1118" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1118" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1118" s="10" t="s">
-        <v>2529</v>
+      <c r="C1118" s="26" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1118" s="26" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1118" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1118" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="26" t="s">
+        <v>2539</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -62464,24 +62468,47 @@
       <c r="B1119" s="9">
         <v>471</v>
       </c>
-      <c r="C1119" s="26" t="s">
+      <c r="C1119" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1119" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1119" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1119" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1119" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7">
+      <c r="A1120" s="8">
+        <v>1119</v>
+      </c>
+      <c r="B1120" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1120" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="D1119" s="26" t="s">
+      <c r="D1120" s="26" t="s">
         <v>1972</v>
       </c>
-      <c r="E1119" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1119" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1119" s="26" t="s">
+      <c r="E1120" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1120" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1120" s="26" t="s">
         <v>1696</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1083"/>
+  <autoFilter ref="C1:C1084"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1084</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1088</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="2557">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -13471,9 +13471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q515"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19504,10 +19504,10 @@
   <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C500" sqref="C500:D500"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36676,13 +36676,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1120"/>
+  <dimension ref="A1:I1124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C908" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C935" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B927" sqref="B927"/>
+      <selection pane="bottomRight" activeCell="B955" sqref="B955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58694,22 +58694,22 @@
         <v>954</v>
       </c>
       <c r="B955" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C955" s="10" t="s">
-        <v>2028</v>
+        <v>860</v>
       </c>
       <c r="D955" s="8">
-        <v>1607356800</v>
+        <v>0</v>
       </c>
       <c r="E955" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F955" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2029</v>
+        <v>865</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58717,19 +58717,19 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C956" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D956" s="30" t="s">
-        <v>1839</v>
+        <v>2528</v>
       </c>
       <c r="E956" s="8">
         <v>5</v>
       </c>
       <c r="F956" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G956" s="10" t="s">
         <v>1975</v>
@@ -58740,22 +58740,22 @@
         <v>956</v>
       </c>
       <c r="B957" s="8">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2028</v>
+        <v>860</v>
       </c>
       <c r="D957" s="8">
-        <v>1607356800</v>
+        <v>0</v>
       </c>
       <c r="E957" s="8">
+        <v>2</v>
+      </c>
+      <c r="F957" s="8">
         <v>3</v>
       </c>
-      <c r="F957" s="8">
-        <v>1</v>
-      </c>
       <c r="G957" s="10" t="s">
-        <v>2029</v>
+        <v>865</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58763,22 +58763,22 @@
         <v>957</v>
       </c>
       <c r="B958" s="8">
-        <v>395</v>
-      </c>
-      <c r="C958" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D958" s="15" t="s">
-        <v>1029</v>
+        <v>393</v>
+      </c>
+      <c r="C958" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D958" s="30" t="s">
+        <v>2555</v>
       </c>
       <c r="E958" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F958" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2030</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -58786,7 +58786,7 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C959" s="10" t="s">
         <v>2028</v>
@@ -58798,7 +58798,7 @@
         <v>3</v>
       </c>
       <c r="F959" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
         <v>2029</v>
@@ -58809,44 +58809,44 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>395</v>
-      </c>
-      <c r="C960" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D960" s="15" t="s">
-        <v>1748</v>
+        <v>394</v>
+      </c>
+      <c r="C960" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D960" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E960" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F960" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G960" s="10" t="s">
-        <v>2032</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="961" spans="1:7">
       <c r="A961" s="8">
         <v>960</v>
       </c>
-      <c r="B961" s="14">
-        <v>396</v>
-      </c>
-      <c r="C961" s="31" t="s">
+      <c r="B961" s="8">
+        <v>395</v>
+      </c>
+      <c r="C961" s="10" t="s">
         <v>2028</v>
       </c>
-      <c r="D961" s="14">
+      <c r="D961" s="8">
         <v>1607356800</v>
       </c>
-      <c r="E961" s="14">
+      <c r="E961" s="8">
         <v>3</v>
       </c>
-      <c r="F961" s="14">
-        <v>1</v>
-      </c>
-      <c r="G961" s="31" t="s">
+      <c r="F961" s="8">
+        <v>1</v>
+      </c>
+      <c r="G961" s="10" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -58855,13 +58855,13 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>397</v>
-      </c>
-      <c r="C962" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D962" s="10" t="s">
-        <v>1533</v>
+        <v>395</v>
+      </c>
+      <c r="C962" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D962" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E962" s="8">
         <v>2</v>
@@ -58870,7 +58870,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>911</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58878,68 +58878,68 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>398</v>
-      </c>
-      <c r="C963" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D963" s="10" t="s">
-        <v>916</v>
+        <v>395</v>
+      </c>
+      <c r="C963" s="10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D963" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E963" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F963" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="964" spans="1:7" s="8" customFormat="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7">
       <c r="A964" s="8">
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C964" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D964" s="8">
-        <v>1</v>
+        <v>1023</v>
+      </c>
+      <c r="D964" s="15" t="s">
+        <v>1748</v>
       </c>
       <c r="E964" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>1997</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="965" spans="1:7">
       <c r="A965" s="8">
         <v>964</v>
       </c>
-      <c r="B965" s="8">
-        <v>400</v>
-      </c>
-      <c r="C965" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D965" s="8">
-        <v>5</v>
-      </c>
-      <c r="E965" s="8">
+      <c r="B965" s="14">
+        <v>396</v>
+      </c>
+      <c r="C965" s="31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D965" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E965" s="14">
         <v>3</v>
       </c>
-      <c r="F965" s="8">
-        <v>1</v>
-      </c>
-      <c r="G965" s="10" t="s">
-        <v>2045</v>
+      <c r="F965" s="14">
+        <v>1</v>
+      </c>
+      <c r="G965" s="31" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="966" spans="1:7">
@@ -58947,45 +58947,45 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>401</v>
-      </c>
-      <c r="C966" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D966" s="8">
-        <v>8</v>
+        <v>397</v>
+      </c>
+      <c r="C966" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D966" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E966" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F966" s="8">
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="967" spans="1:7" s="8" customFormat="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7">
       <c r="A967" s="8">
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>402</v>
-      </c>
-      <c r="C967" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C967" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D967" s="10" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E967" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F967" s="8">
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="968" spans="1:7" s="8" customFormat="1">
@@ -58993,36 +58993,36 @@
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C968" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D968" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E968" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="969" spans="1:7" s="8" customFormat="1">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7">
       <c r="A969" s="8">
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C969" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D969" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E969" s="8">
         <v>3</v>
@@ -59031,30 +59031,30 @@
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7" s="8" customFormat="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7">
       <c r="A970" s="8">
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C970" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D970" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D970" s="8">
+        <v>8</v>
       </c>
       <c r="E970" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F970" s="8">
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>904</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="971" spans="1:7" s="8" customFormat="1">
@@ -59062,13 +59062,13 @@
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>406</v>
-      </c>
-      <c r="C971" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C971" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D971" s="30" t="s">
-        <v>1839</v>
+      <c r="D971" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E971" s="8">
         <v>5</v>
@@ -59077,21 +59077,21 @@
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" s="8" customFormat="1">
       <c r="A972" s="8">
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>407</v>
-      </c>
-      <c r="C972" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D972" s="44" t="s">
-        <v>2088</v>
+        <v>403</v>
+      </c>
+      <c r="C972" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D972" s="8">
+        <v>0</v>
       </c>
       <c r="E972" s="8">
         <v>2</v>
@@ -59100,7 +59100,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2089</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59108,22 +59108,22 @@
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D973" s="8" t="s">
-        <v>2090</v>
+        <v>1117</v>
+      </c>
+      <c r="D973" s="8">
+        <v>0</v>
       </c>
       <c r="E973" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F973" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2091</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59131,22 +59131,22 @@
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>407</v>
-      </c>
-      <c r="C974" s="8" t="s">
-        <v>2092</v>
+        <v>405</v>
+      </c>
+      <c r="C974" s="10" t="s">
+        <v>847</v>
       </c>
       <c r="D974" s="10" t="s">
-        <v>2094</v>
+        <v>900</v>
       </c>
       <c r="E974" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F974" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2095</v>
+        <v>904</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59154,25 +59154,25 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>407</v>
-      </c>
-      <c r="C975" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D975" s="15" t="s">
-        <v>1029</v>
+        <v>406</v>
+      </c>
+      <c r="C975" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D975" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E975" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F975" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7" s="8" customFormat="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A976" s="8">
         <v>975</v>
       </c>
@@ -59182,17 +59182,17 @@
       <c r="C976" s="8" t="s">
         <v>2087</v>
       </c>
-      <c r="D976" s="10" t="s">
-        <v>2093</v>
+      <c r="D976" s="44" t="s">
+        <v>2088</v>
       </c>
       <c r="E976" s="8">
         <v>2</v>
       </c>
       <c r="F976" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59200,7 +59200,7 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C977" s="10" t="s">
         <v>1023</v>
@@ -59215,7 +59215,7 @@
         <v>2</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2112</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -59223,22 +59223,22 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C978" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D978" s="30" t="s">
-        <v>2246</v>
+        <v>2092</v>
+      </c>
+      <c r="D978" s="10" t="s">
+        <v>2094</v>
       </c>
       <c r="E978" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F978" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>1975</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59246,22 +59246,22 @@
         <v>978</v>
       </c>
       <c r="B979" s="8">
-        <v>410</v>
-      </c>
-      <c r="C979" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D979" s="30" t="s">
-        <v>1839</v>
+        <v>407</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D979" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
       </c>
       <c r="F979" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2121</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59269,22 +59269,22 @@
         <v>979</v>
       </c>
       <c r="B980" s="8">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D980" s="30" t="s">
-        <v>1839</v>
+        <v>2087</v>
+      </c>
+      <c r="D980" s="10" t="s">
+        <v>2093</v>
       </c>
       <c r="E980" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F980" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>1975</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="981" spans="1:7" s="8" customFormat="1">
@@ -59292,22 +59292,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>412</v>
-      </c>
-      <c r="C981" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D981" s="30" t="s">
-        <v>1839</v>
+        <v>408</v>
+      </c>
+      <c r="C981" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D981" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E981" s="8">
         <v>2</v>
       </c>
       <c r="F981" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2127</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59315,22 +59315,22 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>413</v>
-      </c>
-      <c r="C982" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D982" s="8">
-        <v>2</v>
+        <v>409</v>
+      </c>
+      <c r="C982" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D982" s="30" t="s">
+        <v>2246</v>
       </c>
       <c r="E982" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F982" s="8">
         <v>1</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2131</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59338,22 +59338,22 @@
         <v>982</v>
       </c>
       <c r="B983" s="8">
-        <v>414</v>
-      </c>
-      <c r="C983" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D983" s="8">
-        <v>2</v>
+        <v>410</v>
+      </c>
+      <c r="C983" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D983" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E983" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F983" s="8">
         <v>1</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59361,22 +59361,22 @@
         <v>983</v>
       </c>
       <c r="B984" s="8">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C984" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D984" s="30" t="s">
-        <v>2138</v>
+        <v>1839</v>
       </c>
       <c r="E984" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F984" s="8">
         <v>1</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>2139</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="985" spans="1:7" s="8" customFormat="1">
@@ -59384,22 +59384,22 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C985" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D985" s="10">
-        <v>86400</v>
+        <v>847</v>
+      </c>
+      <c r="D985" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E985" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F985" s="8">
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>937</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59407,22 +59407,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C986" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D986" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E986" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>2146</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59430,22 +59430,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>417</v>
-      </c>
-      <c r="C987" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D987" s="30" t="s">
-        <v>1839</v>
+        <v>414</v>
+      </c>
+      <c r="C987" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D987" s="8">
+        <v>2</v>
       </c>
       <c r="E987" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F987" s="8">
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>1975</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59453,13 +59453,13 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>418</v>
-      </c>
-      <c r="C988" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D988" s="10" t="s">
-        <v>2152</v>
+        <v>415</v>
+      </c>
+      <c r="C988" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D988" s="30" t="s">
+        <v>2138</v>
       </c>
       <c r="E988" s="8">
         <v>2</v>
@@ -59468,7 +59468,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2153</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59476,22 +59476,22 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>418</v>
-      </c>
-      <c r="C989" s="10" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D989" s="10" t="s">
-        <v>2088</v>
+        <v>415</v>
+      </c>
+      <c r="C989" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D989" s="10">
+        <v>86400</v>
       </c>
       <c r="E989" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F989" s="8">
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2154</v>
+        <v>937</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59499,22 +59499,22 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D990" s="8" t="s">
-        <v>2155</v>
+        <v>1117</v>
+      </c>
+      <c r="D990" s="8">
+        <v>0</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
       </c>
       <c r="F990" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59522,22 +59522,22 @@
         <v>990</v>
       </c>
       <c r="B991" s="8">
-        <v>418</v>
-      </c>
-      <c r="C991" s="10" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D991" s="10" t="s">
-        <v>2088</v>
+        <v>417</v>
+      </c>
+      <c r="C991" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D991" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E991" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F991" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2158</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59548,19 +59548,19 @@
         <v>418</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D992" s="8" t="s">
-        <v>2159</v>
+        <v>2164</v>
+      </c>
+      <c r="D992" s="10" t="s">
+        <v>2152</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
       </c>
       <c r="F992" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59580,10 +59580,10 @@
         <v>2</v>
       </c>
       <c r="F993" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59591,22 +59591,22 @@
         <v>993</v>
       </c>
       <c r="B994" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D994" s="15" t="s">
-        <v>2034</v>
+        <v>2165</v>
+      </c>
+      <c r="D994" s="8" t="s">
+        <v>2155</v>
       </c>
       <c r="E994" s="8">
         <v>2</v>
       </c>
       <c r="F994" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2036</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59614,22 +59614,22 @@
         <v>994</v>
       </c>
       <c r="B995" s="8">
-        <v>419</v>
-      </c>
-      <c r="C995" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D995" s="8">
-        <v>600</v>
+        <v>418</v>
+      </c>
+      <c r="C995" s="10" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D995" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E995" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F995" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2350</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59637,22 +59637,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="8">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D996" s="15" t="s">
-        <v>2033</v>
+        <v>2166</v>
+      </c>
+      <c r="D996" s="8" t="s">
+        <v>2159</v>
       </c>
       <c r="E996" s="8">
         <v>2</v>
       </c>
       <c r="F996" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2035</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59660,22 +59660,22 @@
         <v>996</v>
       </c>
       <c r="B997" s="8">
-        <v>420</v>
-      </c>
-      <c r="C997" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D997" s="8">
-        <v>600</v>
+        <v>418</v>
+      </c>
+      <c r="C997" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D997" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E997" s="8">
+        <v>2</v>
+      </c>
+      <c r="F997" s="8">
         <v>3</v>
       </c>
-      <c r="F997" s="8">
-        <v>1</v>
-      </c>
       <c r="G997" s="10" t="s">
-        <v>2351</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59683,22 +59683,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>421</v>
-      </c>
-      <c r="C998" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D998" s="30" t="s">
-        <v>1839</v>
+        <v>419</v>
+      </c>
+      <c r="C998" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D998" s="15" t="s">
+        <v>2034</v>
       </c>
       <c r="E998" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F998" s="8">
         <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>1975</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59706,22 +59706,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>422</v>
-      </c>
-      <c r="C999" s="10" t="s">
-        <v>1117</v>
+        <v>419</v>
+      </c>
+      <c r="C999" s="8" t="s">
+        <v>2174</v>
       </c>
       <c r="D999" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E999" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F999" s="8">
         <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2189</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59729,22 +59729,22 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C1000" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1000" s="8">
-        <v>1</v>
+        <v>1023</v>
+      </c>
+      <c r="D1000" s="15" t="s">
+        <v>2033</v>
       </c>
       <c r="E1000" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1000" s="8">
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2187</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59752,22 +59752,22 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>423</v>
-      </c>
-      <c r="C1001" s="10" t="s">
-        <v>1117</v>
+        <v>420</v>
+      </c>
+      <c r="C1001" s="8" t="s">
+        <v>2174</v>
       </c>
       <c r="D1001" s="8">
+        <v>600</v>
+      </c>
+      <c r="E1001" s="8">
         <v>3</v>
       </c>
-      <c r="E1001" s="8">
-        <v>4</v>
-      </c>
       <c r="F1001" s="8">
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2192</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59775,22 +59775,22 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="8">
-        <v>424</v>
-      </c>
-      <c r="C1002" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1002" s="8">
-        <v>4</v>
+        <v>421</v>
+      </c>
+      <c r="C1002" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1002" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1002" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>2190</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59798,22 +59798,22 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C1003" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1003" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E1003" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59821,13 +59821,13 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C1004" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1004" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1004" s="8">
         <v>3</v>
@@ -59836,30 +59836,30 @@
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>1992</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
       <c r="A1005" s="8">
         <v>1004</v>
       </c>
-      <c r="B1005" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1005" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1005" s="30" t="s">
-        <v>1839</v>
+      <c r="B1005" s="8">
+        <v>423</v>
+      </c>
+      <c r="C1005" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1005" s="8">
+        <v>3</v>
       </c>
       <c r="E1005" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59867,22 +59867,22 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="8">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C1006" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1006" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1006" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59890,22 +59890,22 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>427</v>
-      </c>
-      <c r="C1007" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1007" s="30" t="s">
-        <v>1839</v>
+        <v>424</v>
+      </c>
+      <c r="C1007" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1007" s="8">
+        <v>7</v>
       </c>
       <c r="E1007" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1007" s="8">
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59913,13 +59913,13 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="8">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C1008" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1008" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1008" s="8">
         <v>3</v>
@@ -59928,30 +59928,30 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2187</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
       <c r="A1009" s="8">
         <v>1008</v>
       </c>
-      <c r="B1009" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1009" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1009" s="8">
-        <v>3</v>
+      <c r="B1009" s="16">
+        <v>426</v>
+      </c>
+      <c r="C1009" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1009" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1009" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59959,22 +59959,22 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1010" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1010" s="30" t="s">
-        <v>1839</v>
+        <v>427</v>
+      </c>
+      <c r="C1010" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1010" s="8">
+        <v>0</v>
       </c>
       <c r="E1010" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
@@ -59982,22 +59982,22 @@
         <v>1010</v>
       </c>
       <c r="B1011" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1011" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1011" s="8">
-        <v>4</v>
+        <v>427</v>
+      </c>
+      <c r="C1011" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1011" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1011" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1011" s="8">
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>1228</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -60005,22 +60005,22 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="8">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1012" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1012" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1012" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60028,22 +60028,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1013" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1013" s="30" t="s">
-        <v>1839</v>
+        <v>428</v>
+      </c>
+      <c r="C1013" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1013" s="8">
+        <v>3</v>
       </c>
       <c r="E1013" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60051,22 +60051,22 @@
         <v>1013</v>
       </c>
       <c r="B1014" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1014" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1014" s="8">
-        <v>8</v>
+        <v>428</v>
+      </c>
+      <c r="C1014" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1014" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1014" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>1227</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60074,22 +60074,22 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1015" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1015" s="30" t="s">
-        <v>1839</v>
+        <v>429</v>
+      </c>
+      <c r="C1015" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1015" s="8">
+        <v>4</v>
       </c>
       <c r="E1015" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2188</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60097,114 +60097,114 @@
         <v>1015</v>
       </c>
       <c r="B1016" s="8">
-        <v>431</v>
-      </c>
-      <c r="C1016" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1016" s="30" t="s">
-        <v>1839</v>
+        <v>429</v>
+      </c>
+      <c r="C1016" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1016" s="8">
+        <v>7</v>
       </c>
       <c r="E1016" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
       <c r="A1017" s="8">
         <v>1016</v>
       </c>
-      <c r="B1017" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1017" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1017" s="8">
-        <v>0</v>
+      <c r="B1017" s="8">
+        <v>429</v>
+      </c>
+      <c r="C1017" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1017" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1017" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1017" s="8">
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
       <c r="A1018" s="8">
         <v>1017</v>
       </c>
-      <c r="B1018" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1018" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1018" s="10" t="s">
-        <v>1533</v>
+      <c r="B1018" s="8">
+        <v>430</v>
+      </c>
+      <c r="C1018" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1018" s="8">
+        <v>8</v>
       </c>
       <c r="E1018" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1018" s="8">
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2247</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
       <c r="A1019" s="8">
         <v>1018</v>
       </c>
-      <c r="B1019" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1019" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1019" s="8">
-        <v>0</v>
+      <c r="B1019" s="8">
+        <v>430</v>
+      </c>
+      <c r="C1019" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1019" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1019" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1019" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
       <c r="A1020" s="8">
         <v>1019</v>
       </c>
-      <c r="B1020" s="16">
-        <v>432</v>
+      <c r="B1020" s="8">
+        <v>431</v>
       </c>
       <c r="C1020" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1020" s="10" t="s">
-        <v>916</v>
+      <c r="D1020" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1020" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1020" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2248</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
@@ -60224,7 +60224,7 @@
         <v>2</v>
       </c>
       <c r="F1021" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
         <v>2189</v>
@@ -60240,17 +60240,17 @@
       <c r="C1022" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1022" s="30" t="s">
-        <v>1839</v>
+      <c r="D1022" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1022" s="8">
         <v>2</v>
       </c>
       <c r="F1022" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60261,19 +60261,19 @@
         <v>432</v>
       </c>
       <c r="C1023" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1023" s="10" t="s">
-        <v>2245</v>
+        <v>1117</v>
+      </c>
+      <c r="D1023" s="8">
+        <v>0</v>
       </c>
       <c r="E1023" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1023" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1023" s="10" t="s">
-        <v>2244</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -60281,22 +60281,22 @@
         <v>1023</v>
       </c>
       <c r="B1024" s="16">
-        <v>433</v>
-      </c>
-      <c r="C1024" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1024" s="8">
-        <v>1</v>
+        <v>432</v>
+      </c>
+      <c r="C1024" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1024" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1024" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1024" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60304,22 +60304,22 @@
         <v>1024</v>
       </c>
       <c r="B1025" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1025" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1025" s="8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E1025" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1025" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>2249</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1026" spans="1:7" s="8" customFormat="1">
@@ -60327,22 +60327,22 @@
         <v>1025</v>
       </c>
       <c r="B1026" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1026" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1026" s="10" t="s">
-        <v>1533</v>
+      <c r="D1026" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1026" s="8">
         <v>2</v>
       </c>
       <c r="F1026" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60350,22 +60350,22 @@
         <v>1026</v>
       </c>
       <c r="B1027" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1027" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1027" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1027" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1027" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1027" s="8">
         <v>3</v>
       </c>
-      <c r="F1027" s="8">
-        <v>2</v>
-      </c>
       <c r="G1027" s="10" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60379,16 +60379,16 @@
         <v>1117</v>
       </c>
       <c r="D1028" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1028" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1028" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60398,20 +60398,20 @@
       <c r="B1029" s="16">
         <v>433</v>
       </c>
-      <c r="C1029" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1029" s="10" t="s">
-        <v>916</v>
+      <c r="C1029" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1029" s="8">
+        <v>7</v>
       </c>
       <c r="E1029" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1029" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60421,20 +60421,20 @@
       <c r="B1030" s="16">
         <v>433</v>
       </c>
-      <c r="C1030" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1030" s="8">
-        <v>1</v>
+      <c r="C1030" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1030" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1030" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1030" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2189</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60448,16 +60448,16 @@
         <v>1117</v>
       </c>
       <c r="D1031" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1031" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1031" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60467,20 +60467,20 @@
       <c r="B1032" s="16">
         <v>433</v>
       </c>
-      <c r="C1032" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1032" s="30" t="s">
-        <v>1839</v>
+      <c r="C1032" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1032" s="8">
+        <v>7</v>
       </c>
       <c r="E1032" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1032" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60490,20 +60490,20 @@
       <c r="B1033" s="16">
         <v>433</v>
       </c>
-      <c r="C1033" s="10" t="s">
+      <c r="C1033" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1033" s="10" t="s">
-        <v>2245</v>
+        <v>916</v>
       </c>
       <c r="E1033" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1033" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60511,22 +60511,22 @@
         <v>1033</v>
       </c>
       <c r="B1034" s="16">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1034" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1034" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1034" s="8">
         <v>3</v>
       </c>
       <c r="F1034" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2252</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60534,22 +60534,22 @@
         <v>1034</v>
       </c>
       <c r="B1035" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1035" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1035" s="10" t="s">
-        <v>1533</v>
+        <v>433</v>
+      </c>
+      <c r="C1035" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1035" s="8">
+        <v>7</v>
       </c>
       <c r="E1035" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1035" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60557,22 +60557,22 @@
         <v>1035</v>
       </c>
       <c r="B1036" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1036" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1036" s="8">
-        <v>8</v>
+        <v>433</v>
+      </c>
+      <c r="C1036" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1036" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1036" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1036" s="8">
         <v>3</v>
       </c>
-      <c r="F1036" s="8">
-        <v>2</v>
-      </c>
       <c r="G1036" s="10" t="s">
-        <v>2252</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60580,22 +60580,22 @@
         <v>1036</v>
       </c>
       <c r="B1037" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1037" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1037" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1037" s="10" t="s">
-        <v>916</v>
+        <v>2245</v>
       </c>
       <c r="E1037" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1037" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60615,7 +60615,7 @@
         <v>3</v>
       </c>
       <c r="F1038" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1038" s="10" t="s">
         <v>2252</v>
@@ -60631,17 +60631,17 @@
       <c r="C1039" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1039" s="30" t="s">
-        <v>1839</v>
+      <c r="D1039" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1039" s="8">
         <v>2</v>
       </c>
       <c r="F1039" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60652,111 +60652,111 @@
         <v>434</v>
       </c>
       <c r="C1040" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1040" s="10" t="s">
-        <v>2245</v>
+        <v>1117</v>
+      </c>
+      <c r="D1040" s="8">
+        <v>8</v>
       </c>
       <c r="E1040" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1040" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>2244</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1041" spans="1:7" s="8" customFormat="1">
       <c r="A1041" s="8">
         <v>1040</v>
       </c>
-      <c r="B1041" s="8">
-        <v>435</v>
-      </c>
-      <c r="C1041" s="10" t="s">
+      <c r="B1041" s="16">
+        <v>434</v>
+      </c>
+      <c r="C1041" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="E1041" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1041" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>904</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
       <c r="A1042" s="8">
         <v>1041</v>
       </c>
-      <c r="B1042" s="8">
-        <v>436</v>
+      <c r="B1042" s="16">
+        <v>434</v>
       </c>
       <c r="C1042" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1042" s="10" t="s">
-        <v>852</v>
+        <v>1117</v>
+      </c>
+      <c r="D1042" s="8">
+        <v>8</v>
       </c>
       <c r="E1042" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1042" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>903</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1043" spans="1:7" s="8" customFormat="1">
       <c r="A1043" s="8">
         <v>1042</v>
       </c>
-      <c r="B1043" s="8">
-        <v>436</v>
-      </c>
-      <c r="C1043" s="10" t="s">
+      <c r="B1043" s="16">
+        <v>434</v>
+      </c>
+      <c r="C1043" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1043" s="10" t="s">
-        <v>856</v>
+      <c r="D1043" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1043" s="8">
         <v>2</v>
       </c>
       <c r="F1043" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>899</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
       <c r="A1044" s="8">
         <v>1043</v>
       </c>
-      <c r="B1044" s="8">
-        <v>436</v>
+      <c r="B1044" s="16">
+        <v>434</v>
       </c>
       <c r="C1044" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1044" s="10" t="s">
-        <v>1205</v>
+        <v>2245</v>
       </c>
       <c r="E1044" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1044" s="8">
         <v>3</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>1238</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
@@ -60764,22 +60764,22 @@
         <v>1044</v>
       </c>
       <c r="B1045" s="8">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C1045" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1045" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1045" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1045" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1045" s="8">
         <v>1</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>1331</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
@@ -60787,22 +60787,22 @@
         <v>1045</v>
       </c>
       <c r="B1046" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1046" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1046" s="8">
-        <v>3</v>
+        <v>847</v>
+      </c>
+      <c r="D1046" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="E1046" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1046" s="8">
         <v>1</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>1332</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60810,22 +60810,22 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1047" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1047" s="10" t="s">
-        <v>900</v>
+        <v>856</v>
       </c>
       <c r="E1047" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1047" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60833,22 +60833,22 @@
         <v>1047</v>
       </c>
       <c r="B1048" s="8">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C1048" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1048" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1048" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
         <v>3</v>
       </c>
-      <c r="F1048" s="8">
-        <v>1</v>
-      </c>
       <c r="G1048" s="10" t="s">
-        <v>1333</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60856,22 +60856,22 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1049" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1049" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1049" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1049" s="8">
         <v>1</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60879,22 +60879,22 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1050" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1050" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1050" s="8">
+        <v>3</v>
       </c>
       <c r="E1050" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1050" s="8">
         <v>1</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60902,22 +60902,22 @@
         <v>1050</v>
       </c>
       <c r="B1051" s="8">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C1051" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1051" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1051" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1051" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60925,22 +60925,22 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1052" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1052" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1052" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1052" s="8">
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60948,22 +60948,22 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1053" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1053" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1053" s="8">
+        <v>7</v>
       </c>
       <c r="E1053" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1053" s="8">
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -60971,13 +60971,13 @@
         <v>1053</v>
       </c>
       <c r="B1054" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1054" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1054" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1054" s="30" t="s">
-        <v>1839</v>
+      <c r="D1054" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1054" s="8">
         <v>5</v>
@@ -60986,7 +60986,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>2188</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1055" spans="1:7" s="8" customFormat="1">
@@ -60994,105 +60994,105 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="8">
-        <v>441</v>
-      </c>
-      <c r="C1055" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1055" s="30" t="s">
-        <v>1839</v>
+        <v>439</v>
+      </c>
+      <c r="C1055" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1055" s="8">
+        <v>8</v>
       </c>
       <c r="E1055" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1055" s="8">
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:7">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" s="8" customFormat="1">
       <c r="A1056" s="8">
         <v>1055</v>
       </c>
       <c r="B1056" s="8">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C1056" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1056" s="15" t="s">
-        <v>1029</v>
+        <v>1117</v>
+      </c>
+      <c r="D1056" s="8">
+        <v>12</v>
       </c>
       <c r="E1056" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1056" s="8">
         <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:7">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" s="8" customFormat="1">
       <c r="A1057" s="8">
         <v>1056</v>
       </c>
       <c r="B1057" s="8">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C1057" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1057" s="8" t="s">
-        <v>2090</v>
+        <v>847</v>
+      </c>
+      <c r="D1057" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1057" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1057" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:7">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" s="8" customFormat="1">
       <c r="A1058" s="8">
         <v>1057</v>
       </c>
       <c r="B1058" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1058" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1058" s="10" t="s">
-        <v>2303</v>
+        <v>440</v>
+      </c>
+      <c r="C1058" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1058" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1058" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1058" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:7">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" s="8" customFormat="1">
       <c r="A1059" s="8">
         <v>1058</v>
       </c>
       <c r="B1059" s="8">
-        <v>443</v>
-      </c>
-      <c r="C1059" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1059" s="10" t="s">
-        <v>2306</v>
+        <v>441</v>
+      </c>
+      <c r="C1059" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1059" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1059" s="8">
         <v>2</v>
@@ -61101,7 +61101,7 @@
         <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2309</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -61109,22 +61109,22 @@
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1060" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1060" s="10" t="s">
-        <v>2305</v>
+      <c r="D1060" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E1060" s="8">
         <v>2</v>
       </c>
       <c r="F1060" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2310</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1061" spans="1:7">
@@ -61132,22 +61132,22 @@
         <v>1060</v>
       </c>
       <c r="B1061" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1061" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1061" s="10" t="s">
-        <v>2308</v>
+      <c r="D1061" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E1061" s="8">
         <v>2</v>
       </c>
       <c r="F1061" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2311</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61155,22 +61155,22 @@
         <v>1061</v>
       </c>
       <c r="B1062" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1062" s="8" t="s">
-        <v>847</v>
+        <v>442</v>
+      </c>
+      <c r="C1062" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D1062" s="10" t="s">
-        <v>1533</v>
+        <v>2303</v>
       </c>
       <c r="E1062" s="8">
         <v>2</v>
       </c>
       <c r="F1062" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2247</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61178,22 +61178,22 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="8">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1063" s="10" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="D1063" s="10" t="s">
-        <v>1205</v>
+        <v>2306</v>
       </c>
       <c r="E1063" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1063" s="8">
         <v>1</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2341</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61201,13 +61201,13 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1064" s="8" t="s">
-        <v>847</v>
+        <v>443</v>
+      </c>
+      <c r="C1064" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>916</v>
+        <v>2305</v>
       </c>
       <c r="E1064" s="8">
         <v>2</v>
@@ -61216,7 +61216,7 @@
         <v>2</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2248</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61224,22 +61224,22 @@
         <v>1064</v>
       </c>
       <c r="B1065" s="8">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1065" s="10" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>1205</v>
+        <v>2308</v>
       </c>
       <c r="E1065" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1065" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2341</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61247,13 +61247,13 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="8">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1066" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1066" s="30" t="s">
-        <v>1839</v>
+      <c r="D1066" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
@@ -61262,7 +61262,7 @@
         <v>1</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2116</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61270,22 +61270,22 @@
         <v>1066</v>
       </c>
       <c r="B1067" s="8">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1067" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>852</v>
+        <v>1205</v>
       </c>
       <c r="E1067" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1067" s="8">
         <v>1</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>903</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61293,13 +61293,13 @@
         <v>1067</v>
       </c>
       <c r="B1068" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1068" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1068" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>856</v>
+        <v>916</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
@@ -61308,7 +61308,7 @@
         <v>2</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>899</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61316,7 +61316,7 @@
         <v>1068</v>
       </c>
       <c r="B1069" s="8">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1069" s="10" t="s">
         <v>847</v>
@@ -61325,13 +61325,13 @@
         <v>1205</v>
       </c>
       <c r="E1069" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1069" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>1238</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -61339,22 +61339,22 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="8">
-        <v>447</v>
-      </c>
-      <c r="C1070" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1070" s="8">
-        <v>1</v>
+        <v>445</v>
+      </c>
+      <c r="C1070" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1070" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1070" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1070" s="8">
         <v>1</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>1331</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61362,22 +61362,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1071" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1071" s="8">
-        <v>3</v>
+        <v>847</v>
+      </c>
+      <c r="D1071" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="E1071" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1071" s="8">
         <v>1</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>1332</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61385,22 +61385,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1072" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1072" s="10" t="s">
-        <v>900</v>
+        <v>856</v>
       </c>
       <c r="E1072" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1072" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61408,22 +61408,22 @@
         <v>1072</v>
       </c>
       <c r="B1073" s="8">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1073" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1073" s="8">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D1073" s="10" t="s">
+        <v>1205</v>
       </c>
       <c r="E1073" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1073" s="8">
         <v>3</v>
       </c>
-      <c r="F1073" s="8">
-        <v>1</v>
-      </c>
       <c r="G1073" s="10" t="s">
-        <v>1333</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61431,22 +61431,22 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1074" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1074" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1074" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1074" s="8">
         <v>1</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61454,22 +61454,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1075" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1075" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1075" s="8">
+        <v>3</v>
       </c>
       <c r="E1075" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1075" s="8">
         <v>1</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61477,22 +61477,22 @@
         <v>1075</v>
       </c>
       <c r="B1076" s="8">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C1076" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1076" s="8">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D1076" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1076" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61500,22 +61500,22 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1077" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1077" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1077" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61523,22 +61523,22 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1078" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1078" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1078" s="8">
+        <v>7</v>
       </c>
       <c r="E1078" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1078" s="8">
         <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>904</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61546,22 +61546,22 @@
         <v>1078</v>
       </c>
       <c r="B1079" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1079" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1079" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1079" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1079" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1079" s="8">
         <v>1</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>2247</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -61569,99 +61569,99 @@
         <v>1079</v>
       </c>
       <c r="B1080" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1080" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1080" s="10" t="s">
-        <v>916</v>
+        <v>449</v>
+      </c>
+      <c r="C1080" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1080" s="8">
+        <v>8</v>
       </c>
       <c r="E1080" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1080" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:7" s="8" customFormat="1">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7">
       <c r="A1081" s="8">
         <v>1080</v>
       </c>
       <c r="B1081" s="8">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1081" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1081" s="8">
+        <v>12</v>
       </c>
       <c r="E1081" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:7" s="8" customFormat="1">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7">
       <c r="A1082" s="8">
         <v>1081</v>
       </c>
       <c r="B1082" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1082" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1082" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1082" s="10" t="s">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="E1082" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1082" s="8">
         <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:7" s="8" customFormat="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7">
       <c r="A1083" s="8">
         <v>1082</v>
       </c>
       <c r="B1083" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1083" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1083" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1083" s="10" t="s">
-        <v>900</v>
+        <v>1533</v>
       </c>
       <c r="E1083" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1083" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:7" s="8" customFormat="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7">
       <c r="A1084" s="8">
         <v>1083</v>
       </c>
       <c r="B1084" s="8">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1084" s="8" t="s">
         <v>847</v>
@@ -61679,96 +61679,96 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="1085" spans="1:7">
+    <row r="1085" spans="1:7" s="8" customFormat="1">
       <c r="A1085" s="8">
         <v>1084</v>
       </c>
-      <c r="B1085" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1085" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1085" s="65" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E1085" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1085" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1085" s="65" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7">
+      <c r="B1085" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1085" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1085" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1085" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1085" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1085" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" s="8" customFormat="1">
       <c r="A1086" s="8">
         <v>1085</v>
       </c>
-      <c r="B1086" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1086" s="64" t="s">
+      <c r="B1086" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1086" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1086" s="65" t="s">
-        <v>2553</v>
-      </c>
-      <c r="E1086" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1086" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1086" s="65" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:7">
+      <c r="D1086" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E1086" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1086" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1086" s="10" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" s="8" customFormat="1">
       <c r="A1087" s="8">
         <v>1086</v>
       </c>
-      <c r="B1087" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1087" s="65" t="s">
+      <c r="B1087" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1087" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1087" s="65" t="s">
+      <c r="D1087" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="E1087" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1087" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1087" s="65" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:7">
+      <c r="E1087" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1087" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1087" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" s="8" customFormat="1">
       <c r="A1088" s="8">
         <v>1087</v>
       </c>
-      <c r="B1088" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1088" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1088" s="62" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E1088" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1088" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1088" s="65" t="s">
-        <v>2096</v>
+      <c r="B1088" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1088" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1088" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1088" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1088" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1088" s="10" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -61776,13 +61776,13 @@
         <v>1088</v>
       </c>
       <c r="B1089" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1089" s="64" t="s">
-        <v>847</v>
+        <v>452</v>
+      </c>
+      <c r="C1089" s="65" t="s">
+        <v>1023</v>
       </c>
       <c r="D1089" s="65" t="s">
-        <v>916</v>
+        <v>1050</v>
       </c>
       <c r="E1089" s="64">
         <v>2</v>
@@ -61791,7 +61791,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="65" t="s">
-        <v>2248</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -61799,13 +61799,13 @@
         <v>1089</v>
       </c>
       <c r="B1090" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1090" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1090" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1090" s="65" t="s">
-        <v>900</v>
+        <v>2553</v>
       </c>
       <c r="E1090" s="64">
         <v>2</v>
@@ -61814,7 +61814,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="65" t="s">
-        <v>2363</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61822,13 +61822,13 @@
         <v>1090</v>
       </c>
       <c r="B1091" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1091" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1091" s="65" t="s">
         <v>847</v>
       </c>
       <c r="D1091" s="65" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1091" s="64">
         <v>2</v>
@@ -61837,7 +61837,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2248</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61845,22 +61845,22 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1092" s="64" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1092" s="68">
-        <v>691200</v>
+        <v>453</v>
+      </c>
+      <c r="C1092" s="65" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1092" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1092" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1092" s="64">
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2369</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61868,22 +61868,22 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1093" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1093" s="70">
-        <v>1615246200</v>
+        <v>453</v>
+      </c>
+      <c r="C1093" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1093" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1093" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1093" s="64">
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2373</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61891,13 +61891,13 @@
         <v>1093</v>
       </c>
       <c r="B1094" s="64">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C1094" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1094" s="62" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D1094" s="65" t="s">
+        <v>900</v>
       </c>
       <c r="E1094" s="64">
         <v>2</v>
@@ -61906,7 +61906,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2096</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61914,7 +61914,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="64">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1095" s="64" t="s">
         <v>847</v>
@@ -61937,22 +61937,22 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="64">
-        <v>455</v>
-      </c>
-      <c r="C1096" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1096" s="70">
-        <v>1615246200</v>
+        <v>454</v>
+      </c>
+      <c r="C1096" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1096" s="68">
+        <v>691200</v>
       </c>
       <c r="E1096" s="64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1096" s="64">
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61960,22 +61960,22 @@
         <v>1096</v>
       </c>
       <c r="B1097" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1097" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1097" s="65" t="s">
-        <v>1533</v>
+        <v>454</v>
+      </c>
+      <c r="C1097" s="65" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1097" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1097" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1097" s="64">
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2247</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61983,13 +61983,13 @@
         <v>1097</v>
       </c>
       <c r="B1098" s="64">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1098" s="65" t="s">
-        <v>2435</v>
+        <v>1023</v>
       </c>
       <c r="D1098" s="62" t="s">
-        <v>2378</v>
+        <v>1029</v>
       </c>
       <c r="E1098" s="64">
         <v>2</v>
@@ -61998,7 +61998,7 @@
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2379</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62006,13 +62006,13 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1099" s="65" t="s">
-        <v>2534</v>
+        <v>455</v>
+      </c>
+      <c r="C1099" s="64" t="s">
+        <v>847</v>
       </c>
       <c r="D1099" s="65" t="s">
-        <v>2536</v>
+        <v>916</v>
       </c>
       <c r="E1099" s="64">
         <v>2</v>
@@ -62021,44 +62021,44 @@
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2538</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
       <c r="A1100" s="8">
         <v>1099</v>
       </c>
-      <c r="B1100" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1100" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1100" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E1100" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1100" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1100" s="10" t="s">
-        <v>2247</v>
+      <c r="B1100" s="64">
+        <v>455</v>
+      </c>
+      <c r="C1100" s="65" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1100" s="70">
+        <v>1615246200</v>
+      </c>
+      <c r="E1100" s="64">
+        <v>3</v>
+      </c>
+      <c r="F1100" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1100" s="65" t="s">
+        <v>2373</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
       <c r="A1101" s="8">
         <v>1100</v>
       </c>
-      <c r="B1101" s="9">
-        <v>458</v>
-      </c>
-      <c r="C1101" s="65" t="s">
-        <v>2515</v>
+      <c r="B1101" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1101" s="64" t="s">
+        <v>847</v>
       </c>
       <c r="D1101" s="65" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1101" s="64">
         <v>2</v>
@@ -62067,53 +62067,53 @@
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
       <c r="A1102" s="8">
         <v>1101</v>
       </c>
-      <c r="B1102" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1102" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1102" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1102" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1102" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1102" s="10" t="s">
-        <v>1333</v>
+      <c r="B1102" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1102" s="65" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1102" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1102" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1102" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1102" s="65" t="s">
+        <v>2379</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
       <c r="A1103" s="8">
         <v>1102</v>
       </c>
-      <c r="B1103" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1103" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1103" s="8">
-        <v>12</v>
-      </c>
-      <c r="E1103" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1103" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1103" s="10" t="s">
-        <v>1336</v>
+      <c r="B1103" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1103" s="65" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1103" s="65" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1103" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1103" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1103" s="65" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62121,22 +62121,22 @@
         <v>1103</v>
       </c>
       <c r="B1104" s="9">
-        <v>460</v>
-      </c>
-      <c r="C1104" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1104" s="8">
-        <v>3</v>
+        <v>457</v>
+      </c>
+      <c r="C1104" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1104" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1104" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1104" s="8">
         <v>1</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>1332</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62144,22 +62144,22 @@
         <v>1104</v>
       </c>
       <c r="B1105" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1105" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1105" s="10" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E1105" s="8">
-        <v>5</v>
-      </c>
-      <c r="F1105" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1105" s="10" t="s">
-        <v>2395</v>
+        <v>458</v>
+      </c>
+      <c r="C1105" s="65" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1105" s="65" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1105" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1105" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1105" s="65" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62167,22 +62167,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1106" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1106" s="26" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E1106" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1106" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1106" s="26" t="s">
-        <v>2436</v>
+        <v>459</v>
+      </c>
+      <c r="C1106" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1106" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1106" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1106" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1106" s="10" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62190,22 +62190,22 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1107" s="26" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1107" s="9" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E1107" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1107" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="26" t="s">
-        <v>2442</v>
+        <v>459</v>
+      </c>
+      <c r="C1107" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1107" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1107" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1107" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="10" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62213,22 +62213,22 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1108" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1108" s="10" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E1108" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1108" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1108" s="26" t="s">
-        <v>2443</v>
+        <v>460</v>
+      </c>
+      <c r="C1108" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1108" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1108" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1108" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="10" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -62236,249 +62236,249 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1109" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1109" s="8">
-        <v>4</v>
+        <v>461</v>
+      </c>
+      <c r="C1109" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1109" s="10" t="s">
+        <v>2093</v>
       </c>
       <c r="E1109" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1109" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:7" s="8" customFormat="1">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7">
       <c r="A1110" s="8">
         <v>1109</v>
       </c>
-      <c r="B1110" s="8">
-        <v>465</v>
-      </c>
-      <c r="C1110" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1110" s="8">
-        <v>10</v>
-      </c>
-      <c r="E1110" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1110" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1110" s="10" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:7" s="8" customFormat="1">
+      <c r="B1110" s="9">
+        <v>462</v>
+      </c>
+      <c r="C1110" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1110" s="26" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E1110" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1110" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1110" s="26" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7">
       <c r="A1111" s="8">
         <v>1110</v>
       </c>
-      <c r="B1111" s="8">
-        <v>466</v>
-      </c>
-      <c r="C1111" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1111" s="8">
-        <v>11</v>
-      </c>
-      <c r="E1111" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1111" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="10" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:7" s="8" customFormat="1">
+      <c r="B1111" s="9">
+        <v>463</v>
+      </c>
+      <c r="C1111" s="26" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1111" s="9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1111" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="26" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7">
       <c r="A1112" s="8">
         <v>1111</v>
       </c>
-      <c r="B1112" s="8">
-        <v>467</v>
-      </c>
-      <c r="C1112" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1112" s="8">
-        <v>12</v>
-      </c>
-      <c r="E1112" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1112" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1112" s="10" t="s">
-        <v>2513</v>
+      <c r="B1112" s="9">
+        <v>463</v>
+      </c>
+      <c r="C1112" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1112" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1112" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="26" t="s">
+        <v>2443</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
       <c r="A1113" s="8">
         <v>1112</v>
       </c>
-      <c r="B1113" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1113" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1113" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1113" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="26" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7">
+      <c r="B1113" s="9">
+        <v>464</v>
+      </c>
+      <c r="C1113" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1113" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1113" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="10" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" s="8" customFormat="1">
       <c r="A1114" s="8">
         <v>1113</v>
       </c>
       <c r="B1114" s="8">
-        <v>469</v>
-      </c>
-      <c r="C1114" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1114" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1114" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1114" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="26" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7">
+        <v>465</v>
+      </c>
+      <c r="C1114" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1114" s="8">
+        <v>10</v>
+      </c>
+      <c r="E1114" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" s="8" customFormat="1">
       <c r="A1115" s="8">
         <v>1114</v>
       </c>
       <c r="B1115" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1115" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1115" s="30" t="s">
-        <v>2528</v>
+        <v>466</v>
+      </c>
+      <c r="C1115" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1115" s="8">
+        <v>11</v>
       </c>
       <c r="E1115" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1115" s="8">
         <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:7">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" s="8" customFormat="1">
       <c r="A1116" s="8">
         <v>1115</v>
       </c>
       <c r="B1116" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1116" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1116" s="30" t="s">
-        <v>2555</v>
+        <v>467</v>
+      </c>
+      <c r="C1116" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1116" s="8">
+        <v>12</v>
       </c>
       <c r="E1116" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1116" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>2529</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
       <c r="A1117" s="8">
         <v>1116</v>
       </c>
-      <c r="B1117" s="9">
-        <v>471</v>
-      </c>
-      <c r="C1117" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1117" s="30" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1117" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="10" t="s">
-        <v>2529</v>
+      <c r="B1117" s="8">
+        <v>468</v>
+      </c>
+      <c r="C1117" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1117" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E1117" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="26" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
       <c r="A1118" s="8">
         <v>1117</v>
       </c>
-      <c r="B1118" s="9">
-        <v>471</v>
+      <c r="B1118" s="8">
+        <v>469</v>
       </c>
       <c r="C1118" s="26" t="s">
-        <v>2535</v>
+        <v>1942</v>
       </c>
       <c r="D1118" s="26" t="s">
-        <v>2537</v>
+        <v>2520</v>
       </c>
       <c r="E1118" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1118" s="9">
         <v>1</v>
       </c>
       <c r="G1118" s="26" t="s">
-        <v>2539</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
       <c r="A1119" s="8">
         <v>1118</v>
       </c>
-      <c r="B1119" s="9">
-        <v>471</v>
+      <c r="B1119" s="8">
+        <v>470</v>
       </c>
       <c r="C1119" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1119" s="30" t="s">
-        <v>2555</v>
+        <v>2528</v>
       </c>
       <c r="E1119" s="8">
         <v>2</v>
       </c>
       <c r="F1119" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1119" s="10" t="s">
         <v>2529</v>
@@ -62488,27 +62488,119 @@
       <c r="A1120" s="8">
         <v>1119</v>
       </c>
-      <c r="B1120" s="9">
+      <c r="B1120" s="8">
+        <v>470</v>
+      </c>
+      <c r="C1120" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1120" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1120" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1120" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1120" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7">
+      <c r="A1121" s="8">
+        <v>1120</v>
+      </c>
+      <c r="B1121" s="9">
         <v>471</v>
       </c>
-      <c r="C1120" s="26" t="s">
+      <c r="C1121" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1121" s="30" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7">
+      <c r="A1122" s="8">
+        <v>1121</v>
+      </c>
+      <c r="B1122" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1122" s="26" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1122" s="26" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1122" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="26" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7">
+      <c r="A1123" s="8">
+        <v>1122</v>
+      </c>
+      <c r="B1123" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1123" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1123" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1123" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1123" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1123" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="A1124" s="8">
+        <v>1123</v>
+      </c>
+      <c r="B1124" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1124" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="D1120" s="26" t="s">
+      <c r="D1124" s="26" t="s">
         <v>1972</v>
       </c>
-      <c r="E1120" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1120" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1120" s="26" t="s">
+      <c r="E1124" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1124" s="26" t="s">
         <v>1696</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1084"/>
+  <autoFilter ref="C1:C1088"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="2532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="2541">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12018,10 +12018,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐（彩云麻将官方渠道，新用户）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>jjddz_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12720,6 +12716,46 @@
   </si>
   <si>
     <t>是海蓝湾的玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（彩云麻将官方渠道，新用户）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_new_player_hlw_happy_day</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾新人七天乐</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_class_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_class_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13358,9 +13394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A513" sqref="A513"/>
+      <selection pane="bottomLeft" activeCell="D518" sqref="D518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16770,10 +16806,10 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="69" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B247" s="21" t="s">
         <v>2488</v>
-      </c>
-      <c r="B247" s="21" t="s">
-        <v>2489</v>
       </c>
       <c r="C247" s="3">
         <v>34</v>
@@ -16796,7 +16832,7 @@
     </row>
     <row r="249" spans="1:10" s="17" customFormat="1">
       <c r="A249" s="21" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>366</v>
@@ -18431,7 +18467,7 @@
     </row>
     <row r="412" spans="1:10" s="17" customFormat="1">
       <c r="A412" s="21" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B412" s="17" t="s">
         <v>1901</v>
@@ -18781,7 +18817,7 @@
         <v>2069</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C447" s="36">
         <v>32</v>
@@ -18898,10 +18934,10 @@
     </row>
     <row r="458" spans="1:10" s="17" customFormat="1">
       <c r="A458" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="29"/>
@@ -18909,10 +18945,10 @@
     </row>
     <row r="459" spans="1:10" s="17" customFormat="1">
       <c r="A459" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B459" s="31" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="29"/>
@@ -18920,10 +18956,10 @@
     </row>
     <row r="460" spans="1:10" s="17" customFormat="1">
       <c r="A460" s="31" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B460" s="31" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="29"/>
@@ -18931,10 +18967,10 @@
     </row>
     <row r="461" spans="1:10" s="17" customFormat="1">
       <c r="A461" s="31" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B461" s="31" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="29"/>
@@ -18942,10 +18978,10 @@
     </row>
     <row r="462" spans="1:10" s="17" customFormat="1">
       <c r="A462" s="31" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C462" s="47">
         <v>32</v>
@@ -18955,10 +18991,10 @@
     </row>
     <row r="463" spans="1:10" s="17" customFormat="1">
       <c r="A463" s="31" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C463" s="47">
         <v>32</v>
@@ -18968,10 +19004,10 @@
     </row>
     <row r="464" spans="1:10" s="17" customFormat="1">
       <c r="A464" s="31" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C464" s="47">
         <v>22</v>
@@ -18981,10 +19017,10 @@
     </row>
     <row r="465" spans="1:10" s="17" customFormat="1">
       <c r="A465" s="31" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B465" s="31" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C465" s="14">
         <v>23</v>
@@ -18994,10 +19030,10 @@
     </row>
     <row r="466" spans="1:10" s="17" customFormat="1">
       <c r="A466" s="31" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B466" s="31" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C466" s="14">
         <v>24</v>
@@ -19007,10 +19043,10 @@
     </row>
     <row r="467" spans="1:10" s="17" customFormat="1">
       <c r="A467" s="31" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B467" s="31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C467" s="14">
         <v>25</v>
@@ -19020,10 +19056,10 @@
     </row>
     <row r="468" spans="1:10" s="17" customFormat="1">
       <c r="A468" s="31" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C468" s="14">
         <v>26</v>
@@ -19040,10 +19076,10 @@
     </row>
     <row r="470" spans="1:10" s="17" customFormat="1">
       <c r="A470" s="28" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C470" s="29">
         <v>408</v>
@@ -19263,66 +19299,66 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="3" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C500" s="3">
         <v>457</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C501" s="3">
         <v>458</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B504" s="3" t="s">
         <v>2439</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>2440</v>
       </c>
       <c r="C504" s="3">
         <v>463</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="69" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B506" s="69" t="s">
         <v>2446</v>
-      </c>
-      <c r="B506" s="69" t="s">
-        <v>2447</v>
       </c>
       <c r="C506" s="3">
         <v>464</v>
       </c>
       <c r="D506" s="69" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="3" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B508" s="69" t="s">
         <v>2485</v>
-      </c>
-      <c r="B508" s="69" t="s">
-        <v>2486</v>
       </c>
       <c r="C508" s="3">
         <v>7</v>
@@ -19330,10 +19366,10 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="69" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B510" s="69" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C510" s="3">
         <v>468</v>
@@ -19341,10 +19377,10 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="69" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B511" s="69" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C511" s="3">
         <v>469</v>
@@ -19352,10 +19388,10 @@
     </row>
     <row r="513" spans="1:10" s="17" customFormat="1">
       <c r="A513" s="21" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B513" s="21" t="s">
         <v>2528</v>
-      </c>
-      <c r="B513" s="21" t="s">
-        <v>2529</v>
       </c>
       <c r="C513" s="17">
         <v>470</v>
@@ -19374,13 +19410,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD498"/>
+  <dimension ref="A1:XFD499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F491" sqref="F491"/>
+      <selection pane="bottomRight" activeCell="D504" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19410,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>443</v>
@@ -34939,7 +34975,7 @@
         <v>2344</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E455" s="16"/>
       <c r="F455" s="16"/>
@@ -34973,7 +35009,7 @@
         <v>2345</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
@@ -35004,7 +35040,7 @@
         <v>1</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D457" s="15" t="s">
         <v>2347</v>
@@ -35075,7 +35111,7 @@
         <v>2353</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E459" s="16"/>
       <c r="F459" s="16"/>
@@ -35109,7 +35145,7 @@
         <v>2354</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E460" s="16"/>
       <c r="F460" s="16"/>
@@ -35143,7 +35179,7 @@
         <v>2355</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E461" s="16"/>
       <c r="F461" s="16"/>
@@ -35211,7 +35247,7 @@
         <v>2377</v>
       </c>
       <c r="D463" s="62" t="s">
-        <v>2379</v>
+        <v>2531</v>
       </c>
       <c r="E463" s="61"/>
       <c r="F463" s="61"/>
@@ -35242,10 +35278,10 @@
         <v>1</v>
       </c>
       <c r="C464" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D464" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="G464" s="19">
         <v>459</v>
@@ -35263,7 +35299,7 @@
         <v>1617638400</v>
       </c>
       <c r="L464" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="465" spans="1:15">
@@ -35274,10 +35310,10 @@
         <v>1</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D465" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="G465" s="19">
         <v>460</v>
@@ -35295,7 +35331,7 @@
         <v>1617638400</v>
       </c>
       <c r="L465" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="466" spans="1:15">
@@ -35306,10 +35342,10 @@
         <v>1</v>
       </c>
       <c r="C466" s="20" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D466" s="20" t="s">
         <v>2393</v>
-      </c>
-      <c r="D466" s="20" t="s">
-        <v>2394</v>
       </c>
       <c r="G466" s="19">
         <v>461</v>
@@ -35321,13 +35357,13 @@
         <v>1</v>
       </c>
       <c r="J466" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="K466" s="19">
         <v>1617060600</v>
       </c>
       <c r="L466" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="467" spans="1:15">
@@ -35338,10 +35374,10 @@
         <v>1</v>
       </c>
       <c r="C467" s="20" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D467" s="20" t="s">
         <v>2431</v>
-      </c>
-      <c r="D467" s="20" t="s">
-        <v>2432</v>
       </c>
       <c r="G467" s="19">
         <v>462</v>
@@ -35353,13 +35389,13 @@
         <v>1</v>
       </c>
       <c r="J467" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="K467" s="19">
         <v>1619479800</v>
       </c>
       <c r="L467" s="20" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="16.5">
@@ -35370,10 +35406,10 @@
         <v>1</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
@@ -35411,10 +35447,10 @@
         <v>1</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D469" s="60" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E469" s="16"/>
       <c r="F469" s="16"/>
@@ -35447,10 +35483,10 @@
         <v>1</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D470" s="60" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E470" s="16"/>
       <c r="F470" s="16"/>
@@ -35483,10 +35519,10 @@
         <v>1</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D471" s="60" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E471" s="16"/>
       <c r="F471" s="16"/>
@@ -35519,10 +35555,10 @@
         <v>1</v>
       </c>
       <c r="C472" s="15" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D472" s="15" t="s">
         <v>2470</v>
-      </c>
-      <c r="D472" s="15" t="s">
-        <v>2471</v>
       </c>
       <c r="E472" s="16"/>
       <c r="F472" s="16"/>
@@ -35548,7 +35584,7 @@
         <v>470</v>
       </c>
       <c r="N472" s="21" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="473" spans="1:15">
@@ -35559,10 +35595,10 @@
         <v>1</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E473" s="16"/>
       <c r="F473" s="16"/>
@@ -35585,7 +35621,7 @@
         <v>452</v>
       </c>
       <c r="M473" s="21" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="N473" s="21" t="s">
         <v>472</v>
@@ -35599,10 +35635,10 @@
         <v>1</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E474" s="16"/>
       <c r="F474" s="16"/>
@@ -35635,10 +35671,10 @@
         <v>1</v>
       </c>
       <c r="C475" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D475" s="15" t="s">
         <v>2466</v>
-      </c>
-      <c r="D475" s="15" t="s">
-        <v>2467</v>
       </c>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
@@ -35671,10 +35707,10 @@
         <v>1</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E476" s="16"/>
       <c r="F476" s="16"/>
@@ -35707,10 +35743,10 @@
         <v>1</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D477" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
@@ -35743,10 +35779,10 @@
         <v>1</v>
       </c>
       <c r="C478" s="15" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D478" s="15" t="s">
         <v>2462</v>
-      </c>
-      <c r="D478" s="15" t="s">
-        <v>2463</v>
       </c>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
@@ -35779,10 +35815,10 @@
         <v>1</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E479" s="16"/>
       <c r="F479" s="16"/>
@@ -35815,10 +35851,10 @@
         <v>1</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D480" s="15" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E480" s="16"/>
       <c r="F480" s="16"/>
@@ -35851,10 +35887,10 @@
         <v>1</v>
       </c>
       <c r="C481" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D481" s="15" t="s">
         <v>2458</v>
-      </c>
-      <c r="D481" s="15" t="s">
-        <v>2459</v>
       </c>
       <c r="E481" s="16"/>
       <c r="F481" s="16"/>
@@ -35887,10 +35923,10 @@
         <v>1</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E482" s="16"/>
       <c r="F482" s="16"/>
@@ -35923,10 +35959,10 @@
         <v>1</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D483" s="15" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E483" s="16"/>
       <c r="F483" s="16"/>
@@ -35959,7 +35995,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D484" s="15" t="s">
         <v>487</v>
@@ -35995,7 +36031,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D485" s="15" t="s">
         <v>487</v>
@@ -36031,7 +36067,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D486" s="15" t="s">
         <v>487</v>
@@ -36067,10 +36103,10 @@
         <v>1</v>
       </c>
       <c r="C487" s="20" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D487" s="71" t="s">
         <v>2490</v>
-      </c>
-      <c r="D487" s="71" t="s">
-        <v>2491</v>
       </c>
       <c r="G487" s="8">
         <v>8</v>
@@ -36099,10 +36135,10 @@
         <v>1</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D488" s="71" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G488" s="8">
         <v>9</v>
@@ -36131,10 +36167,10 @@
         <v>1</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D489" s="71" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G489" s="8">
         <v>10</v>
@@ -36163,10 +36199,10 @@
         <v>1</v>
       </c>
       <c r="C490" s="20" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D490" s="71" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="G490" s="8">
         <v>11</v>
@@ -36195,10 +36231,10 @@
         <v>1</v>
       </c>
       <c r="C491" s="20" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D491" s="71" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="G491" s="8">
         <v>12</v>
@@ -36227,10 +36263,10 @@
         <v>1</v>
       </c>
       <c r="C492" s="20" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D492" s="71" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="G492" s="8">
         <v>13</v>
@@ -36259,10 +36295,10 @@
         <v>1</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D493" s="71" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="G493" s="8">
         <v>14</v>
@@ -36291,10 +36327,10 @@
         <v>1</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D494" s="71" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="G494" s="8">
         <v>15</v>
@@ -36323,10 +36359,10 @@
         <v>1</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D495" s="71" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="G495" s="8">
         <v>16</v>
@@ -36355,10 +36391,10 @@
         <v>1</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D496" s="71" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="G496" s="8">
         <v>465</v>
@@ -36387,10 +36423,10 @@
         <v>1</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D497" s="71" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="G497" s="8">
         <v>466</v>
@@ -36419,10 +36455,10 @@
         <v>1</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D498" s="71" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="G498" s="8">
         <v>467</v>
@@ -36440,6 +36476,38 @@
         <v>1588028400</v>
       </c>
       <c r="L498" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499" s="19">
+        <v>498</v>
+      </c>
+      <c r="B499" s="19">
+        <v>1</v>
+      </c>
+      <c r="C499" s="20" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D499" s="20" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G499" s="19">
+        <v>471</v>
+      </c>
+      <c r="H499" t="b">
+        <v>1</v>
+      </c>
+      <c r="I499" t="b">
+        <v>1</v>
+      </c>
+      <c r="J499" s="20" t="s">
+        <v>2534</v>
+      </c>
+      <c r="K499" s="19">
+        <v>0</v>
+      </c>
+      <c r="L499" s="20" t="s">
         <v>452</v>
       </c>
     </row>
@@ -36453,13 +36521,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1089" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1113" sqref="G1113"/>
+      <selection pane="bottomRight" activeCell="C1120" sqref="C1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -39069,7 +39137,7 @@
         <v>60</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1071</v>
@@ -43255,19 +43323,19 @@
         <v>109</v>
       </c>
       <c r="C294" s="31" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D294" s="31" t="s">
         <v>2450</v>
       </c>
-      <c r="D294" s="31" t="s">
+      <c r="E294" s="14">
+        <v>2</v>
+      </c>
+      <c r="F294" s="14">
+        <v>1</v>
+      </c>
+      <c r="G294" s="31" t="s">
         <v>2451</v>
-      </c>
-      <c r="E294" s="14">
-        <v>2</v>
-      </c>
-      <c r="F294" s="14">
-        <v>1</v>
-      </c>
-      <c r="G294" s="31" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="8" customFormat="1">
@@ -43278,19 +43346,19 @@
         <v>109</v>
       </c>
       <c r="C295" s="31" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D295" s="31" t="s">
         <v>2453</v>
       </c>
-      <c r="D295" s="31" t="s">
+      <c r="E295" s="14">
+        <v>2</v>
+      </c>
+      <c r="F295" s="14">
+        <v>1</v>
+      </c>
+      <c r="G295" s="31" t="s">
         <v>2454</v>
-      </c>
-      <c r="E295" s="14">
-        <v>2</v>
-      </c>
-      <c r="F295" s="14">
-        <v>1</v>
-      </c>
-      <c r="G295" s="31" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="8" customFormat="1">
@@ -61717,19 +61785,19 @@
         <v>456</v>
       </c>
       <c r="C1096" s="65" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D1096" s="62" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E1096" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1096" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1096" s="65" t="s">
         <v>2380</v>
-      </c>
-      <c r="E1096" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1096" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1096" s="65" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61740,10 +61808,10 @@
         <v>456</v>
       </c>
       <c r="C1097" s="65" t="s">
-        <v>847</v>
+        <v>2535</v>
       </c>
       <c r="D1097" s="65" t="s">
-        <v>900</v>
+        <v>2537</v>
       </c>
       <c r="E1097" s="64">
         <v>2</v>
@@ -61752,7 +61820,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>1175</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61786,7 +61854,7 @@
         <v>458</v>
       </c>
       <c r="C1099" s="65" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D1099" s="65" t="s">
         <v>916</v>
@@ -61890,7 +61958,7 @@
         <v>2</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -61904,7 +61972,7 @@
         <v>1942</v>
       </c>
       <c r="D1104" s="26" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E1104" s="9">
         <v>5</v>
@@ -61913,7 +61981,7 @@
         <v>2</v>
       </c>
       <c r="G1104" s="26" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -61927,16 +61995,16 @@
         <v>2164</v>
       </c>
       <c r="D1105" s="9" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E1105" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1105" s="26" t="s">
         <v>2443</v>
-      </c>
-      <c r="E1105" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1105" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1105" s="26" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -61959,7 +62027,7 @@
         <v>1</v>
       </c>
       <c r="G1106" s="26" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -61982,7 +62050,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1108" spans="1:7" s="8" customFormat="1">
@@ -62028,7 +62096,7 @@
         <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1110" spans="1:7" s="8" customFormat="1">
@@ -62051,7 +62119,7 @@
         <v>1</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62065,7 +62133,7 @@
         <v>1942</v>
       </c>
       <c r="D1111" s="26" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E1111" s="9">
         <v>2</v>
@@ -62074,7 +62142,7 @@
         <v>1</v>
       </c>
       <c r="G1111" s="26" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62088,7 +62156,7 @@
         <v>1942</v>
       </c>
       <c r="D1112" s="26" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E1112" s="9">
         <v>5</v>
@@ -62097,7 +62165,7 @@
         <v>1</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62111,16 +62179,62 @@
         <v>847</v>
       </c>
       <c r="D1113" s="30" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E1113" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="10" t="s">
         <v>2530</v>
       </c>
-      <c r="E1113" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="10" t="s">
-        <v>2531</v>
+    </row>
+    <row r="1114" spans="1:7">
+      <c r="A1114" s="8">
+        <v>1113</v>
+      </c>
+      <c r="B1114" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1114" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1114" s="30" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E1114" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="10" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
+      <c r="A1115" s="8">
+        <v>1114</v>
+      </c>
+      <c r="B1115" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1115" s="26" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D1115" s="26" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E1115" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1115" s="26" t="s">
+        <v>2540</v>
       </c>
     </row>
   </sheetData>
@@ -62223,7 +62337,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>878</v>
@@ -62252,7 +62366,7 @@
         <v>878</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -62315,22 +62429,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>878</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>2524</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="2541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5995" uniqueCount="2543">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12756,6 +12756,14 @@
   </si>
   <si>
     <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蓝湾每日任务</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -19410,13 +19418,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD499"/>
+  <dimension ref="A1:XFD500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D504" sqref="D504"/>
+      <selection pane="bottomRight" activeCell="A500" sqref="A500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36511,6 +36519,38 @@
         <v>452</v>
       </c>
     </row>
+    <row r="500" spans="1:12">
+      <c r="A500" s="19">
+        <v>499</v>
+      </c>
+      <c r="B500" s="19">
+        <v>1</v>
+      </c>
+      <c r="C500" s="19" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D500" s="19" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G500" s="19">
+        <v>470</v>
+      </c>
+      <c r="H500" t="b">
+        <v>1</v>
+      </c>
+      <c r="I500" t="b">
+        <v>1</v>
+      </c>
+      <c r="J500" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K500" s="19">
+        <v>0</v>
+      </c>
+      <c r="L500" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N435"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -36523,11 +36563,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1089" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1120" sqref="C1120"/>
+      <selection pane="bottomRight" activeCell="G1113" sqref="B1113:G1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1088</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1090</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="2559">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12829,6 +12829,14 @@
   </si>
   <si>
     <t>tag_plat_vivo_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_vivo_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13471,9 +13479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q515"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19504,10 +19512,10 @@
   <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36676,13 +36684,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1124"/>
+  <dimension ref="A1:I1126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C935" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C753" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B955" sqref="B955"/>
+      <selection pane="bottomRight" activeCell="A771" sqref="A771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54485,22 +54493,22 @@
         <v>771</v>
       </c>
       <c r="B772" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C772" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D772" s="10" t="s">
-        <v>916</v>
+        <v>2557</v>
       </c>
       <c r="E772" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F772" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G772" s="10" t="s">
-        <v>917</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="773" spans="1:7" s="8" customFormat="1">
@@ -54508,22 +54516,22 @@
         <v>772</v>
       </c>
       <c r="B773" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C773" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D773" s="10" t="s">
-        <v>916</v>
+        <v>2558</v>
       </c>
       <c r="E773" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F773" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G773" s="10" t="s">
-        <v>917</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="774" spans="1:7" s="8" customFormat="1">
@@ -54531,7 +54539,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C774" s="8" t="s">
         <v>847</v>
@@ -54553,46 +54561,46 @@
       <c r="A775" s="8">
         <v>774</v>
       </c>
-      <c r="B775" s="14">
-        <v>311</v>
-      </c>
-      <c r="C775" s="14" t="s">
+      <c r="B775" s="8">
+        <v>309</v>
+      </c>
+      <c r="C775" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D775" s="31" t="s">
+      <c r="D775" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="E775" s="14">
-        <v>5</v>
-      </c>
-      <c r="F775" s="14">
-        <v>1</v>
-      </c>
-      <c r="G775" s="31" t="s">
-        <v>1582</v>
+      <c r="E775" s="8">
+        <v>2</v>
+      </c>
+      <c r="F775" s="8">
+        <v>1</v>
+      </c>
+      <c r="G775" s="10" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="776" spans="1:7" s="8" customFormat="1">
       <c r="A776" s="8">
         <v>775</v>
       </c>
-      <c r="B776" s="14">
-        <v>311</v>
-      </c>
-      <c r="C776" s="14" t="s">
+      <c r="B776" s="8">
+        <v>310</v>
+      </c>
+      <c r="C776" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D776" s="31" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E776" s="14">
-        <v>5</v>
-      </c>
-      <c r="F776" s="14">
-        <v>1</v>
-      </c>
-      <c r="G776" s="31" t="s">
-        <v>2107</v>
+      <c r="D776" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E776" s="8">
+        <v>2</v>
+      </c>
+      <c r="F776" s="8">
+        <v>1</v>
+      </c>
+      <c r="G776" s="10" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="777" spans="1:7" s="8" customFormat="1">
@@ -54600,7 +54608,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="14">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C777" s="14" t="s">
         <v>847</v>
@@ -54609,13 +54617,13 @@
         <v>916</v>
       </c>
       <c r="E777" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F777" s="14">
         <v>1</v>
       </c>
       <c r="G777" s="31" t="s">
-        <v>917</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="778" spans="1:7" s="8" customFormat="1">
@@ -54623,7 +54631,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="14">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C778" s="14" t="s">
         <v>847</v>
@@ -54632,59 +54640,59 @@
         <v>2106</v>
       </c>
       <c r="E778" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F778" s="14">
         <v>1</v>
       </c>
       <c r="G778" s="31" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="779" spans="1:7" s="8" customFormat="1">
       <c r="A779" s="8">
         <v>778</v>
       </c>
-      <c r="B779" s="8">
-        <v>313</v>
-      </c>
-      <c r="C779" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D779" s="15" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E779" s="8">
-        <v>2</v>
-      </c>
-      <c r="F779" s="8">
-        <v>1</v>
-      </c>
-      <c r="G779" s="10" t="s">
-        <v>1406</v>
+      <c r="B779" s="14">
+        <v>312</v>
+      </c>
+      <c r="C779" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="D779" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="E779" s="14">
+        <v>2</v>
+      </c>
+      <c r="F779" s="14">
+        <v>1</v>
+      </c>
+      <c r="G779" s="31" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="780" spans="1:7" s="8" customFormat="1">
       <c r="A780" s="8">
         <v>779</v>
       </c>
-      <c r="B780" s="8">
-        <v>314</v>
-      </c>
-      <c r="C780" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D780" s="8">
-        <v>3</v>
-      </c>
-      <c r="E780" s="8">
-        <v>4</v>
-      </c>
-      <c r="F780" s="8">
-        <v>1</v>
-      </c>
-      <c r="G780" s="10" t="s">
-        <v>1794</v>
+      <c r="B780" s="14">
+        <v>312</v>
+      </c>
+      <c r="C780" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="D780" s="31" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E780" s="14">
+        <v>2</v>
+      </c>
+      <c r="F780" s="14">
+        <v>1</v>
+      </c>
+      <c r="G780" s="31" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="781" spans="1:7" s="8" customFormat="1">
@@ -54692,22 +54700,22 @@
         <v>780</v>
       </c>
       <c r="B781" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D781" s="8">
-        <v>4</v>
+        <v>1023</v>
+      </c>
+      <c r="D781" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E781" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F781" s="8">
         <v>1</v>
       </c>
       <c r="G781" s="10" t="s">
-        <v>1575</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="782" spans="1:7" s="8" customFormat="1">
@@ -54715,13 +54723,13 @@
         <v>781</v>
       </c>
       <c r="B782" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>1553</v>
+        <v>1117</v>
       </c>
       <c r="D782" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E782" s="8">
         <v>4</v>
@@ -54730,7 +54738,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="10" t="s">
-        <v>1573</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="783" spans="1:7" s="8" customFormat="1">
@@ -54738,13 +54746,13 @@
         <v>782</v>
       </c>
       <c r="B783" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C783" s="10" t="s">
-        <v>1553</v>
+        <v>1793</v>
       </c>
       <c r="D783" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E783" s="8">
         <v>3</v>
@@ -54753,7 +54761,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="784" spans="1:7" s="8" customFormat="1">
@@ -54761,22 +54769,22 @@
         <v>783</v>
       </c>
       <c r="B784" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D784" s="15" t="s">
-        <v>1028</v>
+        <v>1553</v>
+      </c>
+      <c r="D784" s="8">
+        <v>7</v>
       </c>
       <c r="E784" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F784" s="8">
         <v>1</v>
       </c>
       <c r="G784" s="10" t="s">
-        <v>1476</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="785" spans="1:7" s="8" customFormat="1">
@@ -54784,22 +54792,22 @@
         <v>784</v>
       </c>
       <c r="B785" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D785" s="15" t="s">
-        <v>1043</v>
+        <v>1553</v>
+      </c>
+      <c r="D785" s="8">
+        <v>8</v>
       </c>
       <c r="E785" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F785" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G785" s="10" t="s">
-        <v>1148</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="786" spans="1:7" s="8" customFormat="1">
@@ -54807,13 +54815,13 @@
         <v>785</v>
       </c>
       <c r="B786" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C786" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D786" s="30" t="s">
-        <v>1030</v>
+      <c r="D786" s="15" t="s">
+        <v>1028</v>
       </c>
       <c r="E786" s="8">
         <v>2</v>
@@ -54822,7 +54830,7 @@
         <v>1</v>
       </c>
       <c r="G786" s="10" t="s">
-        <v>1405</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="787" spans="1:7" s="8" customFormat="1">
@@ -54830,13 +54838,13 @@
         <v>786</v>
       </c>
       <c r="B787" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C787" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D787" s="15" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E787" s="8">
         <v>2</v>
@@ -54845,7 +54853,7 @@
         <v>2</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1406</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="788" spans="1:7" s="8" customFormat="1">
@@ -54853,22 +54861,22 @@
         <v>787</v>
       </c>
       <c r="B788" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D788" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D788" s="30" t="s">
+        <v>1030</v>
       </c>
       <c r="E788" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F788" s="8">
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>904</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="789" spans="1:7" s="8" customFormat="1">
@@ -54876,22 +54884,22 @@
         <v>788</v>
       </c>
       <c r="B789" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D789" s="10" t="s">
-        <v>852</v>
+        <v>1023</v>
+      </c>
+      <c r="D789" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E789" s="8">
         <v>2</v>
       </c>
       <c r="F789" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>903</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="790" spans="1:7" s="8" customFormat="1">
@@ -54899,22 +54907,22 @@
         <v>789</v>
       </c>
       <c r="B790" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C790" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D790" s="10" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="E790" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F790" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="791" spans="1:7" s="8" customFormat="1">
@@ -54925,19 +54933,19 @@
         <v>320</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D791" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D791" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="E791" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F791" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1331</v>
+        <v>903</v>
       </c>
     </row>
     <row r="792" spans="1:7" s="8" customFormat="1">
@@ -54948,19 +54956,19 @@
         <v>320</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D792" s="8">
-        <v>3</v>
+        <v>847</v>
+      </c>
+      <c r="D792" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E792" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F792" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1332</v>
+        <v>899</v>
       </c>
     </row>
     <row r="793" spans="1:7" s="8" customFormat="1">
@@ -54971,19 +54979,19 @@
         <v>320</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D793" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D793" s="8">
+        <v>1</v>
       </c>
       <c r="E793" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F793" s="8">
         <v>3</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="8" customFormat="1">
@@ -54991,22 +54999,22 @@
         <v>793</v>
       </c>
       <c r="B794" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C794" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D794" s="8">
+        <v>3</v>
+      </c>
+      <c r="E794" s="8">
         <v>4</v>
       </c>
-      <c r="E794" s="8">
+      <c r="F794" s="8">
         <v>3</v>
       </c>
-      <c r="F794" s="8">
-        <v>1</v>
-      </c>
       <c r="G794" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="795" spans="1:7" s="8" customFormat="1">
@@ -55014,22 +55022,22 @@
         <v>794</v>
       </c>
       <c r="B795" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D795" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D795" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E795" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F795" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="796" spans="1:7" s="8" customFormat="1">
@@ -55040,19 +55048,19 @@
         <v>321</v>
       </c>
       <c r="C796" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D796" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D796" s="8">
+        <v>4</v>
       </c>
       <c r="E796" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F796" s="8">
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="797" spans="1:7" s="8" customFormat="1">
@@ -55060,22 +55068,22 @@
         <v>796</v>
       </c>
       <c r="B797" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C797" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D797" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E797" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F797" s="8">
         <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="798" spans="1:7" s="8" customFormat="1">
@@ -55083,22 +55091,22 @@
         <v>797</v>
       </c>
       <c r="B798" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D798" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D798" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E798" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F798" s="8">
         <v>1</v>
       </c>
       <c r="G798" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="799" spans="1:7" s="8" customFormat="1">
@@ -55109,19 +55117,19 @@
         <v>322</v>
       </c>
       <c r="C799" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D799" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D799" s="8">
+        <v>8</v>
       </c>
       <c r="E799" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F799" s="8">
         <v>1</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="800" spans="1:7" s="8" customFormat="1">
@@ -55129,22 +55137,22 @@
         <v>799</v>
       </c>
       <c r="B800" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D800" s="10" t="s">
-        <v>900</v>
+        <v>1118</v>
+      </c>
+      <c r="D800" s="8">
+        <v>12</v>
       </c>
       <c r="E800" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F800" s="8">
         <v>1</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="801" spans="1:7" s="8" customFormat="1">
@@ -55152,7 +55160,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C801" s="10" t="s">
         <v>847</v>
@@ -55175,22 +55183,22 @@
         <v>801</v>
       </c>
       <c r="B802" s="8">
-        <v>325</v>
-      </c>
-      <c r="C802" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C802" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D802" s="10" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E802" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F802" s="8">
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
     </row>
     <row r="803" spans="1:7" s="8" customFormat="1">
@@ -55198,7 +55206,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>847</v>
@@ -55207,13 +55215,13 @@
         <v>900</v>
       </c>
       <c r="E803" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>1696</v>
+        <v>904</v>
       </c>
     </row>
     <row r="804" spans="1:7" s="8" customFormat="1">
@@ -55221,22 +55229,22 @@
         <v>803</v>
       </c>
       <c r="B804" s="8">
-        <v>326</v>
-      </c>
-      <c r="C804" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D804" s="8">
-        <v>4</v>
+        <v>325</v>
+      </c>
+      <c r="C804" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D804" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E804" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1333</v>
+        <v>917</v>
       </c>
     </row>
     <row r="805" spans="1:7" s="8" customFormat="1">
@@ -55244,22 +55252,22 @@
         <v>804</v>
       </c>
       <c r="B805" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D805" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D805" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E805" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1336</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="806" spans="1:7" s="8" customFormat="1">
@@ -55270,19 +55278,19 @@
         <v>326</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D806" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D806" s="8">
+        <v>4</v>
       </c>
       <c r="E806" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F806" s="8">
         <v>1</v>
       </c>
       <c r="G806" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="807" spans="1:7" s="8" customFormat="1">
@@ -55290,22 +55298,22 @@
         <v>806</v>
       </c>
       <c r="B807" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C807" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D807" s="15" t="s">
-        <v>1028</v>
+        <v>1117</v>
+      </c>
+      <c r="D807" s="8">
+        <v>12</v>
       </c>
       <c r="E807" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F807" s="8">
         <v>1</v>
       </c>
       <c r="G807" s="10" t="s">
-        <v>2031</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="808" spans="1:7" s="8" customFormat="1">
@@ -55313,7 +55321,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>847</v>
@@ -55342,16 +55350,16 @@
         <v>1023</v>
       </c>
       <c r="D809" s="15" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E809" s="8">
         <v>2</v>
       </c>
       <c r="F809" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>1148</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="810" spans="1:7" s="8" customFormat="1">
@@ -55371,7 +55379,7 @@
         <v>5</v>
       </c>
       <c r="F810" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G810" s="10" t="s">
         <v>904</v>
@@ -55382,22 +55390,22 @@
         <v>810</v>
       </c>
       <c r="B811" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C811" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D811" s="30" t="s">
-        <v>1030</v>
+      <c r="D811" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E811" s="8">
         <v>2</v>
       </c>
       <c r="F811" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1405</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="812" spans="1:7" s="8" customFormat="1">
@@ -55405,7 +55413,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C812" s="10" t="s">
         <v>847</v>
@@ -55417,7 +55425,7 @@
         <v>5</v>
       </c>
       <c r="F812" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G812" s="10" t="s">
         <v>904</v>
@@ -55433,17 +55441,17 @@
       <c r="C813" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D813" s="15" t="s">
-        <v>1047</v>
+      <c r="D813" s="30" t="s">
+        <v>1030</v>
       </c>
       <c r="E813" s="8">
         <v>2</v>
       </c>
       <c r="F813" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="814" spans="1:7" s="8" customFormat="1">
@@ -55463,7 +55471,7 @@
         <v>5</v>
       </c>
       <c r="F814" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
         <v>904</v>
@@ -55474,22 +55482,22 @@
         <v>814</v>
       </c>
       <c r="B815" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D815" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D815" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E815" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F815" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>904</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="816" spans="1:7" s="8" customFormat="1">
@@ -55497,7 +55505,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C816" s="10" t="s">
         <v>847</v>
@@ -55509,7 +55517,7 @@
         <v>5</v>
       </c>
       <c r="F816" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G816" s="10" t="s">
         <v>904</v>
@@ -55520,22 +55528,22 @@
         <v>816</v>
       </c>
       <c r="B817" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D817" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D817" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E817" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F817" s="8">
         <v>1</v>
       </c>
-      <c r="G817" s="21" t="s">
-        <v>1708</v>
+      <c r="G817" s="10" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="818" spans="1:7" s="8" customFormat="1">
@@ -55543,22 +55551,22 @@
         <v>817</v>
       </c>
       <c r="B818" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D818" s="8">
-        <v>2</v>
+        <v>847</v>
+      </c>
+      <c r="D818" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E818" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F818" s="8">
         <v>1</v>
       </c>
-      <c r="G818" s="21" t="s">
-        <v>1716</v>
+      <c r="G818" s="10" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="819" spans="1:7" s="8" customFormat="1">
@@ -55566,13 +55574,13 @@
         <v>818</v>
       </c>
       <c r="B819" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>1717</v>
+        <v>1117</v>
       </c>
       <c r="D819" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E819" s="8">
         <v>3</v>
@@ -55581,53 +55589,53 @@
         <v>1</v>
       </c>
       <c r="G819" s="21" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="820" spans="1:7" s="8" customFormat="1">
       <c r="A820" s="8">
         <v>819</v>
       </c>
-      <c r="B820" s="51">
-        <v>334</v>
-      </c>
-      <c r="C820" s="52" t="s">
-        <v>847</v>
-      </c>
-      <c r="D820" s="52" t="s">
-        <v>852</v>
-      </c>
-      <c r="E820" s="51">
-        <v>2</v>
-      </c>
-      <c r="F820" s="51">
-        <v>1</v>
-      </c>
-      <c r="G820" s="52" t="s">
-        <v>903</v>
+      <c r="B820" s="8">
+        <v>332</v>
+      </c>
+      <c r="C820" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D820" s="8">
+        <v>2</v>
+      </c>
+      <c r="E820" s="8">
+        <v>3</v>
+      </c>
+      <c r="F820" s="8">
+        <v>1</v>
+      </c>
+      <c r="G820" s="21" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="821" spans="1:7" s="8" customFormat="1">
       <c r="A821" s="8">
         <v>820</v>
       </c>
-      <c r="B821" s="51">
-        <v>334</v>
-      </c>
-      <c r="C821" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="D821" s="59" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E821" s="51">
-        <v>5</v>
-      </c>
-      <c r="F821" s="51">
-        <v>1</v>
-      </c>
-      <c r="G821" s="52" t="s">
-        <v>1937</v>
+      <c r="B821" s="8">
+        <v>333</v>
+      </c>
+      <c r="C821" s="10" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D821" s="8">
+        <v>4</v>
+      </c>
+      <c r="E821" s="8">
+        <v>3</v>
+      </c>
+      <c r="F821" s="8">
+        <v>1</v>
+      </c>
+      <c r="G821" s="21" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="822" spans="1:7" s="8" customFormat="1">
@@ -55641,16 +55649,16 @@
         <v>847</v>
       </c>
       <c r="D822" s="52" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E822" s="51">
         <v>2</v>
       </c>
       <c r="F822" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G822" s="52" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="823" spans="1:7" s="8" customFormat="1">
@@ -55670,7 +55678,7 @@
         <v>5</v>
       </c>
       <c r="F823" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G823" s="52" t="s">
         <v>1937</v>
@@ -55687,16 +55695,16 @@
         <v>847</v>
       </c>
       <c r="D824" s="52" t="s">
-        <v>900</v>
+        <v>856</v>
       </c>
       <c r="E824" s="51">
         <v>2</v>
       </c>
       <c r="F824" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G824" s="52" t="s">
-        <v>2208</v>
+        <v>899</v>
       </c>
     </row>
     <row r="825" spans="1:7" s="8" customFormat="1">
@@ -55704,22 +55712,22 @@
         <v>824</v>
       </c>
       <c r="B825" s="51">
-        <v>335</v>
-      </c>
-      <c r="C825" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D825" s="51">
-        <v>1</v>
+        <v>334</v>
+      </c>
+      <c r="C825" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D825" s="59" t="s">
+        <v>1839</v>
       </c>
       <c r="E825" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F825" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G825" s="52" t="s">
-        <v>1331</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="826" spans="1:7" s="8" customFormat="1">
@@ -55727,22 +55735,22 @@
         <v>825</v>
       </c>
       <c r="B826" s="51">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C826" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D826" s="51">
+        <v>847</v>
+      </c>
+      <c r="D826" s="52" t="s">
+        <v>900</v>
+      </c>
+      <c r="E826" s="51">
+        <v>2</v>
+      </c>
+      <c r="F826" s="51">
         <v>3</v>
       </c>
-      <c r="E826" s="51">
-        <v>4</v>
-      </c>
-      <c r="F826" s="51">
-        <v>1</v>
-      </c>
       <c r="G826" s="52" t="s">
-        <v>1332</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="827" spans="1:7" s="8" customFormat="1">
@@ -55753,19 +55761,19 @@
         <v>335</v>
       </c>
       <c r="C827" s="52" t="s">
-        <v>847</v>
-      </c>
-      <c r="D827" s="52" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D827" s="51">
+        <v>1</v>
       </c>
       <c r="E827" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F827" s="51">
         <v>1</v>
       </c>
       <c r="G827" s="52" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="828" spans="1:7" s="8" customFormat="1">
@@ -55775,20 +55783,20 @@
       <c r="B828" s="51">
         <v>335</v>
       </c>
-      <c r="C828" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="D828" s="59" t="s">
-        <v>1839</v>
+      <c r="C828" s="52" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D828" s="51">
+        <v>3</v>
       </c>
       <c r="E828" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F828" s="51">
         <v>1</v>
       </c>
       <c r="G828" s="52" t="s">
-        <v>1937</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="829" spans="1:7" s="8" customFormat="1">
@@ -55796,22 +55804,22 @@
         <v>828</v>
       </c>
       <c r="B829" s="51">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C829" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D829" s="51">
-        <v>4</v>
+        <v>847</v>
+      </c>
+      <c r="D829" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="E829" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F829" s="51">
         <v>1</v>
       </c>
       <c r="G829" s="52" t="s">
-        <v>1333</v>
+        <v>904</v>
       </c>
     </row>
     <row r="830" spans="1:7" s="8" customFormat="1">
@@ -55819,22 +55827,22 @@
         <v>829</v>
       </c>
       <c r="B830" s="51">
-        <v>336</v>
-      </c>
-      <c r="C830" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D830" s="51">
-        <v>7</v>
+        <v>335</v>
+      </c>
+      <c r="C830" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D830" s="59" t="s">
+        <v>1839</v>
       </c>
       <c r="E830" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F830" s="51">
         <v>1</v>
       </c>
       <c r="G830" s="52" t="s">
-        <v>1334</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="831" spans="1:7" s="8" customFormat="1">
@@ -55845,19 +55853,19 @@
         <v>336</v>
       </c>
       <c r="C831" s="52" t="s">
-        <v>847</v>
-      </c>
-      <c r="D831" s="52" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D831" s="51">
+        <v>4</v>
       </c>
       <c r="E831" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F831" s="51">
         <v>1</v>
       </c>
       <c r="G831" s="52" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="832" spans="1:7" s="8" customFormat="1">
@@ -55867,20 +55875,20 @@
       <c r="B832" s="51">
         <v>336</v>
       </c>
-      <c r="C832" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="D832" s="59" t="s">
-        <v>1839</v>
+      <c r="C832" s="52" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D832" s="51">
+        <v>7</v>
       </c>
       <c r="E832" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F832" s="51">
         <v>1</v>
       </c>
       <c r="G832" s="52" t="s">
-        <v>1937</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="833" spans="1:7" s="8" customFormat="1">
@@ -55888,22 +55896,22 @@
         <v>832</v>
       </c>
       <c r="B833" s="51">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C833" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D833" s="51">
-        <v>8</v>
+        <v>847</v>
+      </c>
+      <c r="D833" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="E833" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F833" s="51">
         <v>1</v>
       </c>
       <c r="G833" s="52" t="s">
-        <v>1335</v>
+        <v>904</v>
       </c>
     </row>
     <row r="834" spans="1:7" s="8" customFormat="1">
@@ -55911,22 +55919,22 @@
         <v>833</v>
       </c>
       <c r="B834" s="51">
-        <v>337</v>
-      </c>
-      <c r="C834" s="52" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D834" s="51">
-        <v>12</v>
+        <v>336</v>
+      </c>
+      <c r="C834" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D834" s="59" t="s">
+        <v>1839</v>
       </c>
       <c r="E834" s="51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F834" s="51">
         <v>1</v>
       </c>
       <c r="G834" s="52" t="s">
-        <v>1336</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="835" spans="1:7" s="8" customFormat="1">
@@ -55937,19 +55945,19 @@
         <v>337</v>
       </c>
       <c r="C835" s="52" t="s">
-        <v>847</v>
-      </c>
-      <c r="D835" s="52" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D835" s="51">
+        <v>8</v>
       </c>
       <c r="E835" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F835" s="51">
         <v>1</v>
       </c>
       <c r="G835" s="52" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="836" spans="1:7" s="8" customFormat="1">
@@ -55959,20 +55967,20 @@
       <c r="B836" s="51">
         <v>337</v>
       </c>
-      <c r="C836" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="D836" s="59" t="s">
-        <v>1839</v>
+      <c r="C836" s="52" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D836" s="51">
+        <v>12</v>
       </c>
       <c r="E836" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F836" s="51">
         <v>1</v>
       </c>
       <c r="G836" s="52" t="s">
-        <v>1937</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="837" spans="1:7" s="8" customFormat="1">
@@ -55980,13 +55988,13 @@
         <v>836</v>
       </c>
       <c r="B837" s="51">
-        <v>338</v>
-      </c>
-      <c r="C837" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C837" s="52" t="s">
         <v>847</v>
       </c>
-      <c r="D837" s="59" t="s">
-        <v>1839</v>
+      <c r="D837" s="52" t="s">
+        <v>900</v>
       </c>
       <c r="E837" s="51">
         <v>5</v>
@@ -55995,53 +56003,53 @@
         <v>1</v>
       </c>
       <c r="G837" s="52" t="s">
-        <v>1937</v>
+        <v>904</v>
       </c>
     </row>
     <row r="838" spans="1:7" s="8" customFormat="1">
       <c r="A838" s="8">
         <v>837</v>
       </c>
-      <c r="B838" s="8">
-        <v>339</v>
-      </c>
-      <c r="C838" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D838" s="15" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E838" s="8">
+      <c r="B838" s="51">
+        <v>337</v>
+      </c>
+      <c r="C838" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D838" s="59" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E838" s="51">
         <v>5</v>
       </c>
-      <c r="F838" s="8">
-        <v>1</v>
-      </c>
-      <c r="G838" s="10" t="s">
-        <v>1724</v>
+      <c r="F838" s="51">
+        <v>1</v>
+      </c>
+      <c r="G838" s="52" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="839" spans="1:7" s="8" customFormat="1">
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="8">
-        <v>339</v>
-      </c>
-      <c r="C839" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D839" s="15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E839" s="8">
+      <c r="B839" s="51">
+        <v>338</v>
+      </c>
+      <c r="C839" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D839" s="59" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E839" s="51">
         <v>5</v>
       </c>
-      <c r="F839" s="8">
-        <v>1</v>
-      </c>
-      <c r="G839" s="10" t="s">
-        <v>1725</v>
+      <c r="F839" s="51">
+        <v>1</v>
+      </c>
+      <c r="G839" s="52" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="840" spans="1:7" s="8" customFormat="1">
@@ -56052,10 +56060,10 @@
         <v>339</v>
       </c>
       <c r="C840" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D840" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D840" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E840" s="8">
         <v>5</v>
@@ -56064,7 +56072,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="841" spans="1:7" s="8" customFormat="1">
@@ -56072,13 +56080,13 @@
         <v>840</v>
       </c>
       <c r="B841" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C841" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D841" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E841" s="8">
         <v>5</v>
@@ -56087,7 +56095,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="842" spans="1:7" s="8" customFormat="1">
@@ -56095,13 +56103,13 @@
         <v>841</v>
       </c>
       <c r="B842" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C842" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D842" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D842" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E842" s="8">
         <v>5</v>
@@ -56110,7 +56118,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="843" spans="1:7" s="8" customFormat="1">
@@ -56121,10 +56129,10 @@
         <v>340</v>
       </c>
       <c r="C843" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D843" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D843" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E843" s="8">
         <v>5</v>
@@ -56133,7 +56141,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="844" spans="1:7" s="8" customFormat="1">
@@ -56141,22 +56149,22 @@
         <v>843</v>
       </c>
       <c r="B844" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C844" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D844" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D844" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E844" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F844" s="8">
         <v>1</v>
       </c>
       <c r="G844" s="10" t="s">
-        <v>1175</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="845" spans="1:7" s="8" customFormat="1">
@@ -56164,7 +56172,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C845" s="10" t="s">
         <v>847</v>
@@ -56187,13 +56195,13 @@
         <v>845</v>
       </c>
       <c r="B846" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D846" s="15" t="s">
-        <v>1748</v>
+        <v>847</v>
+      </c>
+      <c r="D846" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E846" s="8">
         <v>2</v>
@@ -56202,7 +56210,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1147</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="847" spans="1:7" s="8" customFormat="1">
@@ -56210,22 +56218,22 @@
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D847" s="30" t="s">
-        <v>1030</v>
+        <v>847</v>
+      </c>
+      <c r="D847" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E847" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F847" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1749</v>
+        <v>904</v>
       </c>
     </row>
     <row r="848" spans="1:7" s="8" customFormat="1">
@@ -56233,13 +56241,13 @@
         <v>847</v>
       </c>
       <c r="B848" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C848" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D848" s="15" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="E848" s="8">
         <v>2</v>
@@ -56248,7 +56256,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1751</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="8" customFormat="1">
@@ -56256,22 +56264,22 @@
         <v>848</v>
       </c>
       <c r="B849" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C849" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D849" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D849" s="30" t="s">
+        <v>1030</v>
       </c>
       <c r="E849" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F849" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G849" s="10" t="s">
-        <v>904</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="850" spans="1:7" s="8" customFormat="1">
@@ -56285,16 +56293,16 @@
         <v>1023</v>
       </c>
       <c r="D850" s="15" t="s">
-        <v>1047</v>
+        <v>1750</v>
       </c>
       <c r="E850" s="8">
         <v>2</v>
       </c>
       <c r="F850" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G850" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="8" customFormat="1">
@@ -56314,7 +56322,7 @@
         <v>5</v>
       </c>
       <c r="F851" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G851" s="10" t="s">
         <v>904</v>
@@ -56325,22 +56333,22 @@
         <v>851</v>
       </c>
       <c r="B852" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C852" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D852" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D852" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E852" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F852" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G852" s="10" t="s">
-        <v>904</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="8" customFormat="1">
@@ -56348,22 +56356,22 @@
         <v>852</v>
       </c>
       <c r="B853" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C853" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D853" s="15" t="s">
-        <v>1047</v>
+        <v>847</v>
+      </c>
+      <c r="D853" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E853" s="8">
         <v>5</v>
       </c>
       <c r="F853" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G853" s="10" t="s">
-        <v>1724</v>
+        <v>904</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="8" customFormat="1">
@@ -56374,10 +56382,10 @@
         <v>345</v>
       </c>
       <c r="C854" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D854" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D854" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E854" s="8">
         <v>5</v>
@@ -56386,7 +56394,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1">
@@ -56394,13 +56402,13 @@
         <v>854</v>
       </c>
       <c r="B855" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C855" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D855" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D855" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E855" s="8">
         <v>5</v>
@@ -56409,7 +56417,7 @@
         <v>1</v>
       </c>
       <c r="G855" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1">
@@ -56417,13 +56425,13 @@
         <v>855</v>
       </c>
       <c r="B856" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C856" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D856" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E856" s="8">
         <v>5</v>
@@ -56432,7 +56440,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1">
@@ -56443,10 +56451,10 @@
         <v>346</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D857" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -56455,7 +56463,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1">
@@ -56463,13 +56471,13 @@
         <v>857</v>
       </c>
       <c r="B858" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E858" s="8">
         <v>5</v>
@@ -56478,7 +56486,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="8" customFormat="1">
@@ -56486,13 +56494,13 @@
         <v>858</v>
       </c>
       <c r="B859" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C859" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -56501,7 +56509,7 @@
         <v>1</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="8" customFormat="1">
@@ -56512,10 +56520,10 @@
         <v>347</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D860" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D860" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E860" s="8">
         <v>5</v>
@@ -56524,7 +56532,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="8" customFormat="1">
@@ -56532,13 +56540,13 @@
         <v>860</v>
       </c>
       <c r="B861" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C861" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D861" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D861" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E861" s="8">
         <v>5</v>
@@ -56547,7 +56555,7 @@
         <v>1</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="8" customFormat="1">
@@ -56555,13 +56563,13 @@
         <v>861</v>
       </c>
       <c r="B862" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C862" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D862" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -56570,7 +56578,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="8" customFormat="1">
@@ -56581,10 +56589,10 @@
         <v>348</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D863" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D863" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E863" s="8">
         <v>5</v>
@@ -56593,7 +56601,7 @@
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="8" customFormat="1">
@@ -56601,13 +56609,13 @@
         <v>863</v>
       </c>
       <c r="B864" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D864" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D864" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E864" s="8">
         <v>5</v>
@@ -56616,7 +56624,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="8" customFormat="1">
@@ -56624,22 +56632,22 @@
         <v>864</v>
       </c>
       <c r="B865" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D865" s="10" t="s">
-        <v>852</v>
+        <v>1023</v>
+      </c>
+      <c r="D865" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E865" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F865" s="8">
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>903</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="8" customFormat="1">
@@ -56647,22 +56655,22 @@
         <v>865</v>
       </c>
       <c r="B866" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C866" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="E866" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F866" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="867" spans="1:7" s="8" customFormat="1">
@@ -56676,16 +56684,16 @@
         <v>847</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1205</v>
+        <v>852</v>
       </c>
       <c r="E867" s="8">
         <v>2</v>
       </c>
       <c r="F867" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1238</v>
+        <v>903</v>
       </c>
     </row>
     <row r="868" spans="1:7" s="8" customFormat="1">
@@ -56693,22 +56701,22 @@
         <v>867</v>
       </c>
       <c r="B868" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D868" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D868" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E868" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F868" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1331</v>
+        <v>899</v>
       </c>
     </row>
     <row r="869" spans="1:7" s="8" customFormat="1">
@@ -56716,22 +56724,22 @@
         <v>868</v>
       </c>
       <c r="B869" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D869" s="8">
+        <v>847</v>
+      </c>
+      <c r="D869" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E869" s="8">
+        <v>2</v>
+      </c>
+      <c r="F869" s="8">
         <v>3</v>
       </c>
-      <c r="E869" s="8">
-        <v>4</v>
-      </c>
-      <c r="F869" s="8">
-        <v>1</v>
-      </c>
       <c r="G869" s="10" t="s">
-        <v>1332</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="870" spans="1:7" s="8" customFormat="1">
@@ -56742,19 +56750,19 @@
         <v>351</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D870" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D870" s="8">
+        <v>1</v>
       </c>
       <c r="E870" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="8" customFormat="1">
@@ -56762,22 +56770,22 @@
         <v>870</v>
       </c>
       <c r="B871" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C871" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D871" s="8">
+        <v>3</v>
+      </c>
+      <c r="E871" s="8">
         <v>4</v>
       </c>
-      <c r="E871" s="8">
-        <v>3</v>
-      </c>
       <c r="F871" s="8">
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="8" customFormat="1">
@@ -56785,22 +56793,22 @@
         <v>871</v>
       </c>
       <c r="B872" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C872" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D872" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D872" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E872" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F872" s="8">
         <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="8" customFormat="1">
@@ -56811,19 +56819,19 @@
         <v>352</v>
       </c>
       <c r="C873" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D873" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D873" s="8">
+        <v>4</v>
       </c>
       <c r="E873" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F873" s="8">
         <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="874" spans="1:7" s="8" customFormat="1">
@@ -56831,22 +56839,22 @@
         <v>873</v>
       </c>
       <c r="B874" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C874" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D874" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E874" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F874" s="8">
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="8" customFormat="1">
@@ -56854,22 +56862,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D875" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D875" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E875" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F875" s="8">
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="876" spans="1:7" s="8" customFormat="1">
@@ -56880,19 +56888,19 @@
         <v>353</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D876" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D876" s="8">
+        <v>8</v>
       </c>
       <c r="E876" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="877" spans="1:7" s="8" customFormat="1">
@@ -56900,22 +56908,22 @@
         <v>876</v>
       </c>
       <c r="B877" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D877" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D877" s="8">
+        <v>12</v>
       </c>
       <c r="E877" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1">
@@ -56923,22 +56931,22 @@
         <v>877</v>
       </c>
       <c r="B878" s="8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D878" s="15" t="s">
-        <v>1047</v>
+        <v>847</v>
+      </c>
+      <c r="D878" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E878" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1752</v>
+        <v>904</v>
       </c>
     </row>
     <row r="879" spans="1:7" s="8" customFormat="1">
@@ -56946,22 +56954,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D879" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D879" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E879" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F879" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1795</v>
+        <v>904</v>
       </c>
     </row>
     <row r="880" spans="1:7" s="8" customFormat="1">
@@ -56969,22 +56977,22 @@
         <v>879</v>
       </c>
       <c r="B880" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D880" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D880" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E880" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>904</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="881" spans="1:7" s="8" customFormat="1">
@@ -56992,22 +57000,22 @@
         <v>880</v>
       </c>
       <c r="B881" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C881" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E881" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1724</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="882" spans="1:7" s="8" customFormat="1">
@@ -57018,10 +57026,10 @@
         <v>356</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D882" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D882" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -57030,7 +57038,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="883" spans="1:7" s="8" customFormat="1">
@@ -57038,13 +57046,13 @@
         <v>882</v>
       </c>
       <c r="B883" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D883" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D883" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -57053,7 +57061,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="884" spans="1:7" s="8" customFormat="1">
@@ -57061,13 +57069,13 @@
         <v>883</v>
       </c>
       <c r="B884" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C884" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D884" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -57076,7 +57084,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="885" spans="1:7" s="8" customFormat="1">
@@ -57087,10 +57095,10 @@
         <v>357</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D885" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D885" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -57099,7 +57107,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="886" spans="1:7" s="8" customFormat="1">
@@ -57107,13 +57115,13 @@
         <v>885</v>
       </c>
       <c r="B886" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D886" s="10" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D886" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E886" s="8">
         <v>5</v>
@@ -57122,7 +57130,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>904</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="887" spans="1:7" s="8" customFormat="1">
@@ -57130,13 +57138,13 @@
         <v>886</v>
       </c>
       <c r="B887" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C887" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D887" s="15" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="E887" s="8">
         <v>5</v>
@@ -57145,7 +57153,7 @@
         <v>1</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="888" spans="1:7" s="8" customFormat="1">
@@ -57156,10 +57164,10 @@
         <v>358</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D888" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D888" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E888" s="8">
         <v>5</v>
@@ -57168,7 +57176,7 @@
         <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="889" spans="1:7" s="8" customFormat="1">
@@ -57176,22 +57184,22 @@
         <v>888</v>
       </c>
       <c r="B889" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C889" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D889" s="10" t="s">
-        <v>852</v>
+        <v>1023</v>
+      </c>
+      <c r="D889" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E889" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F889" s="8">
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>903</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="890" spans="1:7" s="8" customFormat="1">
@@ -57199,22 +57207,22 @@
         <v>889</v>
       </c>
       <c r="B890" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D890" s="10" t="s">
-        <v>856</v>
+        <v>1023</v>
+      </c>
+      <c r="D890" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E890" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F890" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>899</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="891" spans="1:7" s="8" customFormat="1">
@@ -57222,22 +57230,22 @@
         <v>890</v>
       </c>
       <c r="B891" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D891" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="E891" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F891" s="8">
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1331</v>
+        <v>903</v>
       </c>
     </row>
     <row r="892" spans="1:7" s="8" customFormat="1">
@@ -57245,22 +57253,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C892" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D892" s="8">
-        <v>3</v>
+        <v>847</v>
+      </c>
+      <c r="D892" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E892" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F892" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1332</v>
+        <v>899</v>
       </c>
     </row>
     <row r="893" spans="1:7" s="8" customFormat="1">
@@ -57271,19 +57279,19 @@
         <v>360</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D893" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D893" s="8">
+        <v>1</v>
       </c>
       <c r="E893" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F893" s="8">
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="894" spans="1:7" s="8" customFormat="1">
@@ -57291,22 +57299,22 @@
         <v>893</v>
       </c>
       <c r="B894" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C894" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D894" s="8">
+        <v>3</v>
+      </c>
+      <c r="E894" s="8">
         <v>4</v>
       </c>
-      <c r="E894" s="8">
-        <v>3</v>
-      </c>
       <c r="F894" s="8">
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="895" spans="1:7" s="8" customFormat="1">
@@ -57314,22 +57322,22 @@
         <v>894</v>
       </c>
       <c r="B895" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C895" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D895" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D895" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E895" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F895" s="8">
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="896" spans="1:7" s="8" customFormat="1">
@@ -57340,19 +57348,19 @@
         <v>361</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D896" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D896" s="8">
+        <v>4</v>
       </c>
       <c r="E896" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F896" s="8">
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="897" spans="1:7" s="8" customFormat="1">
@@ -57360,22 +57368,22 @@
         <v>896</v>
       </c>
       <c r="B897" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C897" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D897" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E897" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F897" s="8">
         <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="898" spans="1:7" s="8" customFormat="1">
@@ -57383,22 +57391,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D898" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D898" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E898" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F898" s="8">
         <v>1</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="899" spans="1:7" s="8" customFormat="1">
@@ -57409,19 +57417,19 @@
         <v>362</v>
       </c>
       <c r="C899" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D899" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D899" s="8">
+        <v>8</v>
       </c>
       <c r="E899" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F899" s="8">
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="900" spans="1:7" s="8" customFormat="1">
@@ -57429,22 +57437,22 @@
         <v>899</v>
       </c>
       <c r="B900" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D900" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D900" s="8">
+        <v>12</v>
       </c>
       <c r="E900" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F900" s="8">
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="901" spans="1:7" s="8" customFormat="1">
@@ -57452,13 +57460,13 @@
         <v>900</v>
       </c>
       <c r="B901" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D901" s="15" t="s">
-        <v>1047</v>
+        <v>847</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E901" s="8">
         <v>5</v>
@@ -57467,7 +57475,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1809</v>
+        <v>904</v>
       </c>
     </row>
     <row r="902" spans="1:7" s="8" customFormat="1">
@@ -57478,10 +57486,10 @@
         <v>363</v>
       </c>
       <c r="C902" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D902" s="15" t="s">
-        <v>1029</v>
+        <v>847</v>
+      </c>
+      <c r="D902" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E902" s="8">
         <v>5</v>
@@ -57490,7 +57498,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1725</v>
+        <v>904</v>
       </c>
     </row>
     <row r="903" spans="1:7" s="8" customFormat="1">
@@ -57498,22 +57506,22 @@
         <v>902</v>
       </c>
       <c r="B903" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D903" s="10" t="s">
-        <v>852</v>
+        <v>1023</v>
+      </c>
+      <c r="D903" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E903" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>903</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="904" spans="1:7" s="8" customFormat="1">
@@ -57521,22 +57529,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D904" s="10" t="s">
-        <v>856</v>
+        <v>1023</v>
+      </c>
+      <c r="D904" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E904" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F904" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>899</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="905" spans="1:7" s="8" customFormat="1">
@@ -57544,22 +57552,22 @@
         <v>904</v>
       </c>
       <c r="B905" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D905" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D905" s="10" t="s">
+        <v>852</v>
       </c>
       <c r="E905" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1331</v>
+        <v>903</v>
       </c>
     </row>
     <row r="906" spans="1:7" s="8" customFormat="1">
@@ -57567,22 +57575,22 @@
         <v>905</v>
       </c>
       <c r="B906" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D906" s="8">
-        <v>3</v>
+        <v>847</v>
+      </c>
+      <c r="D906" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E906" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F906" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1332</v>
+        <v>899</v>
       </c>
     </row>
     <row r="907" spans="1:7" s="8" customFormat="1">
@@ -57593,19 +57601,19 @@
         <v>365</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D907" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D907" s="8">
+        <v>1</v>
       </c>
       <c r="E907" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F907" s="8">
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="908" spans="1:7" s="8" customFormat="1">
@@ -57613,22 +57621,22 @@
         <v>907</v>
       </c>
       <c r="B908" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C908" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D908" s="8">
+        <v>3</v>
+      </c>
+      <c r="E908" s="8">
         <v>4</v>
       </c>
-      <c r="E908" s="8">
-        <v>3</v>
-      </c>
       <c r="F908" s="8">
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="909" spans="1:7" s="8" customFormat="1">
@@ -57636,22 +57644,22 @@
         <v>908</v>
       </c>
       <c r="B909" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D909" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D909" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E909" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F909" s="8">
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="910" spans="1:7" s="8" customFormat="1">
@@ -57662,19 +57670,19 @@
         <v>366</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D910" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D910" s="8">
+        <v>4</v>
       </c>
       <c r="E910" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="911" spans="1:7" s="8" customFormat="1">
@@ -57682,22 +57690,22 @@
         <v>910</v>
       </c>
       <c r="B911" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C911" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D911" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E911" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F911" s="8">
         <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="912" spans="1:7" s="8" customFormat="1">
@@ -57705,22 +57713,22 @@
         <v>911</v>
       </c>
       <c r="B912" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D912" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D912" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E912" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F912" s="8">
         <v>1</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -57731,19 +57739,19 @@
         <v>367</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D913" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D913" s="8">
+        <v>8</v>
       </c>
       <c r="E913" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F913" s="8">
         <v>1</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -57751,22 +57759,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D914" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D914" s="8">
+        <v>12</v>
       </c>
       <c r="E914" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F914" s="8">
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>904</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -57774,22 +57782,22 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C915" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D915" s="15" t="s">
-        <v>1047</v>
+        <v>847</v>
+      </c>
+      <c r="D915" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E915" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F915" s="8">
         <v>1</v>
       </c>
-      <c r="G915" s="8" t="s">
-        <v>1810</v>
+      <c r="G915" s="10" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -57797,7 +57805,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C916" s="10" t="s">
         <v>847</v>
@@ -57806,13 +57814,13 @@
         <v>900</v>
       </c>
       <c r="E916" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>1811</v>
+        <v>904</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -57823,19 +57831,19 @@
         <v>369</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D917" s="8">
-        <v>1604359800</v>
+        <v>1023</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E917" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F917" s="8">
         <v>1</v>
       </c>
-      <c r="G917" s="10" t="s">
-        <v>1814</v>
+      <c r="G917" s="8" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -57843,7 +57851,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C918" s="10" t="s">
         <v>847</v>
@@ -57852,13 +57860,13 @@
         <v>900</v>
       </c>
       <c r="E918" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F918" s="8">
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>904</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -57866,22 +57874,22 @@
         <v>918</v>
       </c>
       <c r="B919" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C919" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D919" s="15" t="s">
-        <v>1029</v>
+        <v>1813</v>
+      </c>
+      <c r="D919" s="8">
+        <v>1604359800</v>
       </c>
       <c r="E919" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F919" s="8">
         <v>1</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1148</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -57889,22 +57897,22 @@
         <v>919</v>
       </c>
       <c r="B920" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C920" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D920" s="15" t="s">
-        <v>1047</v>
+        <v>847</v>
+      </c>
+      <c r="D920" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E920" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F920" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>1406</v>
+        <v>904</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -57912,22 +57920,22 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C921" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D921" s="8">
-        <v>4</v>
+        <v>1023</v>
+      </c>
+      <c r="D921" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E921" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F921" s="8">
         <v>1</v>
       </c>
       <c r="G921" s="10" t="s">
-        <v>1333</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="922" spans="1:7" s="8" customFormat="1">
@@ -57935,22 +57943,22 @@
         <v>921</v>
       </c>
       <c r="B922" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D922" s="8">
-        <v>12</v>
+        <v>1023</v>
+      </c>
+      <c r="D922" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="E922" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F922" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G922" s="10" t="s">
-        <v>1336</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="8" customFormat="1">
@@ -57958,22 +57966,22 @@
         <v>922</v>
       </c>
       <c r="B923" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C923" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D923" s="8">
+        <v>4</v>
+      </c>
+      <c r="E923" s="8">
         <v>3</v>
       </c>
-      <c r="E923" s="8">
-        <v>4</v>
-      </c>
       <c r="F923" s="8">
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -57981,68 +57989,68 @@
         <v>923</v>
       </c>
       <c r="B924" s="8">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D924" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D924" s="8">
+        <v>12</v>
       </c>
       <c r="E924" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F924" s="8">
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" s="8" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>375</v>
-      </c>
-      <c r="C925" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D925" s="30" t="s">
-        <v>1979</v>
+        <v>373</v>
+      </c>
+      <c r="C925" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D925" s="8">
+        <v>3</v>
       </c>
       <c r="E925" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F925" s="8">
         <v>1</v>
       </c>
-      <c r="G925" s="8" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="926" spans="1:7">
+      <c r="G925" s="10" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" s="8" customFormat="1">
       <c r="A926" s="8">
         <v>925</v>
       </c>
       <c r="B926" s="8">
-        <v>376</v>
-      </c>
-      <c r="C926" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C926" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D926" s="30" t="s">
-        <v>1979</v>
+      <c r="D926" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E926" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="8">
         <v>1</v>
       </c>
-      <c r="G926" s="8" t="s">
-        <v>1980</v>
+      <c r="G926" s="10" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="927" spans="1:7">
@@ -58050,22 +58058,22 @@
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C927" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D927" s="30" t="s">
-        <v>2554</v>
+        <v>1979</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G927" s="8" t="s">
-        <v>1941</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -58079,16 +58087,16 @@
         <v>847</v>
       </c>
       <c r="D928" s="30" t="s">
-        <v>2556</v>
+        <v>1979</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
       </c>
       <c r="F928" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G928" s="8" t="s">
-        <v>1941</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -58096,22 +58104,22 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C929" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D929" s="30" t="s">
-        <v>1979</v>
+        <v>2554</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
       </c>
       <c r="F929" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G929" s="8" t="s">
-        <v>1980</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -58119,22 +58127,22 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C930" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D930" s="30" t="s">
-        <v>1979</v>
+        <v>2556</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
       </c>
       <c r="F930" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G930" s="8" t="s">
-        <v>1980</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -58142,10 +58150,10 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>379</v>
-      </c>
-      <c r="C931" s="10" t="s">
-        <v>1981</v>
+        <v>377</v>
+      </c>
+      <c r="C931" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="D931" s="30" t="s">
         <v>1979</v>
@@ -58165,13 +58173,13 @@
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C932" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D932" s="30" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -58188,10 +58196,10 @@
         <v>932</v>
       </c>
       <c r="B933" s="8">
-        <v>381</v>
-      </c>
-      <c r="C933" s="8" t="s">
-        <v>847</v>
+        <v>379</v>
+      </c>
+      <c r="C933" s="10" t="s">
+        <v>1981</v>
       </c>
       <c r="D933" s="30" t="s">
         <v>1979</v>
@@ -58202,8 +58210,8 @@
       <c r="F933" s="8">
         <v>1</v>
       </c>
-      <c r="G933" s="10" t="s">
-        <v>1983</v>
+      <c r="G933" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -58211,13 +58219,13 @@
         <v>933</v>
       </c>
       <c r="B934" s="8">
-        <v>381</v>
-      </c>
-      <c r="C934" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C934" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D934" s="10" t="s">
-        <v>900</v>
+      <c r="D934" s="30" t="s">
+        <v>1982</v>
       </c>
       <c r="E934" s="8">
         <v>2</v>
@@ -58225,8 +58233,8 @@
       <c r="F934" s="8">
         <v>1</v>
       </c>
-      <c r="G934" s="10" t="s">
-        <v>1984</v>
+      <c r="G934" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -58234,7 +58242,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C935" s="8" t="s">
         <v>847</v>
@@ -58243,13 +58251,13 @@
         <v>1979</v>
       </c>
       <c r="E935" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F935" s="8">
         <v>1</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="936" spans="1:7">
@@ -58257,22 +58265,22 @@
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>383</v>
-      </c>
-      <c r="C936" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C936" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D936" s="30" t="s">
-        <v>1979</v>
+      <c r="D936" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E936" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F936" s="8">
         <v>1</v>
       </c>
       <c r="G936" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -58280,22 +58288,22 @@
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C937" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D937" s="10" t="s">
-        <v>1986</v>
+      <c r="D937" s="30" t="s">
+        <v>1979</v>
       </c>
       <c r="E937" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F937" s="8">
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>853</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="938" spans="1:7">
@@ -58303,7 +58311,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C938" s="8" t="s">
         <v>847</v>
@@ -58312,13 +58320,13 @@
         <v>1979</v>
       </c>
       <c r="E938" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F938" s="8">
         <v>1</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -58326,13 +58334,13 @@
         <v>938</v>
       </c>
       <c r="B939" s="8">
-        <v>385</v>
-      </c>
-      <c r="C939" s="10" t="s">
-        <v>1981</v>
+        <v>384</v>
+      </c>
+      <c r="C939" s="8" t="s">
+        <v>847</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -58341,7 +58349,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -58349,13 +58357,13 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C940" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D940" s="30" t="s">
-        <v>1839</v>
+        <v>1979</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
@@ -58372,13 +58380,13 @@
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C941" s="10" t="s">
         <v>1981</v>
       </c>
-      <c r="D941" s="11" t="s">
-        <v>1988</v>
+      <c r="D941" s="10" t="s">
+        <v>1987</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -58387,7 +58395,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58395,7 +58403,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C942" s="8" t="s">
         <v>847</v>
@@ -58418,13 +58426,13 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C943" s="10" t="s">
         <v>1981</v>
       </c>
       <c r="D943" s="11" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E943" s="8">
         <v>2</v>
@@ -58433,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>1990</v>
+        <v>861</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -58441,13 +58449,13 @@
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C944" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D944" s="30" t="s">
-        <v>1979</v>
+        <v>1839</v>
       </c>
       <c r="E944" s="8">
         <v>2</v>
@@ -58464,13 +58472,13 @@
         <v>944</v>
       </c>
       <c r="B945" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C945" s="10" t="s">
         <v>1981</v>
       </c>
       <c r="D945" s="11" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E945" s="8">
         <v>2</v>
@@ -58479,7 +58487,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -58487,7 +58495,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C946" s="8" t="s">
         <v>847</v>
@@ -58510,13 +58518,13 @@
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D947" s="10" t="s">
-        <v>848</v>
+        <v>1981</v>
+      </c>
+      <c r="D947" s="11" t="s">
+        <v>1991</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
@@ -58525,7 +58533,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>849</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -58533,7 +58541,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C948" s="8" t="s">
         <v>847</v>
@@ -58556,13 +58564,13 @@
         <v>948</v>
       </c>
       <c r="B949" s="8">
-        <v>390</v>
-      </c>
-      <c r="C949" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C949" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D949" s="30" t="s">
-        <v>1979</v>
+      <c r="D949" s="10" t="s">
+        <v>848</v>
       </c>
       <c r="E949" s="8">
         <v>2</v>
@@ -58570,100 +58578,100 @@
       <c r="F949" s="8">
         <v>1</v>
       </c>
-      <c r="G949" s="8" t="s">
-        <v>1980</v>
+      <c r="G949" s="10" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="950" spans="1:7">
       <c r="A950" s="8">
         <v>949</v>
       </c>
-      <c r="B950" s="51">
-        <v>391</v>
-      </c>
-      <c r="C950" s="52" t="s">
+      <c r="B950" s="8">
+        <v>389</v>
+      </c>
+      <c r="C950" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D950" s="52" t="s">
-        <v>900</v>
-      </c>
-      <c r="E950" s="51">
-        <v>5</v>
-      </c>
-      <c r="F950" s="51">
-        <v>1</v>
-      </c>
-      <c r="G950" s="52" t="s">
-        <v>904</v>
+      <c r="D950" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E950" s="8">
+        <v>2</v>
+      </c>
+      <c r="F950" s="8">
+        <v>1</v>
+      </c>
+      <c r="G950" s="10" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="951" spans="1:7">
       <c r="A951" s="8">
         <v>950</v>
       </c>
-      <c r="B951" s="51">
-        <v>391</v>
-      </c>
-      <c r="C951" s="51" t="s">
+      <c r="B951" s="8">
+        <v>390</v>
+      </c>
+      <c r="C951" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D951" s="59" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E951" s="51">
-        <v>5</v>
-      </c>
-      <c r="F951" s="51">
-        <v>1</v>
-      </c>
-      <c r="G951" s="52" t="s">
-        <v>1937</v>
+      <c r="D951" s="30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E951" s="8">
+        <v>2</v>
+      </c>
+      <c r="F951" s="8">
+        <v>1</v>
+      </c>
+      <c r="G951" s="8" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="952" spans="1:7">
       <c r="A952" s="8">
         <v>951</v>
       </c>
-      <c r="B952" s="8">
-        <v>392</v>
-      </c>
-      <c r="C952" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D952" s="8">
-        <v>1</v>
-      </c>
-      <c r="E952" s="8">
-        <v>3</v>
-      </c>
-      <c r="F952" s="8">
-        <v>1</v>
-      </c>
-      <c r="G952" s="10" t="s">
-        <v>1997</v>
+      <c r="B952" s="51">
+        <v>391</v>
+      </c>
+      <c r="C952" s="52" t="s">
+        <v>847</v>
+      </c>
+      <c r="D952" s="52" t="s">
+        <v>900</v>
+      </c>
+      <c r="E952" s="51">
+        <v>5</v>
+      </c>
+      <c r="F952" s="51">
+        <v>1</v>
+      </c>
+      <c r="G952" s="52" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="953" spans="1:7">
       <c r="A953" s="8">
         <v>952</v>
       </c>
-      <c r="B953" s="8">
-        <v>393</v>
-      </c>
-      <c r="C953" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D953" s="8">
-        <v>0</v>
-      </c>
-      <c r="E953" s="8">
-        <v>2</v>
-      </c>
-      <c r="F953" s="8">
-        <v>1</v>
-      </c>
-      <c r="G953" s="10" t="s">
-        <v>865</v>
+      <c r="B953" s="51">
+        <v>391</v>
+      </c>
+      <c r="C953" s="51" t="s">
+        <v>847</v>
+      </c>
+      <c r="D953" s="59" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E953" s="51">
+        <v>5</v>
+      </c>
+      <c r="F953" s="51">
+        <v>1</v>
+      </c>
+      <c r="G953" s="52" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -58671,22 +58679,22 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>393</v>
-      </c>
-      <c r="C954" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D954" s="30" t="s">
-        <v>1839</v>
+        <v>392</v>
+      </c>
+      <c r="C954" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D954" s="8">
+        <v>1</v>
       </c>
       <c r="E954" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>1975</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -58706,7 +58714,7 @@
         <v>2</v>
       </c>
       <c r="F955" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
         <v>865</v>
@@ -58723,13 +58731,13 @@
         <v>847</v>
       </c>
       <c r="D956" s="30" t="s">
-        <v>2528</v>
+        <v>1839</v>
       </c>
       <c r="E956" s="8">
         <v>5</v>
       </c>
       <c r="F956" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
         <v>1975</v>
@@ -58752,7 +58760,7 @@
         <v>2</v>
       </c>
       <c r="F957" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G957" s="10" t="s">
         <v>865</v>
@@ -58769,13 +58777,13 @@
         <v>847</v>
       </c>
       <c r="D958" s="30" t="s">
-        <v>2555</v>
+        <v>2528</v>
       </c>
       <c r="E958" s="8">
         <v>5</v>
       </c>
       <c r="F958" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G958" s="10" t="s">
         <v>1975</v>
@@ -58786,22 +58794,22 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C959" s="10" t="s">
-        <v>2028</v>
+        <v>860</v>
       </c>
       <c r="D959" s="8">
-        <v>1607356800</v>
+        <v>0</v>
       </c>
       <c r="E959" s="8">
+        <v>2</v>
+      </c>
+      <c r="F959" s="8">
         <v>3</v>
       </c>
-      <c r="F959" s="8">
-        <v>1</v>
-      </c>
       <c r="G959" s="10" t="s">
-        <v>2029</v>
+        <v>865</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -58809,19 +58817,19 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C960" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D960" s="30" t="s">
-        <v>1839</v>
+        <v>2555</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
       </c>
       <c r="F960" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G960" s="10" t="s">
         <v>1975</v>
@@ -58832,7 +58840,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C961" s="10" t="s">
         <v>2028</v>
@@ -58855,22 +58863,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>395</v>
-      </c>
-      <c r="C962" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D962" s="15" t="s">
-        <v>1029</v>
+        <v>394</v>
+      </c>
+      <c r="C962" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D962" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2030</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58890,7 +58898,7 @@
         <v>3</v>
       </c>
       <c r="F963" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
         <v>2029</v>
@@ -58907,38 +58915,38 @@
         <v>1023</v>
       </c>
       <c r="D964" s="15" t="s">
-        <v>1748</v>
+        <v>1029</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="965" spans="1:7">
       <c r="A965" s="8">
         <v>964</v>
       </c>
-      <c r="B965" s="14">
-        <v>396</v>
-      </c>
-      <c r="C965" s="31" t="s">
+      <c r="B965" s="8">
+        <v>395</v>
+      </c>
+      <c r="C965" s="10" t="s">
         <v>2028</v>
       </c>
-      <c r="D965" s="14">
+      <c r="D965" s="8">
         <v>1607356800</v>
       </c>
-      <c r="E965" s="14">
+      <c r="E965" s="8">
         <v>3</v>
       </c>
-      <c r="F965" s="14">
-        <v>1</v>
-      </c>
-      <c r="G965" s="31" t="s">
+      <c r="F965" s="8">
+        <v>2</v>
+      </c>
+      <c r="G965" s="10" t="s">
         <v>2029</v>
       </c>
     </row>
@@ -58947,68 +58955,68 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>397</v>
-      </c>
-      <c r="C966" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D966" s="10" t="s">
-        <v>1533</v>
+        <v>395</v>
+      </c>
+      <c r="C966" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D966" s="15" t="s">
+        <v>1748</v>
       </c>
       <c r="E966" s="8">
         <v>2</v>
       </c>
       <c r="F966" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>911</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="967" spans="1:7">
       <c r="A967" s="8">
         <v>966</v>
       </c>
-      <c r="B967" s="8">
-        <v>398</v>
-      </c>
-      <c r="C967" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D967" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="E967" s="8">
-        <v>2</v>
-      </c>
-      <c r="F967" s="8">
-        <v>1</v>
-      </c>
-      <c r="G967" s="10" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="968" spans="1:7" s="8" customFormat="1">
+      <c r="B967" s="14">
+        <v>396</v>
+      </c>
+      <c r="C967" s="31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D967" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E967" s="14">
+        <v>3</v>
+      </c>
+      <c r="F967" s="14">
+        <v>1</v>
+      </c>
+      <c r="G967" s="31" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7">
       <c r="A968" s="8">
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>399</v>
-      </c>
-      <c r="C968" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D968" s="8">
-        <v>1</v>
+        <v>397</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D968" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E968" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>1997</v>
+        <v>911</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -59016,36 +59024,36 @@
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>400</v>
-      </c>
-      <c r="C969" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D969" s="8">
-        <v>5</v>
+        <v>398</v>
+      </c>
+      <c r="C969" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D969" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E969" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F969" s="8">
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" s="8" customFormat="1">
       <c r="A970" s="8">
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C970" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D970" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E970" s="8">
         <v>3</v>
@@ -59054,53 +59062,53 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7" s="8" customFormat="1">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
       <c r="A971" s="8">
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C971" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D971" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D971" s="8">
+        <v>5</v>
       </c>
       <c r="E971" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F971" s="8">
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7" s="8" customFormat="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7">
       <c r="A972" s="8">
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C972" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D972" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E972" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F972" s="8">
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2057</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59108,22 +59116,22 @@
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D973" s="8">
-        <v>0</v>
+        <v>847</v>
+      </c>
+      <c r="D973" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E973" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F973" s="8">
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2056</v>
+        <v>904</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59131,22 +59139,22 @@
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D974" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D974" s="8">
+        <v>0</v>
       </c>
       <c r="E974" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F974" s="8">
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>904</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59154,45 +59162,45 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>406</v>
-      </c>
-      <c r="C975" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D975" s="30" t="s">
-        <v>1839</v>
+        <v>404</v>
+      </c>
+      <c r="C975" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D975" s="8">
+        <v>0</v>
       </c>
       <c r="E975" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F975" s="8">
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" s="8" customFormat="1">
       <c r="A976" s="8">
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>407</v>
-      </c>
-      <c r="C976" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D976" s="44" t="s">
-        <v>2088</v>
+        <v>405</v>
+      </c>
+      <c r="C976" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D976" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E976" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F976" s="8">
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2089</v>
+        <v>904</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59200,25 +59208,25 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>407</v>
-      </c>
-      <c r="C977" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D977" s="8" t="s">
-        <v>2090</v>
+        <v>406</v>
+      </c>
+      <c r="C977" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D977" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E977" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F977" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="978" spans="1:7" s="8" customFormat="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A978" s="8">
         <v>977</v>
       </c>
@@ -59226,19 +59234,19 @@
         <v>407</v>
       </c>
       <c r="C978" s="8" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D978" s="10" t="s">
-        <v>2094</v>
+        <v>2087</v>
+      </c>
+      <c r="D978" s="44" t="s">
+        <v>2088</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
       </c>
       <c r="F978" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59251,17 +59259,17 @@
       <c r="C979" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D979" s="15" t="s">
-        <v>1029</v>
+      <c r="D979" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
       </c>
       <c r="F979" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59272,16 +59280,16 @@
         <v>407</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>2087</v>
+        <v>2092</v>
       </c>
       <c r="D980" s="10" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E980" s="8">
         <v>2</v>
       </c>
       <c r="F980" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G980" s="10" t="s">
         <v>2095</v>
@@ -59292,22 +59300,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C981" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D981" s="8" t="s">
-        <v>2090</v>
+      <c r="D981" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E981" s="8">
         <v>2</v>
       </c>
       <c r="F981" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2112</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59315,22 +59323,22 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C982" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D982" s="30" t="s">
-        <v>2246</v>
+        <v>2087</v>
+      </c>
+      <c r="D982" s="10" t="s">
+        <v>2093</v>
       </c>
       <c r="E982" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F982" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>1975</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59338,22 +59346,22 @@
         <v>982</v>
       </c>
       <c r="B983" s="8">
-        <v>410</v>
-      </c>
-      <c r="C983" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D983" s="30" t="s">
-        <v>1839</v>
+        <v>408</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E983" s="8">
         <v>2</v>
       </c>
       <c r="F983" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59361,13 +59369,13 @@
         <v>983</v>
       </c>
       <c r="B984" s="8">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C984" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D984" s="30" t="s">
-        <v>1839</v>
+        <v>2246</v>
       </c>
       <c r="E984" s="8">
         <v>5</v>
@@ -59384,7 +59392,7 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C985" s="8" t="s">
         <v>847</v>
@@ -59399,7 +59407,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59407,22 +59415,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>413</v>
-      </c>
-      <c r="C986" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D986" s="8">
-        <v>2</v>
+        <v>411</v>
+      </c>
+      <c r="C986" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D986" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E986" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>2131</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59430,22 +59438,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>414</v>
-      </c>
-      <c r="C987" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D987" s="8">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="C987" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D987" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E987" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F987" s="8">
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59453,22 +59461,22 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>415</v>
-      </c>
-      <c r="C988" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D988" s="30" t="s">
-        <v>2138</v>
+        <v>413</v>
+      </c>
+      <c r="C988" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D988" s="8">
+        <v>2</v>
       </c>
       <c r="E988" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F988" s="8">
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59476,13 +59484,13 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>415</v>
-      </c>
-      <c r="C989" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D989" s="10">
-        <v>86400</v>
+        <v>414</v>
+      </c>
+      <c r="C989" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D989" s="8">
+        <v>2</v>
       </c>
       <c r="E989" s="8">
         <v>3</v>
@@ -59491,7 +59499,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>937</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59499,13 +59507,13 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>416</v>
-      </c>
-      <c r="C990" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D990" s="8">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="C990" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D990" s="30" t="s">
+        <v>2138</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -59514,7 +59522,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59522,22 +59530,22 @@
         <v>990</v>
       </c>
       <c r="B991" s="8">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C991" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D991" s="30" t="s">
-        <v>1839</v>
+        <v>876</v>
+      </c>
+      <c r="D991" s="10">
+        <v>86400</v>
       </c>
       <c r="E991" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F991" s="8">
         <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>1975</v>
+        <v>937</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59545,13 +59553,13 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D992" s="10" t="s">
-        <v>2152</v>
+        <v>1117</v>
+      </c>
+      <c r="D992" s="8">
+        <v>0</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
@@ -59560,7 +59568,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59568,22 +59576,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="8">
-        <v>418</v>
-      </c>
-      <c r="C993" s="10" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D993" s="10" t="s">
-        <v>2088</v>
+        <v>417</v>
+      </c>
+      <c r="C993" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D993" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E993" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F993" s="8">
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2154</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59594,19 +59602,19 @@
         <v>418</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D994" s="8" t="s">
-        <v>2155</v>
+        <v>2164</v>
+      </c>
+      <c r="D994" s="10" t="s">
+        <v>2152</v>
       </c>
       <c r="E994" s="8">
         <v>2</v>
       </c>
       <c r="F994" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59617,7 +59625,7 @@
         <v>418</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>2157</v>
+        <v>2087</v>
       </c>
       <c r="D995" s="10" t="s">
         <v>2088</v>
@@ -59626,10 +59634,10 @@
         <v>2</v>
       </c>
       <c r="F995" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59640,19 +59648,19 @@
         <v>418</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="E996" s="8">
         <v>2</v>
       </c>
       <c r="F996" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59663,7 +59671,7 @@
         <v>418</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>2087</v>
+        <v>2157</v>
       </c>
       <c r="D997" s="10" t="s">
         <v>2088</v>
@@ -59672,10 +59680,10 @@
         <v>2</v>
       </c>
       <c r="F997" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59683,22 +59691,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D998" s="15" t="s">
-        <v>2034</v>
+        <v>2166</v>
+      </c>
+      <c r="D998" s="8" t="s">
+        <v>2159</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
       </c>
       <c r="F998" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2036</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59706,22 +59714,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>419</v>
-      </c>
-      <c r="C999" s="8" t="s">
-        <v>2174</v>
-      </c>
-      <c r="D999" s="8">
-        <v>600</v>
+        <v>418</v>
+      </c>
+      <c r="C999" s="10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D999" s="10" t="s">
+        <v>2088</v>
       </c>
       <c r="E999" s="8">
+        <v>2</v>
+      </c>
+      <c r="F999" s="8">
         <v>3</v>
       </c>
-      <c r="F999" s="8">
-        <v>1</v>
-      </c>
       <c r="G999" s="10" t="s">
-        <v>2350</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59729,13 +59737,13 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1000" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D1000" s="15" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E1000" s="8">
         <v>2</v>
@@ -59744,7 +59752,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59752,7 +59760,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1001" s="8" t="s">
         <v>2174</v>
@@ -59767,7 +59775,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59775,22 +59783,22 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="8">
-        <v>421</v>
-      </c>
-      <c r="C1002" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1002" s="30" t="s">
-        <v>1839</v>
+        <v>420</v>
+      </c>
+      <c r="C1002" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1002" s="15" t="s">
+        <v>2033</v>
       </c>
       <c r="E1002" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>1975</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59798,22 +59806,22 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>422</v>
-      </c>
-      <c r="C1003" s="10" t="s">
-        <v>1117</v>
+        <v>420</v>
+      </c>
+      <c r="C1003" s="8" t="s">
+        <v>2174</v>
       </c>
       <c r="D1003" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E1003" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2189</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59821,22 +59829,22 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>423</v>
-      </c>
-      <c r="C1004" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1004" s="8">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="C1004" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1004" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1004" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2187</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59844,22 +59852,22 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1005" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1005" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1005" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59867,13 +59875,13 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1006" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1006" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1006" s="8">
         <v>3</v>
@@ -59882,7 +59890,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59890,13 +59898,13 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1007" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1007" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1007" s="8">
         <v>4</v>
@@ -59905,7 +59913,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59913,13 +59921,13 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1008" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1008" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1008" s="8">
         <v>3</v>
@@ -59928,30 +59936,30 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>1992</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
       <c r="A1009" s="8">
         <v>1008</v>
       </c>
-      <c r="B1009" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1009" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1009" s="30" t="s">
-        <v>1839</v>
+      <c r="B1009" s="8">
+        <v>424</v>
+      </c>
+      <c r="C1009" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1009" s="8">
+        <v>7</v>
       </c>
       <c r="E1009" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59959,30 +59967,30 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C1010" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1010" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1010" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2189</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
       <c r="A1011" s="8">
         <v>1010</v>
       </c>
-      <c r="B1011" s="8">
-        <v>427</v>
+      <c r="B1011" s="16">
+        <v>426</v>
       </c>
       <c r="C1011" s="8" t="s">
         <v>847</v>
@@ -60005,22 +60013,22 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="8">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1012" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1012" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1012" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60028,22 +60036,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1013" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1013" s="8">
-        <v>3</v>
+        <v>427</v>
+      </c>
+      <c r="C1013" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1013" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1013" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60053,20 +60061,20 @@
       <c r="B1014" s="8">
         <v>428</v>
       </c>
-      <c r="C1014" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1014" s="30" t="s">
-        <v>1839</v>
+      <c r="C1014" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>1</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60074,22 +60082,22 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1015" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1015" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1015" s="8">
         <v>4</v>
       </c>
-      <c r="E1015" s="8">
-        <v>3</v>
-      </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>1228</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60097,22 +60105,22 @@
         <v>1015</v>
       </c>
       <c r="B1016" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1016" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1016" s="8">
-        <v>7</v>
+        <v>428</v>
+      </c>
+      <c r="C1016" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1016" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1016" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60122,20 +60130,20 @@
       <c r="B1017" s="8">
         <v>429</v>
       </c>
-      <c r="C1017" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1017" s="30" t="s">
-        <v>1839</v>
+      <c r="C1017" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1017" s="8">
+        <v>4</v>
       </c>
       <c r="E1017" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1017" s="8">
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2188</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60143,22 +60151,22 @@
         <v>1017</v>
       </c>
       <c r="B1018" s="8">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1018" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1018" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1018" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1018" s="8">
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>1227</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60166,7 +60174,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" s="8">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1019" s="8" t="s">
         <v>847</v>
@@ -60189,68 +60197,68 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="8">
-        <v>431</v>
-      </c>
-      <c r="C1020" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1020" s="30" t="s">
-        <v>1839</v>
+        <v>430</v>
+      </c>
+      <c r="C1020" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1020" s="8">
+        <v>8</v>
       </c>
       <c r="E1020" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1020" s="8">
         <v>1</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2188</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
       <c r="A1021" s="8">
         <v>1020</v>
       </c>
-      <c r="B1021" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1021" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1021" s="8">
-        <v>0</v>
+      <c r="B1021" s="8">
+        <v>430</v>
+      </c>
+      <c r="C1021" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1021" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1021" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1021" s="8">
         <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
       <c r="A1022" s="8">
         <v>1021</v>
       </c>
-      <c r="B1022" s="16">
-        <v>432</v>
+      <c r="B1022" s="8">
+        <v>431</v>
       </c>
       <c r="C1022" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1022" s="10" t="s">
-        <v>1533</v>
+      <c r="D1022" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1022" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1022" s="8">
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2247</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60270,7 +60278,7 @@
         <v>2</v>
       </c>
       <c r="F1023" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
         <v>2189</v>
@@ -60287,16 +60295,16 @@
         <v>847</v>
       </c>
       <c r="D1024" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1024" s="8">
         <v>2</v>
       </c>
       <c r="F1024" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60316,7 +60324,7 @@
         <v>2</v>
       </c>
       <c r="F1025" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1025" s="10" t="s">
         <v>2189</v>
@@ -60332,17 +60340,17 @@
       <c r="C1026" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1026" s="30" t="s">
-        <v>1839</v>
+      <c r="D1026" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1026" s="8">
         <v>2</v>
       </c>
       <c r="F1026" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2243</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60353,19 +60361,19 @@
         <v>432</v>
       </c>
       <c r="C1027" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1027" s="10" t="s">
-        <v>2245</v>
+        <v>1117</v>
+      </c>
+      <c r="D1027" s="8">
+        <v>0</v>
       </c>
       <c r="E1027" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1027" s="8">
         <v>3</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2244</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60373,22 +60381,22 @@
         <v>1027</v>
       </c>
       <c r="B1028" s="16">
-        <v>433</v>
-      </c>
-      <c r="C1028" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1028" s="8">
-        <v>1</v>
+        <v>432</v>
+      </c>
+      <c r="C1028" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1028" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1028" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1028" s="8">
         <v>3</v>
       </c>
-      <c r="F1028" s="8">
-        <v>1</v>
-      </c>
       <c r="G1028" s="10" t="s">
-        <v>2251</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60396,22 +60404,22 @@
         <v>1028</v>
       </c>
       <c r="B1029" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1029" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1029" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D1029" s="10" t="s">
+        <v>2245</v>
       </c>
       <c r="E1029" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1029" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60421,20 +60429,20 @@
       <c r="B1030" s="16">
         <v>433</v>
       </c>
-      <c r="C1030" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1030" s="10" t="s">
-        <v>1533</v>
+      <c r="C1030" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1030" s="8">
+        <v>1</v>
       </c>
       <c r="E1030" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1030" s="8">
         <v>1</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60448,16 +60456,16 @@
         <v>1117</v>
       </c>
       <c r="D1031" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1031" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1031" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60467,20 +60475,20 @@
       <c r="B1032" s="16">
         <v>433</v>
       </c>
-      <c r="C1032" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1032" s="8">
-        <v>7</v>
+      <c r="C1032" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1032" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1032" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1032" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60490,20 +60498,20 @@
       <c r="B1033" s="16">
         <v>433</v>
       </c>
-      <c r="C1033" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1033" s="10" t="s">
-        <v>916</v>
+      <c r="C1033" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1033" s="8">
+        <v>1</v>
       </c>
       <c r="E1033" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1033" s="8">
         <v>2</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60517,16 +60525,16 @@
         <v>1117</v>
       </c>
       <c r="D1034" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1034" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1034" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2189</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60536,20 +60544,20 @@
       <c r="B1035" s="16">
         <v>433</v>
       </c>
-      <c r="C1035" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1035" s="8">
-        <v>7</v>
+      <c r="C1035" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1035" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1035" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1035" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60559,20 +60567,20 @@
       <c r="B1036" s="16">
         <v>433</v>
       </c>
-      <c r="C1036" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1036" s="30" t="s">
-        <v>1839</v>
+      <c r="C1036" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1036" s="8">
+        <v>1</v>
       </c>
       <c r="E1036" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1036" s="8">
         <v>3</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2243</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60583,19 +60591,19 @@
         <v>433</v>
       </c>
       <c r="C1037" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1037" s="10" t="s">
-        <v>2245</v>
+        <v>1117</v>
+      </c>
+      <c r="D1037" s="8">
+        <v>7</v>
       </c>
       <c r="E1037" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1037" s="8">
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2244</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60603,22 +60611,22 @@
         <v>1037</v>
       </c>
       <c r="B1038" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1038" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1038" s="8">
-        <v>8</v>
+        <v>433</v>
+      </c>
+      <c r="C1038" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1038" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1038" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1038" s="8">
         <v>3</v>
       </c>
-      <c r="F1038" s="8">
-        <v>1</v>
-      </c>
       <c r="G1038" s="10" t="s">
-        <v>2252</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60626,22 +60634,22 @@
         <v>1038</v>
       </c>
       <c r="B1039" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1039" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1039" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1039" s="10" t="s">
-        <v>1533</v>
+        <v>2245</v>
       </c>
       <c r="E1039" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1039" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60661,7 +60669,7 @@
         <v>3</v>
       </c>
       <c r="F1040" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1040" s="10" t="s">
         <v>2252</v>
@@ -60678,16 +60686,16 @@
         <v>847</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1041" s="8">
         <v>2</v>
       </c>
       <c r="F1041" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60707,7 +60715,7 @@
         <v>3</v>
       </c>
       <c r="F1042" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1042" s="10" t="s">
         <v>2252</v>
@@ -60723,17 +60731,17 @@
       <c r="C1043" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1043" s="30" t="s">
-        <v>1839</v>
+      <c r="D1043" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1043" s="8">
         <v>2</v>
       </c>
       <c r="F1043" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>2243</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60744,65 +60752,65 @@
         <v>434</v>
       </c>
       <c r="C1044" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1044" s="10" t="s">
-        <v>2245</v>
+        <v>1117</v>
+      </c>
+      <c r="D1044" s="8">
+        <v>8</v>
       </c>
       <c r="E1044" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1044" s="8">
         <v>3</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>2244</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
       <c r="A1045" s="8">
         <v>1044</v>
       </c>
-      <c r="B1045" s="8">
-        <v>435</v>
-      </c>
-      <c r="C1045" s="10" t="s">
+      <c r="B1045" s="16">
+        <v>434</v>
+      </c>
+      <c r="C1045" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1045" s="10" t="s">
-        <v>900</v>
+      <c r="D1045" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1045" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1045" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>904</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
       <c r="A1046" s="8">
         <v>1045</v>
       </c>
-      <c r="B1046" s="8">
-        <v>436</v>
+      <c r="B1046" s="16">
+        <v>434</v>
       </c>
       <c r="C1046" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1046" s="10" t="s">
-        <v>852</v>
+        <v>2245</v>
       </c>
       <c r="E1046" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1046" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>903</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60810,22 +60818,22 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="8">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1047" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1047" s="10" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="E1047" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1047" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60839,16 +60847,16 @@
         <v>847</v>
       </c>
       <c r="D1048" s="10" t="s">
-        <v>1205</v>
+        <v>852</v>
       </c>
       <c r="E1048" s="8">
         <v>2</v>
       </c>
       <c r="F1048" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>1238</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60856,22 +60864,22 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1049" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1049" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1049" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E1049" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1049" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>1331</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60879,22 +60887,22 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1050" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1050" s="8">
+        <v>847</v>
+      </c>
+      <c r="D1050" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E1050" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="8">
         <v>3</v>
       </c>
-      <c r="E1050" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1050" s="8">
-        <v>1</v>
-      </c>
       <c r="G1050" s="10" t="s">
-        <v>1332</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60905,19 +60913,19 @@
         <v>437</v>
       </c>
       <c r="C1051" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1051" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1051" s="8">
+        <v>1</v>
       </c>
       <c r="E1051" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60925,22 +60933,22 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1052" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1052" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1052" s="8">
         <v>4</v>
       </c>
-      <c r="E1052" s="8">
-        <v>3</v>
-      </c>
       <c r="F1052" s="8">
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60948,22 +60956,22 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1053" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1053" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D1053" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1053" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1053" s="8">
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -60974,19 +60982,19 @@
         <v>438</v>
       </c>
       <c r="C1054" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1054" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1054" s="8">
+        <v>4</v>
       </c>
       <c r="E1054" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1054" s="8">
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1055" spans="1:7" s="8" customFormat="1">
@@ -60994,22 +61002,22 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1055" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1055" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1055" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1055" s="8">
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1056" spans="1:7" s="8" customFormat="1">
@@ -61017,22 +61025,22 @@
         <v>1055</v>
       </c>
       <c r="B1056" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1056" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1056" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D1056" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1056" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1056" s="8">
         <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1057" spans="1:7" s="8" customFormat="1">
@@ -61043,19 +61051,19 @@
         <v>439</v>
       </c>
       <c r="C1057" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1057" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1057" s="8">
+        <v>8</v>
       </c>
       <c r="E1057" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1057" s="8">
         <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1058" spans="1:7" s="8" customFormat="1">
@@ -61063,22 +61071,22 @@
         <v>1057</v>
       </c>
       <c r="B1058" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1058" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1058" s="30" t="s">
-        <v>1839</v>
+        <v>439</v>
+      </c>
+      <c r="C1058" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1058" s="8">
+        <v>12</v>
       </c>
       <c r="E1058" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1058" s="8">
         <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2188</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1059" spans="1:7" s="8" customFormat="1">
@@ -61086,68 +61094,68 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="8">
-        <v>441</v>
-      </c>
-      <c r="C1059" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1059" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="D1059" s="30" t="s">
-        <v>1839</v>
+      <c r="D1059" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1059" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1059" s="8">
         <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" s="8" customFormat="1">
       <c r="A1060" s="8">
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1060" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1060" s="15" t="s">
-        <v>1029</v>
+        <v>440</v>
+      </c>
+      <c r="C1060" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1060" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1060" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1060" s="8">
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:7">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" s="8" customFormat="1">
       <c r="A1061" s="8">
         <v>1060</v>
       </c>
       <c r="B1061" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1061" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1061" s="8" t="s">
-        <v>2090</v>
+        <v>441</v>
+      </c>
+      <c r="C1061" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1061" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1061" s="8">
         <v>2</v>
       </c>
       <c r="F1061" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61160,17 +61168,17 @@
       <c r="C1062" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1062" s="10" t="s">
-        <v>2303</v>
+      <c r="D1062" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="E1062" s="8">
         <v>2</v>
       </c>
       <c r="F1062" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2304</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61178,22 +61186,22 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1063" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="D1063" s="10" t="s">
-        <v>2306</v>
+      <c r="D1063" s="8" t="s">
+        <v>2090</v>
       </c>
       <c r="E1063" s="8">
         <v>2</v>
       </c>
       <c r="F1063" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2309</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61201,22 +61209,22 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1064" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="E1064" s="8">
         <v>2</v>
       </c>
       <c r="F1064" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61230,16 +61238,16 @@
         <v>1023</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
       </c>
       <c r="F1065" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61247,22 +61255,22 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1066" s="8" t="s">
-        <v>847</v>
+        <v>443</v>
+      </c>
+      <c r="C1066" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D1066" s="10" t="s">
-        <v>1533</v>
+        <v>2305</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
       </c>
       <c r="F1066" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2247</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61270,22 +61278,22 @@
         <v>1066</v>
       </c>
       <c r="B1067" s="8">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1067" s="10" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>1205</v>
+        <v>2308</v>
       </c>
       <c r="E1067" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1067" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>2341</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61299,16 +61307,16 @@
         <v>847</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
       </c>
       <c r="F1068" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61328,7 +61336,7 @@
         <v>5</v>
       </c>
       <c r="F1069" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1069" s="10" t="s">
         <v>2341</v>
@@ -61339,22 +61347,22 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="8">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1070" s="30" t="s">
-        <v>1839</v>
+      <c r="D1070" s="10" t="s">
+        <v>916</v>
       </c>
       <c r="E1070" s="8">
         <v>2</v>
       </c>
       <c r="F1070" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>2116</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61362,22 +61370,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1071" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1071" s="10" t="s">
-        <v>852</v>
+        <v>1205</v>
       </c>
       <c r="E1071" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1071" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>903</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61385,22 +61393,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1072" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1072" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1072" s="10" t="s">
-        <v>856</v>
+      <c r="D1072" s="30" t="s">
+        <v>1839</v>
       </c>
       <c r="E1072" s="8">
         <v>2</v>
       </c>
       <c r="F1072" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>899</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61414,16 +61422,16 @@
         <v>847</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>1205</v>
+        <v>852</v>
       </c>
       <c r="E1073" s="8">
         <v>2</v>
       </c>
       <c r="F1073" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>1238</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61431,22 +61439,22 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1074" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1074" s="8">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="D1074" s="10" t="s">
+        <v>856</v>
       </c>
       <c r="E1074" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1074" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>1331</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61454,22 +61462,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1075" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1075" s="8">
+        <v>847</v>
+      </c>
+      <c r="D1075" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E1075" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="8">
         <v>3</v>
       </c>
-      <c r="E1075" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1075" s="8">
-        <v>1</v>
-      </c>
       <c r="G1075" s="10" t="s">
-        <v>1332</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61480,19 +61488,19 @@
         <v>447</v>
       </c>
       <c r="C1076" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1076" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1076" s="8">
+        <v>1</v>
       </c>
       <c r="E1076" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61500,22 +61508,22 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1077" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1077" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1077" s="8">
         <v>4</v>
       </c>
-      <c r="E1077" s="8">
-        <v>3</v>
-      </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61523,22 +61531,22 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1078" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1078" s="8">
-        <v>7</v>
+        <v>847</v>
+      </c>
+      <c r="D1078" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1078" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1078" s="8">
         <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>1334</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61549,19 +61557,19 @@
         <v>448</v>
       </c>
       <c r="C1079" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1079" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1079" s="8">
+        <v>4</v>
       </c>
       <c r="E1079" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1079" s="8">
         <v>1</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>904</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -61569,22 +61577,22 @@
         <v>1079</v>
       </c>
       <c r="B1080" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1080" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1080" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1080" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1080" s="8">
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1081" spans="1:7">
@@ -61592,22 +61600,22 @@
         <v>1080</v>
       </c>
       <c r="B1081" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1081" s="8">
-        <v>12</v>
+        <v>847</v>
+      </c>
+      <c r="D1081" s="10" t="s">
+        <v>900</v>
       </c>
       <c r="E1081" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>1336</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -61618,19 +61626,19 @@
         <v>449</v>
       </c>
       <c r="C1082" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1082" s="10" t="s">
-        <v>900</v>
+        <v>1117</v>
+      </c>
+      <c r="D1082" s="8">
+        <v>8</v>
       </c>
       <c r="E1082" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1082" s="8">
         <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>904</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -61638,22 +61646,22 @@
         <v>1082</v>
       </c>
       <c r="B1083" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1083" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1083" s="10" t="s">
-        <v>1533</v>
+        <v>449</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1083" s="8">
+        <v>12</v>
       </c>
       <c r="E1083" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1083" s="8">
         <v>1</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>2247</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61661,68 +61669,68 @@
         <v>1083</v>
       </c>
       <c r="B1084" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1084" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1084" s="10" t="s">
         <v>847</v>
       </c>
       <c r="D1084" s="10" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1084" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1084" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:7" s="8" customFormat="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7">
       <c r="A1085" s="8">
         <v>1084</v>
       </c>
       <c r="B1085" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1085" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1085" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1085" s="10" t="s">
-        <v>900</v>
+        <v>1533</v>
       </c>
       <c r="E1085" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1085" s="8">
         <v>1</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7" s="8" customFormat="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7">
       <c r="A1086" s="8">
         <v>1085</v>
       </c>
       <c r="B1086" s="8">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1086" s="8" t="s">
         <v>847</v>
       </c>
       <c r="D1086" s="10" t="s">
-        <v>1533</v>
+        <v>916</v>
       </c>
       <c r="E1086" s="8">
         <v>2</v>
       </c>
       <c r="F1086" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1087" spans="1:7" s="8" customFormat="1">
@@ -61742,7 +61750,7 @@
         <v>5</v>
       </c>
       <c r="F1087" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1087" s="10" t="s">
         <v>904</v>
@@ -61759,61 +61767,61 @@
         <v>847</v>
       </c>
       <c r="D1088" s="10" t="s">
-        <v>916</v>
+        <v>1533</v>
       </c>
       <c r="E1088" s="8">
         <v>2</v>
       </c>
       <c r="F1088" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:7">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" s="8" customFormat="1">
       <c r="A1089" s="8">
         <v>1088</v>
       </c>
-      <c r="B1089" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1089" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1089" s="65" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E1089" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1089" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1089" s="65" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7">
+      <c r="B1089" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1089" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1089" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1089" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1089" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1089" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" s="8" customFormat="1">
       <c r="A1090" s="8">
         <v>1089</v>
       </c>
-      <c r="B1090" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1090" s="64" t="s">
+      <c r="B1090" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1090" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="D1090" s="65" t="s">
-        <v>2553</v>
-      </c>
-      <c r="E1090" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1090" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1090" s="65" t="s">
+      <c r="D1090" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1090" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1090" s="10" t="s">
         <v>2248</v>
       </c>
     </row>
@@ -61825,10 +61833,10 @@
         <v>452</v>
       </c>
       <c r="C1091" s="65" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
       <c r="D1091" s="65" t="s">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="E1091" s="64">
         <v>2</v>
@@ -61837,7 +61845,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2363</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61845,13 +61853,13 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1092" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1092" s="62" t="s">
-        <v>1029</v>
+        <v>452</v>
+      </c>
+      <c r="C1092" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1092" s="65" t="s">
+        <v>2553</v>
       </c>
       <c r="E1092" s="64">
         <v>2</v>
@@ -61860,7 +61868,7 @@
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2096</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61868,13 +61876,13 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1093" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1093" s="65" t="s">
         <v>847</v>
       </c>
       <c r="D1093" s="65" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="E1093" s="64">
         <v>2</v>
@@ -61883,7 +61891,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2248</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61894,10 +61902,10 @@
         <v>453</v>
       </c>
       <c r="C1094" s="65" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1094" s="65" t="s">
-        <v>900</v>
+        <v>1023</v>
+      </c>
+      <c r="D1094" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1094" s="64">
         <v>2</v>
@@ -61906,7 +61914,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2363</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61914,7 +61922,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="64">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1095" s="64" t="s">
         <v>847</v>
@@ -61937,22 +61945,22 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1096" s="64" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1096" s="68">
-        <v>691200</v>
+        <v>453</v>
+      </c>
+      <c r="C1096" s="65" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1096" s="65" t="s">
+        <v>900</v>
       </c>
       <c r="E1096" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1096" s="64">
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61962,20 +61970,20 @@
       <c r="B1097" s="64">
         <v>454</v>
       </c>
-      <c r="C1097" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1097" s="70">
-        <v>1615246200</v>
+      <c r="C1097" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1097" s="65" t="s">
+        <v>916</v>
       </c>
       <c r="E1097" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1097" s="64">
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2373</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61983,22 +61991,22 @@
         <v>1097</v>
       </c>
       <c r="B1098" s="64">
-        <v>455</v>
-      </c>
-      <c r="C1098" s="65" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D1098" s="62" t="s">
-        <v>1029</v>
+        <v>454</v>
+      </c>
+      <c r="C1098" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1098" s="68">
+        <v>691200</v>
       </c>
       <c r="E1098" s="64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1098" s="64">
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2096</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62006,22 +62014,22 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="64">
-        <v>455</v>
-      </c>
-      <c r="C1099" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1099" s="65" t="s">
-        <v>916</v>
+        <v>454</v>
+      </c>
+      <c r="C1099" s="65" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1099" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1099" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1099" s="64">
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2248</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62032,19 +62040,19 @@
         <v>455</v>
       </c>
       <c r="C1100" s="65" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D1100" s="70">
-        <v>1615246200</v>
+        <v>1023</v>
+      </c>
+      <c r="D1100" s="62" t="s">
+        <v>1029</v>
       </c>
       <c r="E1100" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1100" s="64">
         <v>1</v>
       </c>
       <c r="G1100" s="65" t="s">
-        <v>2373</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62052,13 +62060,13 @@
         <v>1100</v>
       </c>
       <c r="B1101" s="64">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1101" s="64" t="s">
         <v>847</v>
       </c>
       <c r="D1101" s="65" t="s">
-        <v>1533</v>
+        <v>916</v>
       </c>
       <c r="E1101" s="64">
         <v>2</v>
@@ -62067,7 +62075,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62075,22 +62083,22 @@
         <v>1101</v>
       </c>
       <c r="B1102" s="64">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1102" s="65" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D1102" s="62" t="s">
-        <v>2378</v>
+        <v>1812</v>
+      </c>
+      <c r="D1102" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1102" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1102" s="64">
         <v>1</v>
       </c>
       <c r="G1102" s="65" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62100,11 +62108,11 @@
       <c r="B1103" s="64">
         <v>456</v>
       </c>
-      <c r="C1103" s="65" t="s">
-        <v>2534</v>
+      <c r="C1103" s="64" t="s">
+        <v>847</v>
       </c>
       <c r="D1103" s="65" t="s">
-        <v>2536</v>
+        <v>1533</v>
       </c>
       <c r="E1103" s="64">
         <v>2</v>
@@ -62113,44 +62121,44 @@
         <v>1</v>
       </c>
       <c r="G1103" s="65" t="s">
-        <v>2538</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
       <c r="A1104" s="8">
         <v>1103</v>
       </c>
-      <c r="B1104" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1104" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1104" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E1104" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1104" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1104" s="10" t="s">
-        <v>2247</v>
+      <c r="B1104" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1104" s="65" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1104" s="62" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1104" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="65" t="s">
+        <v>2379</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
       <c r="A1105" s="8">
         <v>1104</v>
       </c>
-      <c r="B1105" s="9">
-        <v>458</v>
+      <c r="B1105" s="64">
+        <v>456</v>
       </c>
       <c r="C1105" s="65" t="s">
-        <v>2515</v>
+        <v>2534</v>
       </c>
       <c r="D1105" s="65" t="s">
-        <v>916</v>
+        <v>2536</v>
       </c>
       <c r="E1105" s="64">
         <v>2</v>
@@ -62159,7 +62167,7 @@
         <v>1</v>
       </c>
       <c r="G1105" s="65" t="s">
-        <v>2248</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62167,22 +62175,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1106" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1106" s="8">
-        <v>4</v>
+        <v>457</v>
+      </c>
+      <c r="C1106" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1106" s="10" t="s">
+        <v>1533</v>
       </c>
       <c r="E1106" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1106" s="8">
         <v>1</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>1333</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62190,22 +62198,22 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1107" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1107" s="8">
-        <v>12</v>
-      </c>
-      <c r="E1107" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1107" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="10" t="s">
-        <v>1336</v>
+        <v>458</v>
+      </c>
+      <c r="C1107" s="65" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1107" s="65" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1107" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1107" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="65" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62213,22 +62221,22 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="9">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1108" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D1108" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1108" s="8">
         <v>3</v>
       </c>
-      <c r="E1108" s="8">
-        <v>4</v>
-      </c>
       <c r="F1108" s="8">
         <v>1</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -62236,22 +62244,22 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1109" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1109" s="10" t="s">
-        <v>2093</v>
+        <v>459</v>
+      </c>
+      <c r="C1109" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1109" s="8">
+        <v>12</v>
       </c>
       <c r="E1109" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1109" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2395</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -62259,22 +62267,22 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1110" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1110" s="26" t="s">
-        <v>2434</v>
-      </c>
-      <c r="E1110" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1110" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1110" s="26" t="s">
-        <v>2436</v>
+        <v>460</v>
+      </c>
+      <c r="C1110" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1110" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1110" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="10" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62282,22 +62290,22 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1111" s="26" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1111" s="9" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E1111" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1111" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="26" t="s">
-        <v>2442</v>
+        <v>461</v>
+      </c>
+      <c r="C1111" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1111" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1111" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1111" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1111" s="10" t="s">
+        <v>2395</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62305,22 +62313,22 @@
         <v>1111</v>
       </c>
       <c r="B1112" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1112" s="8" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1112" s="10" t="s">
-        <v>2093</v>
+        <v>462</v>
+      </c>
+      <c r="C1112" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1112" s="26" t="s">
+        <v>2434</v>
       </c>
       <c r="E1112" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1112" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2443</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62328,59 +62336,59 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1113" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1113" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1113" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="10" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7" s="8" customFormat="1">
+        <v>463</v>
+      </c>
+      <c r="C1113" s="26" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1113" s="9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="26" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7">
       <c r="A1114" s="8">
         <v>1113</v>
       </c>
-      <c r="B1114" s="8">
-        <v>465</v>
-      </c>
-      <c r="C1114" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1114" s="8">
-        <v>10</v>
-      </c>
-      <c r="E1114" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1114" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="10" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7" s="8" customFormat="1">
+      <c r="B1114" s="9">
+        <v>463</v>
+      </c>
+      <c r="C1114" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1114" s="10" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="26" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
       <c r="A1115" s="8">
         <v>1114</v>
       </c>
-      <c r="B1115" s="8">
-        <v>466</v>
+      <c r="B1115" s="9">
+        <v>464</v>
       </c>
       <c r="C1115" s="10" t="s">
-        <v>860</v>
+        <v>1117</v>
       </c>
       <c r="D1115" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1115" s="8">
         <v>3</v>
@@ -62389,7 +62397,7 @@
         <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>2512</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1116" spans="1:7" s="8" customFormat="1">
@@ -62397,13 +62405,13 @@
         <v>1115</v>
       </c>
       <c r="B1116" s="8">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1116" s="10" t="s">
         <v>860</v>
       </c>
       <c r="D1116" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1116" s="8">
         <v>3</v>
@@ -62412,53 +62420,53 @@
         <v>1</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" s="8" customFormat="1">
       <c r="A1117" s="8">
         <v>1116</v>
       </c>
       <c r="B1117" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1117" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1117" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1117" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="26" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7">
+        <v>466</v>
+      </c>
+      <c r="C1117" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1117" s="8">
+        <v>11</v>
+      </c>
+      <c r="E1117" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="10" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" s="8" customFormat="1">
       <c r="A1118" s="8">
         <v>1117</v>
       </c>
       <c r="B1118" s="8">
-        <v>469</v>
-      </c>
-      <c r="C1118" s="26" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1118" s="26" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E1118" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1118" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="26" t="s">
-        <v>2525</v>
+        <v>467</v>
+      </c>
+      <c r="C1118" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1118" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1118" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1118" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="10" t="s">
+        <v>2513</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -62466,22 +62474,22 @@
         <v>1118</v>
       </c>
       <c r="B1119" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1119" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1119" s="30" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E1119" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1119" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1119" s="10" t="s">
-        <v>2529</v>
+        <v>468</v>
+      </c>
+      <c r="C1119" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1119" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E1119" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1119" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="26" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -62489,30 +62497,30 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1120" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D1120" s="30" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E1120" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1120" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1120" s="10" t="s">
-        <v>2529</v>
+        <v>469</v>
+      </c>
+      <c r="C1120" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1120" s="26" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E1120" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1120" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1120" s="26" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
       <c r="A1121" s="8">
         <v>1120</v>
       </c>
-      <c r="B1121" s="9">
-        <v>471</v>
+      <c r="B1121" s="8">
+        <v>470</v>
       </c>
       <c r="C1121" s="8" t="s">
         <v>847</v>
@@ -62534,23 +62542,23 @@
       <c r="A1122" s="8">
         <v>1121</v>
       </c>
-      <c r="B1122" s="9">
-        <v>471</v>
-      </c>
-      <c r="C1122" s="26" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D1122" s="26" t="s">
-        <v>2537</v>
-      </c>
-      <c r="E1122" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1122" s="26" t="s">
-        <v>2539</v>
+      <c r="B1122" s="8">
+        <v>470</v>
+      </c>
+      <c r="C1122" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1122" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1122" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1122" s="10" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -62564,13 +62572,13 @@
         <v>847</v>
       </c>
       <c r="D1123" s="30" t="s">
-        <v>2555</v>
+        <v>2528</v>
       </c>
       <c r="E1123" s="8">
         <v>2</v>
       </c>
       <c r="F1123" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1123" s="10" t="s">
         <v>2529</v>
@@ -62584,23 +62592,69 @@
         <v>471</v>
       </c>
       <c r="C1124" s="26" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1124" s="26" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1124" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="26" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" s="8">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1125" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1125" s="30" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E1125" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1125" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1125" s="10" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="8">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1126" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="D1124" s="26" t="s">
+      <c r="D1126" s="26" t="s">
         <v>1972</v>
       </c>
-      <c r="E1124" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1124" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1124" s="26" t="s">
+      <c r="E1126" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1126" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1126" s="26" t="s">
         <v>1696</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1088"/>
+  <autoFilter ref="C1:C1090"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -36690,7 +36690,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C753" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A771" sqref="A771"/>
+      <selection pane="bottomRight" activeCell="B773" sqref="B773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54505,7 +54505,7 @@
         <v>5</v>
       </c>
       <c r="F772" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G772" s="10" t="s">
         <v>1582</v>
@@ -54528,7 +54528,7 @@
         <v>5</v>
       </c>
       <c r="F773" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G773" s="10" t="s">
         <v>1582</v>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1088</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1090</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="2559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="2559">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -19505,10 +19505,10 @@
   <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D376" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36677,13 +36677,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1124"/>
+  <dimension ref="A1:I1126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C937" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C925" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B954" sqref="B954"/>
+      <selection pane="bottomRight" activeCell="E940" sqref="E940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58327,22 +58327,22 @@
         <v>938</v>
       </c>
       <c r="B939" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C939" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D939" s="10" t="s">
-        <v>1985</v>
+      <c r="D939" s="30" t="s">
+        <v>2527</v>
       </c>
       <c r="E939" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F939" s="8">
         <v>1</v>
       </c>
-      <c r="G939" s="10" t="s">
-        <v>852</v>
+      <c r="G939" s="8" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -58350,22 +58350,22 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C940" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D940" s="30" t="s">
-        <v>1978</v>
+        <v>2554</v>
       </c>
       <c r="E940" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F940" s="8">
         <v>1</v>
       </c>
-      <c r="G940" s="10" t="s">
-        <v>1982</v>
+      <c r="G940" s="8" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -58373,13 +58373,13 @@
         <v>940</v>
       </c>
       <c r="B941" s="8">
-        <v>385</v>
-      </c>
-      <c r="C941" s="10" t="s">
-        <v>1980</v>
+        <v>384</v>
+      </c>
+      <c r="C941" s="8" t="s">
+        <v>846</v>
       </c>
       <c r="D941" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -58388,7 +58388,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58396,13 +58396,13 @@
         <v>941</v>
       </c>
       <c r="B942" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C942" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D942" s="30" t="s">
-        <v>1838</v>
+        <v>1978</v>
       </c>
       <c r="E942" s="8">
         <v>2</v>
@@ -58419,13 +58419,13 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C943" s="10" t="s">
         <v>1980</v>
       </c>
-      <c r="D943" s="11" t="s">
-        <v>1987</v>
+      <c r="D943" s="10" t="s">
+        <v>1986</v>
       </c>
       <c r="E943" s="8">
         <v>2</v>
@@ -58434,7 +58434,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="944" spans="1:7">
@@ -58442,7 +58442,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C944" s="8" t="s">
         <v>846</v>
@@ -58465,13 +58465,13 @@
         <v>944</v>
       </c>
       <c r="B945" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C945" s="10" t="s">
         <v>1980</v>
       </c>
       <c r="D945" s="11" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E945" s="8">
         <v>2</v>
@@ -58480,7 +58480,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>1989</v>
+        <v>860</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -58488,13 +58488,13 @@
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C946" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D946" s="30" t="s">
-        <v>1978</v>
+        <v>1838</v>
       </c>
       <c r="E946" s="8">
         <v>2</v>
@@ -58511,13 +58511,13 @@
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C947" s="10" t="s">
         <v>1980</v>
       </c>
       <c r="D947" s="11" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
@@ -58526,7 +58526,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -58534,7 +58534,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C948" s="8" t="s">
         <v>846</v>
@@ -58557,13 +58557,13 @@
         <v>948</v>
       </c>
       <c r="B949" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D949" s="10" t="s">
-        <v>847</v>
+        <v>1980</v>
+      </c>
+      <c r="D949" s="11" t="s">
+        <v>1990</v>
       </c>
       <c r="E949" s="8">
         <v>2</v>
@@ -58572,7 +58572,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>848</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -58580,7 +58580,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C950" s="8" t="s">
         <v>846</v>
@@ -58603,13 +58603,13 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>390</v>
-      </c>
-      <c r="C951" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C951" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="D951" s="30" t="s">
-        <v>1978</v>
+      <c r="D951" s="10" t="s">
+        <v>847</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
@@ -58617,100 +58617,100 @@
       <c r="F951" s="8">
         <v>1</v>
       </c>
-      <c r="G951" s="8" t="s">
-        <v>1979</v>
+      <c r="G951" s="10" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="952" spans="1:7">
       <c r="A952" s="8">
         <v>951</v>
       </c>
-      <c r="B952" s="51">
-        <v>391</v>
-      </c>
-      <c r="C952" s="52" t="s">
+      <c r="B952" s="8">
+        <v>389</v>
+      </c>
+      <c r="C952" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D952" s="52" t="s">
-        <v>899</v>
-      </c>
-      <c r="E952" s="51">
-        <v>5</v>
-      </c>
-      <c r="F952" s="51">
-        <v>1</v>
-      </c>
-      <c r="G952" s="52" t="s">
-        <v>903</v>
+      <c r="D952" s="30" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E952" s="8">
+        <v>2</v>
+      </c>
+      <c r="F952" s="8">
+        <v>1</v>
+      </c>
+      <c r="G952" s="10" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="953" spans="1:7">
       <c r="A953" s="8">
         <v>952</v>
       </c>
-      <c r="B953" s="51">
-        <v>391</v>
-      </c>
-      <c r="C953" s="51" t="s">
+      <c r="B953" s="8">
+        <v>390</v>
+      </c>
+      <c r="C953" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D953" s="59" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E953" s="51">
-        <v>5</v>
-      </c>
-      <c r="F953" s="51">
-        <v>1</v>
-      </c>
-      <c r="G953" s="52" t="s">
-        <v>1936</v>
+      <c r="D953" s="30" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E953" s="8">
+        <v>2</v>
+      </c>
+      <c r="F953" s="8">
+        <v>1</v>
+      </c>
+      <c r="G953" s="8" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="954" spans="1:7">
       <c r="A954" s="8">
         <v>953</v>
       </c>
-      <c r="B954" s="8">
-        <v>392</v>
-      </c>
-      <c r="C954" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D954" s="8">
-        <v>1</v>
-      </c>
-      <c r="E954" s="8">
-        <v>3</v>
-      </c>
-      <c r="F954" s="8">
-        <v>1</v>
-      </c>
-      <c r="G954" s="10" t="s">
-        <v>1996</v>
+      <c r="B954" s="51">
+        <v>391</v>
+      </c>
+      <c r="C954" s="52" t="s">
+        <v>846</v>
+      </c>
+      <c r="D954" s="52" t="s">
+        <v>899</v>
+      </c>
+      <c r="E954" s="51">
+        <v>5</v>
+      </c>
+      <c r="F954" s="51">
+        <v>1</v>
+      </c>
+      <c r="G954" s="52" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="955" spans="1:7">
       <c r="A955" s="8">
         <v>954</v>
       </c>
-      <c r="B955" s="8">
-        <v>393</v>
-      </c>
-      <c r="C955" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="D955" s="8">
-        <v>0</v>
-      </c>
-      <c r="E955" s="8">
-        <v>2</v>
-      </c>
-      <c r="F955" s="8">
-        <v>1</v>
-      </c>
-      <c r="G955" s="10" t="s">
-        <v>864</v>
+      <c r="B955" s="51">
+        <v>391</v>
+      </c>
+      <c r="C955" s="51" t="s">
+        <v>846</v>
+      </c>
+      <c r="D955" s="59" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E955" s="51">
+        <v>5</v>
+      </c>
+      <c r="F955" s="51">
+        <v>1</v>
+      </c>
+      <c r="G955" s="52" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58718,22 +58718,22 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>393</v>
-      </c>
-      <c r="C956" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D956" s="30" t="s">
-        <v>1838</v>
+        <v>392</v>
+      </c>
+      <c r="C956" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D956" s="8">
+        <v>1</v>
       </c>
       <c r="E956" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>1974</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -58743,20 +58743,20 @@
       <c r="B957" s="8">
         <v>393</v>
       </c>
-      <c r="C957" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D957" s="30" t="s">
-        <v>2527</v>
+      <c r="C957" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D957" s="8">
+        <v>0</v>
       </c>
       <c r="E957" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>1974</v>
+        <v>864</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58770,7 +58770,7 @@
         <v>846</v>
       </c>
       <c r="D958" s="30" t="s">
-        <v>2554</v>
+        <v>1838</v>
       </c>
       <c r="E958" s="8">
         <v>5</v>
@@ -58787,22 +58787,22 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>394</v>
-      </c>
-      <c r="C959" s="10" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D959" s="8">
-        <v>1607356800</v>
+        <v>393</v>
+      </c>
+      <c r="C959" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D959" s="30" t="s">
+        <v>2527</v>
       </c>
       <c r="E959" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F959" s="8">
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2028</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -58810,13 +58810,13 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C960" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D960" s="30" t="s">
-        <v>1838</v>
+        <v>2554</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
@@ -58833,7 +58833,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C961" s="10" t="s">
         <v>2027</v>
@@ -58856,22 +58856,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>395</v>
-      </c>
-      <c r="C962" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D962" s="15" t="s">
-        <v>1028</v>
+        <v>394</v>
+      </c>
+      <c r="C962" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D962" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2029</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58891,7 +58891,7 @@
         <v>3</v>
       </c>
       <c r="F963" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
         <v>2028</v>
@@ -58908,38 +58908,38 @@
         <v>1022</v>
       </c>
       <c r="D964" s="15" t="s">
-        <v>1747</v>
+        <v>1028</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="965" spans="1:7">
       <c r="A965" s="8">
         <v>964</v>
       </c>
-      <c r="B965" s="14">
-        <v>396</v>
-      </c>
-      <c r="C965" s="31" t="s">
+      <c r="B965" s="8">
+        <v>395</v>
+      </c>
+      <c r="C965" s="10" t="s">
         <v>2027</v>
       </c>
-      <c r="D965" s="14">
+      <c r="D965" s="8">
         <v>1607356800</v>
       </c>
-      <c r="E965" s="14">
+      <c r="E965" s="8">
         <v>3</v>
       </c>
-      <c r="F965" s="14">
-        <v>1</v>
-      </c>
-      <c r="G965" s="31" t="s">
+      <c r="F965" s="8">
+        <v>2</v>
+      </c>
+      <c r="G965" s="10" t="s">
         <v>2028</v>
       </c>
     </row>
@@ -58948,68 +58948,68 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>397</v>
-      </c>
-      <c r="C966" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D966" s="10" t="s">
-        <v>1532</v>
+        <v>395</v>
+      </c>
+      <c r="C966" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D966" s="15" t="s">
+        <v>1747</v>
       </c>
       <c r="E966" s="8">
         <v>2</v>
       </c>
       <c r="F966" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>910</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="967" spans="1:7">
       <c r="A967" s="8">
         <v>966</v>
       </c>
-      <c r="B967" s="8">
-        <v>398</v>
-      </c>
-      <c r="C967" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D967" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="E967" s="8">
-        <v>2</v>
-      </c>
-      <c r="F967" s="8">
-        <v>1</v>
-      </c>
-      <c r="G967" s="10" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="968" spans="1:7" s="8" customFormat="1">
+      <c r="B967" s="14">
+        <v>396</v>
+      </c>
+      <c r="C967" s="31" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D967" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E967" s="14">
+        <v>3</v>
+      </c>
+      <c r="F967" s="14">
+        <v>1</v>
+      </c>
+      <c r="G967" s="31" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7">
       <c r="A968" s="8">
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>399</v>
-      </c>
-      <c r="C968" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D968" s="8">
-        <v>1</v>
+        <v>397</v>
+      </c>
+      <c r="C968" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D968" s="10" t="s">
+        <v>1532</v>
       </c>
       <c r="E968" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>1996</v>
+        <v>910</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -59017,36 +59017,36 @@
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>400</v>
-      </c>
-      <c r="C969" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D969" s="8">
-        <v>5</v>
+        <v>398</v>
+      </c>
+      <c r="C969" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D969" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="E969" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F969" s="8">
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" s="8" customFormat="1">
       <c r="A970" s="8">
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C970" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D970" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E970" s="8">
         <v>3</v>
@@ -59055,53 +59055,53 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7" s="8" customFormat="1">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
       <c r="A971" s="8">
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C971" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D971" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D971" s="8">
+        <v>5</v>
       </c>
       <c r="E971" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F971" s="8">
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7" s="8" customFormat="1">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7">
       <c r="A972" s="8">
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C972" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D972" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E972" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F972" s="8">
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2056</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59109,22 +59109,22 @@
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D973" s="8">
-        <v>0</v>
+        <v>846</v>
+      </c>
+      <c r="D973" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E973" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F973" s="8">
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2055</v>
+        <v>903</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59132,22 +59132,22 @@
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D974" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D974" s="8">
+        <v>0</v>
       </c>
       <c r="E974" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F974" s="8">
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>903</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59155,45 +59155,45 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>406</v>
-      </c>
-      <c r="C975" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D975" s="30" t="s">
-        <v>1838</v>
+        <v>404</v>
+      </c>
+      <c r="C975" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D975" s="8">
+        <v>0</v>
       </c>
       <c r="E975" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F975" s="8">
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" s="8" customFormat="1">
       <c r="A976" s="8">
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>407</v>
-      </c>
-      <c r="C976" s="8" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D976" s="44" t="s">
-        <v>2087</v>
+        <v>405</v>
+      </c>
+      <c r="C976" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D976" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E976" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F976" s="8">
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2088</v>
+        <v>903</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59201,25 +59201,25 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>407</v>
-      </c>
-      <c r="C977" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D977" s="8" t="s">
-        <v>2089</v>
+        <v>406</v>
+      </c>
+      <c r="C977" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D977" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E977" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F977" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="978" spans="1:7" s="8" customFormat="1">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A978" s="8">
         <v>977</v>
       </c>
@@ -59227,19 +59227,19 @@
         <v>407</v>
       </c>
       <c r="C978" s="8" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D978" s="10" t="s">
-        <v>2093</v>
+        <v>2086</v>
+      </c>
+      <c r="D978" s="44" t="s">
+        <v>2087</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
       </c>
       <c r="F978" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59252,17 +59252,17 @@
       <c r="C979" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D979" s="15" t="s">
-        <v>1028</v>
+      <c r="D979" s="8" t="s">
+        <v>2089</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
       </c>
       <c r="F979" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59273,16 +59273,16 @@
         <v>407</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>2086</v>
+        <v>2091</v>
       </c>
       <c r="D980" s="10" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="E980" s="8">
         <v>2</v>
       </c>
       <c r="F980" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G980" s="10" t="s">
         <v>2094</v>
@@ -59293,22 +59293,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C981" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D981" s="8" t="s">
-        <v>2089</v>
+      <c r="D981" s="15" t="s">
+        <v>1028</v>
       </c>
       <c r="E981" s="8">
         <v>2</v>
       </c>
       <c r="F981" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2111</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59316,22 +59316,22 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C982" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D982" s="30" t="s">
-        <v>2245</v>
+        <v>2086</v>
+      </c>
+      <c r="D982" s="10" t="s">
+        <v>2092</v>
       </c>
       <c r="E982" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F982" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>1974</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59339,22 +59339,22 @@
         <v>982</v>
       </c>
       <c r="B983" s="8">
-        <v>410</v>
-      </c>
-      <c r="C983" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D983" s="30" t="s">
-        <v>1838</v>
+        <v>408</v>
+      </c>
+      <c r="C983" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>2089</v>
       </c>
       <c r="E983" s="8">
         <v>2</v>
       </c>
       <c r="F983" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59362,13 +59362,13 @@
         <v>983</v>
       </c>
       <c r="B984" s="8">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C984" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D984" s="30" t="s">
-        <v>1838</v>
+        <v>2245</v>
       </c>
       <c r="E984" s="8">
         <v>5</v>
@@ -59385,7 +59385,7 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C985" s="8" t="s">
         <v>846</v>
@@ -59400,7 +59400,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59408,22 +59408,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>413</v>
-      </c>
-      <c r="C986" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D986" s="8">
-        <v>2</v>
+        <v>411</v>
+      </c>
+      <c r="C986" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D986" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E986" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>2130</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59431,22 +59431,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>414</v>
-      </c>
-      <c r="C987" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="D987" s="8">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="C987" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D987" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E987" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F987" s="8">
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59454,22 +59454,22 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>415</v>
-      </c>
-      <c r="C988" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D988" s="30" t="s">
-        <v>2137</v>
+        <v>413</v>
+      </c>
+      <c r="C988" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D988" s="8">
+        <v>2</v>
       </c>
       <c r="E988" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F988" s="8">
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59477,13 +59477,13 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>415</v>
-      </c>
-      <c r="C989" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="D989" s="10">
-        <v>86400</v>
+        <v>414</v>
+      </c>
+      <c r="C989" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D989" s="8">
+        <v>2</v>
       </c>
       <c r="E989" s="8">
         <v>3</v>
@@ -59492,7 +59492,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>936</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59500,13 +59500,13 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>416</v>
-      </c>
-      <c r="C990" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D990" s="8">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="C990" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D990" s="30" t="s">
+        <v>2137</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -59515,7 +59515,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59523,22 +59523,22 @@
         <v>990</v>
       </c>
       <c r="B991" s="8">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C991" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D991" s="30" t="s">
-        <v>1838</v>
+        <v>875</v>
+      </c>
+      <c r="D991" s="10">
+        <v>86400</v>
       </c>
       <c r="E991" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F991" s="8">
         <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>1974</v>
+        <v>936</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59546,13 +59546,13 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D992" s="10" t="s">
-        <v>2151</v>
+        <v>1116</v>
+      </c>
+      <c r="D992" s="8">
+        <v>0</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
@@ -59561,7 +59561,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59569,22 +59569,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="8">
-        <v>418</v>
-      </c>
-      <c r="C993" s="10" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D993" s="10" t="s">
-        <v>2087</v>
+        <v>417</v>
+      </c>
+      <c r="C993" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D993" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E993" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F993" s="8">
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2153</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59595,19 +59595,19 @@
         <v>418</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D994" s="8" t="s">
-        <v>2154</v>
+        <v>2163</v>
+      </c>
+      <c r="D994" s="10" t="s">
+        <v>2151</v>
       </c>
       <c r="E994" s="8">
         <v>2</v>
       </c>
       <c r="F994" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59618,7 +59618,7 @@
         <v>418</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>2156</v>
+        <v>2086</v>
       </c>
       <c r="D995" s="10" t="s">
         <v>2087</v>
@@ -59627,10 +59627,10 @@
         <v>2</v>
       </c>
       <c r="F995" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59641,19 +59641,19 @@
         <v>418</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="E996" s="8">
         <v>2</v>
       </c>
       <c r="F996" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59664,7 +59664,7 @@
         <v>418</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>2086</v>
+        <v>2156</v>
       </c>
       <c r="D997" s="10" t="s">
         <v>2087</v>
@@ -59673,10 +59673,10 @@
         <v>2</v>
       </c>
       <c r="F997" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59684,22 +59684,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D998" s="15" t="s">
-        <v>2033</v>
+        <v>2165</v>
+      </c>
+      <c r="D998" s="8" t="s">
+        <v>2158</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
       </c>
       <c r="F998" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2035</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59707,22 +59707,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>419</v>
-      </c>
-      <c r="C999" s="8" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D999" s="8">
-        <v>600</v>
+        <v>418</v>
+      </c>
+      <c r="C999" s="10" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D999" s="10" t="s">
+        <v>2087</v>
       </c>
       <c r="E999" s="8">
+        <v>2</v>
+      </c>
+      <c r="F999" s="8">
         <v>3</v>
       </c>
-      <c r="F999" s="8">
-        <v>1</v>
-      </c>
       <c r="G999" s="10" t="s">
-        <v>2349</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59730,13 +59730,13 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1000" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="D1000" s="15" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E1000" s="8">
         <v>2</v>
@@ -59745,7 +59745,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59753,7 +59753,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1001" s="8" t="s">
         <v>2173</v>
@@ -59768,7 +59768,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59776,22 +59776,22 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="8">
-        <v>421</v>
-      </c>
-      <c r="C1002" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1002" s="30" t="s">
-        <v>1838</v>
+        <v>420</v>
+      </c>
+      <c r="C1002" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1002" s="15" t="s">
+        <v>2032</v>
       </c>
       <c r="E1002" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>1974</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59799,22 +59799,22 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>422</v>
-      </c>
-      <c r="C1003" s="10" t="s">
-        <v>1116</v>
+        <v>420</v>
+      </c>
+      <c r="C1003" s="8" t="s">
+        <v>2173</v>
       </c>
       <c r="D1003" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E1003" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2188</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59822,22 +59822,22 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>423</v>
-      </c>
-      <c r="C1004" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1004" s="8">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="C1004" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1004" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1004" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2186</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59845,22 +59845,22 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1005" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1005" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1005" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59868,13 +59868,13 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1006" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1006" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1006" s="8">
         <v>3</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59891,13 +59891,13 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1007" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1007" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1007" s="8">
         <v>4</v>
@@ -59906,7 +59906,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59914,13 +59914,13 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1008" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1008" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1008" s="8">
         <v>3</v>
@@ -59929,30 +59929,30 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>1991</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
       <c r="A1009" s="8">
         <v>1008</v>
       </c>
-      <c r="B1009" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1009" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1009" s="30" t="s">
-        <v>1838</v>
+      <c r="B1009" s="8">
+        <v>424</v>
+      </c>
+      <c r="C1009" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1009" s="8">
+        <v>7</v>
       </c>
       <c r="E1009" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59960,30 +59960,30 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C1010" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1010" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1010" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2188</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
       <c r="A1011" s="8">
         <v>1010</v>
       </c>
-      <c r="B1011" s="8">
-        <v>427</v>
+      <c r="B1011" s="16">
+        <v>426</v>
       </c>
       <c r="C1011" s="8" t="s">
         <v>846</v>
@@ -60006,22 +60006,22 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="8">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C1012" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1012" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1012" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60029,22 +60029,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1013" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1013" s="8">
-        <v>3</v>
+        <v>427</v>
+      </c>
+      <c r="C1013" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1013" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1013" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60054,20 +60054,20 @@
       <c r="B1014" s="8">
         <v>428</v>
       </c>
-      <c r="C1014" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1014" s="30" t="s">
-        <v>1838</v>
+      <c r="C1014" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>1</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60075,22 +60075,22 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1015" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1015" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1015" s="8">
         <v>4</v>
       </c>
-      <c r="E1015" s="8">
-        <v>3</v>
-      </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>1227</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60098,22 +60098,22 @@
         <v>1015</v>
       </c>
       <c r="B1016" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1016" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1016" s="8">
-        <v>7</v>
+        <v>428</v>
+      </c>
+      <c r="C1016" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1016" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1016" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60123,20 +60123,20 @@
       <c r="B1017" s="8">
         <v>429</v>
       </c>
-      <c r="C1017" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1017" s="30" t="s">
-        <v>1838</v>
+      <c r="C1017" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1017" s="8">
+        <v>4</v>
       </c>
       <c r="E1017" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1017" s="8">
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2187</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60144,22 +60144,22 @@
         <v>1017</v>
       </c>
       <c r="B1018" s="8">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1018" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1018" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1018" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1018" s="8">
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>1226</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60167,7 +60167,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" s="8">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1019" s="8" t="s">
         <v>846</v>
@@ -60190,68 +60190,68 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="8">
-        <v>431</v>
-      </c>
-      <c r="C1020" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1020" s="30" t="s">
-        <v>1838</v>
+        <v>430</v>
+      </c>
+      <c r="C1020" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1020" s="8">
+        <v>8</v>
       </c>
       <c r="E1020" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1020" s="8">
         <v>1</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>2187</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
       <c r="A1021" s="8">
         <v>1020</v>
       </c>
-      <c r="B1021" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1021" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1021" s="8">
-        <v>0</v>
+      <c r="B1021" s="8">
+        <v>430</v>
+      </c>
+      <c r="C1021" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1021" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1021" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1021" s="8">
         <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
       <c r="A1022" s="8">
         <v>1021</v>
       </c>
-      <c r="B1022" s="16">
-        <v>432</v>
+      <c r="B1022" s="8">
+        <v>431</v>
       </c>
       <c r="C1022" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1022" s="10" t="s">
-        <v>1532</v>
+      <c r="D1022" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1022" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1022" s="8">
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2246</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60271,7 +60271,7 @@
         <v>2</v>
       </c>
       <c r="F1023" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
         <v>2188</v>
@@ -60288,16 +60288,16 @@
         <v>846</v>
       </c>
       <c r="D1024" s="10" t="s">
-        <v>915</v>
+        <v>1532</v>
       </c>
       <c r="E1024" s="8">
         <v>2</v>
       </c>
       <c r="F1024" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60317,7 +60317,7 @@
         <v>2</v>
       </c>
       <c r="F1025" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1025" s="10" t="s">
         <v>2188</v>
@@ -60333,17 +60333,17 @@
       <c r="C1026" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1026" s="30" t="s">
-        <v>1838</v>
+      <c r="D1026" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="E1026" s="8">
         <v>2</v>
       </c>
       <c r="F1026" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2242</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60354,19 +60354,19 @@
         <v>432</v>
       </c>
       <c r="C1027" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1027" s="10" t="s">
-        <v>2244</v>
+        <v>1116</v>
+      </c>
+      <c r="D1027" s="8">
+        <v>0</v>
       </c>
       <c r="E1027" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1027" s="8">
         <v>3</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2243</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60374,22 +60374,22 @@
         <v>1027</v>
       </c>
       <c r="B1028" s="16">
-        <v>433</v>
-      </c>
-      <c r="C1028" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1028" s="8">
-        <v>1</v>
+        <v>432</v>
+      </c>
+      <c r="C1028" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1028" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1028" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1028" s="8">
         <v>3</v>
       </c>
-      <c r="F1028" s="8">
-        <v>1</v>
-      </c>
       <c r="G1028" s="10" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60397,22 +60397,22 @@
         <v>1028</v>
       </c>
       <c r="B1029" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1029" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1029" s="8">
-        <v>7</v>
+        <v>846</v>
+      </c>
+      <c r="D1029" s="10" t="s">
+        <v>2244</v>
       </c>
       <c r="E1029" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1029" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60422,20 +60422,20 @@
       <c r="B1030" s="16">
         <v>433</v>
       </c>
-      <c r="C1030" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1030" s="10" t="s">
-        <v>1532</v>
+      <c r="C1030" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1030" s="8">
+        <v>1</v>
       </c>
       <c r="E1030" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1030" s="8">
         <v>1</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60449,16 +60449,16 @@
         <v>1116</v>
       </c>
       <c r="D1031" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1031" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1031" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60468,20 +60468,20 @@
       <c r="B1032" s="16">
         <v>433</v>
       </c>
-      <c r="C1032" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1032" s="8">
-        <v>7</v>
+      <c r="C1032" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1032" s="10" t="s">
+        <v>1532</v>
       </c>
       <c r="E1032" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1032" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60491,20 +60491,20 @@
       <c r="B1033" s="16">
         <v>433</v>
       </c>
-      <c r="C1033" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1033" s="10" t="s">
-        <v>915</v>
+      <c r="C1033" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1033" s="8">
+        <v>1</v>
       </c>
       <c r="E1033" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1033" s="8">
         <v>2</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60518,16 +60518,16 @@
         <v>1116</v>
       </c>
       <c r="D1034" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1034" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1034" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2188</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60537,20 +60537,20 @@
       <c r="B1035" s="16">
         <v>433</v>
       </c>
-      <c r="C1035" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1035" s="8">
-        <v>7</v>
+      <c r="C1035" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1035" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="E1035" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1035" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60560,20 +60560,20 @@
       <c r="B1036" s="16">
         <v>433</v>
       </c>
-      <c r="C1036" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1036" s="30" t="s">
-        <v>1838</v>
+      <c r="C1036" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1036" s="8">
+        <v>1</v>
       </c>
       <c r="E1036" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1036" s="8">
         <v>3</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2242</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60584,19 +60584,19 @@
         <v>433</v>
       </c>
       <c r="C1037" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1037" s="10" t="s">
-        <v>2244</v>
+        <v>1116</v>
+      </c>
+      <c r="D1037" s="8">
+        <v>7</v>
       </c>
       <c r="E1037" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1037" s="8">
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2243</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60604,22 +60604,22 @@
         <v>1037</v>
       </c>
       <c r="B1038" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1038" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1038" s="8">
-        <v>8</v>
+        <v>433</v>
+      </c>
+      <c r="C1038" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1038" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1038" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1038" s="8">
         <v>3</v>
       </c>
-      <c r="F1038" s="8">
-        <v>1</v>
-      </c>
       <c r="G1038" s="10" t="s">
-        <v>2251</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60627,22 +60627,22 @@
         <v>1038</v>
       </c>
       <c r="B1039" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1039" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1039" s="10" t="s">
         <v>846</v>
       </c>
       <c r="D1039" s="10" t="s">
-        <v>1532</v>
+        <v>2244</v>
       </c>
       <c r="E1039" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1039" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60662,7 +60662,7 @@
         <v>3</v>
       </c>
       <c r="F1040" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1040" s="10" t="s">
         <v>2251</v>
@@ -60679,16 +60679,16 @@
         <v>846</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>915</v>
+        <v>1532</v>
       </c>
       <c r="E1041" s="8">
         <v>2</v>
       </c>
       <c r="F1041" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60708,7 +60708,7 @@
         <v>3</v>
       </c>
       <c r="F1042" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1042" s="10" t="s">
         <v>2251</v>
@@ -60724,17 +60724,17 @@
       <c r="C1043" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1043" s="30" t="s">
-        <v>1838</v>
+      <c r="D1043" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="E1043" s="8">
         <v>2</v>
       </c>
       <c r="F1043" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>2242</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60745,65 +60745,65 @@
         <v>434</v>
       </c>
       <c r="C1044" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1044" s="10" t="s">
-        <v>2244</v>
+        <v>1116</v>
+      </c>
+      <c r="D1044" s="8">
+        <v>8</v>
       </c>
       <c r="E1044" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1044" s="8">
         <v>3</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>2243</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
       <c r="A1045" s="8">
         <v>1044</v>
       </c>
-      <c r="B1045" s="8">
-        <v>435</v>
-      </c>
-      <c r="C1045" s="10" t="s">
+      <c r="B1045" s="16">
+        <v>434</v>
+      </c>
+      <c r="C1045" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1045" s="10" t="s">
-        <v>899</v>
+      <c r="D1045" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1045" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1045" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>903</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
       <c r="A1046" s="8">
         <v>1045</v>
       </c>
-      <c r="B1046" s="8">
-        <v>436</v>
+      <c r="B1046" s="16">
+        <v>434</v>
       </c>
       <c r="C1046" s="10" t="s">
         <v>846</v>
       </c>
       <c r="D1046" s="10" t="s">
-        <v>851</v>
+        <v>2244</v>
       </c>
       <c r="E1046" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1046" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>902</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60811,22 +60811,22 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="8">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1047" s="10" t="s">
         <v>846</v>
       </c>
       <c r="D1047" s="10" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="E1047" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1047" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60840,16 +60840,16 @@
         <v>846</v>
       </c>
       <c r="D1048" s="10" t="s">
-        <v>1204</v>
+        <v>851</v>
       </c>
       <c r="E1048" s="8">
         <v>2</v>
       </c>
       <c r="F1048" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>1237</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60857,22 +60857,22 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1049" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1049" s="8">
-        <v>1</v>
+        <v>846</v>
+      </c>
+      <c r="D1049" s="10" t="s">
+        <v>855</v>
       </c>
       <c r="E1049" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1049" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>1330</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60880,22 +60880,22 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1050" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1050" s="8">
+        <v>846</v>
+      </c>
+      <c r="D1050" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1050" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="8">
         <v>3</v>
       </c>
-      <c r="E1050" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1050" s="8">
-        <v>1</v>
-      </c>
       <c r="G1050" s="10" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60906,19 +60906,19 @@
         <v>437</v>
       </c>
       <c r="C1051" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1051" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1051" s="8">
+        <v>1</v>
       </c>
       <c r="E1051" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>903</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60926,22 +60926,22 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1052" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1052" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1052" s="8">
         <v>4</v>
       </c>
-      <c r="E1052" s="8">
-        <v>3</v>
-      </c>
       <c r="F1052" s="8">
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60949,22 +60949,22 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1053" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1053" s="8">
-        <v>7</v>
+        <v>846</v>
+      </c>
+      <c r="D1053" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E1053" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1053" s="8">
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>1333</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -60975,19 +60975,19 @@
         <v>438</v>
       </c>
       <c r="C1054" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1054" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1054" s="8">
+        <v>4</v>
       </c>
       <c r="E1054" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1054" s="8">
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>903</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1055" spans="1:7" s="8" customFormat="1">
@@ -60995,22 +60995,22 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1055" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1055" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1055" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1055" s="8">
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1056" spans="1:7" s="8" customFormat="1">
@@ -61018,22 +61018,22 @@
         <v>1055</v>
       </c>
       <c r="B1056" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1056" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1056" s="8">
-        <v>12</v>
+        <v>846</v>
+      </c>
+      <c r="D1056" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E1056" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1056" s="8">
         <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>1335</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1057" spans="1:7" s="8" customFormat="1">
@@ -61044,19 +61044,19 @@
         <v>439</v>
       </c>
       <c r="C1057" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1057" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1057" s="8">
+        <v>8</v>
       </c>
       <c r="E1057" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1057" s="8">
         <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>903</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1058" spans="1:7" s="8" customFormat="1">
@@ -61064,22 +61064,22 @@
         <v>1057</v>
       </c>
       <c r="B1058" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1058" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1058" s="30" t="s">
-        <v>1838</v>
+        <v>439</v>
+      </c>
+      <c r="C1058" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1058" s="8">
+        <v>12</v>
       </c>
       <c r="E1058" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1058" s="8">
         <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>2187</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1059" spans="1:7" s="8" customFormat="1">
@@ -61087,68 +61087,68 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="8">
-        <v>441</v>
-      </c>
-      <c r="C1059" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1059" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="D1059" s="30" t="s">
-        <v>1838</v>
+      <c r="D1059" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E1059" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1059" s="8">
         <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" s="8" customFormat="1">
       <c r="A1060" s="8">
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1060" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1060" s="15" t="s">
-        <v>1028</v>
+        <v>440</v>
+      </c>
+      <c r="C1060" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1060" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1060" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1060" s="8">
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:7">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" s="8" customFormat="1">
       <c r="A1061" s="8">
         <v>1060</v>
       </c>
       <c r="B1061" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1061" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1061" s="8" t="s">
-        <v>2089</v>
+        <v>441</v>
+      </c>
+      <c r="C1061" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1061" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1061" s="8">
         <v>2</v>
       </c>
       <c r="F1061" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61161,17 +61161,17 @@
       <c r="C1062" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D1062" s="10" t="s">
-        <v>2302</v>
+      <c r="D1062" s="15" t="s">
+        <v>1028</v>
       </c>
       <c r="E1062" s="8">
         <v>2</v>
       </c>
       <c r="F1062" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2303</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61179,22 +61179,22 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1063" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D1063" s="10" t="s">
-        <v>2305</v>
+      <c r="D1063" s="8" t="s">
+        <v>2089</v>
       </c>
       <c r="E1063" s="8">
         <v>2</v>
       </c>
       <c r="F1063" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2308</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61202,22 +61202,22 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1064" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E1064" s="8">
         <v>2</v>
       </c>
       <c r="F1064" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61231,16 +61231,16 @@
         <v>1022</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
       </c>
       <c r="F1065" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61248,22 +61248,22 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1066" s="8" t="s">
-        <v>846</v>
+        <v>443</v>
+      </c>
+      <c r="C1066" s="10" t="s">
+        <v>1022</v>
       </c>
       <c r="D1066" s="10" t="s">
-        <v>1532</v>
+        <v>2304</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
       </c>
       <c r="F1066" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2246</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61271,22 +61271,22 @@
         <v>1066</v>
       </c>
       <c r="B1067" s="8">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1067" s="10" t="s">
-        <v>846</v>
+        <v>1022</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>1204</v>
+        <v>2307</v>
       </c>
       <c r="E1067" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1067" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>2340</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61300,16 +61300,16 @@
         <v>846</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>915</v>
+        <v>1532</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
       </c>
       <c r="F1068" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61329,7 +61329,7 @@
         <v>5</v>
       </c>
       <c r="F1069" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1069" s="10" t="s">
         <v>2340</v>
@@ -61340,22 +61340,22 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="8">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1070" s="30" t="s">
-        <v>1838</v>
+      <c r="D1070" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="E1070" s="8">
         <v>2</v>
       </c>
       <c r="F1070" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>2115</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61363,22 +61363,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1071" s="10" t="s">
         <v>846</v>
       </c>
       <c r="D1071" s="10" t="s">
-        <v>851</v>
+        <v>1204</v>
       </c>
       <c r="E1071" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1071" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>902</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61386,22 +61386,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1072" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1072" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1072" s="10" t="s">
-        <v>855</v>
+      <c r="D1072" s="30" t="s">
+        <v>1838</v>
       </c>
       <c r="E1072" s="8">
         <v>2</v>
       </c>
       <c r="F1072" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>898</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61415,16 +61415,16 @@
         <v>846</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>1204</v>
+        <v>851</v>
       </c>
       <c r="E1073" s="8">
         <v>2</v>
       </c>
       <c r="F1073" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>1237</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61432,22 +61432,22 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1074" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1074" s="8">
-        <v>1</v>
+        <v>846</v>
+      </c>
+      <c r="D1074" s="10" t="s">
+        <v>855</v>
       </c>
       <c r="E1074" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1074" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>1330</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61455,22 +61455,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1075" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1075" s="8">
+        <v>846</v>
+      </c>
+      <c r="D1075" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1075" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="8">
         <v>3</v>
       </c>
-      <c r="E1075" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1075" s="8">
-        <v>1</v>
-      </c>
       <c r="G1075" s="10" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61481,19 +61481,19 @@
         <v>447</v>
       </c>
       <c r="C1076" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1076" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1076" s="8">
+        <v>1</v>
       </c>
       <c r="E1076" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>903</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61501,22 +61501,22 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1077" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1077" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1077" s="8">
         <v>4</v>
       </c>
-      <c r="E1077" s="8">
-        <v>3</v>
-      </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61524,22 +61524,22 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1078" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1078" s="8">
-        <v>7</v>
+        <v>846</v>
+      </c>
+      <c r="D1078" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E1078" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1078" s="8">
         <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>1333</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61550,19 +61550,19 @@
         <v>448</v>
       </c>
       <c r="C1079" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1079" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1079" s="8">
+        <v>4</v>
       </c>
       <c r="E1079" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1079" s="8">
         <v>1</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>903</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -61570,22 +61570,22 @@
         <v>1079</v>
       </c>
       <c r="B1080" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1080" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1080" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1080" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1080" s="8">
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1081" spans="1:7">
@@ -61593,22 +61593,22 @@
         <v>1080</v>
       </c>
       <c r="B1081" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1081" s="8">
-        <v>12</v>
+        <v>846</v>
+      </c>
+      <c r="D1081" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="E1081" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>1335</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -61619,19 +61619,19 @@
         <v>449</v>
       </c>
       <c r="C1082" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1082" s="10" t="s">
-        <v>899</v>
+        <v>1116</v>
+      </c>
+      <c r="D1082" s="8">
+        <v>8</v>
       </c>
       <c r="E1082" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1082" s="8">
         <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>903</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -61639,22 +61639,22 @@
         <v>1082</v>
       </c>
       <c r="B1083" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1083" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1083" s="10" t="s">
-        <v>1532</v>
+        <v>449</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1083" s="8">
+        <v>12</v>
       </c>
       <c r="E1083" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1083" s="8">
         <v>1</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>2246</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61662,68 +61662,68 @@
         <v>1083</v>
       </c>
       <c r="B1084" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1084" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1084" s="10" t="s">
         <v>846</v>
       </c>
       <c r="D1084" s="10" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="E1084" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1084" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:7" s="8" customFormat="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7">
       <c r="A1085" s="8">
         <v>1084</v>
       </c>
       <c r="B1085" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1085" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1085" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D1085" s="10" t="s">
-        <v>899</v>
+        <v>1532</v>
       </c>
       <c r="E1085" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1085" s="8">
         <v>1</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7" s="8" customFormat="1">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7">
       <c r="A1086" s="8">
         <v>1085</v>
       </c>
       <c r="B1086" s="8">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C1086" s="8" t="s">
         <v>846</v>
       </c>
       <c r="D1086" s="10" t="s">
-        <v>1532</v>
+        <v>915</v>
       </c>
       <c r="E1086" s="8">
         <v>2</v>
       </c>
       <c r="F1086" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1087" spans="1:7" s="8" customFormat="1">
@@ -61743,7 +61743,7 @@
         <v>5</v>
       </c>
       <c r="F1087" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1087" s="10" t="s">
         <v>903</v>
@@ -61760,61 +61760,61 @@
         <v>846</v>
       </c>
       <c r="D1088" s="10" t="s">
-        <v>915</v>
+        <v>1532</v>
       </c>
       <c r="E1088" s="8">
         <v>2</v>
       </c>
       <c r="F1088" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:7">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" s="8" customFormat="1">
       <c r="A1089" s="8">
         <v>1088</v>
       </c>
-      <c r="B1089" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1089" s="65" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1089" s="65" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E1089" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1089" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1089" s="65" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7">
+      <c r="B1089" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1089" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1089" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1089" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1089" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1089" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" s="8" customFormat="1">
       <c r="A1090" s="8">
         <v>1089</v>
       </c>
-      <c r="B1090" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1090" s="64" t="s">
+      <c r="B1090" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1090" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D1090" s="65" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E1090" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1090" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1090" s="65" t="s">
+      <c r="D1090" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1090" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1090" s="10" t="s">
         <v>2247</v>
       </c>
     </row>
@@ -61826,10 +61826,10 @@
         <v>452</v>
       </c>
       <c r="C1091" s="65" t="s">
-        <v>846</v>
+        <v>1022</v>
       </c>
       <c r="D1091" s="65" t="s">
-        <v>899</v>
+        <v>1049</v>
       </c>
       <c r="E1091" s="64">
         <v>2</v>
@@ -61838,7 +61838,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2362</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61846,13 +61846,13 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1092" s="65" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1092" s="62" t="s">
-        <v>1028</v>
+        <v>452</v>
+      </c>
+      <c r="C1092" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1092" s="65" t="s">
+        <v>2552</v>
       </c>
       <c r="E1092" s="64">
         <v>2</v>
@@ -61861,7 +61861,7 @@
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2095</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61869,13 +61869,13 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1093" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1093" s="65" t="s">
         <v>846</v>
       </c>
       <c r="D1093" s="65" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="E1093" s="64">
         <v>2</v>
@@ -61884,7 +61884,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2247</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61895,10 +61895,10 @@
         <v>453</v>
       </c>
       <c r="C1094" s="65" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1094" s="65" t="s">
-        <v>899</v>
+        <v>1022</v>
+      </c>
+      <c r="D1094" s="62" t="s">
+        <v>1028</v>
       </c>
       <c r="E1094" s="64">
         <v>2</v>
@@ -61907,7 +61907,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2362</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61915,7 +61915,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="64">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1095" s="64" t="s">
         <v>846</v>
@@ -61938,22 +61938,22 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1096" s="64" t="s">
-        <v>875</v>
-      </c>
-      <c r="D1096" s="68">
-        <v>691200</v>
+        <v>453</v>
+      </c>
+      <c r="C1096" s="65" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1096" s="65" t="s">
+        <v>899</v>
       </c>
       <c r="E1096" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1096" s="64">
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61963,20 +61963,20 @@
       <c r="B1097" s="64">
         <v>454</v>
       </c>
-      <c r="C1097" s="65" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D1097" s="70">
-        <v>1615246200</v>
+      <c r="C1097" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1097" s="65" t="s">
+        <v>915</v>
       </c>
       <c r="E1097" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1097" s="64">
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2372</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61984,22 +61984,22 @@
         <v>1097</v>
       </c>
       <c r="B1098" s="64">
-        <v>455</v>
-      </c>
-      <c r="C1098" s="65" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1098" s="62" t="s">
-        <v>1028</v>
+        <v>454</v>
+      </c>
+      <c r="C1098" s="64" t="s">
+        <v>875</v>
+      </c>
+      <c r="D1098" s="68">
+        <v>691200</v>
       </c>
       <c r="E1098" s="64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1098" s="64">
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2095</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62007,22 +62007,22 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="64">
-        <v>455</v>
-      </c>
-      <c r="C1099" s="64" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1099" s="65" t="s">
-        <v>915</v>
+        <v>454</v>
+      </c>
+      <c r="C1099" s="65" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1099" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1099" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1099" s="64">
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2247</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62033,19 +62033,19 @@
         <v>455</v>
       </c>
       <c r="C1100" s="65" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D1100" s="70">
-        <v>1615246200</v>
+        <v>1022</v>
+      </c>
+      <c r="D1100" s="62" t="s">
+        <v>1028</v>
       </c>
       <c r="E1100" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1100" s="64">
         <v>1</v>
       </c>
       <c r="G1100" s="65" t="s">
-        <v>2372</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62053,13 +62053,13 @@
         <v>1100</v>
       </c>
       <c r="B1101" s="64">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1101" s="64" t="s">
         <v>846</v>
       </c>
       <c r="D1101" s="65" t="s">
-        <v>1532</v>
+        <v>915</v>
       </c>
       <c r="E1101" s="64">
         <v>2</v>
@@ -62068,7 +62068,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62076,22 +62076,22 @@
         <v>1101</v>
       </c>
       <c r="B1102" s="64">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1102" s="65" t="s">
-        <v>2434</v>
-      </c>
-      <c r="D1102" s="62" t="s">
-        <v>2377</v>
+        <v>1811</v>
+      </c>
+      <c r="D1102" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1102" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1102" s="64">
         <v>1</v>
       </c>
       <c r="G1102" s="65" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62101,11 +62101,11 @@
       <c r="B1103" s="64">
         <v>456</v>
       </c>
-      <c r="C1103" s="65" t="s">
-        <v>2533</v>
+      <c r="C1103" s="64" t="s">
+        <v>846</v>
       </c>
       <c r="D1103" s="65" t="s">
-        <v>2535</v>
+        <v>1532</v>
       </c>
       <c r="E1103" s="64">
         <v>2</v>
@@ -62114,44 +62114,44 @@
         <v>1</v>
       </c>
       <c r="G1103" s="65" t="s">
-        <v>2537</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
       <c r="A1104" s="8">
         <v>1103</v>
       </c>
-      <c r="B1104" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1104" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1104" s="10" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E1104" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1104" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1104" s="10" t="s">
-        <v>2246</v>
+      <c r="B1104" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1104" s="65" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D1104" s="62" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E1104" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="65" t="s">
+        <v>2378</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
       <c r="A1105" s="8">
         <v>1104</v>
       </c>
-      <c r="B1105" s="9">
-        <v>458</v>
+      <c r="B1105" s="64">
+        <v>456</v>
       </c>
       <c r="C1105" s="65" t="s">
-        <v>2514</v>
+        <v>2533</v>
       </c>
       <c r="D1105" s="65" t="s">
-        <v>915</v>
+        <v>2535</v>
       </c>
       <c r="E1105" s="64">
         <v>2</v>
@@ -62160,7 +62160,7 @@
         <v>1</v>
       </c>
       <c r="G1105" s="65" t="s">
-        <v>2247</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62168,22 +62168,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1106" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1106" s="8">
-        <v>4</v>
+        <v>457</v>
+      </c>
+      <c r="C1106" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1106" s="10" t="s">
+        <v>1532</v>
       </c>
       <c r="E1106" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1106" s="8">
         <v>1</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>1332</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62191,22 +62191,22 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1107" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1107" s="8">
-        <v>12</v>
-      </c>
-      <c r="E1107" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1107" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="10" t="s">
-        <v>1335</v>
+        <v>458</v>
+      </c>
+      <c r="C1107" s="65" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1107" s="65" t="s">
+        <v>915</v>
+      </c>
+      <c r="E1107" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1107" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="65" t="s">
+        <v>2247</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62214,22 +62214,22 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="9">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1108" s="10" t="s">
         <v>1116</v>
       </c>
       <c r="D1108" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1108" s="8">
         <v>3</v>
       </c>
-      <c r="E1108" s="8">
-        <v>4</v>
-      </c>
       <c r="F1108" s="8">
         <v>1</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -62237,22 +62237,22 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1109" s="8" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D1109" s="10" t="s">
-        <v>2092</v>
+        <v>459</v>
+      </c>
+      <c r="C1109" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1109" s="8">
+        <v>12</v>
       </c>
       <c r="E1109" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1109" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>2394</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -62260,22 +62260,22 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1110" s="26" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D1110" s="26" t="s">
-        <v>2433</v>
-      </c>
-      <c r="E1110" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1110" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1110" s="26" t="s">
-        <v>2435</v>
+        <v>460</v>
+      </c>
+      <c r="C1110" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1110" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1110" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="10" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62283,22 +62283,22 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1111" s="26" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D1111" s="9" t="s">
-        <v>2440</v>
-      </c>
-      <c r="E1111" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1111" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="26" t="s">
-        <v>2441</v>
+        <v>461</v>
+      </c>
+      <c r="C1111" s="8" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1111" s="10" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1111" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1111" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1111" s="10" t="s">
+        <v>2394</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62306,22 +62306,22 @@
         <v>1111</v>
       </c>
       <c r="B1112" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1112" s="8" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D1112" s="10" t="s">
-        <v>2092</v>
+        <v>462</v>
+      </c>
+      <c r="C1112" s="26" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D1112" s="26" t="s">
+        <v>2433</v>
       </c>
       <c r="E1112" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1112" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2442</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62329,59 +62329,59 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1113" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D1113" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1113" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="10" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7" s="8" customFormat="1">
+        <v>463</v>
+      </c>
+      <c r="C1113" s="26" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1113" s="9" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="26" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7">
       <c r="A1114" s="8">
         <v>1113</v>
       </c>
-      <c r="B1114" s="8">
-        <v>465</v>
-      </c>
-      <c r="C1114" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="D1114" s="8">
-        <v>10</v>
-      </c>
-      <c r="E1114" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1114" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="10" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7" s="8" customFormat="1">
+      <c r="B1114" s="9">
+        <v>463</v>
+      </c>
+      <c r="C1114" s="8" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1114" s="10" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1114" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="26" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
       <c r="A1115" s="8">
         <v>1114</v>
       </c>
-      <c r="B1115" s="8">
-        <v>466</v>
+      <c r="B1115" s="9">
+        <v>464</v>
       </c>
       <c r="C1115" s="10" t="s">
-        <v>859</v>
+        <v>1116</v>
       </c>
       <c r="D1115" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1115" s="8">
         <v>3</v>
@@ -62390,7 +62390,7 @@
         <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>2511</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1116" spans="1:7" s="8" customFormat="1">
@@ -62398,13 +62398,13 @@
         <v>1115</v>
       </c>
       <c r="B1116" s="8">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1116" s="10" t="s">
         <v>859</v>
       </c>
       <c r="D1116" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1116" s="8">
         <v>3</v>
@@ -62413,53 +62413,53 @@
         <v>1</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" s="8" customFormat="1">
       <c r="A1117" s="8">
         <v>1116</v>
       </c>
       <c r="B1117" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1117" s="26" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D1117" s="26" t="s">
-        <v>2519</v>
-      </c>
-      <c r="E1117" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1117" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="26" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7">
+        <v>466</v>
+      </c>
+      <c r="C1117" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D1117" s="8">
+        <v>11</v>
+      </c>
+      <c r="E1117" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="10" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" s="8" customFormat="1">
       <c r="A1118" s="8">
         <v>1117</v>
       </c>
       <c r="B1118" s="8">
-        <v>469</v>
-      </c>
-      <c r="C1118" s="26" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D1118" s="26" t="s">
-        <v>2519</v>
-      </c>
-      <c r="E1118" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1118" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="26" t="s">
-        <v>2524</v>
+        <v>467</v>
+      </c>
+      <c r="C1118" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D1118" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1118" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1118" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="10" t="s">
+        <v>2512</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -62467,22 +62467,22 @@
         <v>1118</v>
       </c>
       <c r="B1119" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1119" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1119" s="30" t="s">
-        <v>2527</v>
-      </c>
-      <c r="E1119" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1119" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1119" s="10" t="s">
-        <v>2528</v>
+        <v>468</v>
+      </c>
+      <c r="C1119" s="26" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D1119" s="26" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E1119" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1119" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="26" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -62490,30 +62490,30 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1120" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1120" s="30" t="s">
-        <v>2554</v>
-      </c>
-      <c r="E1120" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1120" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1120" s="10" t="s">
-        <v>2528</v>
+        <v>469</v>
+      </c>
+      <c r="C1120" s="26" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D1120" s="26" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E1120" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1120" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1120" s="26" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
       <c r="A1121" s="8">
         <v>1120</v>
       </c>
-      <c r="B1121" s="9">
-        <v>471</v>
+      <c r="B1121" s="8">
+        <v>470</v>
       </c>
       <c r="C1121" s="8" t="s">
         <v>846</v>
@@ -62535,23 +62535,23 @@
       <c r="A1122" s="8">
         <v>1121</v>
       </c>
-      <c r="B1122" s="9">
-        <v>471</v>
-      </c>
-      <c r="C1122" s="26" t="s">
-        <v>2534</v>
-      </c>
-      <c r="D1122" s="26" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E1122" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1122" s="26" t="s">
-        <v>2538</v>
+      <c r="B1122" s="8">
+        <v>470</v>
+      </c>
+      <c r="C1122" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1122" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E1122" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1122" s="10" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -62565,13 +62565,13 @@
         <v>846</v>
       </c>
       <c r="D1123" s="30" t="s">
-        <v>2554</v>
+        <v>2527</v>
       </c>
       <c r="E1123" s="8">
         <v>2</v>
       </c>
       <c r="F1123" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1123" s="10" t="s">
         <v>2528</v>
@@ -62585,23 +62585,69 @@
         <v>471</v>
       </c>
       <c r="C1124" s="26" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1124" s="26" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1124" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="26" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="A1125" s="8">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1125" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1125" s="30" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E1125" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1125" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1125" s="10" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="8">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1126" s="26" t="s">
         <v>1041</v>
       </c>
-      <c r="D1124" s="26" t="s">
+      <c r="D1126" s="26" t="s">
         <v>1971</v>
       </c>
-      <c r="E1124" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1124" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1124" s="26" t="s">
+      <c r="E1126" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1126" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1126" s="26" t="s">
         <v>1695</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1088"/>
+  <autoFilter ref="C1:C1090"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1090</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1088</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="2560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="2560">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -19510,10 +19510,10 @@
   <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A502" sqref="A502:XFD502"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -36682,13 +36682,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1126"/>
+  <dimension ref="A1:I1124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C939" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="B957" sqref="B957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58792,22 +58792,22 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>393</v>
-      </c>
-      <c r="C959" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D959" s="30" t="s">
-        <v>2525</v>
+        <v>394</v>
+      </c>
+      <c r="C959" s="10" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D959" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E959" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F959" s="8">
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>1973</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -58815,13 +58815,13 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C960" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D960" s="30" t="s">
-        <v>2552</v>
+        <v>1837</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
@@ -58838,7 +58838,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C961" s="10" t="s">
         <v>2026</v>
@@ -58861,22 +58861,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>394</v>
-      </c>
-      <c r="C962" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D962" s="30" t="s">
-        <v>1837</v>
+        <v>395</v>
+      </c>
+      <c r="C962" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D962" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E962" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>1973</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58896,7 +58896,7 @@
         <v>3</v>
       </c>
       <c r="F963" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G963" s="10" t="s">
         <v>2027</v>
@@ -58913,38 +58913,38 @@
         <v>1021</v>
       </c>
       <c r="D964" s="15" t="s">
-        <v>1027</v>
+        <v>1746</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="965" spans="1:7">
       <c r="A965" s="8">
         <v>964</v>
       </c>
-      <c r="B965" s="8">
-        <v>395</v>
-      </c>
-      <c r="C965" s="10" t="s">
+      <c r="B965" s="14">
+        <v>396</v>
+      </c>
+      <c r="C965" s="31" t="s">
         <v>2026</v>
       </c>
-      <c r="D965" s="8">
+      <c r="D965" s="14">
         <v>1607356800</v>
       </c>
-      <c r="E965" s="8">
+      <c r="E965" s="14">
         <v>3</v>
       </c>
-      <c r="F965" s="8">
-        <v>2</v>
-      </c>
-      <c r="G965" s="10" t="s">
+      <c r="F965" s="14">
+        <v>1</v>
+      </c>
+      <c r="G965" s="31" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -58953,68 +58953,68 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>395</v>
-      </c>
-      <c r="C966" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D966" s="15" t="s">
-        <v>1746</v>
+        <v>397</v>
+      </c>
+      <c r="C966" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D966" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E966" s="8">
         <v>2</v>
       </c>
       <c r="F966" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2030</v>
+        <v>909</v>
       </c>
     </row>
     <row r="967" spans="1:7">
       <c r="A967" s="8">
         <v>966</v>
       </c>
-      <c r="B967" s="14">
-        <v>396</v>
-      </c>
-      <c r="C967" s="31" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D967" s="14">
-        <v>1607356800</v>
-      </c>
-      <c r="E967" s="14">
-        <v>3</v>
-      </c>
-      <c r="F967" s="14">
-        <v>1</v>
-      </c>
-      <c r="G967" s="31" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="968" spans="1:7">
+      <c r="B967" s="8">
+        <v>398</v>
+      </c>
+      <c r="C967" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D967" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="E967" s="8">
+        <v>2</v>
+      </c>
+      <c r="F967" s="8">
+        <v>1</v>
+      </c>
+      <c r="G967" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" s="8" customFormat="1">
       <c r="A968" s="8">
         <v>967</v>
       </c>
       <c r="B968" s="8">
-        <v>397</v>
-      </c>
-      <c r="C968" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D968" s="10" t="s">
-        <v>1531</v>
+        <v>399</v>
+      </c>
+      <c r="C968" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D968" s="8">
+        <v>1</v>
       </c>
       <c r="E968" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F968" s="8">
         <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>909</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -59022,36 +59022,36 @@
         <v>968</v>
       </c>
       <c r="B969" s="8">
-        <v>398</v>
-      </c>
-      <c r="C969" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D969" s="10" t="s">
-        <v>914</v>
+        <v>400</v>
+      </c>
+      <c r="C969" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D969" s="8">
+        <v>5</v>
       </c>
       <c r="E969" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F969" s="8">
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7" s="8" customFormat="1">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7">
       <c r="A970" s="8">
         <v>969</v>
       </c>
       <c r="B970" s="8">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C970" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D970" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E970" s="8">
         <v>3</v>
@@ -59060,53 +59060,53 @@
         <v>1</v>
       </c>
       <c r="G970" s="10" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="971" spans="1:7">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" s="8" customFormat="1">
       <c r="A971" s="8">
         <v>970</v>
       </c>
       <c r="B971" s="8">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C971" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D971" s="8">
+        <v>845</v>
+      </c>
+      <c r="D971" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E971" s="8">
         <v>5</v>
       </c>
-      <c r="E971" s="8">
-        <v>3</v>
-      </c>
       <c r="F971" s="8">
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="972" spans="1:7">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" s="8" customFormat="1">
       <c r="A972" s="8">
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C972" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D972" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E972" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F972" s="8">
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2044</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -59114,22 +59114,22 @@
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D973" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D973" s="8">
+        <v>0</v>
       </c>
       <c r="E973" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F973" s="8">
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>902</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -59137,22 +59137,22 @@
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D974" s="8">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="D974" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E974" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F974" s="8">
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2055</v>
+        <v>902</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59160,45 +59160,45 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>404</v>
-      </c>
-      <c r="C975" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D975" s="8">
-        <v>0</v>
+        <v>406</v>
+      </c>
+      <c r="C975" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D975" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E975" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F975" s="8">
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7" s="8" customFormat="1">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A976" s="8">
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>405</v>
-      </c>
-      <c r="C976" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D976" s="10" t="s">
-        <v>898</v>
+        <v>407</v>
+      </c>
+      <c r="C976" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D976" s="44" t="s">
+        <v>2086</v>
       </c>
       <c r="E976" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F976" s="8">
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>902</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59206,25 +59206,25 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>406</v>
-      </c>
-      <c r="C977" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D977" s="30" t="s">
-        <v>1837</v>
+        <v>407</v>
+      </c>
+      <c r="C977" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D977" s="8" t="s">
+        <v>2088</v>
       </c>
       <c r="E977" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F977" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="978" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" s="8" customFormat="1">
       <c r="A978" s="8">
         <v>977</v>
       </c>
@@ -59232,19 +59232,19 @@
         <v>407</v>
       </c>
       <c r="C978" s="8" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D978" s="44" t="s">
-        <v>2086</v>
+        <v>2090</v>
+      </c>
+      <c r="D978" s="10" t="s">
+        <v>2092</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
       </c>
       <c r="F978" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2087</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59257,17 +59257,17 @@
       <c r="C979" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D979" s="8" t="s">
-        <v>2088</v>
+      <c r="D979" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E979" s="8">
         <v>2</v>
       </c>
       <c r="F979" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>2089</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59278,16 +59278,16 @@
         <v>407</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="D980" s="10" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E980" s="8">
         <v>2</v>
       </c>
       <c r="F980" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G980" s="10" t="s">
         <v>2093</v>
@@ -59298,22 +59298,22 @@
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C981" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D981" s="15" t="s">
-        <v>1027</v>
+      <c r="D981" s="8" t="s">
+        <v>2088</v>
       </c>
       <c r="E981" s="8">
         <v>2</v>
       </c>
       <c r="F981" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2094</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59321,22 +59321,22 @@
         <v>981</v>
       </c>
       <c r="B982" s="8">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C982" s="8" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D982" s="10" t="s">
-        <v>2091</v>
+        <v>845</v>
+      </c>
+      <c r="D982" s="30" t="s">
+        <v>2244</v>
       </c>
       <c r="E982" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F982" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2093</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59344,22 +59344,22 @@
         <v>982</v>
       </c>
       <c r="B983" s="8">
-        <v>408</v>
-      </c>
-      <c r="C983" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D983" s="8" t="s">
-        <v>2088</v>
+        <v>410</v>
+      </c>
+      <c r="C983" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D983" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E983" s="8">
         <v>2</v>
       </c>
       <c r="F983" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2110</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59367,13 +59367,13 @@
         <v>983</v>
       </c>
       <c r="B984" s="8">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C984" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D984" s="30" t="s">
-        <v>2244</v>
+        <v>1837</v>
       </c>
       <c r="E984" s="8">
         <v>5</v>
@@ -59390,7 +59390,7 @@
         <v>984</v>
       </c>
       <c r="B985" s="8">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C985" s="8" t="s">
         <v>845</v>
@@ -59405,7 +59405,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2119</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59413,22 +59413,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>411</v>
-      </c>
-      <c r="C986" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D986" s="30" t="s">
-        <v>1837</v>
+        <v>413</v>
+      </c>
+      <c r="C986" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D986" s="8">
+        <v>2</v>
       </c>
       <c r="E986" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F986" s="8">
         <v>1</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>1973</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59436,22 +59436,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>412</v>
-      </c>
-      <c r="C987" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D987" s="30" t="s">
-        <v>1837</v>
+        <v>414</v>
+      </c>
+      <c r="C987" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D987" s="8">
+        <v>2</v>
       </c>
       <c r="E987" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F987" s="8">
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59459,22 +59459,22 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>413</v>
-      </c>
-      <c r="C988" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D988" s="8">
-        <v>2</v>
+        <v>415</v>
+      </c>
+      <c r="C988" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D988" s="30" t="s">
+        <v>2136</v>
       </c>
       <c r="E988" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F988" s="8">
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2129</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59482,13 +59482,13 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>414</v>
-      </c>
-      <c r="C989" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="D989" s="8">
-        <v>2</v>
+        <v>415</v>
+      </c>
+      <c r="C989" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="D989" s="10">
+        <v>86400</v>
       </c>
       <c r="E989" s="8">
         <v>3</v>
@@ -59497,7 +59497,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2132</v>
+        <v>935</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59505,13 +59505,13 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>415</v>
-      </c>
-      <c r="C990" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D990" s="30" t="s">
-        <v>2136</v>
+        <v>416</v>
+      </c>
+      <c r="C990" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D990" s="8">
+        <v>0</v>
       </c>
       <c r="E990" s="8">
         <v>2</v>
@@ -59520,7 +59520,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59528,22 +59528,22 @@
         <v>990</v>
       </c>
       <c r="B991" s="8">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C991" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="D991" s="10">
-        <v>86400</v>
+        <v>845</v>
+      </c>
+      <c r="D991" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E991" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F991" s="8">
         <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>935</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59551,13 +59551,13 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D992" s="8">
-        <v>0</v>
+        <v>2162</v>
+      </c>
+      <c r="D992" s="10" t="s">
+        <v>2150</v>
       </c>
       <c r="E992" s="8">
         <v>2</v>
@@ -59566,7 +59566,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59574,22 +59574,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="8">
-        <v>417</v>
-      </c>
-      <c r="C993" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D993" s="30" t="s">
-        <v>1837</v>
+        <v>418</v>
+      </c>
+      <c r="C993" s="10" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D993" s="10" t="s">
+        <v>2086</v>
       </c>
       <c r="E993" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F993" s="8">
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>1973</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59600,19 +59600,19 @@
         <v>418</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D994" s="10" t="s">
-        <v>2150</v>
+        <v>2163</v>
+      </c>
+      <c r="D994" s="8" t="s">
+        <v>2153</v>
       </c>
       <c r="E994" s="8">
         <v>2</v>
       </c>
       <c r="F994" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59623,7 +59623,7 @@
         <v>418</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>2085</v>
+        <v>2155</v>
       </c>
       <c r="D995" s="10" t="s">
         <v>2086</v>
@@ -59632,10 +59632,10 @@
         <v>2</v>
       </c>
       <c r="F995" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59646,19 +59646,19 @@
         <v>418</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="E996" s="8">
         <v>2</v>
       </c>
       <c r="F996" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59669,7 +59669,7 @@
         <v>418</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>2155</v>
+        <v>2085</v>
       </c>
       <c r="D997" s="10" t="s">
         <v>2086</v>
@@ -59678,10 +59678,10 @@
         <v>2</v>
       </c>
       <c r="F997" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59689,22 +59689,22 @@
         <v>997</v>
       </c>
       <c r="B998" s="8">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D998" s="8" t="s">
-        <v>2157</v>
+        <v>1021</v>
+      </c>
+      <c r="D998" s="15" t="s">
+        <v>2032</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
       </c>
       <c r="F998" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2158</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59712,22 +59712,22 @@
         <v>998</v>
       </c>
       <c r="B999" s="8">
-        <v>418</v>
-      </c>
-      <c r="C999" s="10" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D999" s="10" t="s">
-        <v>2086</v>
+        <v>419</v>
+      </c>
+      <c r="C999" s="8" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D999" s="8">
+        <v>600</v>
       </c>
       <c r="E999" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F999" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2159</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59735,13 +59735,13 @@
         <v>999</v>
       </c>
       <c r="B1000" s="8">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1000" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="D1000" s="15" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E1000" s="8">
         <v>2</v>
@@ -59750,7 +59750,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59758,7 +59758,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="8">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1001" s="8" t="s">
         <v>2172</v>
@@ -59773,7 +59773,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59781,22 +59781,22 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="8">
-        <v>420</v>
-      </c>
-      <c r="C1002" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1002" s="15" t="s">
-        <v>2031</v>
+        <v>421</v>
+      </c>
+      <c r="C1002" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1002" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1002" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1002" s="8">
         <v>1</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>2033</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59804,22 +59804,22 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>420</v>
-      </c>
-      <c r="C1003" s="8" t="s">
-        <v>2172</v>
+        <v>422</v>
+      </c>
+      <c r="C1003" s="10" t="s">
+        <v>1115</v>
       </c>
       <c r="D1003" s="8">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E1003" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1003" s="8">
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2349</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59827,22 +59827,22 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="8">
-        <v>421</v>
-      </c>
-      <c r="C1004" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1004" s="30" t="s">
-        <v>1837</v>
+        <v>423</v>
+      </c>
+      <c r="C1004" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1004" s="8">
+        <v>1</v>
       </c>
       <c r="E1004" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>1973</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59850,22 +59850,22 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="8">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C1005" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1005" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1005" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59873,13 +59873,13 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="8">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C1006" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1006" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1006" s="8">
         <v>3</v>
@@ -59888,7 +59888,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59896,13 +59896,13 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C1007" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1007" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1007" s="8">
         <v>4</v>
@@ -59911,7 +59911,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59919,13 +59919,13 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="8">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1008" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1008" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1008" s="8">
         <v>3</v>
@@ -59934,30 +59934,30 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2188</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
       <c r="A1009" s="8">
         <v>1008</v>
       </c>
-      <c r="B1009" s="8">
-        <v>424</v>
-      </c>
-      <c r="C1009" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1009" s="8">
-        <v>7</v>
+      <c r="B1009" s="16">
+        <v>426</v>
+      </c>
+      <c r="C1009" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1009" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1009" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -59965,30 +59965,30 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="8">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C1010" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1010" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E1010" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>1990</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
       <c r="A1011" s="8">
         <v>1010</v>
       </c>
-      <c r="B1011" s="16">
-        <v>426</v>
+      <c r="B1011" s="8">
+        <v>427</v>
       </c>
       <c r="C1011" s="8" t="s">
         <v>845</v>
@@ -60011,22 +60011,22 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="8">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C1012" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1012" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1012" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60034,22 +60034,22 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>427</v>
-      </c>
-      <c r="C1013" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1013" s="30" t="s">
-        <v>1837</v>
+        <v>428</v>
+      </c>
+      <c r="C1013" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1013" s="8">
+        <v>3</v>
       </c>
       <c r="E1013" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60059,20 +60059,20 @@
       <c r="B1014" s="8">
         <v>428</v>
       </c>
-      <c r="C1014" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1014" s="8">
-        <v>1</v>
+      <c r="C1014" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1014" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1014" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60080,22 +60080,22 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="8">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C1015" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1015" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1015" s="8">
         <v>3</v>
       </c>
-      <c r="E1015" s="8">
-        <v>4</v>
-      </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2190</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60103,22 +60103,22 @@
         <v>1015</v>
       </c>
       <c r="B1016" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1016" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1016" s="30" t="s">
-        <v>1837</v>
+        <v>429</v>
+      </c>
+      <c r="C1016" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1016" s="8">
+        <v>7</v>
       </c>
       <c r="E1016" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60128,20 +60128,20 @@
       <c r="B1017" s="8">
         <v>429</v>
       </c>
-      <c r="C1017" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1017" s="8">
-        <v>4</v>
+      <c r="C1017" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1017" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1017" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1017" s="8">
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>1226</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60149,22 +60149,22 @@
         <v>1017</v>
       </c>
       <c r="B1018" s="8">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1018" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1018" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1018" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1018" s="8">
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2189</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60172,7 +60172,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" s="8">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C1019" s="8" t="s">
         <v>845</v>
@@ -60195,68 +60195,68 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1020" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1020" s="8">
-        <v>8</v>
+        <v>431</v>
+      </c>
+      <c r="C1020" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1020" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1020" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1020" s="8">
         <v>1</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>1225</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
       <c r="A1021" s="8">
         <v>1020</v>
       </c>
-      <c r="B1021" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1021" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1021" s="30" t="s">
-        <v>1837</v>
+      <c r="B1021" s="16">
+        <v>432</v>
+      </c>
+      <c r="C1021" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1021" s="8">
+        <v>0</v>
       </c>
       <c r="E1021" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1021" s="8">
         <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
       <c r="A1022" s="8">
         <v>1021</v>
       </c>
-      <c r="B1022" s="8">
-        <v>431</v>
+      <c r="B1022" s="16">
+        <v>432</v>
       </c>
       <c r="C1022" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1022" s="30" t="s">
-        <v>1837</v>
+      <c r="D1022" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1022" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1022" s="8">
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2186</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60276,7 +60276,7 @@
         <v>2</v>
       </c>
       <c r="F1023" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1023" s="10" t="s">
         <v>2187</v>
@@ -60293,16 +60293,16 @@
         <v>845</v>
       </c>
       <c r="D1024" s="10" t="s">
-        <v>1531</v>
+        <v>914</v>
       </c>
       <c r="E1024" s="8">
         <v>2</v>
       </c>
       <c r="F1024" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60322,7 +60322,7 @@
         <v>2</v>
       </c>
       <c r="F1025" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1025" s="10" t="s">
         <v>2187</v>
@@ -60338,17 +60338,17 @@
       <c r="C1026" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1026" s="10" t="s">
-        <v>914</v>
+      <c r="D1026" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1026" s="8">
         <v>2</v>
       </c>
       <c r="F1026" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60359,19 +60359,19 @@
         <v>432</v>
       </c>
       <c r="C1027" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1027" s="8">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="D1027" s="10" t="s">
+        <v>2243</v>
       </c>
       <c r="E1027" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1027" s="8">
         <v>3</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2187</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60379,22 +60379,22 @@
         <v>1027</v>
       </c>
       <c r="B1028" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1028" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1028" s="30" t="s">
-        <v>1837</v>
+        <v>433</v>
+      </c>
+      <c r="C1028" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1028" s="8">
+        <v>1</v>
       </c>
       <c r="E1028" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1028" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2241</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60402,22 +60402,22 @@
         <v>1028</v>
       </c>
       <c r="B1029" s="16">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C1029" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1029" s="10" t="s">
-        <v>2243</v>
+        <v>1115</v>
+      </c>
+      <c r="D1029" s="8">
+        <v>7</v>
       </c>
       <c r="E1029" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1029" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2242</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60427,20 +60427,20 @@
       <c r="B1030" s="16">
         <v>433</v>
       </c>
-      <c r="C1030" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1030" s="8">
-        <v>1</v>
+      <c r="C1030" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1030" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1030" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1030" s="8">
         <v>1</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60454,16 +60454,16 @@
         <v>1115</v>
       </c>
       <c r="D1031" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1031" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1031" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60473,20 +60473,20 @@
       <c r="B1032" s="16">
         <v>433</v>
       </c>
-      <c r="C1032" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1032" s="10" t="s">
-        <v>1531</v>
+      <c r="C1032" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1032" s="8">
+        <v>7</v>
       </c>
       <c r="E1032" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1032" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60496,20 +60496,20 @@
       <c r="B1033" s="16">
         <v>433</v>
       </c>
-      <c r="C1033" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1033" s="8">
-        <v>1</v>
+      <c r="C1033" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1033" s="10" t="s">
+        <v>914</v>
       </c>
       <c r="E1033" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1033" s="8">
         <v>2</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60523,16 +60523,16 @@
         <v>1115</v>
       </c>
       <c r="D1034" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1034" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1034" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2247</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60542,20 +60542,20 @@
       <c r="B1035" s="16">
         <v>433</v>
       </c>
-      <c r="C1035" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1035" s="10" t="s">
-        <v>914</v>
+      <c r="C1035" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1035" s="8">
+        <v>7</v>
       </c>
       <c r="E1035" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1035" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60565,20 +60565,20 @@
       <c r="B1036" s="16">
         <v>433</v>
       </c>
-      <c r="C1036" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1036" s="8">
-        <v>1</v>
+      <c r="C1036" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1036" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1036" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1036" s="8">
         <v>3</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2187</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60589,19 +60589,19 @@
         <v>433</v>
       </c>
       <c r="C1037" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1037" s="8">
-        <v>7</v>
+        <v>845</v>
+      </c>
+      <c r="D1037" s="10" t="s">
+        <v>2243</v>
       </c>
       <c r="E1037" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1037" s="8">
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60609,22 +60609,22 @@
         <v>1037</v>
       </c>
       <c r="B1038" s="16">
-        <v>433</v>
-      </c>
-      <c r="C1038" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1038" s="30" t="s">
-        <v>1837</v>
+        <v>434</v>
+      </c>
+      <c r="C1038" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1038" s="8">
+        <v>8</v>
       </c>
       <c r="E1038" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1038" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2241</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60632,22 +60632,22 @@
         <v>1038</v>
       </c>
       <c r="B1039" s="16">
-        <v>433</v>
-      </c>
-      <c r="C1039" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1039" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1039" s="10" t="s">
-        <v>2243</v>
+        <v>1531</v>
       </c>
       <c r="E1039" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1039" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60667,7 +60667,7 @@
         <v>3</v>
       </c>
       <c r="F1040" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1040" s="10" t="s">
         <v>2250</v>
@@ -60684,16 +60684,16 @@
         <v>845</v>
       </c>
       <c r="D1041" s="10" t="s">
-        <v>1531</v>
+        <v>914</v>
       </c>
       <c r="E1041" s="8">
         <v>2</v>
       </c>
       <c r="F1041" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60713,7 +60713,7 @@
         <v>3</v>
       </c>
       <c r="F1042" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1042" s="10" t="s">
         <v>2250</v>
@@ -60729,17 +60729,17 @@
       <c r="C1043" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1043" s="10" t="s">
-        <v>914</v>
+      <c r="D1043" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1043" s="8">
         <v>2</v>
       </c>
       <c r="F1043" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60750,65 +60750,65 @@
         <v>434</v>
       </c>
       <c r="C1044" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1044" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1044" s="10" t="s">
+        <v>2243</v>
       </c>
       <c r="E1044" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1044" s="8">
         <v>3</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
       <c r="A1045" s="8">
         <v>1044</v>
       </c>
-      <c r="B1045" s="16">
-        <v>434</v>
-      </c>
-      <c r="C1045" s="8" t="s">
+      <c r="B1045" s="8">
+        <v>435</v>
+      </c>
+      <c r="C1045" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D1045" s="30" t="s">
-        <v>1837</v>
+      <c r="D1045" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1045" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1045" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>2241</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
       <c r="A1046" s="8">
         <v>1045</v>
       </c>
-      <c r="B1046" s="16">
-        <v>434</v>
+      <c r="B1046" s="8">
+        <v>436</v>
       </c>
       <c r="C1046" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1046" s="10" t="s">
-        <v>2243</v>
+        <v>850</v>
       </c>
       <c r="E1046" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1046" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>2242</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60816,22 +60816,22 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="8">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C1047" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1047" s="10" t="s">
-        <v>898</v>
+        <v>854</v>
       </c>
       <c r="E1047" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1047" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60845,16 +60845,16 @@
         <v>845</v>
       </c>
       <c r="D1048" s="10" t="s">
-        <v>850</v>
+        <v>1203</v>
       </c>
       <c r="E1048" s="8">
         <v>2</v>
       </c>
       <c r="F1048" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>901</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60862,22 +60862,22 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="8">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C1049" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1049" s="10" t="s">
-        <v>854</v>
+        <v>1115</v>
+      </c>
+      <c r="D1049" s="8">
+        <v>1</v>
       </c>
       <c r="E1049" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1049" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>897</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
@@ -60885,22 +60885,22 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="8">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C1050" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1050" s="10" t="s">
-        <v>1203</v>
+        <v>1115</v>
+      </c>
+      <c r="D1050" s="8">
+        <v>3</v>
       </c>
       <c r="E1050" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1050" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>1236</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60911,19 +60911,19 @@
         <v>437</v>
       </c>
       <c r="C1051" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1051" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D1051" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1051" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>1329</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60931,22 +60931,22 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="8">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C1052" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1052" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1052" s="8">
         <v>3</v>
       </c>
-      <c r="E1052" s="8">
-        <v>4</v>
-      </c>
       <c r="F1052" s="8">
         <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -60954,22 +60954,22 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="8">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C1053" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1053" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1053" s="8">
+        <v>7</v>
       </c>
       <c r="E1053" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1053" s="8">
         <v>1</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -60980,19 +60980,19 @@
         <v>438</v>
       </c>
       <c r="C1054" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1054" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D1054" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1054" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1054" s="8">
         <v>1</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1055" spans="1:7" s="8" customFormat="1">
@@ -61000,22 +61000,22 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="8">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C1055" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1055" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1055" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1055" s="8">
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1056" spans="1:7" s="8" customFormat="1">
@@ -61023,22 +61023,22 @@
         <v>1055</v>
       </c>
       <c r="B1056" s="8">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C1056" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1056" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1056" s="8">
+        <v>12</v>
       </c>
       <c r="E1056" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1056" s="8">
         <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1057" spans="1:7" s="8" customFormat="1">
@@ -61049,19 +61049,19 @@
         <v>439</v>
       </c>
       <c r="C1057" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1057" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1057" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1057" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1057" s="8">
         <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1058" spans="1:7" s="8" customFormat="1">
@@ -61069,22 +61069,22 @@
         <v>1057</v>
       </c>
       <c r="B1058" s="8">
-        <v>439</v>
-      </c>
-      <c r="C1058" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1058" s="8">
-        <v>12</v>
+        <v>440</v>
+      </c>
+      <c r="C1058" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1058" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1058" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1058" s="8">
         <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>1334</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1059" spans="1:7" s="8" customFormat="1">
@@ -61092,68 +61092,68 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="8">
-        <v>439</v>
-      </c>
-      <c r="C1059" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1059" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1059" s="10" t="s">
-        <v>898</v>
+      <c r="D1059" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1059" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1059" s="8">
         <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7" s="8" customFormat="1">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7">
       <c r="A1060" s="8">
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1060" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1060" s="30" t="s">
-        <v>1837</v>
+        <v>442</v>
+      </c>
+      <c r="C1060" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1060" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E1060" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1060" s="8">
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:7" s="8" customFormat="1">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7">
       <c r="A1061" s="8">
         <v>1060</v>
       </c>
       <c r="B1061" s="8">
-        <v>441</v>
-      </c>
-      <c r="C1061" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1061" s="30" t="s">
-        <v>1837</v>
+        <v>442</v>
+      </c>
+      <c r="C1061" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1061" s="8" t="s">
+        <v>2088</v>
       </c>
       <c r="E1061" s="8">
         <v>2</v>
       </c>
       <c r="F1061" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61166,17 +61166,17 @@
       <c r="C1062" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D1062" s="15" t="s">
-        <v>1027</v>
+      <c r="D1062" s="10" t="s">
+        <v>2301</v>
       </c>
       <c r="E1062" s="8">
         <v>2</v>
       </c>
       <c r="F1062" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2094</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61184,22 +61184,22 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="8">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1063" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D1063" s="8" t="s">
-        <v>2088</v>
+      <c r="D1063" s="10" t="s">
+        <v>2304</v>
       </c>
       <c r="E1063" s="8">
         <v>2</v>
       </c>
       <c r="F1063" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2110</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61207,22 +61207,22 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C1064" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="E1064" s="8">
         <v>2</v>
       </c>
       <c r="F1064" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2302</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61236,16 +61236,16 @@
         <v>1021</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
       </c>
       <c r="F1065" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61253,22 +61253,22 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="8">
-        <v>443</v>
-      </c>
-      <c r="C1066" s="10" t="s">
-        <v>1021</v>
+        <v>444</v>
+      </c>
+      <c r="C1066" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="D1066" s="10" t="s">
-        <v>2303</v>
+        <v>1531</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
       </c>
       <c r="F1066" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2308</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61276,22 +61276,22 @@
         <v>1066</v>
       </c>
       <c r="B1067" s="8">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C1067" s="10" t="s">
-        <v>1021</v>
+        <v>845</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>2306</v>
+        <v>1203</v>
       </c>
       <c r="E1067" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1067" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>2309</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61305,16 +61305,16 @@
         <v>845</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>1531</v>
+        <v>914</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
       </c>
       <c r="F1068" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61334,7 +61334,7 @@
         <v>5</v>
       </c>
       <c r="F1069" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1069" s="10" t="s">
         <v>2339</v>
@@ -61345,22 +61345,22 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="8">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C1070" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1070" s="10" t="s">
-        <v>914</v>
+      <c r="D1070" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1070" s="8">
         <v>2</v>
       </c>
       <c r="F1070" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>2246</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61368,22 +61368,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C1071" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1071" s="10" t="s">
-        <v>1203</v>
+        <v>850</v>
       </c>
       <c r="E1071" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1071" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>2339</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61391,22 +61391,22 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="8">
-        <v>445</v>
-      </c>
-      <c r="C1072" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1072" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D1072" s="30" t="s">
-        <v>1837</v>
+      <c r="D1072" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="E1072" s="8">
         <v>2</v>
       </c>
       <c r="F1072" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>2114</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61420,16 +61420,16 @@
         <v>845</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>850</v>
+        <v>1203</v>
       </c>
       <c r="E1073" s="8">
         <v>2</v>
       </c>
       <c r="F1073" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>901</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61437,22 +61437,22 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="8">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1074" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1074" s="10" t="s">
-        <v>854</v>
+        <v>1115</v>
+      </c>
+      <c r="D1074" s="8">
+        <v>1</v>
       </c>
       <c r="E1074" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1074" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>897</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61460,22 +61460,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1075" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1075" s="10" t="s">
-        <v>1203</v>
+        <v>1115</v>
+      </c>
+      <c r="D1075" s="8">
+        <v>3</v>
       </c>
       <c r="E1075" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1075" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>1236</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61486,19 +61486,19 @@
         <v>447</v>
       </c>
       <c r="C1076" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1076" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D1076" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1076" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1076" s="8">
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>1329</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61506,22 +61506,22 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="8">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C1077" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1077" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1077" s="8">
         <v>3</v>
       </c>
-      <c r="E1077" s="8">
-        <v>4</v>
-      </c>
       <c r="F1077" s="8">
         <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61529,22 +61529,22 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="8">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C1078" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1078" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1078" s="8">
+        <v>7</v>
       </c>
       <c r="E1078" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1078" s="8">
         <v>1</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61555,19 +61555,19 @@
         <v>448</v>
       </c>
       <c r="C1079" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1079" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D1079" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1079" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1079" s="8">
         <v>1</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -61575,22 +61575,22 @@
         <v>1079</v>
       </c>
       <c r="B1080" s="8">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1080" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1080" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1080" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1080" s="8">
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1081" spans="1:7">
@@ -61598,22 +61598,22 @@
         <v>1080</v>
       </c>
       <c r="B1081" s="8">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1081" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1081" s="8">
+        <v>12</v>
       </c>
       <c r="E1081" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -61624,19 +61624,19 @@
         <v>449</v>
       </c>
       <c r="C1082" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1082" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1082" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1082" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1082" s="8">
         <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -61644,22 +61644,22 @@
         <v>1082</v>
       </c>
       <c r="B1083" s="8">
-        <v>449</v>
-      </c>
-      <c r="C1083" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1083" s="8">
-        <v>12</v>
+        <v>450</v>
+      </c>
+      <c r="C1083" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1083" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1083" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1083" s="8">
         <v>1</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>1334</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61667,68 +61667,68 @@
         <v>1083</v>
       </c>
       <c r="B1084" s="8">
-        <v>449</v>
-      </c>
-      <c r="C1084" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1084" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1084" s="10" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E1084" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1084" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:7">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" s="8" customFormat="1">
       <c r="A1085" s="8">
         <v>1084</v>
       </c>
       <c r="B1085" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1085" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1085" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1085" s="10" t="s">
-        <v>1531</v>
+        <v>898</v>
       </c>
       <c r="E1085" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1085" s="8">
         <v>1</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:7">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" s="8" customFormat="1">
       <c r="A1086" s="8">
         <v>1085</v>
       </c>
       <c r="B1086" s="8">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C1086" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1086" s="10" t="s">
-        <v>914</v>
+        <v>1531</v>
       </c>
       <c r="E1086" s="8">
         <v>2</v>
       </c>
       <c r="F1086" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1087" spans="1:7" s="8" customFormat="1">
@@ -61748,7 +61748,7 @@
         <v>5</v>
       </c>
       <c r="F1087" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1087" s="10" t="s">
         <v>902</v>
@@ -61765,61 +61765,61 @@
         <v>845</v>
       </c>
       <c r="D1088" s="10" t="s">
-        <v>1531</v>
+        <v>914</v>
       </c>
       <c r="E1088" s="8">
         <v>2</v>
       </c>
       <c r="F1088" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:7" s="8" customFormat="1">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7">
       <c r="A1089" s="8">
         <v>1088</v>
       </c>
-      <c r="B1089" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1089" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1089" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1089" s="8">
-        <v>5</v>
-      </c>
-      <c r="F1089" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1089" s="10" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7" s="8" customFormat="1">
+      <c r="B1089" s="64">
+        <v>452</v>
+      </c>
+      <c r="C1089" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1089" s="65" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1089" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1089" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1089" s="65" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
       <c r="A1090" s="8">
         <v>1089</v>
       </c>
-      <c r="B1090" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1090" s="8" t="s">
+      <c r="B1090" s="64">
+        <v>452</v>
+      </c>
+      <c r="C1090" s="64" t="s">
         <v>845</v>
       </c>
-      <c r="D1090" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="E1090" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1090" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1090" s="10" t="s">
+      <c r="D1090" s="65" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E1090" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1090" s="65" t="s">
         <v>2246</v>
       </c>
     </row>
@@ -61831,10 +61831,10 @@
         <v>452</v>
       </c>
       <c r="C1091" s="65" t="s">
-        <v>1021</v>
+        <v>845</v>
       </c>
       <c r="D1091" s="65" t="s">
-        <v>1048</v>
+        <v>898</v>
       </c>
       <c r="E1091" s="64">
         <v>2</v>
@@ -61843,7 +61843,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2307</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61851,13 +61851,13 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1092" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1092" s="65" t="s">
-        <v>2550</v>
+        <v>453</v>
+      </c>
+      <c r="C1092" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1092" s="62" t="s">
+        <v>1027</v>
       </c>
       <c r="E1092" s="64">
         <v>2</v>
@@ -61866,7 +61866,7 @@
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2246</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61874,13 +61874,13 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1093" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1093" s="64" t="s">
         <v>845</v>
       </c>
       <c r="D1093" s="65" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E1093" s="64">
         <v>2</v>
@@ -61889,7 +61889,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2361</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61900,10 +61900,10 @@
         <v>453</v>
       </c>
       <c r="C1094" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1094" s="62" t="s">
-        <v>1027</v>
+        <v>845</v>
+      </c>
+      <c r="D1094" s="65" t="s">
+        <v>898</v>
       </c>
       <c r="E1094" s="64">
         <v>2</v>
@@ -61912,7 +61912,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2094</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61920,7 +61920,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="64">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C1095" s="64" t="s">
         <v>845</v>
@@ -61943,22 +61943,22 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="64">
-        <v>453</v>
-      </c>
-      <c r="C1096" s="65" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1096" s="65" t="s">
-        <v>898</v>
+        <v>454</v>
+      </c>
+      <c r="C1096" s="64" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1096" s="68">
+        <v>691200</v>
       </c>
       <c r="E1096" s="64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1096" s="64">
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61968,20 +61968,20 @@
       <c r="B1097" s="64">
         <v>454</v>
       </c>
-      <c r="C1097" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1097" s="65" t="s">
-        <v>914</v>
+      <c r="C1097" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D1097" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1097" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1097" s="64">
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2246</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -61989,22 +61989,22 @@
         <v>1097</v>
       </c>
       <c r="B1098" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1098" s="64" t="s">
-        <v>874</v>
-      </c>
-      <c r="D1098" s="68">
-        <v>691200</v>
+        <v>455</v>
+      </c>
+      <c r="C1098" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1098" s="62" t="s">
+        <v>1027</v>
       </c>
       <c r="E1098" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1098" s="64">
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2367</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62012,22 +62012,22 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1099" s="65" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D1099" s="70">
-        <v>1615246200</v>
+        <v>455</v>
+      </c>
+      <c r="C1099" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1099" s="65" t="s">
+        <v>914</v>
       </c>
       <c r="E1099" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1099" s="64">
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2371</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62038,19 +62038,19 @@
         <v>455</v>
       </c>
       <c r="C1100" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1100" s="62" t="s">
-        <v>1027</v>
+        <v>1810</v>
+      </c>
+      <c r="D1100" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1100" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1100" s="64">
         <v>1</v>
       </c>
       <c r="G1100" s="65" t="s">
-        <v>2094</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62058,13 +62058,13 @@
         <v>1100</v>
       </c>
       <c r="B1101" s="64">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C1101" s="64" t="s">
         <v>845</v>
       </c>
       <c r="D1101" s="65" t="s">
-        <v>914</v>
+        <v>1531</v>
       </c>
       <c r="E1101" s="64">
         <v>2</v>
@@ -62073,7 +62073,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62081,22 +62081,22 @@
         <v>1101</v>
       </c>
       <c r="B1102" s="64">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C1102" s="65" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D1102" s="70">
-        <v>1615246200</v>
+        <v>2433</v>
+      </c>
+      <c r="D1102" s="62" t="s">
+        <v>2376</v>
       </c>
       <c r="E1102" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1102" s="64">
         <v>1</v>
       </c>
       <c r="G1102" s="65" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62106,11 +62106,11 @@
       <c r="B1103" s="64">
         <v>456</v>
       </c>
-      <c r="C1103" s="64" t="s">
-        <v>845</v>
+      <c r="C1103" s="65" t="s">
+        <v>2531</v>
       </c>
       <c r="D1103" s="65" t="s">
-        <v>1531</v>
+        <v>2533</v>
       </c>
       <c r="E1103" s="64">
         <v>2</v>
@@ -62119,44 +62119,44 @@
         <v>1</v>
       </c>
       <c r="G1103" s="65" t="s">
-        <v>2245</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
       <c r="A1104" s="8">
         <v>1103</v>
       </c>
-      <c r="B1104" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1104" s="65" t="s">
-        <v>2433</v>
-      </c>
-      <c r="D1104" s="62" t="s">
-        <v>2376</v>
-      </c>
-      <c r="E1104" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1104" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1104" s="65" t="s">
-        <v>2377</v>
+      <c r="B1104" s="9">
+        <v>457</v>
+      </c>
+      <c r="C1104" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1104" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E1104" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="10" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
       <c r="A1105" s="8">
         <v>1104</v>
       </c>
-      <c r="B1105" s="64">
-        <v>456</v>
+      <c r="B1105" s="9">
+        <v>458</v>
       </c>
       <c r="C1105" s="65" t="s">
-        <v>2531</v>
+        <v>2513</v>
       </c>
       <c r="D1105" s="65" t="s">
-        <v>2533</v>
+        <v>914</v>
       </c>
       <c r="E1105" s="64">
         <v>2</v>
@@ -62165,7 +62165,7 @@
         <v>1</v>
       </c>
       <c r="G1105" s="65" t="s">
-        <v>2535</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62173,22 +62173,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1106" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1106" s="10" t="s">
-        <v>1531</v>
+        <v>459</v>
+      </c>
+      <c r="C1106" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1106" s="8">
+        <v>4</v>
       </c>
       <c r="E1106" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1106" s="8">
         <v>1</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>2245</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62196,22 +62196,22 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="9">
-        <v>458</v>
-      </c>
-      <c r="C1107" s="65" t="s">
-        <v>2513</v>
-      </c>
-      <c r="D1107" s="65" t="s">
-        <v>914</v>
-      </c>
-      <c r="E1107" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1107" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1107" s="65" t="s">
-        <v>2246</v>
+        <v>459</v>
+      </c>
+      <c r="C1107" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1107" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1107" s="8">
+        <v>4</v>
+      </c>
+      <c r="F1107" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="10" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62219,22 +62219,22 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="9">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1108" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1108" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1108" s="8">
         <v>4</v>
       </c>
-      <c r="E1108" s="8">
-        <v>3</v>
-      </c>
       <c r="F1108" s="8">
         <v>1</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -62242,22 +62242,22 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1109" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1109" s="8">
-        <v>12</v>
+        <v>461</v>
+      </c>
+      <c r="C1109" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1109" s="10" t="s">
+        <v>2091</v>
       </c>
       <c r="E1109" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1109" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>1334</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -62265,22 +62265,22 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="9">
-        <v>460</v>
-      </c>
-      <c r="C1110" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1110" s="8">
-        <v>3</v>
-      </c>
-      <c r="E1110" s="8">
-        <v>4</v>
-      </c>
-      <c r="F1110" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1110" s="10" t="s">
-        <v>1330</v>
+        <v>462</v>
+      </c>
+      <c r="C1110" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1110" s="26" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E1110" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1110" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1110" s="26" t="s">
+        <v>2434</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62288,22 +62288,22 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1111" s="8" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D1111" s="10" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E1111" s="8">
-        <v>5</v>
-      </c>
-      <c r="F1111" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1111" s="10" t="s">
-        <v>2393</v>
+        <v>463</v>
+      </c>
+      <c r="C1111" s="26" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1111" s="9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E1111" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="26" t="s">
+        <v>2440</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62311,22 +62311,22 @@
         <v>1111</v>
       </c>
       <c r="B1112" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1112" s="26" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1112" s="26" t="s">
-        <v>2432</v>
+        <v>463</v>
+      </c>
+      <c r="C1112" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1112" s="10" t="s">
+        <v>2091</v>
       </c>
       <c r="E1112" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1112" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2434</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62334,59 +62334,59 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1113" s="26" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D1113" s="9" t="s">
-        <v>2439</v>
-      </c>
-      <c r="E1113" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="26" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:7">
+        <v>464</v>
+      </c>
+      <c r="C1113" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1113" s="8">
+        <v>4</v>
+      </c>
+      <c r="E1113" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="10" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" s="8" customFormat="1">
       <c r="A1114" s="8">
         <v>1113</v>
       </c>
-      <c r="B1114" s="9">
-        <v>463</v>
-      </c>
-      <c r="C1114" s="8" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D1114" s="10" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E1114" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1114" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="26" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:7">
+      <c r="B1114" s="8">
+        <v>465</v>
+      </c>
+      <c r="C1114" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1114" s="8">
+        <v>10</v>
+      </c>
+      <c r="E1114" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" s="8" customFormat="1">
       <c r="A1115" s="8">
         <v>1114</v>
       </c>
-      <c r="B1115" s="9">
-        <v>464</v>
+      <c r="B1115" s="8">
+        <v>466</v>
       </c>
       <c r="C1115" s="10" t="s">
-        <v>1115</v>
+        <v>858</v>
       </c>
       <c r="D1115" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1115" s="8">
         <v>3</v>
@@ -62395,7 +62395,7 @@
         <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>2445</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1116" spans="1:7" s="8" customFormat="1">
@@ -62403,13 +62403,13 @@
         <v>1115</v>
       </c>
       <c r="B1116" s="8">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C1116" s="10" t="s">
         <v>858</v>
       </c>
       <c r="D1116" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1116" s="8">
         <v>3</v>
@@ -62418,53 +62418,53 @@
         <v>1</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:7" s="8" customFormat="1">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
       <c r="A1117" s="8">
         <v>1116</v>
       </c>
       <c r="B1117" s="8">
-        <v>466</v>
-      </c>
-      <c r="C1117" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1117" s="8">
-        <v>11</v>
-      </c>
-      <c r="E1117" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1117" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="10" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:7" s="8" customFormat="1">
+        <v>468</v>
+      </c>
+      <c r="C1117" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1117" s="26" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1117" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="26" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
       <c r="A1118" s="8">
         <v>1117</v>
       </c>
       <c r="B1118" s="8">
-        <v>467</v>
-      </c>
-      <c r="C1118" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1118" s="8">
-        <v>12</v>
-      </c>
-      <c r="E1118" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1118" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="10" t="s">
-        <v>2511</v>
+        <v>469</v>
+      </c>
+      <c r="C1118" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1118" s="26" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E1118" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1118" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="26" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -62472,22 +62472,22 @@
         <v>1118</v>
       </c>
       <c r="B1119" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1119" s="26" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1119" s="26" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E1119" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1119" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1119" s="26" t="s">
-        <v>2521</v>
+        <v>470</v>
+      </c>
+      <c r="C1119" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1119" s="30" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E1119" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1119" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="10" t="s">
+        <v>2526</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -62495,30 +62495,30 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="8">
-        <v>469</v>
-      </c>
-      <c r="C1120" s="26" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1120" s="26" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E1120" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1120" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1120" s="26" t="s">
-        <v>2522</v>
+        <v>470</v>
+      </c>
+      <c r="C1120" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1120" s="30" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E1120" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1120" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1120" s="10" t="s">
+        <v>2526</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
       <c r="A1121" s="8">
         <v>1120</v>
       </c>
-      <c r="B1121" s="8">
-        <v>470</v>
+      <c r="B1121" s="9">
+        <v>471</v>
       </c>
       <c r="C1121" s="8" t="s">
         <v>845</v>
@@ -62540,23 +62540,23 @@
       <c r="A1122" s="8">
         <v>1121</v>
       </c>
-      <c r="B1122" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1122" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1122" s="30" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E1122" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1122" s="10" t="s">
-        <v>2526</v>
+      <c r="B1122" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1122" s="26" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1122" s="26" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E1122" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="26" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -62570,13 +62570,13 @@
         <v>845</v>
       </c>
       <c r="D1123" s="30" t="s">
-        <v>2525</v>
+        <v>2552</v>
       </c>
       <c r="E1123" s="8">
         <v>2</v>
       </c>
       <c r="F1123" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1123" s="10" t="s">
         <v>2526</v>
@@ -62590,69 +62590,23 @@
         <v>471</v>
       </c>
       <c r="C1124" s="26" t="s">
-        <v>2532</v>
+        <v>1040</v>
       </c>
       <c r="D1124" s="26" t="s">
-        <v>2534</v>
+        <v>1970</v>
       </c>
       <c r="E1124" s="9">
         <v>2</v>
       </c>
       <c r="F1124" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1124" s="26" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:7">
-      <c r="A1125" s="8">
-        <v>1124</v>
-      </c>
-      <c r="B1125" s="9">
-        <v>471</v>
-      </c>
-      <c r="C1125" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1125" s="30" t="s">
-        <v>2552</v>
-      </c>
-      <c r="E1125" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1125" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1125" s="10" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:7">
-      <c r="A1126" s="8">
-        <v>1125</v>
-      </c>
-      <c r="B1126" s="9">
-        <v>471</v>
-      </c>
-      <c r="C1126" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D1126" s="26" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E1126" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1126" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1126" s="26" t="s">
         <v>1694</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1090"/>
+  <autoFilter ref="C1:C1088"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6042" uniqueCount="2561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6046" uniqueCount="2563">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10243,23 +10243,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>actp_own_task_p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_xshb_042_cpl</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>只有高手五子棋平台</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12843,6 +12826,31 @@
   </si>
   <si>
     <t>tag_plat_vivo_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_xshb_042_cpl</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xshb_042_hlw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包（海蓝湾平台）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13541,7 +13549,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
@@ -13555,7 +13563,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C3" s="14">
         <v>414</v>
@@ -13578,7 +13586,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C4" s="14">
         <v>414</v>
@@ -16542,7 +16550,7 @@
         <v>311</v>
       </c>
       <c r="B219" s="66" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C219" s="67">
         <v>77</v>
@@ -16569,7 +16577,7 @@
     </row>
     <row r="221" spans="1:10" s="17" customFormat="1">
       <c r="A221" s="21" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>316</v>
@@ -16893,10 +16901,10 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="69" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B247" s="21" t="s">
         <v>2484</v>
-      </c>
-      <c r="B247" s="21" t="s">
-        <v>2485</v>
       </c>
       <c r="C247" s="3">
         <v>34</v>
@@ -16919,7 +16927,7 @@
     </row>
     <row r="249" spans="1:10" s="17" customFormat="1">
       <c r="A249" s="21" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>365</v>
@@ -17003,13 +17011,13 @@
         <v>371</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C256" s="29">
         <v>109</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="J256" s="8"/>
     </row>
@@ -17152,7 +17160,7 @@
     </row>
     <row r="271" spans="1:10" s="17" customFormat="1">
       <c r="A271" s="21" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B271" s="15" t="s">
         <v>392</v>
@@ -18201,13 +18209,13 @@
         <v>1628</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C379" s="14">
         <v>311</v>
       </c>
       <c r="D379" s="28" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J379" s="8"/>
     </row>
@@ -18216,13 +18224,13 @@
         <v>1629</v>
       </c>
       <c r="B380" s="28" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C380" s="14">
         <v>311</v>
       </c>
       <c r="D380" s="28" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="J380" s="8"/>
     </row>
@@ -18237,7 +18245,7 @@
         <v>311</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J381" s="8"/>
     </row>
@@ -18252,7 +18260,7 @@
         <v>312</v>
       </c>
       <c r="D382" s="28" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J382" s="8"/>
     </row>
@@ -18267,7 +18275,7 @@
         <v>312</v>
       </c>
       <c r="D383" s="28" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J383" s="8"/>
     </row>
@@ -18282,7 +18290,7 @@
         <v>312</v>
       </c>
       <c r="D384" s="28" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J384" s="8"/>
     </row>
@@ -18554,7 +18562,7 @@
     </row>
     <row r="412" spans="1:10" s="17" customFormat="1">
       <c r="A412" s="21" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B412" s="17" t="s">
         <v>1899</v>
@@ -18764,22 +18772,22 @@
         <v>399</v>
       </c>
       <c r="D432" s="21" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="J432" s="8"/>
     </row>
     <row r="433" spans="1:10" s="17" customFormat="1">
       <c r="A433" s="28" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B433" s="28" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C433" s="14">
         <v>413</v>
       </c>
       <c r="D433" s="28" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="J433" s="8"/>
     </row>
@@ -18821,10 +18829,10 @@
     </row>
     <row r="438" spans="1:10" s="17" customFormat="1">
       <c r="A438" s="21" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B438" s="21" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C438" s="17">
         <v>403</v>
@@ -18833,10 +18841,10 @@
     </row>
     <row r="439" spans="1:10" s="17" customFormat="1">
       <c r="A439" s="21" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B439" s="21" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C439" s="17">
         <v>404</v>
@@ -18851,60 +18859,60 @@
     </row>
     <row r="442" spans="1:10" s="17" customFormat="1">
       <c r="A442" s="8" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B442" s="10" t="s">
         <v>2057</v>
-      </c>
-      <c r="B442" s="10" t="s">
-        <v>2058</v>
       </c>
       <c r="C442" s="8"/>
       <c r="J442" s="8"/>
     </row>
     <row r="443" spans="1:10" s="17" customFormat="1">
       <c r="A443" s="8" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B443" s="10" t="s">
         <v>2059</v>
-      </c>
-      <c r="B443" s="10" t="s">
-        <v>2060</v>
       </c>
       <c r="C443" s="8"/>
       <c r="J443" s="8"/>
     </row>
     <row r="444" spans="1:10" s="17" customFormat="1">
       <c r="A444" s="8" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B444" s="10" t="s">
         <v>2061</v>
-      </c>
-      <c r="B444" s="10" t="s">
-        <v>2062</v>
       </c>
       <c r="C444" s="8"/>
       <c r="J444" s="8"/>
     </row>
     <row r="445" spans="1:10" s="17" customFormat="1">
       <c r="A445" s="8" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B445" s="10" t="s">
         <v>2063</v>
-      </c>
-      <c r="B445" s="10" t="s">
-        <v>2064</v>
       </c>
       <c r="C445" s="8"/>
       <c r="J445" s="8"/>
     </row>
     <row r="446" spans="1:10" s="17" customFormat="1">
       <c r="A446" s="8" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B446" s="10" t="s">
         <v>2065</v>
-      </c>
-      <c r="B446" s="10" t="s">
-        <v>2066</v>
       </c>
       <c r="C446" s="36"/>
       <c r="J446" s="8"/>
     </row>
     <row r="447" spans="1:10" s="17" customFormat="1">
       <c r="A447" s="8" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C447" s="36">
         <v>32</v>
@@ -18913,10 +18921,10 @@
     </row>
     <row r="448" spans="1:10" s="17" customFormat="1">
       <c r="A448" s="8" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B448" s="10" t="s">
         <v>2068</v>
-      </c>
-      <c r="B448" s="10" t="s">
-        <v>2069</v>
       </c>
       <c r="C448" s="36">
         <v>32</v>
@@ -18925,10 +18933,10 @@
     </row>
     <row r="449" spans="1:10" s="17" customFormat="1">
       <c r="A449" s="8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B449" s="10" t="s">
         <v>2070</v>
-      </c>
-      <c r="B449" s="10" t="s">
-        <v>2071</v>
       </c>
       <c r="C449" s="36">
         <v>22</v>
@@ -18937,10 +18945,10 @@
     </row>
     <row r="450" spans="1:10" s="17" customFormat="1">
       <c r="A450" s="8" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B450" s="10" t="s">
         <v>2072</v>
-      </c>
-      <c r="B450" s="10" t="s">
-        <v>2073</v>
       </c>
       <c r="C450" s="8">
         <v>23</v>
@@ -18949,10 +18957,10 @@
     </row>
     <row r="451" spans="1:10" s="17" customFormat="1">
       <c r="A451" s="8" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B451" s="10" t="s">
         <v>2074</v>
-      </c>
-      <c r="B451" s="10" t="s">
-        <v>2075</v>
       </c>
       <c r="C451" s="8">
         <v>24</v>
@@ -18961,10 +18969,10 @@
     </row>
     <row r="452" spans="1:10" s="17" customFormat="1">
       <c r="A452" s="8" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B452" s="10" t="s">
         <v>2076</v>
-      </c>
-      <c r="B452" s="10" t="s">
-        <v>2077</v>
       </c>
       <c r="C452" s="8">
         <v>25</v>
@@ -18973,10 +18981,10 @@
     </row>
     <row r="453" spans="1:10" s="17" customFormat="1">
       <c r="A453" s="8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B453" s="10" t="s">
         <v>2078</v>
-      </c>
-      <c r="B453" s="10" t="s">
-        <v>2079</v>
       </c>
       <c r="C453" s="8">
         <v>26</v>
@@ -18985,10 +18993,10 @@
     </row>
     <row r="454" spans="1:10" s="17" customFormat="1">
       <c r="A454" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B454" s="10" t="s">
         <v>2080</v>
-      </c>
-      <c r="B454" s="10" t="s">
-        <v>2081</v>
       </c>
       <c r="C454" s="8">
         <v>26</v>
@@ -19003,16 +19011,16 @@
     </row>
     <row r="456" spans="1:10" s="17" customFormat="1">
       <c r="A456" s="17" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B456" s="17" t="s">
         <v>2107</v>
-      </c>
-      <c r="B456" s="17" t="s">
-        <v>2108</v>
       </c>
       <c r="C456" s="17">
         <v>408</v>
       </c>
       <c r="D456" s="17" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="J456" s="8"/>
     </row>
@@ -19021,10 +19029,10 @@
     </row>
     <row r="458" spans="1:10" s="17" customFormat="1">
       <c r="A458" s="31" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C458" s="14"/>
       <c r="D458" s="29"/>
@@ -19032,10 +19040,10 @@
     </row>
     <row r="459" spans="1:10" s="17" customFormat="1">
       <c r="A459" s="31" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B459" s="31" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C459" s="14"/>
       <c r="D459" s="29"/>
@@ -19043,10 +19051,10 @@
     </row>
     <row r="460" spans="1:10" s="17" customFormat="1">
       <c r="A460" s="31" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B460" s="31" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C460" s="14"/>
       <c r="D460" s="29"/>
@@ -19054,10 +19062,10 @@
     </row>
     <row r="461" spans="1:10" s="17" customFormat="1">
       <c r="A461" s="31" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B461" s="31" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C461" s="14"/>
       <c r="D461" s="29"/>
@@ -19065,10 +19073,10 @@
     </row>
     <row r="462" spans="1:10" s="17" customFormat="1">
       <c r="A462" s="31" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C462" s="47">
         <v>32</v>
@@ -19078,10 +19086,10 @@
     </row>
     <row r="463" spans="1:10" s="17" customFormat="1">
       <c r="A463" s="31" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C463" s="47">
         <v>32</v>
@@ -19091,10 +19099,10 @@
     </row>
     <row r="464" spans="1:10" s="17" customFormat="1">
       <c r="A464" s="31" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C464" s="47">
         <v>22</v>
@@ -19104,10 +19112,10 @@
     </row>
     <row r="465" spans="1:10" s="17" customFormat="1">
       <c r="A465" s="31" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B465" s="31" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C465" s="14">
         <v>23</v>
@@ -19117,10 +19125,10 @@
     </row>
     <row r="466" spans="1:10" s="17" customFormat="1">
       <c r="A466" s="31" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B466" s="31" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C466" s="14">
         <v>24</v>
@@ -19130,10 +19138,10 @@
     </row>
     <row r="467" spans="1:10" s="17" customFormat="1">
       <c r="A467" s="31" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B467" s="31" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C467" s="14">
         <v>25</v>
@@ -19143,10 +19151,10 @@
     </row>
     <row r="468" spans="1:10" s="17" customFormat="1">
       <c r="A468" s="31" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B468" s="31" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C468" s="14">
         <v>26</v>
@@ -19163,16 +19171,16 @@
     </row>
     <row r="470" spans="1:10" s="17" customFormat="1">
       <c r="A470" s="28" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C470" s="29">
         <v>408</v>
       </c>
       <c r="D470" s="29" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="J470" s="8"/>
     </row>
@@ -19181,10 +19189,10 @@
     </row>
     <row r="473" spans="1:10" s="17" customFormat="1">
       <c r="A473" s="17" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B473" s="17" t="s">
         <v>2121</v>
-      </c>
-      <c r="B473" s="17" t="s">
-        <v>2122</v>
       </c>
       <c r="C473" s="17">
         <v>411</v>
@@ -19196,31 +19204,31 @@
     </row>
     <row r="475" spans="1:10" s="17" customFormat="1">
       <c r="A475" s="21" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B475" s="21" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C475" s="8">
         <v>415</v>
       </c>
       <c r="D475" s="21" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="J475" s="8"/>
     </row>
     <row r="476" spans="1:10" s="17" customFormat="1">
       <c r="A476" s="17" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B476" s="17" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C476" s="17">
         <v>416</v>
       </c>
       <c r="D476" s="17" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="J476" s="8"/>
     </row>
@@ -19229,14 +19237,14 @@
     </row>
     <row r="478" spans="1:10" s="17" customFormat="1">
       <c r="A478" s="17" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B478" s="17" t="s">
         <v>2160</v>
-      </c>
-      <c r="B478" s="17" t="s">
-        <v>2161</v>
       </c>
       <c r="C478" s="8"/>
       <c r="D478" s="21" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="J478" s="8"/>
     </row>
@@ -19248,61 +19256,61 @@
     </row>
     <row r="481" spans="1:10" s="17" customFormat="1">
       <c r="A481" s="17" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B481" s="17" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C481" s="17">
         <v>419</v>
       </c>
       <c r="D481" s="17" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="J481" s="8"/>
     </row>
     <row r="482" spans="1:10" s="17" customFormat="1">
       <c r="A482" s="17" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C482" s="17">
         <v>420</v>
       </c>
       <c r="D482" s="17" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J482" s="8"/>
     </row>
     <row r="486" spans="1:10" s="17" customFormat="1">
       <c r="A486" s="21" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C486" s="17">
         <v>440</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="J486" s="8"/>
     </row>
     <row r="487" spans="1:10" s="17" customFormat="1">
       <c r="A487" s="17" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B487" s="17" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C487" s="17">
         <v>441</v>
       </c>
       <c r="D487" s="17" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="J487" s="8"/>
     </row>
@@ -19314,152 +19322,152 @@
     </row>
     <row r="490" spans="1:10" s="17" customFormat="1">
       <c r="A490" s="21" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B490" s="21" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C490" s="17">
         <v>403</v>
       </c>
       <c r="D490" s="21" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="J490" s="8"/>
     </row>
     <row r="491" spans="1:10" s="17" customFormat="1">
       <c r="A491" s="21" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B491" s="21" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C491" s="17">
         <v>404</v>
       </c>
       <c r="D491" s="21" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="J491" s="8"/>
     </row>
     <row r="494" spans="1:10">
       <c r="A494" s="66" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B494" s="66" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C494" s="67">
         <v>452</v>
       </c>
       <c r="D494" s="66" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="495" spans="1:10">
       <c r="A495" s="66" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B495" s="66" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C495" s="67">
         <v>453</v>
       </c>
       <c r="D495" s="66" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="69" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B497" s="66" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C497" s="67">
         <v>471</v>
       </c>
       <c r="D497" s="66" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="69" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B499" s="69" t="s">
         <v>2369</v>
-      </c>
-      <c r="B499" s="69" t="s">
-        <v>2370</v>
       </c>
       <c r="C499" s="3">
         <v>455</v>
       </c>
       <c r="D499" s="69" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="3" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C502" s="3">
         <v>457</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="3" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C503" s="3">
         <v>458</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B506" s="3" t="s">
         <v>2435</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>2436</v>
       </c>
       <c r="C506" s="3">
         <v>463</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="69" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B508" s="69" t="s">
         <v>2442</v>
-      </c>
-      <c r="B508" s="69" t="s">
-        <v>2443</v>
       </c>
       <c r="C508" s="3">
         <v>464</v>
       </c>
       <c r="D508" s="69" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="3" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B510" s="69" t="s">
         <v>2481</v>
-      </c>
-      <c r="B510" s="69" t="s">
-        <v>2482</v>
       </c>
       <c r="C510" s="3">
         <v>7</v>
@@ -19467,10 +19475,10 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="69" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B512" s="69" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C512" s="3">
         <v>468</v>
@@ -19478,10 +19486,10 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513" s="69" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B513" s="69" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C513" s="3">
         <v>469</v>
@@ -19489,10 +19497,10 @@
     </row>
     <row r="515" spans="1:10" s="17" customFormat="1">
       <c r="A515" s="21" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B515" s="21" t="s">
         <v>2523</v>
-      </c>
-      <c r="B515" s="21" t="s">
-        <v>2524</v>
       </c>
       <c r="C515" s="17">
         <v>470</v>
@@ -19511,13 +19519,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD501"/>
+  <dimension ref="A1:XFD502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19547,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>442</v>
@@ -19588,7 +19596,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>448</v>
@@ -19775,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>461</v>
@@ -19899,7 +19907,7 @@
         <v>450</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>470</v>
@@ -27730,7 +27738,7 @@
         <v>1252</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
@@ -28036,7 +28044,7 @@
         <v>1246</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E248" s="32"/>
       <c r="F248" s="32"/>
@@ -28056,7 +28064,7 @@
         <v>1602545400</v>
       </c>
       <c r="L248" s="33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="40" customFormat="1">
@@ -28070,7 +28078,7 @@
         <v>1245</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E249" s="32"/>
       <c r="F249" s="32"/>
@@ -28090,7 +28098,7 @@
         <v>1602545400</v>
       </c>
       <c r="L249" s="33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="250" spans="1:12" s="40" customFormat="1">
@@ -28104,7 +28112,7 @@
         <v>1359</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E250" s="32"/>
       <c r="F250" s="32"/>
@@ -28124,7 +28132,7 @@
         <v>1602545400</v>
       </c>
       <c r="L250" s="33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="251" spans="1:12" s="40" customFormat="1">
@@ -28138,7 +28146,7 @@
         <v>1732</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E251" s="32"/>
       <c r="F251" s="32"/>
@@ -28158,7 +28166,7 @@
         <v>1602545400</v>
       </c>
       <c r="L251" s="33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="252" spans="1:12" s="18" customFormat="1">
@@ -31062,7 +31070,7 @@
         <v>1717</v>
       </c>
       <c r="D337" s="57" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E337" s="56"/>
       <c r="F337" s="56"/>
@@ -31082,7 +31090,7 @@
         <v>1609803000</v>
       </c>
       <c r="L337" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="338" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -31096,7 +31104,7 @@
         <v>1718</v>
       </c>
       <c r="D338" s="57" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E338" s="56"/>
       <c r="F338" s="56"/>
@@ -31116,7 +31124,7 @@
         <v>1609803000</v>
       </c>
       <c r="L338" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="339" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -31130,7 +31138,7 @@
         <v>1719</v>
       </c>
       <c r="D339" s="57" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E339" s="56"/>
       <c r="F339" s="56"/>
@@ -31150,7 +31158,7 @@
         <v>1609803000</v>
       </c>
       <c r="L339" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="340" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -31164,7 +31172,7 @@
         <v>1720</v>
       </c>
       <c r="D340" s="57" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E340" s="56"/>
       <c r="F340" s="56"/>
@@ -31184,7 +31192,7 @@
         <v>1609803000</v>
       </c>
       <c r="L340" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="341" spans="1:12 16384:16384" s="58" customFormat="1">
@@ -31195,10 +31203,10 @@
         <v>0</v>
       </c>
       <c r="C341" s="57" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D341" s="57" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E341" s="56"/>
       <c r="F341" s="56"/>
@@ -31218,7 +31226,7 @@
         <v>1609803000</v>
       </c>
       <c r="L341" s="57" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="342" spans="1:12 16384:16384" s="18" customFormat="1">
@@ -31638,7 +31646,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D354" s="15" t="s">
         <v>1765</v>
@@ -32860,7 +32868,7 @@
         <v>1</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D390" s="15" t="s">
         <v>1922</v>
@@ -33067,7 +33075,7 @@
         <v>1967</v>
       </c>
       <c r="D396" s="16" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E396" s="16"/>
       <c r="F396" s="16"/>
@@ -33087,7 +33095,7 @@
         <v>1606779000</v>
       </c>
       <c r="L396" s="15" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="18" customFormat="1">
@@ -33166,10 +33174,10 @@
         <v>1</v>
       </c>
       <c r="C399" s="33" t="s">
-        <v>2047</v>
+        <v>2560</v>
       </c>
       <c r="D399" s="33" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
@@ -33268,10 +33276,10 @@
         <v>0</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E402" s="16"/>
       <c r="F402" s="16"/>
@@ -33285,13 +33293,13 @@
         <v>1</v>
       </c>
       <c r="J402" s="15" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="K402" s="16">
         <v>1607988600</v>
       </c>
       <c r="L402" s="15" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="403" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1">
@@ -33302,10 +33310,10 @@
         <v>0</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E403" s="16"/>
       <c r="F403" s="16"/>
@@ -33325,7 +33333,7 @@
         <v>1609198200</v>
       </c>
       <c r="L403" s="16" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="404" spans="1:12" s="18" customFormat="1">
@@ -33336,10 +33344,10 @@
         <v>0</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E404" s="16"/>
       <c r="F404" s="16"/>
@@ -33359,7 +33367,7 @@
         <v>1609198200</v>
       </c>
       <c r="L404" s="15" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="405" spans="1:12" s="18" customFormat="1">
@@ -33370,10 +33378,10 @@
         <v>0</v>
       </c>
       <c r="C405" s="15" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D405" s="15" t="s">
         <v>2095</v>
-      </c>
-      <c r="D405" s="15" t="s">
-        <v>2096</v>
       </c>
       <c r="E405" s="16"/>
       <c r="F405" s="16"/>
@@ -33387,7 +33395,7 @@
         <v>0</v>
       </c>
       <c r="J405" s="15" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="K405" s="16">
         <v>0</v>
@@ -33404,10 +33412,10 @@
         <v>0</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E406" s="16"/>
       <c r="F406" s="16"/>
@@ -33427,7 +33435,7 @@
         <v>1609171200</v>
       </c>
       <c r="L406" s="16" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="407" spans="1:12" s="18" customFormat="1">
@@ -33438,10 +33446,10 @@
         <v>1</v>
       </c>
       <c r="C407" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D407" s="16" t="s">
         <v>2116</v>
-      </c>
-      <c r="D407" s="16" t="s">
-        <v>2117</v>
       </c>
       <c r="E407" s="16"/>
       <c r="F407" s="16"/>
@@ -33461,7 +33469,7 @@
         <v>1609198200</v>
       </c>
       <c r="L407" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="408" spans="1:12" s="18" customFormat="1">
@@ -33472,10 +33480,10 @@
         <v>1</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E408" s="16"/>
       <c r="F408" s="16"/>
@@ -33495,7 +33503,7 @@
         <v>0</v>
       </c>
       <c r="L408" s="15" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="409" spans="1:12" s="18" customFormat="1">
@@ -33506,10 +33514,10 @@
         <v>0</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E409" s="16"/>
       <c r="F409" s="16"/>
@@ -33529,7 +33537,7 @@
         <v>1609716600</v>
       </c>
       <c r="L409" s="15" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="410" spans="1:12" s="18" customFormat="1">
@@ -33540,10 +33548,10 @@
         <v>0</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E410" s="16"/>
       <c r="F410" s="16"/>
@@ -33557,13 +33565,13 @@
         <v>1</v>
       </c>
       <c r="J410" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K410" s="16">
         <v>1609716600</v>
       </c>
       <c r="L410" s="15" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="411" spans="1:12" s="18" customFormat="1">
@@ -33574,10 +33582,10 @@
         <v>0</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E411" s="16"/>
       <c r="F411" s="16"/>
@@ -33591,13 +33599,13 @@
         <v>1</v>
       </c>
       <c r="J411" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K411" s="16">
         <v>1609716600</v>
       </c>
       <c r="L411" s="15" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="412" spans="1:12" s="18" customFormat="1">
@@ -33608,10 +33616,10 @@
         <v>0</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E412" s="16"/>
       <c r="F412" s="16"/>
@@ -33625,13 +33633,13 @@
         <v>1</v>
       </c>
       <c r="J412" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K412" s="16">
         <v>1609716600</v>
       </c>
       <c r="L412" s="15" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="413" spans="1:12" s="18" customFormat="1">
@@ -33642,10 +33650,10 @@
         <v>0</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D413" s="15" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E413" s="16"/>
       <c r="F413" s="16"/>
@@ -33659,13 +33667,13 @@
         <v>1</v>
       </c>
       <c r="J413" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K413" s="16">
         <v>1609716600</v>
       </c>
       <c r="L413" s="15" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="414" spans="1:12" s="18" customFormat="1">
@@ -33676,10 +33684,10 @@
         <v>0</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E414" s="16"/>
       <c r="F414" s="16"/>
@@ -33693,13 +33701,13 @@
         <v>1</v>
       </c>
       <c r="J414" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K414" s="16">
         <v>1610380800</v>
       </c>
       <c r="L414" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="415" spans="1:12" s="18" customFormat="1">
@@ -33710,10 +33718,10 @@
         <v>0</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E415" s="16"/>
       <c r="F415" s="16"/>
@@ -33727,13 +33735,13 @@
         <v>1</v>
       </c>
       <c r="J415" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K415" s="16">
         <v>1611012600</v>
       </c>
       <c r="L415" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="416" spans="1:12" s="18" customFormat="1">
@@ -33744,10 +33752,10 @@
         <v>0</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E416" s="16"/>
       <c r="F416" s="16"/>
@@ -33761,13 +33769,13 @@
         <v>1</v>
       </c>
       <c r="J416" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K416" s="16">
         <v>1611012600</v>
       </c>
       <c r="L416" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="417" spans="1:13" s="18" customFormat="1">
@@ -33778,10 +33786,10 @@
         <v>0</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E417" s="16"/>
       <c r="F417" s="16"/>
@@ -33795,13 +33803,13 @@
         <v>1</v>
       </c>
       <c r="J417" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K417" s="16">
         <v>1611012600</v>
       </c>
       <c r="L417" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="418" spans="1:13" s="18" customFormat="1">
@@ -33812,10 +33820,10 @@
         <v>0</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E418" s="16"/>
       <c r="F418" s="16"/>
@@ -33829,13 +33837,13 @@
         <v>1</v>
       </c>
       <c r="J418" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K418" s="16">
         <v>1611012600</v>
       </c>
       <c r="L418" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="419" spans="1:13" s="18" customFormat="1">
@@ -33846,10 +33854,10 @@
         <v>0</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E419" s="16"/>
       <c r="F419" s="16"/>
@@ -33863,13 +33871,13 @@
         <v>1</v>
       </c>
       <c r="J419" s="15" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K419" s="16">
         <v>1610380800</v>
       </c>
       <c r="L419" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="420" spans="1:13" s="18" customFormat="1">
@@ -33880,10 +33888,10 @@
         <v>0</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E420" s="16"/>
       <c r="F420" s="16"/>
@@ -33903,7 +33911,7 @@
         <v>1610380800</v>
       </c>
       <c r="L420" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="421" spans="1:13" s="18" customFormat="1">
@@ -33914,10 +33922,10 @@
         <v>0</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E421" s="16"/>
       <c r="F421" s="16"/>
@@ -33931,13 +33939,13 @@
         <v>1</v>
       </c>
       <c r="J421" s="15" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="K421" s="16">
         <v>1611012600</v>
       </c>
       <c r="L421" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="422" spans="1:13" s="18" customFormat="1">
@@ -33948,10 +33956,10 @@
         <v>0</v>
       </c>
       <c r="C422" s="15" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D422" s="15" t="s">
         <v>2219</v>
-      </c>
-      <c r="D422" s="15" t="s">
-        <v>2220</v>
       </c>
       <c r="E422" s="16"/>
       <c r="F422" s="16"/>
@@ -33965,13 +33973,13 @@
         <v>1</v>
       </c>
       <c r="J422" s="15" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K422" s="16">
         <v>1611012600</v>
       </c>
       <c r="L422" s="15" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="423" spans="1:13" s="18" customFormat="1">
@@ -33982,10 +33990,10 @@
         <v>0</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D423" s="60" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E423" s="16"/>
       <c r="F423" s="16"/>
@@ -33999,13 +34007,13 @@
         <v>0</v>
       </c>
       <c r="J423" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K423" s="16">
         <v>1611012600</v>
       </c>
       <c r="L423" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="424" spans="1:13" s="18" customFormat="1">
@@ -34016,10 +34024,10 @@
         <v>0</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D424" s="60" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E424" s="16"/>
       <c r="F424" s="16"/>
@@ -34033,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="J424" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K424" s="16">
         <v>1611012600</v>
       </c>
       <c r="L424" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="425" spans="1:13" s="18" customFormat="1">
@@ -34050,10 +34058,10 @@
         <v>0</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D425" s="60" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E425" s="16"/>
       <c r="F425" s="16"/>
@@ -34067,13 +34075,13 @@
         <v>0</v>
       </c>
       <c r="J425" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K425" s="16">
         <v>1611012600</v>
       </c>
       <c r="L425" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="426" spans="1:13" s="18" customFormat="1">
@@ -34084,10 +34092,10 @@
         <v>0</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D426" s="60" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E426" s="16"/>
       <c r="F426" s="16"/>
@@ -34101,13 +34109,13 @@
         <v>0</v>
       </c>
       <c r="J426" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K426" s="16">
         <v>1611012600</v>
       </c>
       <c r="L426" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="427" spans="1:13" s="18" customFormat="1">
@@ -34118,10 +34126,10 @@
         <v>0</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D427" s="60" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E427" s="16"/>
       <c r="F427" s="16"/>
@@ -34135,13 +34143,13 @@
         <v>0</v>
       </c>
       <c r="J427" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K427" s="16">
         <v>1611012600</v>
       </c>
       <c r="L427" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="428" spans="1:13" s="18" customFormat="1">
@@ -34152,10 +34160,10 @@
         <v>0</v>
       </c>
       <c r="C428" s="15" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D428" s="60" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E428" s="16"/>
       <c r="F428" s="16"/>
@@ -34169,13 +34177,13 @@
         <v>0</v>
       </c>
       <c r="J428" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K428" s="16">
         <v>1611012600</v>
       </c>
       <c r="L428" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="429" spans="1:13" s="18" customFormat="1">
@@ -34186,10 +34194,10 @@
         <v>0</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D429" s="60" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E429" s="16"/>
       <c r="F429" s="16"/>
@@ -34203,13 +34211,13 @@
         <v>0</v>
       </c>
       <c r="J429" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K429" s="16">
         <v>1611012600</v>
       </c>
       <c r="L429" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="430" spans="1:13" s="18" customFormat="1">
@@ -34220,10 +34228,10 @@
         <v>0</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D430" s="60" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E430" s="16"/>
       <c r="F430" s="16"/>
@@ -34237,13 +34245,13 @@
         <v>0</v>
       </c>
       <c r="J430" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K430" s="16">
         <v>1611012600</v>
       </c>
       <c r="L430" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="431" spans="1:13" s="18" customFormat="1">
@@ -34254,10 +34262,10 @@
         <v>0</v>
       </c>
       <c r="C431" s="15" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D431" s="60" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E431" s="16"/>
       <c r="F431" s="16"/>
@@ -34271,16 +34279,16 @@
         <v>0</v>
       </c>
       <c r="J431" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K431" s="16">
         <v>1611012600</v>
       </c>
       <c r="L431" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M431" s="25" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="432" spans="1:13" s="18" customFormat="1">
@@ -34291,10 +34299,10 @@
         <v>0</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D432" s="60" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E432" s="16"/>
       <c r="F432" s="16"/>
@@ -34308,13 +34316,13 @@
         <v>0</v>
       </c>
       <c r="J432" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K432" s="16">
         <v>1611012600</v>
       </c>
       <c r="L432" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="433" spans="1:12" s="18" customFormat="1">
@@ -34325,10 +34333,10 @@
         <v>0</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D433" s="60" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E433" s="16"/>
       <c r="F433" s="16"/>
@@ -34342,13 +34350,13 @@
         <v>0</v>
       </c>
       <c r="J433" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K433" s="16">
         <v>1611012600</v>
       </c>
       <c r="L433" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="434" spans="1:12" s="18" customFormat="1">
@@ -34359,10 +34367,10 @@
         <v>0</v>
       </c>
       <c r="C434" s="15" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D434" s="60" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E434" s="16"/>
       <c r="F434" s="16"/>
@@ -34376,13 +34384,13 @@
         <v>0</v>
       </c>
       <c r="J434" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K434" s="16">
         <v>1611012600</v>
       </c>
       <c r="L434" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="435" spans="1:12" s="18" customFormat="1">
@@ -34393,10 +34401,10 @@
         <v>0</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E435" s="16"/>
       <c r="F435" s="16"/>
@@ -34410,13 +34418,13 @@
         <v>1</v>
       </c>
       <c r="J435" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K435" s="16">
         <v>1611617400</v>
       </c>
       <c r="L435" s="15" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="436" spans="1:12" s="18" customFormat="1">
@@ -34427,10 +34435,10 @@
         <v>0</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D436" s="15" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E436" s="16"/>
       <c r="F436" s="16"/>
@@ -34450,7 +34458,7 @@
         <v>1611617400</v>
       </c>
       <c r="L436" s="15" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="437" spans="1:12" s="18" customFormat="1">
@@ -34461,10 +34469,10 @@
         <v>0</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D437" s="15" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E437" s="16"/>
       <c r="F437" s="16"/>
@@ -34484,7 +34492,7 @@
         <v>1611617400</v>
       </c>
       <c r="L437" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="438" spans="1:12" s="18" customFormat="1">
@@ -34495,10 +34503,10 @@
         <v>0</v>
       </c>
       <c r="C438" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D438" s="15" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E438" s="16"/>
       <c r="F438" s="16"/>
@@ -34518,7 +34526,7 @@
         <v>1611617400</v>
       </c>
       <c r="L438" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="439" spans="1:12" s="18" customFormat="1">
@@ -34529,10 +34537,10 @@
         <v>0</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E439" s="16"/>
       <c r="F439" s="16"/>
@@ -34552,7 +34560,7 @@
         <v>1611617400</v>
       </c>
       <c r="L439" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="440" spans="1:12" s="18" customFormat="1">
@@ -34563,10 +34571,10 @@
         <v>0</v>
       </c>
       <c r="C440" s="15" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D440" s="15" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E440" s="16"/>
       <c r="F440" s="16"/>
@@ -34586,7 +34594,7 @@
         <v>1612222200</v>
       </c>
       <c r="L440" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="441" spans="1:12" s="18" customFormat="1">
@@ -34597,10 +34605,10 @@
         <v>0</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D441" s="15" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E441" s="16"/>
       <c r="F441" s="16"/>
@@ -34620,7 +34628,7 @@
         <v>1612222200</v>
       </c>
       <c r="L441" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="442" spans="1:12" s="18" customFormat="1">
@@ -34631,10 +34639,10 @@
         <v>0</v>
       </c>
       <c r="C442" s="15" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D442" s="15" t="s">
         <v>2283</v>
-      </c>
-      <c r="D442" s="15" t="s">
-        <v>2284</v>
       </c>
       <c r="E442" s="16"/>
       <c r="F442" s="16"/>
@@ -34654,7 +34662,7 @@
         <v>1612222200</v>
       </c>
       <c r="L442" s="15" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="443" spans="1:12" s="18" customFormat="1">
@@ -34665,10 +34673,10 @@
         <v>0</v>
       </c>
       <c r="C443" s="15" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D443" s="15" t="s">
         <v>2286</v>
-      </c>
-      <c r="D443" s="15" t="s">
-        <v>2287</v>
       </c>
       <c r="E443" s="16"/>
       <c r="F443" s="16"/>
@@ -34688,7 +34696,7 @@
         <v>1612195200</v>
       </c>
       <c r="L443" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="444" spans="1:12" s="18" customFormat="1">
@@ -34699,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D444" s="15" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E444" s="16"/>
       <c r="F444" s="16"/>
@@ -34722,7 +34730,7 @@
         <v>1612222200</v>
       </c>
       <c r="L444" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="445" spans="1:12" s="18" customFormat="1">
@@ -34733,10 +34741,10 @@
         <v>0</v>
       </c>
       <c r="C445" s="15" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D445" s="15" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E445" s="16"/>
       <c r="F445" s="16"/>
@@ -34756,7 +34764,7 @@
         <v>1612222200</v>
       </c>
       <c r="L445" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="446" spans="1:12" s="18" customFormat="1">
@@ -34767,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="C446" s="15" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D446" s="15" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E446" s="16"/>
       <c r="F446" s="16"/>
@@ -34790,7 +34798,7 @@
         <v>1612222200</v>
       </c>
       <c r="L446" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="447" spans="1:12" s="18" customFormat="1">
@@ -34801,10 +34809,10 @@
         <v>0</v>
       </c>
       <c r="C447" s="15" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D447" s="15" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E447" s="16"/>
       <c r="F447" s="16"/>
@@ -34824,7 +34832,7 @@
         <v>1612222200</v>
       </c>
       <c r="L447" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="448" spans="1:12" s="18" customFormat="1">
@@ -34835,10 +34843,10 @@
         <v>0</v>
       </c>
       <c r="C448" s="16" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D448" s="16" t="s">
         <v>2298</v>
-      </c>
-      <c r="D448" s="16" t="s">
-        <v>2299</v>
       </c>
       <c r="E448" s="16"/>
       <c r="F448" s="16"/>
@@ -34858,7 +34866,7 @@
         <v>1612195200</v>
       </c>
       <c r="L448" s="15" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="449" spans="1:12" s="18" customFormat="1">
@@ -34869,10 +34877,10 @@
         <v>0</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E449" s="16"/>
       <c r="F449" s="16"/>
@@ -34892,7 +34900,7 @@
         <v>1613431800</v>
       </c>
       <c r="L449" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="450" spans="1:12" s="18" customFormat="1">
@@ -34903,10 +34911,10 @@
         <v>0</v>
       </c>
       <c r="C450" s="15" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E450" s="16"/>
       <c r="F450" s="16"/>
@@ -34926,7 +34934,7 @@
         <v>1613431800</v>
       </c>
       <c r="L450" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="451" spans="1:12" s="18" customFormat="1">
@@ -34937,10 +34945,10 @@
         <v>0</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E451" s="16"/>
       <c r="F451" s="16"/>
@@ -34960,7 +34968,7 @@
         <v>1613431800</v>
       </c>
       <c r="L451" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="452" spans="1:12" s="18" customFormat="1">
@@ -34971,10 +34979,10 @@
         <v>0</v>
       </c>
       <c r="C452" s="15" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E452" s="16"/>
       <c r="F452" s="16"/>
@@ -34994,7 +35002,7 @@
         <v>1613431800</v>
       </c>
       <c r="L452" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="453" spans="1:12" s="18" customFormat="1">
@@ -35005,10 +35013,10 @@
         <v>0</v>
       </c>
       <c r="C453" s="15" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E453" s="16"/>
       <c r="F453" s="16"/>
@@ -35028,7 +35036,7 @@
         <v>1614036600</v>
       </c>
       <c r="L453" s="15" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="454" spans="1:12" s="18" customFormat="1">
@@ -35039,10 +35047,10 @@
         <v>1</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E454" s="16"/>
       <c r="F454" s="16"/>
@@ -35062,7 +35070,7 @@
         <v>1614036600</v>
       </c>
       <c r="L454" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="455" spans="1:12" s="18" customFormat="1">
@@ -35073,10 +35081,10 @@
         <v>1</v>
       </c>
       <c r="C455" s="15" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E455" s="16"/>
       <c r="F455" s="16"/>
@@ -35096,7 +35104,7 @@
         <v>1614036600</v>
       </c>
       <c r="L455" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="456" spans="1:12" s="18" customFormat="1">
@@ -35107,10 +35115,10 @@
         <v>1</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E456" s="16"/>
       <c r="F456" s="16"/>
@@ -35130,7 +35138,7 @@
         <v>1614036600</v>
       </c>
       <c r="L456" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="457" spans="1:12" s="18" customFormat="1">
@@ -35141,10 +35149,10 @@
         <v>1</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
@@ -35164,7 +35172,7 @@
         <v>1614036600</v>
       </c>
       <c r="L457" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="458" spans="1:12" s="18" customFormat="1">
@@ -35175,10 +35183,10 @@
         <v>0</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D458" s="15" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E458" s="16"/>
       <c r="F458" s="16"/>
@@ -35198,7 +35206,7 @@
         <v>1614614400</v>
       </c>
       <c r="L458" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="459" spans="1:12" s="18" customFormat="1">
@@ -35209,10 +35217,10 @@
         <v>0</v>
       </c>
       <c r="C459" s="15" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E459" s="16"/>
       <c r="F459" s="16"/>
@@ -35232,7 +35240,7 @@
         <v>1614614400</v>
       </c>
       <c r="L459" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="460" spans="1:12" s="18" customFormat="1">
@@ -35243,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E460" s="16"/>
       <c r="F460" s="16"/>
@@ -35266,7 +35274,7 @@
         <v>1614614400</v>
       </c>
       <c r="L460" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="461" spans="1:12" s="18" customFormat="1">
@@ -35277,10 +35285,10 @@
         <v>0</v>
       </c>
       <c r="C461" s="15" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E461" s="16"/>
       <c r="F461" s="16"/>
@@ -35300,7 +35308,7 @@
         <v>1614614400</v>
       </c>
       <c r="L461" s="15" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="462" spans="1:12" s="63" customFormat="1">
@@ -35311,10 +35319,10 @@
         <v>1</v>
       </c>
       <c r="C462" s="62" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D462" s="62" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E462" s="61"/>
       <c r="F462" s="61"/>
@@ -35334,7 +35342,7 @@
         <v>1615246200</v>
       </c>
       <c r="L462" s="62" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="463" spans="1:12" s="63" customFormat="1">
@@ -35345,10 +35353,10 @@
         <v>1</v>
       </c>
       <c r="C463" s="62" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D463" s="62" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E463" s="61"/>
       <c r="F463" s="61"/>
@@ -35368,7 +35376,7 @@
         <v>1615851000</v>
       </c>
       <c r="L463" s="62" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -35379,10 +35387,10 @@
         <v>1</v>
       </c>
       <c r="C464" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D464" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="G464" s="19">
         <v>459</v>
@@ -35400,7 +35408,7 @@
         <v>1617638400</v>
       </c>
       <c r="L464" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="465" spans="1:15">
@@ -35411,10 +35419,10 @@
         <v>1</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D465" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="G465" s="19">
         <v>460</v>
@@ -35432,7 +35440,7 @@
         <v>1617638400</v>
       </c>
       <c r="L465" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="466" spans="1:15">
@@ -35443,10 +35451,10 @@
         <v>1</v>
       </c>
       <c r="C466" s="20" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D466" s="20" t="s">
         <v>2389</v>
-      </c>
-      <c r="D466" s="20" t="s">
-        <v>2390</v>
       </c>
       <c r="G466" s="19">
         <v>461</v>
@@ -35458,13 +35466,13 @@
         <v>1</v>
       </c>
       <c r="J466" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K466" s="19">
         <v>1617060600</v>
       </c>
       <c r="L466" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="467" spans="1:15">
@@ -35475,10 +35483,10 @@
         <v>1</v>
       </c>
       <c r="C467" s="20" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D467" s="20" t="s">
         <v>2427</v>
-      </c>
-      <c r="D467" s="20" t="s">
-        <v>2428</v>
       </c>
       <c r="G467" s="19">
         <v>462</v>
@@ -35490,13 +35498,13 @@
         <v>1</v>
       </c>
       <c r="J467" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K467" s="19">
         <v>1619479800</v>
       </c>
       <c r="L467" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="16.5">
@@ -35507,10 +35515,10 @@
         <v>1</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
@@ -35548,10 +35556,10 @@
         <v>1</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D469" s="60" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E469" s="16"/>
       <c r="F469" s="16"/>
@@ -35584,10 +35592,10 @@
         <v>1</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D470" s="60" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E470" s="16"/>
       <c r="F470" s="16"/>
@@ -35620,10 +35628,10 @@
         <v>1</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D471" s="60" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E471" s="16"/>
       <c r="F471" s="16"/>
@@ -35656,10 +35664,10 @@
         <v>1</v>
       </c>
       <c r="C472" s="15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D472" s="15" t="s">
         <v>2466</v>
-      </c>
-      <c r="D472" s="15" t="s">
-        <v>2467</v>
       </c>
       <c r="E472" s="16"/>
       <c r="F472" s="16"/>
@@ -35685,7 +35693,7 @@
         <v>468</v>
       </c>
       <c r="N472" s="21" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="473" spans="1:15">
@@ -35696,10 +35704,10 @@
         <v>1</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E473" s="16"/>
       <c r="F473" s="16"/>
@@ -35722,7 +35730,7 @@
         <v>450</v>
       </c>
       <c r="M473" s="21" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="N473" s="21" t="s">
         <v>470</v>
@@ -35736,10 +35744,10 @@
         <v>1</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E474" s="16"/>
       <c r="F474" s="16"/>
@@ -35772,10 +35780,10 @@
         <v>1</v>
       </c>
       <c r="C475" s="15" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D475" s="15" t="s">
         <v>2462</v>
-      </c>
-      <c r="D475" s="15" t="s">
-        <v>2463</v>
       </c>
       <c r="E475" s="16"/>
       <c r="F475" s="16"/>
@@ -35808,10 +35816,10 @@
         <v>1</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E476" s="16"/>
       <c r="F476" s="16"/>
@@ -35844,10 +35852,10 @@
         <v>1</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D477" s="15" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
@@ -35880,10 +35888,10 @@
         <v>1</v>
       </c>
       <c r="C478" s="15" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D478" s="15" t="s">
         <v>2458</v>
-      </c>
-      <c r="D478" s="15" t="s">
-        <v>2459</v>
       </c>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
@@ -35916,10 +35924,10 @@
         <v>1</v>
       </c>
       <c r="C479" s="15" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E479" s="16"/>
       <c r="F479" s="16"/>
@@ -35952,10 +35960,10 @@
         <v>1</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D480" s="15" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E480" s="16"/>
       <c r="F480" s="16"/>
@@ -35988,10 +35996,10 @@
         <v>1</v>
       </c>
       <c r="C481" s="15" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D481" s="15" t="s">
         <v>2454</v>
-      </c>
-      <c r="D481" s="15" t="s">
-        <v>2455</v>
       </c>
       <c r="E481" s="16"/>
       <c r="F481" s="16"/>
@@ -36024,10 +36032,10 @@
         <v>1</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E482" s="16"/>
       <c r="F482" s="16"/>
@@ -36060,10 +36068,10 @@
         <v>1</v>
       </c>
       <c r="C483" s="15" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D483" s="15" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E483" s="16"/>
       <c r="F483" s="16"/>
@@ -36096,7 +36104,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="15" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D484" s="15" t="s">
         <v>485</v>
@@ -36132,7 +36140,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D485" s="15" t="s">
         <v>485</v>
@@ -36168,7 +36176,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D486" s="15" t="s">
         <v>485</v>
@@ -36204,10 +36212,10 @@
         <v>1</v>
       </c>
       <c r="C487" s="20" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D487" s="71" t="s">
         <v>2486</v>
-      </c>
-      <c r="D487" s="71" t="s">
-        <v>2487</v>
       </c>
       <c r="G487" s="8">
         <v>8</v>
@@ -36236,10 +36244,10 @@
         <v>1</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D488" s="71" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="G488" s="8">
         <v>9</v>
@@ -36268,10 +36276,10 @@
         <v>1</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D489" s="71" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G489" s="8">
         <v>10</v>
@@ -36300,10 +36308,10 @@
         <v>1</v>
       </c>
       <c r="C490" s="20" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D490" s="71" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="G490" s="8">
         <v>11</v>
@@ -36332,10 +36340,10 @@
         <v>1</v>
       </c>
       <c r="C491" s="20" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D491" s="71" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="G491" s="8">
         <v>12</v>
@@ -36364,10 +36372,10 @@
         <v>1</v>
       </c>
       <c r="C492" s="20" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D492" s="71" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G492" s="8">
         <v>13</v>
@@ -36396,10 +36404,10 @@
         <v>1</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D493" s="71" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G493" s="8">
         <v>14</v>
@@ -36428,10 +36436,10 @@
         <v>1</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D494" s="71" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="G494" s="8">
         <v>15</v>
@@ -36460,10 +36468,10 @@
         <v>1</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D495" s="71" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="G495" s="8">
         <v>16</v>
@@ -36492,10 +36500,10 @@
         <v>1</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D496" s="71" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="G496" s="8">
         <v>465</v>
@@ -36524,10 +36532,10 @@
         <v>1</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D497" s="71" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="G497" s="8">
         <v>466</v>
@@ -36556,10 +36564,10 @@
         <v>1</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D498" s="71" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="G498" s="8">
         <v>467</v>
@@ -36588,10 +36596,10 @@
         <v>1</v>
       </c>
       <c r="C499" s="20" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D499" s="20" t="s">
         <v>2528</v>
-      </c>
-      <c r="D499" s="20" t="s">
-        <v>2529</v>
       </c>
       <c r="G499" s="19">
         <v>471</v>
@@ -36603,7 +36611,7 @@
         <v>1</v>
       </c>
       <c r="J499" s="20" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K499" s="19">
         <v>0</v>
@@ -36620,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="C500" s="20" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D500" s="19" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="G500" s="19">
         <v>470</v>
@@ -36652,10 +36660,10 @@
         <v>1</v>
       </c>
       <c r="C501" s="20" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D501" s="20" t="s">
         <v>2539</v>
-      </c>
-      <c r="D501" s="20" t="s">
-        <v>2540</v>
       </c>
       <c r="G501" s="19">
         <v>470</v>
@@ -36674,6 +36682,40 @@
       </c>
       <c r="L501" s="20" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" s="18" customFormat="1">
+      <c r="A502" s="16">
+        <v>501</v>
+      </c>
+      <c r="B502" s="16">
+        <v>1</v>
+      </c>
+      <c r="C502" s="15" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D502" s="15" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E502" s="16"/>
+      <c r="F502" s="16"/>
+      <c r="G502" s="16">
+        <v>470</v>
+      </c>
+      <c r="H502" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I502" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J502" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K502" s="16">
+        <v>1607988600</v>
+      </c>
+      <c r="L502" s="15" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -36689,10 +36731,10 @@
   <dimension ref="A1:I1126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D192" sqref="D192"/>
+      <selection pane="bottomRight" activeCell="C1121" sqref="C1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37704,7 +37746,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1">
@@ -39061,7 +39103,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1">
@@ -39302,7 +39344,7 @@
         <v>60</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1069</v>
@@ -41099,7 +41141,7 @@
         <v>845</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E190" s="8">
         <v>2</v>
@@ -41145,7 +41187,7 @@
         <v>845</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E192" s="8">
         <v>2</v>
@@ -41168,7 +41210,7 @@
         <v>845</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="E193" s="8">
         <v>2</v>
@@ -43514,16 +43556,16 @@
         <v>845</v>
       </c>
       <c r="D295" s="31" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E295" s="14">
+        <v>2</v>
+      </c>
+      <c r="F295" s="14">
+        <v>1</v>
+      </c>
+      <c r="G295" s="31" t="s">
         <v>2113</v>
-      </c>
-      <c r="E295" s="14">
-        <v>2</v>
-      </c>
-      <c r="F295" s="14">
-        <v>1</v>
-      </c>
-      <c r="G295" s="31" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="8" customFormat="1">
@@ -43534,19 +43576,19 @@
         <v>109</v>
       </c>
       <c r="C296" s="31" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D296" s="31" t="s">
         <v>2446</v>
       </c>
-      <c r="D296" s="31" t="s">
+      <c r="E296" s="14">
+        <v>2</v>
+      </c>
+      <c r="F296" s="14">
+        <v>1</v>
+      </c>
+      <c r="G296" s="31" t="s">
         <v>2447</v>
-      </c>
-      <c r="E296" s="14">
-        <v>2</v>
-      </c>
-      <c r="F296" s="14">
-        <v>1</v>
-      </c>
-      <c r="G296" s="31" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="8" customFormat="1">
@@ -43557,19 +43599,19 @@
         <v>109</v>
       </c>
       <c r="C297" s="31" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D297" s="31" t="s">
         <v>2449</v>
       </c>
-      <c r="D297" s="31" t="s">
+      <c r="E297" s="14">
+        <v>2</v>
+      </c>
+      <c r="F297" s="14">
+        <v>1</v>
+      </c>
+      <c r="G297" s="31" t="s">
         <v>2450</v>
-      </c>
-      <c r="E297" s="14">
-        <v>2</v>
-      </c>
-      <c r="F297" s="14">
-        <v>1</v>
-      </c>
-      <c r="G297" s="31" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="8" customFormat="1">
@@ -46988,7 +47030,7 @@
         <v>1</v>
       </c>
       <c r="G445" s="10" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="446" spans="1:7" s="8" customFormat="1">
@@ -47080,7 +47122,7 @@
         <v>1</v>
       </c>
       <c r="G449" s="10" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="450" spans="1:7" s="8" customFormat="1">
@@ -48402,7 +48444,7 @@
         <v>174</v>
       </c>
       <c r="C507" s="31" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D507" s="31">
         <v>600</v>
@@ -48437,7 +48479,7 @@
         <v>3</v>
       </c>
       <c r="G508" s="31" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="509" spans="1:7" s="8" customFormat="1">
@@ -49265,7 +49307,7 @@
         <v>1</v>
       </c>
       <c r="G544" s="65" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="545" spans="1:7" s="8" customFormat="1">
@@ -49334,7 +49376,7 @@
         <v>2</v>
       </c>
       <c r="G547" s="65" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="8" customFormat="1">
@@ -49357,7 +49399,7 @@
         <v>2</v>
       </c>
       <c r="G548" s="65" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="549" spans="1:7" s="8" customFormat="1">
@@ -49472,7 +49514,7 @@
         <v>2</v>
       </c>
       <c r="G553" s="65" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="554" spans="1:7" s="8" customFormat="1">
@@ -52026,7 +52068,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="10" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="665" spans="1:7" s="8" customFormat="1">
@@ -54547,7 +54589,7 @@
         <v>845</v>
       </c>
       <c r="D774" s="10" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="E774" s="8">
         <v>5</v>
@@ -54570,7 +54612,7 @@
         <v>845</v>
       </c>
       <c r="D775" s="10" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E775" s="8">
         <v>5</v>
@@ -54685,7 +54727,7 @@
         <v>845</v>
       </c>
       <c r="D780" s="31" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E780" s="14">
         <v>5</v>
@@ -54694,7 +54736,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="31" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="781" spans="1:7" s="8" customFormat="1">
@@ -54731,7 +54773,7 @@
         <v>845</v>
       </c>
       <c r="D782" s="31" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E782" s="14">
         <v>2</v>
@@ -54740,7 +54782,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="31" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="783" spans="1:7" s="8" customFormat="1">
@@ -55798,7 +55840,7 @@
         <v>3</v>
       </c>
       <c r="G828" s="52" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="829" spans="1:7" s="8" customFormat="1">
@@ -58158,7 +58200,7 @@
         <v>845</v>
       </c>
       <c r="D931" s="30" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -58181,7 +58223,7 @@
         <v>845</v>
       </c>
       <c r="D932" s="30" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E932" s="8">
         <v>2</v>
@@ -58388,7 +58430,7 @@
         <v>845</v>
       </c>
       <c r="D941" s="30" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E941" s="8">
         <v>5</v>
@@ -58411,7 +58453,7 @@
         <v>845</v>
       </c>
       <c r="D942" s="30" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E942" s="8">
         <v>5</v>
@@ -59156,7 +59198,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -59179,7 +59221,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -59236,19 +59278,19 @@
         <v>407</v>
       </c>
       <c r="C978" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D978" s="44" t="s">
         <v>2085</v>
       </c>
-      <c r="D978" s="44" t="s">
+      <c r="E978" s="8">
+        <v>2</v>
+      </c>
+      <c r="F978" s="8">
+        <v>1</v>
+      </c>
+      <c r="G978" s="10" t="s">
         <v>2086</v>
-      </c>
-      <c r="E978" s="8">
-        <v>2</v>
-      </c>
-      <c r="F978" s="8">
-        <v>1</v>
-      </c>
-      <c r="G978" s="10" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59262,16 +59304,16 @@
         <v>1021</v>
       </c>
       <c r="D979" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E979" s="8">
+        <v>2</v>
+      </c>
+      <c r="F979" s="8">
+        <v>2</v>
+      </c>
+      <c r="G979" s="10" t="s">
         <v>2088</v>
-      </c>
-      <c r="E979" s="8">
-        <v>2</v>
-      </c>
-      <c r="F979" s="8">
-        <v>2</v>
-      </c>
-      <c r="G979" s="10" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59282,19 +59324,19 @@
         <v>407</v>
       </c>
       <c r="C980" s="8" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D980" s="10" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E980" s="8">
+        <v>2</v>
+      </c>
+      <c r="F980" s="8">
+        <v>2</v>
+      </c>
+      <c r="G980" s="10" t="s">
         <v>2092</v>
-      </c>
-      <c r="E980" s="8">
-        <v>2</v>
-      </c>
-      <c r="F980" s="8">
-        <v>2</v>
-      </c>
-      <c r="G980" s="10" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="981" spans="1:7" s="8" customFormat="1">
@@ -59317,7 +59359,7 @@
         <v>3</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="982" spans="1:7" s="8" customFormat="1">
@@ -59328,10 +59370,10 @@
         <v>407</v>
       </c>
       <c r="C982" s="8" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D982" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E982" s="8">
         <v>2</v>
@@ -59340,7 +59382,7 @@
         <v>3</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59354,7 +59396,7 @@
         <v>1021</v>
       </c>
       <c r="D983" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E983" s="8">
         <v>2</v>
@@ -59363,7 +59405,7 @@
         <v>2</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59377,7 +59419,7 @@
         <v>845</v>
       </c>
       <c r="D984" s="30" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E984" s="8">
         <v>5</v>
@@ -59409,7 +59451,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59455,7 +59497,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59478,7 +59520,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59501,7 +59543,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59515,16 +59557,16 @@
         <v>845</v>
       </c>
       <c r="D990" s="30" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E990" s="8">
+        <v>2</v>
+      </c>
+      <c r="F990" s="8">
+        <v>1</v>
+      </c>
+      <c r="G990" s="10" t="s">
         <v>2136</v>
-      </c>
-      <c r="E990" s="8">
-        <v>2</v>
-      </c>
-      <c r="F990" s="8">
-        <v>1</v>
-      </c>
-      <c r="G990" s="10" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59570,7 +59612,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59604,19 +59646,19 @@
         <v>418</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D994" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E994" s="8">
+        <v>2</v>
+      </c>
+      <c r="F994" s="8">
+        <v>1</v>
+      </c>
+      <c r="G994" s="10" t="s">
         <v>2150</v>
-      </c>
-      <c r="E994" s="8">
-        <v>2</v>
-      </c>
-      <c r="F994" s="8">
-        <v>1</v>
-      </c>
-      <c r="G994" s="10" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59627,11 +59669,11 @@
         <v>418</v>
       </c>
       <c r="C995" s="10" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D995" s="10" t="s">
         <v>2085</v>
       </c>
-      <c r="D995" s="10" t="s">
-        <v>2086</v>
-      </c>
       <c r="E995" s="8">
         <v>2</v>
       </c>
@@ -59639,7 +59681,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59650,19 +59692,19 @@
         <v>418</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D996" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E996" s="8">
+        <v>2</v>
+      </c>
+      <c r="F996" s="8">
+        <v>2</v>
+      </c>
+      <c r="G996" s="10" t="s">
         <v>2153</v>
-      </c>
-      <c r="E996" s="8">
-        <v>2</v>
-      </c>
-      <c r="F996" s="8">
-        <v>2</v>
-      </c>
-      <c r="G996" s="10" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59673,19 +59715,19 @@
         <v>418</v>
       </c>
       <c r="C997" s="10" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D997" s="10" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E997" s="8">
+        <v>2</v>
+      </c>
+      <c r="F997" s="8">
+        <v>2</v>
+      </c>
+      <c r="G997" s="10" t="s">
         <v>2155</v>
-      </c>
-      <c r="D997" s="10" t="s">
-        <v>2086</v>
-      </c>
-      <c r="E997" s="8">
-        <v>2</v>
-      </c>
-      <c r="F997" s="8">
-        <v>2</v>
-      </c>
-      <c r="G997" s="10" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59696,10 +59738,10 @@
         <v>418</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
@@ -59708,7 +59750,7 @@
         <v>3</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59719,10 +59761,10 @@
         <v>418</v>
       </c>
       <c r="C999" s="10" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D999" s="10" t="s">
         <v>2085</v>
-      </c>
-      <c r="D999" s="10" t="s">
-        <v>2086</v>
       </c>
       <c r="E999" s="8">
         <v>2</v>
@@ -59731,7 +59773,7 @@
         <v>3</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59765,7 +59807,7 @@
         <v>419</v>
       </c>
       <c r="C1001" s="8" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D1001" s="8">
         <v>600</v>
@@ -59777,7 +59819,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59811,7 +59853,7 @@
         <v>420</v>
       </c>
       <c r="C1003" s="8" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D1003" s="8">
         <v>600</v>
@@ -59823,7 +59865,7 @@
         <v>1</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59869,7 +59911,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59892,7 +59934,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59915,7 +59957,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59938,7 +59980,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
@@ -59961,7 +60003,7 @@
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -60007,7 +60049,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -60030,7 +60072,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60053,7 +60095,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
@@ -60076,7 +60118,7 @@
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
@@ -60099,7 +60141,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60122,7 +60164,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60168,7 +60210,7 @@
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60191,7 +60233,7 @@
         <v>1</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
@@ -60237,7 +60279,7 @@
         <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
@@ -60260,7 +60302,7 @@
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60283,7 +60325,7 @@
         <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -60306,7 +60348,7 @@
         <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60329,7 +60371,7 @@
         <v>2</v>
       </c>
       <c r="G1025" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1026" spans="1:7" s="8" customFormat="1">
@@ -60352,7 +60394,7 @@
         <v>2</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60375,7 +60417,7 @@
         <v>3</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60398,7 +60440,7 @@
         <v>3</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60412,7 +60454,7 @@
         <v>845</v>
       </c>
       <c r="D1029" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1029" s="8">
         <v>5</v>
@@ -60421,7 +60463,7 @@
         <v>3</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60444,7 +60486,7 @@
         <v>1</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60467,7 +60509,7 @@
         <v>1</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60490,7 +60532,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60513,7 +60555,7 @@
         <v>2</v>
       </c>
       <c r="G1033" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60536,7 +60578,7 @@
         <v>2</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60559,7 +60601,7 @@
         <v>2</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60582,7 +60624,7 @@
         <v>3</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60605,7 +60647,7 @@
         <v>3</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60628,7 +60670,7 @@
         <v>3</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60642,7 +60684,7 @@
         <v>845</v>
       </c>
       <c r="D1039" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1039" s="8">
         <v>5</v>
@@ -60651,7 +60693,7 @@
         <v>3</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60674,7 +60716,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1041" spans="1:7" s="8" customFormat="1">
@@ -60697,7 +60739,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60720,7 +60762,7 @@
         <v>2</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1043" spans="1:7" s="8" customFormat="1">
@@ -60743,7 +60785,7 @@
         <v>2</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60766,7 +60808,7 @@
         <v>3</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
@@ -60789,7 +60831,7 @@
         <v>3</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
@@ -60803,7 +60845,7 @@
         <v>845</v>
       </c>
       <c r="D1046" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1046" s="8">
         <v>5</v>
@@ -60812,7 +60854,7 @@
         <v>3</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -61134,7 +61176,7 @@
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1061" spans="1:7" s="8" customFormat="1">
@@ -61157,7 +61199,7 @@
         <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -61180,7 +61222,7 @@
         <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -61194,7 +61236,7 @@
         <v>1021</v>
       </c>
       <c r="D1063" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E1063" s="8">
         <v>2</v>
@@ -61203,7 +61245,7 @@
         <v>2</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1064" spans="1:7">
@@ -61217,7 +61259,7 @@
         <v>1021</v>
       </c>
       <c r="D1064" s="10" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1064" s="8">
         <v>2</v>
@@ -61226,7 +61268,7 @@
         <v>3</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -61240,7 +61282,7 @@
         <v>1021</v>
       </c>
       <c r="D1065" s="10" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
@@ -61249,7 +61291,7 @@
         <v>1</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61263,7 +61305,7 @@
         <v>1021</v>
       </c>
       <c r="D1066" s="10" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
@@ -61272,7 +61314,7 @@
         <v>2</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61286,7 +61328,7 @@
         <v>1021</v>
       </c>
       <c r="D1067" s="10" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E1067" s="8">
         <v>2</v>
@@ -61295,7 +61337,7 @@
         <v>3</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61318,7 +61360,7 @@
         <v>1</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61341,7 +61383,7 @@
         <v>1</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -61364,7 +61406,7 @@
         <v>2</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61387,7 +61429,7 @@
         <v>2</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61410,7 +61452,7 @@
         <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61709,7 +61751,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -61732,7 +61774,7 @@
         <v>2</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1087" spans="1:7" s="8" customFormat="1">
@@ -61778,7 +61820,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1089" spans="1:7" s="8" customFormat="1">
@@ -61824,7 +61866,7 @@
         <v>2</v>
       </c>
       <c r="G1090" s="10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -61847,7 +61889,7 @@
         <v>1</v>
       </c>
       <c r="G1091" s="65" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1092" spans="1:7">
@@ -61861,7 +61903,7 @@
         <v>845</v>
       </c>
       <c r="D1092" s="65" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="E1092" s="64">
         <v>2</v>
@@ -61870,7 +61912,7 @@
         <v>1</v>
       </c>
       <c r="G1092" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -61893,7 +61935,7 @@
         <v>1</v>
       </c>
       <c r="G1093" s="65" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1094" spans="1:7">
@@ -61916,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="G1094" s="65" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61939,7 +61981,7 @@
         <v>1</v>
       </c>
       <c r="G1095" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -61962,7 +62004,7 @@
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -61985,7 +62027,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -62008,7 +62050,7 @@
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62031,7 +62073,7 @@
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62054,7 +62096,7 @@
         <v>1</v>
       </c>
       <c r="G1100" s="65" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62077,7 +62119,7 @@
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62100,7 +62142,7 @@
         <v>1</v>
       </c>
       <c r="G1102" s="65" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62123,7 +62165,7 @@
         <v>1</v>
       </c>
       <c r="G1103" s="65" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62134,19 +62176,19 @@
         <v>456</v>
       </c>
       <c r="C1104" s="65" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1104" s="62" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E1104" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="65" t="s">
         <v>2376</v>
-      </c>
-      <c r="E1104" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1104" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1104" s="65" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62157,10 +62199,10 @@
         <v>456</v>
       </c>
       <c r="C1105" s="65" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="D1105" s="65" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="E1105" s="64">
         <v>2</v>
@@ -62169,7 +62211,7 @@
         <v>1</v>
       </c>
       <c r="G1105" s="65" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62192,7 +62234,7 @@
         <v>1</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62203,7 +62245,7 @@
         <v>458</v>
       </c>
       <c r="C1107" s="65" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D1107" s="65" t="s">
         <v>914</v>
@@ -62215,7 +62257,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="65" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62295,10 +62337,10 @@
         <v>461</v>
       </c>
       <c r="C1111" s="8" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D1111" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E1111" s="8">
         <v>5</v>
@@ -62307,7 +62349,7 @@
         <v>2</v>
       </c>
       <c r="G1111" s="10" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62321,7 +62363,7 @@
         <v>1940</v>
       </c>
       <c r="D1112" s="26" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1112" s="9">
         <v>5</v>
@@ -62330,7 +62372,7 @@
         <v>2</v>
       </c>
       <c r="G1112" s="26" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62341,19 +62383,19 @@
         <v>463</v>
       </c>
       <c r="C1113" s="26" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1113" s="9" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1113" s="26" t="s">
         <v>2439</v>
-      </c>
-      <c r="E1113" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1113" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1113" s="26" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -62364,10 +62406,10 @@
         <v>463</v>
       </c>
       <c r="C1114" s="8" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D1114" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E1114" s="9">
         <v>2</v>
@@ -62376,7 +62418,7 @@
         <v>1</v>
       </c>
       <c r="G1114" s="26" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -62399,7 +62441,7 @@
         <v>1</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1116" spans="1:7" s="8" customFormat="1">
@@ -62445,7 +62487,7 @@
         <v>1</v>
       </c>
       <c r="G1117" s="10" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1118" spans="1:7" s="8" customFormat="1">
@@ -62468,7 +62510,7 @@
         <v>1</v>
       </c>
       <c r="G1118" s="10" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -62482,7 +62524,7 @@
         <v>1940</v>
       </c>
       <c r="D1119" s="26" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E1119" s="9">
         <v>2</v>
@@ -62491,7 +62533,7 @@
         <v>1</v>
       </c>
       <c r="G1119" s="26" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -62505,7 +62547,7 @@
         <v>1940</v>
       </c>
       <c r="D1120" s="26" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E1120" s="9">
         <v>5</v>
@@ -62514,7 +62556,7 @@
         <v>1</v>
       </c>
       <c r="G1120" s="26" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
@@ -62528,16 +62570,16 @@
         <v>845</v>
       </c>
       <c r="D1121" s="30" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E1121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1121" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="10" t="s">
         <v>2525</v>
-      </c>
-      <c r="E1121" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1121" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1121" s="10" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -62551,7 +62593,7 @@
         <v>845</v>
       </c>
       <c r="D1122" s="30" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E1122" s="8">
         <v>2</v>
@@ -62560,7 +62602,7 @@
         <v>2</v>
       </c>
       <c r="G1122" s="10" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -62574,16 +62616,16 @@
         <v>845</v>
       </c>
       <c r="D1123" s="30" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E1123" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1123" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="10" t="s">
         <v>2525</v>
-      </c>
-      <c r="E1123" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1123" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1123" s="10" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -62594,10 +62636,10 @@
         <v>471</v>
       </c>
       <c r="C1124" s="26" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D1124" s="26" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E1124" s="9">
         <v>2</v>
@@ -62606,7 +62648,7 @@
         <v>1</v>
       </c>
       <c r="G1124" s="26" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -62620,7 +62662,7 @@
         <v>845</v>
       </c>
       <c r="D1125" s="30" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E1125" s="8">
         <v>2</v>
@@ -62629,7 +62671,7 @@
         <v>2</v>
       </c>
       <c r="G1125" s="10" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -62715,7 +62757,7 @@
         <v>876</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -62755,7 +62797,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>876</v>
@@ -62784,7 +62826,7 @@
         <v>876</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -62801,13 +62843,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>876</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E6" s="40">
         <v>2</v>
@@ -62824,7 +62866,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>876</v>
@@ -62847,22 +62889,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>876</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>2519</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -62870,22 +62912,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>876</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>2542</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2543</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -62893,13 +62935,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>876</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_hlw/permission_server_config.xlsx
+++ b/config_hlw/permission_server_config.xlsx
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">act_permission!$A$1:$N$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1093</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">condi!$C$1:$C$1094</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="2564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="2565">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -12851,6 +12851,10 @@
   </si>
   <si>
     <t>限时红包（海蓝湾平台）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_hlw</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13494,8 +13498,8 @@
   <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C302" sqref="C302"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379:XFD381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -36732,13 +36736,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1129"/>
+  <dimension ref="A1:I1130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C490" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C764" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A505" sqref="A505"/>
+      <selection pane="bottomRight" activeCell="D784" sqref="D784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54817,22 +54821,22 @@
         <v>783</v>
       </c>
       <c r="B784" s="14">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C784" s="14" t="s">
         <v>845</v>
       </c>
       <c r="D784" s="31" t="s">
-        <v>914</v>
+        <v>2564</v>
       </c>
       <c r="E784" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F784" s="14">
         <v>1</v>
       </c>
       <c r="G784" s="31" t="s">
-        <v>915</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="785" spans="1:7" s="8" customFormat="1">
@@ -54846,7 +54850,7 @@
         <v>845</v>
       </c>
       <c r="D785" s="31" t="s">
-        <v>2103</v>
+        <v>914</v>
       </c>
       <c r="E785" s="14">
         <v>2</v>
@@ -54855,30 +54859,30 @@
         <v>1</v>
       </c>
       <c r="G785" s="31" t="s">
-        <v>2105</v>
+        <v>915</v>
       </c>
     </row>
     <row r="786" spans="1:7" s="8" customFormat="1">
       <c r="A786" s="8">
         <v>785</v>
       </c>
-      <c r="B786" s="8">
-        <v>313</v>
-      </c>
-      <c r="C786" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D786" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E786" s="8">
-        <v>2</v>
-      </c>
-      <c r="F786" s="8">
-        <v>1</v>
-      </c>
-      <c r="G786" s="10" t="s">
-        <v>1404</v>
+      <c r="B786" s="14">
+        <v>312</v>
+      </c>
+      <c r="C786" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="D786" s="31" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E786" s="14">
+        <v>2</v>
+      </c>
+      <c r="F786" s="14">
+        <v>1</v>
+      </c>
+      <c r="G786" s="31" t="s">
+        <v>2105</v>
       </c>
     </row>
     <row r="787" spans="1:7" s="8" customFormat="1">
@@ -54886,22 +54890,22 @@
         <v>786</v>
       </c>
       <c r="B787" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D787" s="8">
-        <v>3</v>
+        <v>1021</v>
+      </c>
+      <c r="D787" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E787" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F787" s="8">
         <v>1</v>
       </c>
       <c r="G787" s="10" t="s">
-        <v>1792</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="788" spans="1:7" s="8" customFormat="1">
@@ -54909,22 +54913,22 @@
         <v>787</v>
       </c>
       <c r="B788" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>1791</v>
+        <v>1115</v>
       </c>
       <c r="D788" s="8">
+        <v>3</v>
+      </c>
+      <c r="E788" s="8">
         <v>4</v>
       </c>
-      <c r="E788" s="8">
-        <v>3</v>
-      </c>
       <c r="F788" s="8">
         <v>1</v>
       </c>
       <c r="G788" s="10" t="s">
-        <v>1573</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="789" spans="1:7" s="8" customFormat="1">
@@ -54935,19 +54939,19 @@
         <v>315</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>1551</v>
+        <v>1791</v>
       </c>
       <c r="D789" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E789" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F789" s="8">
         <v>1</v>
       </c>
       <c r="G789" s="10" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="790" spans="1:7" s="8" customFormat="1">
@@ -54955,22 +54959,22 @@
         <v>789</v>
       </c>
       <c r="B790" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C790" s="10" t="s">
         <v>1551</v>
       </c>
       <c r="D790" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E790" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F790" s="8">
         <v>1</v>
       </c>
       <c r="G790" s="10" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="791" spans="1:7" s="8" customFormat="1">
@@ -54978,22 +54982,22 @@
         <v>790</v>
       </c>
       <c r="B791" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D791" s="15" t="s">
-        <v>1026</v>
+        <v>1551</v>
+      </c>
+      <c r="D791" s="8">
+        <v>8</v>
       </c>
       <c r="E791" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F791" s="8">
         <v>1</v>
       </c>
       <c r="G791" s="10" t="s">
-        <v>1474</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="792" spans="1:7" s="8" customFormat="1">
@@ -55007,16 +55011,16 @@
         <v>1021</v>
       </c>
       <c r="D792" s="15" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="E792" s="8">
         <v>2</v>
       </c>
       <c r="F792" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G792" s="10" t="s">
-        <v>1146</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="793" spans="1:7" s="8" customFormat="1">
@@ -55024,22 +55028,22 @@
         <v>792</v>
       </c>
       <c r="B793" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C793" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D793" s="30" t="s">
-        <v>1028</v>
+      <c r="D793" s="15" t="s">
+        <v>1041</v>
       </c>
       <c r="E793" s="8">
         <v>2</v>
       </c>
       <c r="F793" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G793" s="10" t="s">
-        <v>1403</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="794" spans="1:7" s="8" customFormat="1">
@@ -55052,17 +55056,17 @@
       <c r="C794" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D794" s="15" t="s">
-        <v>1045</v>
+      <c r="D794" s="30" t="s">
+        <v>1028</v>
       </c>
       <c r="E794" s="8">
         <v>2</v>
       </c>
       <c r="F794" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G794" s="10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="795" spans="1:7" s="8" customFormat="1">
@@ -55070,22 +55074,22 @@
         <v>794</v>
       </c>
       <c r="B795" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C795" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D795" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D795" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E795" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F795" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G795" s="10" t="s">
-        <v>902</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="796" spans="1:7" s="8" customFormat="1">
@@ -55093,22 +55097,22 @@
         <v>795</v>
       </c>
       <c r="B796" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C796" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D796" s="10" t="s">
-        <v>850</v>
+        <v>898</v>
       </c>
       <c r="E796" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F796" s="8">
         <v>1</v>
       </c>
       <c r="G796" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="797" spans="1:7" s="8" customFormat="1">
@@ -55122,16 +55126,16 @@
         <v>845</v>
       </c>
       <c r="D797" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E797" s="8">
         <v>2</v>
       </c>
       <c r="F797" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G797" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="798" spans="1:7" s="8" customFormat="1">
@@ -55142,19 +55146,19 @@
         <v>320</v>
       </c>
       <c r="C798" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D798" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D798" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="E798" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F798" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G798" s="10" t="s">
-        <v>1329</v>
+        <v>897</v>
       </c>
     </row>
     <row r="799" spans="1:7" s="8" customFormat="1">
@@ -55168,16 +55172,16 @@
         <v>1115</v>
       </c>
       <c r="D799" s="8">
+        <v>1</v>
+      </c>
+      <c r="E799" s="8">
         <v>3</v>
-      </c>
-      <c r="E799" s="8">
-        <v>4</v>
       </c>
       <c r="F799" s="8">
         <v>3</v>
       </c>
       <c r="G799" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="800" spans="1:7" s="8" customFormat="1">
@@ -55188,19 +55192,19 @@
         <v>320</v>
       </c>
       <c r="C800" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D800" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D800" s="8">
+        <v>3</v>
       </c>
       <c r="E800" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F800" s="8">
         <v>3</v>
       </c>
       <c r="G800" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="801" spans="1:7" s="8" customFormat="1">
@@ -55208,22 +55212,22 @@
         <v>800</v>
       </c>
       <c r="B801" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C801" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D801" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D801" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E801" s="8">
+        <v>5</v>
+      </c>
+      <c r="F801" s="8">
         <v>3</v>
       </c>
-      <c r="F801" s="8">
-        <v>1</v>
-      </c>
       <c r="G801" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="802" spans="1:7" s="8" customFormat="1">
@@ -55237,16 +55241,16 @@
         <v>1115</v>
       </c>
       <c r="D802" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E802" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F802" s="8">
         <v>1</v>
       </c>
       <c r="G802" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="803" spans="1:7" s="8" customFormat="1">
@@ -55257,19 +55261,19 @@
         <v>321</v>
       </c>
       <c r="C803" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D803" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D803" s="8">
+        <v>7</v>
       </c>
       <c r="E803" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F803" s="8">
         <v>1</v>
       </c>
       <c r="G803" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="804" spans="1:7" s="8" customFormat="1">
@@ -55277,22 +55281,22 @@
         <v>803</v>
       </c>
       <c r="B804" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C804" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D804" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D804" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E804" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F804" s="8">
         <v>1</v>
       </c>
       <c r="G804" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="805" spans="1:7" s="8" customFormat="1">
@@ -55303,19 +55307,19 @@
         <v>322</v>
       </c>
       <c r="C805" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D805" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E805" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F805" s="8">
         <v>1</v>
       </c>
       <c r="G805" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="806" spans="1:7" s="8" customFormat="1">
@@ -55326,19 +55330,19 @@
         <v>322</v>
       </c>
       <c r="C806" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D806" s="10" t="s">
-        <v>898</v>
+        <v>1116</v>
+      </c>
+      <c r="D806" s="8">
+        <v>12</v>
       </c>
       <c r="E806" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F806" s="8">
         <v>1</v>
       </c>
       <c r="G806" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="807" spans="1:7" s="8" customFormat="1">
@@ -55346,7 +55350,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C807" s="10" t="s">
         <v>845</v>
@@ -55369,7 +55373,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>845</v>
@@ -55392,22 +55396,22 @@
         <v>808</v>
       </c>
       <c r="B809" s="8">
-        <v>325</v>
-      </c>
-      <c r="C809" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C809" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D809" s="10" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="E809" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F809" s="8">
         <v>1</v>
       </c>
       <c r="G809" s="10" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="810" spans="1:7" s="8" customFormat="1">
@@ -55417,11 +55421,11 @@
       <c r="B810" s="8">
         <v>325</v>
       </c>
-      <c r="C810" s="10" t="s">
+      <c r="C810" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D810" s="10" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E810" s="8">
         <v>2</v>
@@ -55430,7 +55434,7 @@
         <v>1</v>
       </c>
       <c r="G810" s="10" t="s">
-        <v>1694</v>
+        <v>915</v>
       </c>
     </row>
     <row r="811" spans="1:7" s="8" customFormat="1">
@@ -55438,22 +55442,22 @@
         <v>810</v>
       </c>
       <c r="B811" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C811" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D811" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D811" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E811" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F811" s="8">
         <v>1</v>
       </c>
       <c r="G811" s="10" t="s">
-        <v>1331</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="812" spans="1:7" s="8" customFormat="1">
@@ -55467,16 +55471,16 @@
         <v>1115</v>
       </c>
       <c r="D812" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E812" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F812" s="8">
         <v>1</v>
       </c>
       <c r="G812" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="813" spans="1:7" s="8" customFormat="1">
@@ -55487,19 +55491,19 @@
         <v>326</v>
       </c>
       <c r="C813" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D813" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D813" s="8">
+        <v>12</v>
       </c>
       <c r="E813" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F813" s="8">
         <v>1</v>
       </c>
       <c r="G813" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="814" spans="1:7" s="8" customFormat="1">
@@ -55507,22 +55511,22 @@
         <v>813</v>
       </c>
       <c r="B814" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C814" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D814" s="15" t="s">
-        <v>1026</v>
+        <v>845</v>
+      </c>
+      <c r="D814" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E814" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F814" s="8">
         <v>1</v>
       </c>
       <c r="G814" s="10" t="s">
-        <v>2029</v>
+        <v>902</v>
       </c>
     </row>
     <row r="815" spans="1:7" s="8" customFormat="1">
@@ -55533,19 +55537,19 @@
         <v>327</v>
       </c>
       <c r="C815" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D815" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D815" s="15" t="s">
+        <v>1026</v>
       </c>
       <c r="E815" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F815" s="8">
         <v>1</v>
       </c>
       <c r="G815" s="10" t="s">
-        <v>902</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="816" spans="1:7" s="8" customFormat="1">
@@ -55556,19 +55560,19 @@
         <v>327</v>
       </c>
       <c r="C816" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D816" s="15" t="s">
-        <v>1027</v>
+        <v>845</v>
+      </c>
+      <c r="D816" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E816" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F816" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G816" s="10" t="s">
-        <v>1146</v>
+        <v>902</v>
       </c>
     </row>
     <row r="817" spans="1:7" s="8" customFormat="1">
@@ -55579,19 +55583,19 @@
         <v>327</v>
       </c>
       <c r="C817" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D817" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D817" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E817" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F817" s="8">
         <v>2</v>
       </c>
       <c r="G817" s="10" t="s">
-        <v>902</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="818" spans="1:7" s="8" customFormat="1">
@@ -55599,22 +55603,22 @@
         <v>817</v>
       </c>
       <c r="B818" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C818" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D818" s="30" t="s">
-        <v>1028</v>
+        <v>845</v>
+      </c>
+      <c r="D818" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E818" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F818" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G818" s="10" t="s">
-        <v>1403</v>
+        <v>902</v>
       </c>
     </row>
     <row r="819" spans="1:7" s="8" customFormat="1">
@@ -55625,19 +55629,19 @@
         <v>328</v>
       </c>
       <c r="C819" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D819" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D819" s="30" t="s">
+        <v>1028</v>
       </c>
       <c r="E819" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F819" s="8">
         <v>1</v>
       </c>
       <c r="G819" s="10" t="s">
-        <v>902</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="820" spans="1:7" s="8" customFormat="1">
@@ -55648,19 +55652,19 @@
         <v>328</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D820" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D820" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E820" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F820" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G820" s="10" t="s">
-        <v>1404</v>
+        <v>902</v>
       </c>
     </row>
     <row r="821" spans="1:7" s="8" customFormat="1">
@@ -55671,19 +55675,19 @@
         <v>328</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D821" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D821" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E821" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F821" s="8">
         <v>2</v>
       </c>
       <c r="G821" s="10" t="s">
-        <v>902</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="822" spans="1:7" s="8" customFormat="1">
@@ -55691,7 +55695,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C822" s="10" t="s">
         <v>845</v>
@@ -55703,7 +55707,7 @@
         <v>5</v>
       </c>
       <c r="F822" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G822" s="10" t="s">
         <v>902</v>
@@ -55714,7 +55718,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C823" s="10" t="s">
         <v>845</v>
@@ -55737,22 +55741,22 @@
         <v>823</v>
       </c>
       <c r="B824" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D824" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D824" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E824" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F824" s="8">
         <v>1</v>
       </c>
-      <c r="G824" s="21" t="s">
-        <v>1706</v>
+      <c r="G824" s="10" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="825" spans="1:7" s="8" customFormat="1">
@@ -55760,13 +55764,13 @@
         <v>824</v>
       </c>
       <c r="B825" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C825" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D825" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E825" s="8">
         <v>3</v>
@@ -55775,7 +55779,7 @@
         <v>1</v>
       </c>
       <c r="G825" s="21" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="826" spans="1:7" s="8" customFormat="1">
@@ -55783,13 +55787,13 @@
         <v>825</v>
       </c>
       <c r="B826" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>1715</v>
+        <v>1115</v>
       </c>
       <c r="D826" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E826" s="8">
         <v>3</v>
@@ -55798,30 +55802,30 @@
         <v>1</v>
       </c>
       <c r="G826" s="21" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="827" spans="1:7" s="8" customFormat="1">
       <c r="A827" s="8">
         <v>826</v>
       </c>
-      <c r="B827" s="51">
-        <v>334</v>
-      </c>
-      <c r="C827" s="52" t="s">
-        <v>845</v>
-      </c>
-      <c r="D827" s="52" t="s">
-        <v>850</v>
-      </c>
-      <c r="E827" s="51">
-        <v>2</v>
-      </c>
-      <c r="F827" s="51">
-        <v>1</v>
-      </c>
-      <c r="G827" s="52" t="s">
-        <v>901</v>
+      <c r="B827" s="8">
+        <v>333</v>
+      </c>
+      <c r="C827" s="10" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D827" s="8">
+        <v>4</v>
+      </c>
+      <c r="E827" s="8">
+        <v>3</v>
+      </c>
+      <c r="F827" s="8">
+        <v>1</v>
+      </c>
+      <c r="G827" s="21" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="828" spans="1:7" s="8" customFormat="1">
@@ -55831,20 +55835,20 @@
       <c r="B828" s="51">
         <v>334</v>
       </c>
-      <c r="C828" s="51" t="s">
+      <c r="C828" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D828" s="59" t="s">
-        <v>1837</v>
+      <c r="D828" s="52" t="s">
+        <v>850</v>
       </c>
       <c r="E828" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F828" s="51">
         <v>1</v>
       </c>
       <c r="G828" s="52" t="s">
-        <v>1935</v>
+        <v>901</v>
       </c>
     </row>
     <row r="829" spans="1:7" s="8" customFormat="1">
@@ -55854,20 +55858,20 @@
       <c r="B829" s="51">
         <v>334</v>
       </c>
-      <c r="C829" s="52" t="s">
+      <c r="C829" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="D829" s="52" t="s">
-        <v>854</v>
+      <c r="D829" s="59" t="s">
+        <v>1837</v>
       </c>
       <c r="E829" s="51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F829" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G829" s="52" t="s">
-        <v>897</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="830" spans="1:7" s="8" customFormat="1">
@@ -55877,20 +55881,20 @@
       <c r="B830" s="51">
         <v>334</v>
       </c>
-      <c r="C830" s="51" t="s">
+      <c r="C830" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D830" s="59" t="s">
-        <v>1837</v>
+      <c r="D830" s="52" t="s">
+        <v>854</v>
       </c>
       <c r="E830" s="51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F830" s="51">
         <v>2</v>
       </c>
       <c r="G830" s="52" t="s">
-        <v>1935</v>
+        <v>897</v>
       </c>
     </row>
     <row r="831" spans="1:7" s="8" customFormat="1">
@@ -55900,20 +55904,20 @@
       <c r="B831" s="51">
         <v>334</v>
       </c>
-      <c r="C831" s="52" t="s">
+      <c r="C831" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="D831" s="52" t="s">
-        <v>898</v>
+      <c r="D831" s="59" t="s">
+        <v>1837</v>
       </c>
       <c r="E831" s="51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F831" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G831" s="52" t="s">
-        <v>2205</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="832" spans="1:7" s="8" customFormat="1">
@@ -55921,22 +55925,22 @@
         <v>831</v>
       </c>
       <c r="B832" s="51">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C832" s="52" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D832" s="51">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D832" s="52" t="s">
+        <v>898</v>
       </c>
       <c r="E832" s="51">
+        <v>2</v>
+      </c>
+      <c r="F832" s="51">
         <v>3</v>
       </c>
-      <c r="F832" s="51">
-        <v>1</v>
-      </c>
       <c r="G832" s="52" t="s">
-        <v>1329</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="833" spans="1:7" s="8" customFormat="1">
@@ -55950,16 +55954,16 @@
         <v>1115</v>
       </c>
       <c r="D833" s="51">
+        <v>1</v>
+      </c>
+      <c r="E833" s="51">
         <v>3</v>
       </c>
-      <c r="E833" s="51">
-        <v>4</v>
-      </c>
       <c r="F833" s="51">
         <v>1</v>
       </c>
       <c r="G833" s="52" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="834" spans="1:7" s="8" customFormat="1">
@@ -55970,19 +55974,19 @@
         <v>335</v>
       </c>
       <c r="C834" s="52" t="s">
-        <v>845</v>
-      </c>
-      <c r="D834" s="52" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D834" s="51">
+        <v>3</v>
       </c>
       <c r="E834" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F834" s="51">
         <v>1</v>
       </c>
       <c r="G834" s="52" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="835" spans="1:7" s="8" customFormat="1">
@@ -55992,11 +55996,11 @@
       <c r="B835" s="51">
         <v>335</v>
       </c>
-      <c r="C835" s="51" t="s">
+      <c r="C835" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D835" s="59" t="s">
-        <v>1837</v>
+      <c r="D835" s="52" t="s">
+        <v>898</v>
       </c>
       <c r="E835" s="51">
         <v>5</v>
@@ -56005,7 +56009,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="52" t="s">
-        <v>1935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="836" spans="1:7" s="8" customFormat="1">
@@ -56013,22 +56017,22 @@
         <v>835</v>
       </c>
       <c r="B836" s="51">
-        <v>336</v>
-      </c>
-      <c r="C836" s="52" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D836" s="51">
-        <v>4</v>
+        <v>335</v>
+      </c>
+      <c r="C836" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="D836" s="59" t="s">
+        <v>1837</v>
       </c>
       <c r="E836" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F836" s="51">
         <v>1</v>
       </c>
       <c r="G836" s="52" t="s">
-        <v>1331</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="837" spans="1:7" s="8" customFormat="1">
@@ -56042,16 +56046,16 @@
         <v>1115</v>
       </c>
       <c r="D837" s="51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E837" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F837" s="51">
         <v>1</v>
       </c>
       <c r="G837" s="52" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="838" spans="1:7" s="8" customFormat="1">
@@ -56062,19 +56066,19 @@
         <v>336</v>
       </c>
       <c r="C838" s="52" t="s">
-        <v>845</v>
-      </c>
-      <c r="D838" s="52" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D838" s="51">
+        <v>7</v>
       </c>
       <c r="E838" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F838" s="51">
         <v>1</v>
       </c>
       <c r="G838" s="52" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="839" spans="1:7" s="8" customFormat="1">
@@ -56084,11 +56088,11 @@
       <c r="B839" s="51">
         <v>336</v>
       </c>
-      <c r="C839" s="51" t="s">
+      <c r="C839" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D839" s="59" t="s">
-        <v>1837</v>
+      <c r="D839" s="52" t="s">
+        <v>898</v>
       </c>
       <c r="E839" s="51">
         <v>5</v>
@@ -56097,7 +56101,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="52" t="s">
-        <v>1935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="840" spans="1:7" s="8" customFormat="1">
@@ -56105,22 +56109,22 @@
         <v>839</v>
       </c>
       <c r="B840" s="51">
-        <v>337</v>
-      </c>
-      <c r="C840" s="52" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D840" s="51">
-        <v>8</v>
+        <v>336</v>
+      </c>
+      <c r="C840" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="D840" s="59" t="s">
+        <v>1837</v>
       </c>
       <c r="E840" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F840" s="51">
         <v>1</v>
       </c>
       <c r="G840" s="52" t="s">
-        <v>1333</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="841" spans="1:7" s="8" customFormat="1">
@@ -56134,16 +56138,16 @@
         <v>1115</v>
       </c>
       <c r="D841" s="51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E841" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F841" s="51">
         <v>1</v>
       </c>
       <c r="G841" s="52" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="842" spans="1:7" s="8" customFormat="1">
@@ -56154,19 +56158,19 @@
         <v>337</v>
       </c>
       <c r="C842" s="52" t="s">
-        <v>845</v>
-      </c>
-      <c r="D842" s="52" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D842" s="51">
+        <v>12</v>
       </c>
       <c r="E842" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F842" s="51">
         <v>1</v>
       </c>
       <c r="G842" s="52" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="843" spans="1:7" s="8" customFormat="1">
@@ -56176,11 +56180,11 @@
       <c r="B843" s="51">
         <v>337</v>
       </c>
-      <c r="C843" s="51" t="s">
+      <c r="C843" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D843" s="59" t="s">
-        <v>1837</v>
+      <c r="D843" s="52" t="s">
+        <v>898</v>
       </c>
       <c r="E843" s="51">
         <v>5</v>
@@ -56189,7 +56193,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="52" t="s">
-        <v>1935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="844" spans="1:7" s="8" customFormat="1">
@@ -56197,7 +56201,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="51">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C844" s="51" t="s">
         <v>845</v>
@@ -56219,23 +56223,23 @@
       <c r="A845" s="8">
         <v>844</v>
       </c>
-      <c r="B845" s="8">
-        <v>339</v>
-      </c>
-      <c r="C845" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D845" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E845" s="8">
+      <c r="B845" s="51">
+        <v>338</v>
+      </c>
+      <c r="C845" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="D845" s="59" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E845" s="51">
         <v>5</v>
       </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1722</v>
+      <c r="F845" s="51">
+        <v>1</v>
+      </c>
+      <c r="G845" s="52" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="846" spans="1:7" s="8" customFormat="1">
@@ -56249,7 +56253,7 @@
         <v>1021</v>
       </c>
       <c r="D846" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -56258,7 +56262,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="847" spans="1:7" s="8" customFormat="1">
@@ -56269,10 +56273,10 @@
         <v>339</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D847" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D847" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E847" s="8">
         <v>5</v>
@@ -56281,7 +56285,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="848" spans="1:7" s="8" customFormat="1">
@@ -56289,13 +56293,13 @@
         <v>847</v>
       </c>
       <c r="B848" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C848" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D848" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D848" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E848" s="8">
         <v>5</v>
@@ -56304,7 +56308,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="849" spans="1:7" s="8" customFormat="1">
@@ -56318,7 +56322,7 @@
         <v>1021</v>
       </c>
       <c r="D849" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E849" s="8">
         <v>5</v>
@@ -56327,7 +56331,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="850" spans="1:7" s="8" customFormat="1">
@@ -56338,10 +56342,10 @@
         <v>340</v>
       </c>
       <c r="C850" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D850" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D850" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E850" s="8">
         <v>5</v>
@@ -56350,7 +56354,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="8" customFormat="1">
@@ -56358,7 +56362,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C851" s="10" t="s">
         <v>845</v>
@@ -56367,13 +56371,13 @@
         <v>898</v>
       </c>
       <c r="E851" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F851" s="8">
         <v>1</v>
       </c>
       <c r="G851" s="10" t="s">
-        <v>1173</v>
+        <v>902</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="8" customFormat="1">
@@ -56381,7 +56385,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C852" s="10" t="s">
         <v>845</v>
@@ -56390,13 +56394,13 @@
         <v>898</v>
       </c>
       <c r="E852" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F852" s="8">
         <v>1</v>
       </c>
       <c r="G852" s="10" t="s">
-        <v>902</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="8" customFormat="1">
@@ -56404,22 +56408,22 @@
         <v>852</v>
       </c>
       <c r="B853" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C853" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D853" s="15" t="s">
-        <v>1746</v>
+        <v>845</v>
+      </c>
+      <c r="D853" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E853" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F853" s="8">
         <v>1</v>
       </c>
       <c r="G853" s="10" t="s">
-        <v>1145</v>
+        <v>902</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="8" customFormat="1">
@@ -56432,17 +56436,17 @@
       <c r="C854" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D854" s="30" t="s">
-        <v>1028</v>
+      <c r="D854" s="15" t="s">
+        <v>1746</v>
       </c>
       <c r="E854" s="8">
         <v>2</v>
       </c>
       <c r="F854" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G854" s="10" t="s">
-        <v>1747</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1">
@@ -56450,22 +56454,22 @@
         <v>854</v>
       </c>
       <c r="B855" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C855" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D855" s="15" t="s">
-        <v>1748</v>
+      <c r="D855" s="30" t="s">
+        <v>1028</v>
       </c>
       <c r="E855" s="8">
         <v>2</v>
       </c>
       <c r="F855" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G855" s="10" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1">
@@ -56476,19 +56480,19 @@
         <v>344</v>
       </c>
       <c r="C856" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D856" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D856" s="15" t="s">
+        <v>1748</v>
       </c>
       <c r="E856" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F856" s="8">
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>902</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1">
@@ -56499,19 +56503,19 @@
         <v>344</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D857" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D857" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E857" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F857" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1750</v>
+        <v>902</v>
       </c>
     </row>
     <row r="858" spans="1:7" s="8" customFormat="1">
@@ -56522,19 +56526,19 @@
         <v>344</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D858" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E858" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F858" s="8">
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>902</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="8" customFormat="1">
@@ -56542,7 +56546,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C859" s="10" t="s">
         <v>845</v>
@@ -56554,7 +56558,7 @@
         <v>5</v>
       </c>
       <c r="F859" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
         <v>902</v>
@@ -56568,10 +56572,10 @@
         <v>345</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D860" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D860" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E860" s="8">
         <v>5</v>
@@ -56580,7 +56584,7 @@
         <v>1</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="8" customFormat="1">
@@ -56594,7 +56598,7 @@
         <v>1021</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E861" s="8">
         <v>5</v>
@@ -56603,7 +56607,7 @@
         <v>1</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="8" customFormat="1">
@@ -56611,13 +56615,13 @@
         <v>861</v>
       </c>
       <c r="B862" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C862" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D862" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D862" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -56626,7 +56630,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="8" customFormat="1">
@@ -56637,10 +56641,10 @@
         <v>346</v>
       </c>
       <c r="C863" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D863" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D863" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E863" s="8">
         <v>5</v>
@@ -56649,7 +56653,7 @@
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="8" customFormat="1">
@@ -56663,7 +56667,7 @@
         <v>1021</v>
       </c>
       <c r="D864" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E864" s="8">
         <v>5</v>
@@ -56672,7 +56676,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="865" spans="1:7" s="8" customFormat="1">
@@ -56680,13 +56684,13 @@
         <v>864</v>
       </c>
       <c r="B865" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D865" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D865" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E865" s="8">
         <v>5</v>
@@ -56695,7 +56699,7 @@
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="866" spans="1:7" s="8" customFormat="1">
@@ -56706,10 +56710,10 @@
         <v>347</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D866" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E866" s="8">
         <v>5</v>
@@ -56718,7 +56722,7 @@
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="867" spans="1:7" s="8" customFormat="1">
@@ -56732,7 +56736,7 @@
         <v>1021</v>
       </c>
       <c r="D867" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E867" s="8">
         <v>5</v>
@@ -56741,7 +56745,7 @@
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="868" spans="1:7" s="8" customFormat="1">
@@ -56749,13 +56753,13 @@
         <v>867</v>
       </c>
       <c r="B868" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D868" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D868" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E868" s="8">
         <v>5</v>
@@ -56764,7 +56768,7 @@
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="869" spans="1:7" s="8" customFormat="1">
@@ -56775,10 +56779,10 @@
         <v>348</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D869" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D869" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -56787,7 +56791,7 @@
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="870" spans="1:7" s="8" customFormat="1">
@@ -56801,7 +56805,7 @@
         <v>1021</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E870" s="8">
         <v>5</v>
@@ -56810,7 +56814,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="871" spans="1:7" s="8" customFormat="1">
@@ -56818,13 +56822,13 @@
         <v>870</v>
       </c>
       <c r="B871" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D871" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D871" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E871" s="8">
         <v>5</v>
@@ -56833,7 +56837,7 @@
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="872" spans="1:7" s="8" customFormat="1">
@@ -56841,22 +56845,22 @@
         <v>871</v>
       </c>
       <c r="B872" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C872" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>850</v>
+        <v>898</v>
       </c>
       <c r="E872" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F872" s="8">
         <v>1</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="873" spans="1:7" s="8" customFormat="1">
@@ -56870,16 +56874,16 @@
         <v>845</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
       </c>
       <c r="F873" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="874" spans="1:7" s="8" customFormat="1">
@@ -56893,16 +56897,16 @@
         <v>845</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1203</v>
+        <v>854</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
       </c>
       <c r="F874" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1236</v>
+        <v>897</v>
       </c>
     </row>
     <row r="875" spans="1:7" s="8" customFormat="1">
@@ -56910,22 +56914,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D875" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D875" s="10" t="s">
+        <v>1203</v>
       </c>
       <c r="E875" s="8">
+        <v>2</v>
+      </c>
+      <c r="F875" s="8">
         <v>3</v>
       </c>
-      <c r="F875" s="8">
-        <v>1</v>
-      </c>
       <c r="G875" s="10" t="s">
-        <v>1329</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="876" spans="1:7" s="8" customFormat="1">
@@ -56939,16 +56943,16 @@
         <v>1115</v>
       </c>
       <c r="D876" s="8">
+        <v>1</v>
+      </c>
+      <c r="E876" s="8">
         <v>3</v>
       </c>
-      <c r="E876" s="8">
-        <v>4</v>
-      </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="877" spans="1:7" s="8" customFormat="1">
@@ -56959,19 +56963,19 @@
         <v>351</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D877" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D877" s="8">
+        <v>3</v>
       </c>
       <c r="E877" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1">
@@ -56979,22 +56983,22 @@
         <v>877</v>
       </c>
       <c r="B878" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D878" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D878" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E878" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="879" spans="1:7" s="8" customFormat="1">
@@ -57008,16 +57012,16 @@
         <v>1115</v>
       </c>
       <c r="D879" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E879" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="880" spans="1:7" s="8" customFormat="1">
@@ -57028,19 +57032,19 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D880" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D880" s="8">
+        <v>7</v>
       </c>
       <c r="E880" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="881" spans="1:7" s="8" customFormat="1">
@@ -57048,22 +57052,22 @@
         <v>880</v>
       </c>
       <c r="B881" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D881" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D881" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E881" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F881" s="8">
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="882" spans="1:7" s="8" customFormat="1">
@@ -57077,16 +57081,16 @@
         <v>1115</v>
       </c>
       <c r="D882" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E882" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F882" s="8">
         <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="883" spans="1:7" s="8" customFormat="1">
@@ -57097,19 +57101,19 @@
         <v>353</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D883" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D883" s="8">
+        <v>12</v>
       </c>
       <c r="E883" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F883" s="8">
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="884" spans="1:7" s="8" customFormat="1">
@@ -57117,7 +57121,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C884" s="10" t="s">
         <v>845</v>
@@ -57140,22 +57144,22 @@
         <v>884</v>
       </c>
       <c r="B885" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D885" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D885" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E885" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F885" s="8">
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1750</v>
+        <v>902</v>
       </c>
     </row>
     <row r="886" spans="1:7" s="8" customFormat="1">
@@ -57169,16 +57173,16 @@
         <v>1021</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E886" s="8">
         <v>2</v>
       </c>
       <c r="F886" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1793</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="887" spans="1:7" s="8" customFormat="1">
@@ -57186,22 +57190,22 @@
         <v>886</v>
       </c>
       <c r="B887" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D887" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D887" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E887" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F887" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>902</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="888" spans="1:7" s="8" customFormat="1">
@@ -57212,10 +57216,10 @@
         <v>356</v>
       </c>
       <c r="C888" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D888" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D888" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E888" s="8">
         <v>5</v>
@@ -57224,7 +57228,7 @@
         <v>1</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="889" spans="1:7" s="8" customFormat="1">
@@ -57238,7 +57242,7 @@
         <v>1021</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E889" s="8">
         <v>5</v>
@@ -57247,7 +57251,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="890" spans="1:7" s="8" customFormat="1">
@@ -57255,13 +57259,13 @@
         <v>889</v>
       </c>
       <c r="B890" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C890" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D890" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D890" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E890" s="8">
         <v>5</v>
@@ -57270,7 +57274,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="891" spans="1:7" s="8" customFormat="1">
@@ -57281,10 +57285,10 @@
         <v>357</v>
       </c>
       <c r="C891" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D891" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D891" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E891" s="8">
         <v>5</v>
@@ -57293,7 +57297,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="892" spans="1:7" s="8" customFormat="1">
@@ -57307,7 +57311,7 @@
         <v>1021</v>
       </c>
       <c r="D892" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E892" s="8">
         <v>5</v>
@@ -57316,7 +57320,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="893" spans="1:7" s="8" customFormat="1">
@@ -57324,13 +57328,13 @@
         <v>892</v>
       </c>
       <c r="B893" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C893" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D893" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D893" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E893" s="8">
         <v>5</v>
@@ -57339,7 +57343,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>902</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="894" spans="1:7" s="8" customFormat="1">
@@ -57350,10 +57354,10 @@
         <v>358</v>
       </c>
       <c r="C894" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D894" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D894" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E894" s="8">
         <v>5</v>
@@ -57362,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1722</v>
+        <v>902</v>
       </c>
     </row>
     <row r="895" spans="1:7" s="8" customFormat="1">
@@ -57376,7 +57380,7 @@
         <v>1021</v>
       </c>
       <c r="D895" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E895" s="8">
         <v>5</v>
@@ -57385,7 +57389,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="896" spans="1:7" s="8" customFormat="1">
@@ -57393,22 +57397,22 @@
         <v>895</v>
       </c>
       <c r="B896" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C896" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D896" s="10" t="s">
-        <v>850</v>
+        <v>1021</v>
+      </c>
+      <c r="D896" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E896" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F896" s="8">
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>901</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="897" spans="1:7" s="8" customFormat="1">
@@ -57422,16 +57426,16 @@
         <v>845</v>
       </c>
       <c r="D897" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E897" s="8">
         <v>2</v>
       </c>
       <c r="F897" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="898" spans="1:7" s="8" customFormat="1">
@@ -57439,22 +57443,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C898" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D898" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D898" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="E898" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F898" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1329</v>
+        <v>897</v>
       </c>
     </row>
     <row r="899" spans="1:7" s="8" customFormat="1">
@@ -57468,16 +57472,16 @@
         <v>1115</v>
       </c>
       <c r="D899" s="8">
+        <v>1</v>
+      </c>
+      <c r="E899" s="8">
         <v>3</v>
       </c>
-      <c r="E899" s="8">
-        <v>4</v>
-      </c>
       <c r="F899" s="8">
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="900" spans="1:7" s="8" customFormat="1">
@@ -57488,19 +57492,19 @@
         <v>360</v>
       </c>
       <c r="C900" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D900" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D900" s="8">
+        <v>3</v>
       </c>
       <c r="E900" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F900" s="8">
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="901" spans="1:7" s="8" customFormat="1">
@@ -57508,22 +57512,22 @@
         <v>900</v>
       </c>
       <c r="B901" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C901" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D901" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D901" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E901" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F901" s="8">
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="902" spans="1:7" s="8" customFormat="1">
@@ -57537,16 +57541,16 @@
         <v>1115</v>
       </c>
       <c r="D902" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E902" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F902" s="8">
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="903" spans="1:7" s="8" customFormat="1">
@@ -57557,19 +57561,19 @@
         <v>361</v>
       </c>
       <c r="C903" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D903" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D903" s="8">
+        <v>7</v>
       </c>
       <c r="E903" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F903" s="8">
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="904" spans="1:7" s="8" customFormat="1">
@@ -57577,22 +57581,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D904" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D904" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E904" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F904" s="8">
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="905" spans="1:7" s="8" customFormat="1">
@@ -57606,16 +57610,16 @@
         <v>1115</v>
       </c>
       <c r="D905" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E905" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F905" s="8">
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="906" spans="1:7" s="8" customFormat="1">
@@ -57626,19 +57630,19 @@
         <v>362</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D906" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D906" s="8">
+        <v>12</v>
       </c>
       <c r="E906" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F906" s="8">
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="907" spans="1:7" s="8" customFormat="1">
@@ -57646,7 +57650,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C907" s="10" t="s">
         <v>845</v>
@@ -57672,10 +57676,10 @@
         <v>363</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D908" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D908" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E908" s="8">
         <v>5</v>
@@ -57684,7 +57688,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1807</v>
+        <v>902</v>
       </c>
     </row>
     <row r="909" spans="1:7" s="8" customFormat="1">
@@ -57698,7 +57702,7 @@
         <v>1021</v>
       </c>
       <c r="D909" s="15" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="E909" s="8">
         <v>5</v>
@@ -57707,7 +57711,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>1723</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="910" spans="1:7" s="8" customFormat="1">
@@ -57715,22 +57719,22 @@
         <v>909</v>
       </c>
       <c r="B910" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D910" s="10" t="s">
-        <v>850</v>
+        <v>1021</v>
+      </c>
+      <c r="D910" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E910" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F910" s="8">
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>901</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="911" spans="1:7" s="8" customFormat="1">
@@ -57744,16 +57748,16 @@
         <v>845</v>
       </c>
       <c r="D911" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E911" s="8">
         <v>2</v>
       </c>
       <c r="F911" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="912" spans="1:7" s="8" customFormat="1">
@@ -57761,22 +57765,22 @@
         <v>911</v>
       </c>
       <c r="B912" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D912" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D912" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="E912" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F912" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1329</v>
+        <v>897</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -57790,16 +57794,16 @@
         <v>1115</v>
       </c>
       <c r="D913" s="8">
+        <v>1</v>
+      </c>
+      <c r="E913" s="8">
         <v>3</v>
       </c>
-      <c r="E913" s="8">
-        <v>4</v>
-      </c>
       <c r="F913" s="8">
         <v>1</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -57810,19 +57814,19 @@
         <v>365</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D914" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D914" s="8">
+        <v>3</v>
       </c>
       <c r="E914" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F914" s="8">
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -57830,22 +57834,22 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C915" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D915" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D915" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E915" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F915" s="8">
         <v>1</v>
       </c>
       <c r="G915" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1">
@@ -57859,16 +57863,16 @@
         <v>1115</v>
       </c>
       <c r="D916" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E916" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F916" s="8">
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="8" customFormat="1">
@@ -57879,19 +57883,19 @@
         <v>366</v>
       </c>
       <c r="C917" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D917" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D917" s="8">
+        <v>7</v>
       </c>
       <c r="E917" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F917" s="8">
         <v>1</v>
       </c>
       <c r="G917" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="8" customFormat="1">
@@ -57899,22 +57903,22 @@
         <v>917</v>
       </c>
       <c r="B918" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C918" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D918" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D918" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E918" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F918" s="8">
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="8" customFormat="1">
@@ -57928,16 +57932,16 @@
         <v>1115</v>
       </c>
       <c r="D919" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E919" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F919" s="8">
         <v>1</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="8" customFormat="1">
@@ -57948,19 +57952,19 @@
         <v>367</v>
       </c>
       <c r="C920" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D920" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D920" s="8">
+        <v>12</v>
       </c>
       <c r="E920" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F920" s="8">
         <v>1</v>
       </c>
       <c r="G920" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="8" customFormat="1">
@@ -57968,7 +57972,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C921" s="10" t="s">
         <v>845</v>
@@ -57991,22 +57995,22 @@
         <v>921</v>
       </c>
       <c r="B922" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C922" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D922" s="15" t="s">
-        <v>1045</v>
+        <v>845</v>
+      </c>
+      <c r="D922" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E922" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F922" s="8">
         <v>1</v>
       </c>
-      <c r="G922" s="8" t="s">
-        <v>1808</v>
+      <c r="G922" s="10" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="923" spans="1:7" s="8" customFormat="1">
@@ -58017,10 +58021,10 @@
         <v>369</v>
       </c>
       <c r="C923" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D923" s="10" t="s">
-        <v>898</v>
+        <v>1021</v>
+      </c>
+      <c r="D923" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E923" s="8">
         <v>2</v>
@@ -58028,8 +58032,8 @@
       <c r="F923" s="8">
         <v>1</v>
       </c>
-      <c r="G923" s="10" t="s">
-        <v>1809</v>
+      <c r="G923" s="8" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="924" spans="1:7" s="8" customFormat="1">
@@ -58040,19 +58044,19 @@
         <v>369</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D924" s="8">
-        <v>1604359800</v>
+        <v>845</v>
+      </c>
+      <c r="D924" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E924" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F924" s="8">
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="925" spans="1:7" s="8" customFormat="1">
@@ -58060,22 +58064,22 @@
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D925" s="10" t="s">
-        <v>898</v>
+        <v>1811</v>
+      </c>
+      <c r="D925" s="8">
+        <v>1604359800</v>
       </c>
       <c r="E925" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F925" s="8">
         <v>1</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>902</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="926" spans="1:7" s="8" customFormat="1">
@@ -58083,22 +58087,22 @@
         <v>925</v>
       </c>
       <c r="B926" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D926" s="15" t="s">
-        <v>1027</v>
+        <v>845</v>
+      </c>
+      <c r="D926" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E926" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F926" s="8">
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>1146</v>
+        <v>902</v>
       </c>
     </row>
     <row r="927" spans="1:7" s="8" customFormat="1">
@@ -58112,16 +58116,16 @@
         <v>1021</v>
       </c>
       <c r="D927" s="15" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>1404</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="928" spans="1:7" s="8" customFormat="1">
@@ -58129,22 +58133,22 @@
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D928" s="8">
-        <v>4</v>
+        <v>1021</v>
+      </c>
+      <c r="D928" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="E928" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F928" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>1331</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="929" spans="1:7" s="8" customFormat="1">
@@ -58158,16 +58162,16 @@
         <v>1115</v>
       </c>
       <c r="D929" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E929" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F929" s="8">
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="930" spans="1:7" s="8" customFormat="1">
@@ -58175,13 +58179,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C930" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D930" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E930" s="8">
         <v>4</v>
@@ -58190,7 +58194,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="931" spans="1:7" s="8" customFormat="1">
@@ -58198,45 +58202,45 @@
         <v>930</v>
       </c>
       <c r="B931" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D931" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D931" s="8">
+        <v>3</v>
       </c>
       <c r="E931" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F931" s="8">
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" s="8" customFormat="1">
       <c r="A932" s="8">
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>375</v>
-      </c>
-      <c r="C932" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C932" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D932" s="30" t="s">
-        <v>1977</v>
+      <c r="D932" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E932" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F932" s="8">
         <v>1</v>
       </c>
-      <c r="G932" s="8" t="s">
-        <v>1978</v>
+      <c r="G932" s="10" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="933" spans="1:7">
@@ -58244,7 +58248,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C933" s="8" t="s">
         <v>845</v>
@@ -58273,16 +58277,16 @@
         <v>845</v>
       </c>
       <c r="D934" s="30" t="s">
-        <v>2550</v>
+        <v>1977</v>
       </c>
       <c r="E934" s="8">
         <v>2</v>
       </c>
       <c r="F934" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G934" s="8" t="s">
-        <v>1939</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -58296,13 +58300,13 @@
         <v>845</v>
       </c>
       <c r="D935" s="30" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
       </c>
       <c r="F935" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G935" s="8" t="s">
         <v>1939</v>
@@ -58313,22 +58317,22 @@
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C936" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D936" s="30" t="s">
-        <v>1977</v>
+        <v>2552</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
       </c>
       <c r="F936" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G936" s="8" t="s">
-        <v>1978</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -58336,7 +58340,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C937" s="8" t="s">
         <v>845</v>
@@ -58359,10 +58363,10 @@
         <v>937</v>
       </c>
       <c r="B938" s="8">
-        <v>379</v>
-      </c>
-      <c r="C938" s="10" t="s">
-        <v>1979</v>
+        <v>378</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>845</v>
       </c>
       <c r="D938" s="30" t="s">
         <v>1977</v>
@@ -58382,13 +58386,13 @@
         <v>938</v>
       </c>
       <c r="B939" s="8">
-        <v>380</v>
-      </c>
-      <c r="C939" s="8" t="s">
-        <v>845</v>
+        <v>379</v>
+      </c>
+      <c r="C939" s="10" t="s">
+        <v>1979</v>
       </c>
       <c r="D939" s="30" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
@@ -58405,13 +58409,13 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C940" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D940" s="30" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="E940" s="8">
         <v>2</v>
@@ -58419,8 +58423,8 @@
       <c r="F940" s="8">
         <v>1</v>
       </c>
-      <c r="G940" s="10" t="s">
-        <v>1981</v>
+      <c r="G940" s="8" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -58430,11 +58434,11 @@
       <c r="B941" s="8">
         <v>381</v>
       </c>
-      <c r="C941" s="10" t="s">
+      <c r="C941" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D941" s="10" t="s">
-        <v>898</v>
+      <c r="D941" s="30" t="s">
+        <v>1977</v>
       </c>
       <c r="E941" s="8">
         <v>2</v>
@@ -58443,7 +58447,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -58451,22 +58455,22 @@
         <v>941</v>
       </c>
       <c r="B942" s="8">
-        <v>382</v>
-      </c>
-      <c r="C942" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C942" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D942" s="30" t="s">
-        <v>1977</v>
+      <c r="D942" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E942" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -58474,7 +58478,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C943" s="8" t="s">
         <v>845</v>
@@ -58503,7 +58507,7 @@
         <v>845</v>
       </c>
       <c r="D944" s="30" t="s">
-        <v>2524</v>
+        <v>1977</v>
       </c>
       <c r="E944" s="8">
         <v>5</v>
@@ -58511,8 +58515,8 @@
       <c r="F944" s="8">
         <v>1</v>
       </c>
-      <c r="G944" s="8" t="s">
-        <v>1939</v>
+      <c r="G944" s="10" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -58526,7 +58530,7 @@
         <v>845</v>
       </c>
       <c r="D945" s="30" t="s">
-        <v>2551</v>
+        <v>2524</v>
       </c>
       <c r="E945" s="8">
         <v>5</v>
@@ -58543,22 +58547,22 @@
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C946" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D946" s="10" t="s">
-        <v>1984</v>
+      <c r="D946" s="30" t="s">
+        <v>2551</v>
       </c>
       <c r="E946" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
-      <c r="G946" s="10" t="s">
-        <v>851</v>
+      <c r="G946" s="8" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -58571,8 +58575,8 @@
       <c r="C947" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D947" s="30" t="s">
-        <v>1977</v>
+      <c r="D947" s="10" t="s">
+        <v>1984</v>
       </c>
       <c r="E947" s="8">
         <v>2</v>
@@ -58581,7 +58585,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>1981</v>
+        <v>851</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -58589,13 +58593,13 @@
         <v>947</v>
       </c>
       <c r="B948" s="8">
-        <v>385</v>
-      </c>
-      <c r="C948" s="10" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D948" s="10" t="s">
-        <v>1985</v>
+        <v>384</v>
+      </c>
+      <c r="C948" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D948" s="30" t="s">
+        <v>1977</v>
       </c>
       <c r="E948" s="8">
         <v>2</v>
@@ -58604,7 +58608,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>855</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="949" spans="1:7">
@@ -58614,11 +58618,11 @@
       <c r="B949" s="8">
         <v>385</v>
       </c>
-      <c r="C949" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D949" s="30" t="s">
-        <v>1837</v>
+      <c r="C949" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D949" s="10" t="s">
+        <v>1985</v>
       </c>
       <c r="E949" s="8">
         <v>2</v>
@@ -58627,7 +58631,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="10" t="s">
-        <v>1981</v>
+        <v>855</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -58635,13 +58639,13 @@
         <v>949</v>
       </c>
       <c r="B950" s="8">
-        <v>386</v>
-      </c>
-      <c r="C950" s="10" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D950" s="11" t="s">
-        <v>1986</v>
+        <v>385</v>
+      </c>
+      <c r="C950" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D950" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E950" s="8">
         <v>2</v>
@@ -58650,7 +58654,7 @@
         <v>1</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>859</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="951" spans="1:7">
@@ -58660,11 +58664,11 @@
       <c r="B951" s="8">
         <v>386</v>
       </c>
-      <c r="C951" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D951" s="30" t="s">
-        <v>1837</v>
+      <c r="C951" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D951" s="11" t="s">
+        <v>1986</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
@@ -58673,7 +58677,7 @@
         <v>1</v>
       </c>
       <c r="G951" s="10" t="s">
-        <v>1981</v>
+        <v>859</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -58681,13 +58685,13 @@
         <v>951</v>
       </c>
       <c r="B952" s="8">
-        <v>387</v>
-      </c>
-      <c r="C952" s="10" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D952" s="11" t="s">
-        <v>1987</v>
+        <v>386</v>
+      </c>
+      <c r="C952" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D952" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E952" s="8">
         <v>2</v>
@@ -58696,7 +58700,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="953" spans="1:7">
@@ -58706,11 +58710,11 @@
       <c r="B953" s="8">
         <v>387</v>
       </c>
-      <c r="C953" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D953" s="30" t="s">
-        <v>1977</v>
+      <c r="C953" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D953" s="11" t="s">
+        <v>1987</v>
       </c>
       <c r="E953" s="8">
         <v>2</v>
@@ -58719,7 +58723,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -58727,13 +58731,13 @@
         <v>953</v>
       </c>
       <c r="B954" s="8">
-        <v>388</v>
-      </c>
-      <c r="C954" s="10" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D954" s="11" t="s">
-        <v>1989</v>
+        <v>387</v>
+      </c>
+      <c r="C954" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D954" s="30" t="s">
+        <v>1977</v>
       </c>
       <c r="E954" s="8">
         <v>2</v>
@@ -58742,7 +58746,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -58752,11 +58756,11 @@
       <c r="B955" s="8">
         <v>388</v>
       </c>
-      <c r="C955" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D955" s="30" t="s">
-        <v>1977</v>
+      <c r="C955" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D955" s="11" t="s">
+        <v>1989</v>
       </c>
       <c r="E955" s="8">
         <v>2</v>
@@ -58765,7 +58769,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>1981</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -58773,13 +58777,13 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>389</v>
-      </c>
-      <c r="C956" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C956" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D956" s="10" t="s">
-        <v>846</v>
+      <c r="D956" s="30" t="s">
+        <v>1977</v>
       </c>
       <c r="E956" s="8">
         <v>2</v>
@@ -58788,7 +58792,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>847</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="957" spans="1:7">
@@ -58798,11 +58802,11 @@
       <c r="B957" s="8">
         <v>389</v>
       </c>
-      <c r="C957" s="8" t="s">
+      <c r="C957" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D957" s="30" t="s">
-        <v>1977</v>
+      <c r="D957" s="10" t="s">
+        <v>846</v>
       </c>
       <c r="E957" s="8">
         <v>2</v>
@@ -58811,7 +58815,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>1981</v>
+        <v>847</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -58819,7 +58823,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C958" s="8" t="s">
         <v>845</v>
@@ -58833,31 +58837,31 @@
       <c r="F958" s="8">
         <v>1</v>
       </c>
-      <c r="G958" s="8" t="s">
-        <v>1978</v>
+      <c r="G958" s="10" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="959" spans="1:7">
       <c r="A959" s="8">
         <v>958</v>
       </c>
-      <c r="B959" s="51">
-        <v>391</v>
-      </c>
-      <c r="C959" s="52" t="s">
+      <c r="B959" s="8">
+        <v>390</v>
+      </c>
+      <c r="C959" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D959" s="52" t="s">
-        <v>898</v>
-      </c>
-      <c r="E959" s="51">
-        <v>5</v>
-      </c>
-      <c r="F959" s="51">
-        <v>1</v>
-      </c>
-      <c r="G959" s="52" t="s">
-        <v>902</v>
+      <c r="D959" s="30" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E959" s="8">
+        <v>2</v>
+      </c>
+      <c r="F959" s="8">
+        <v>1</v>
+      </c>
+      <c r="G959" s="8" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -58867,11 +58871,11 @@
       <c r="B960" s="51">
         <v>391</v>
       </c>
-      <c r="C960" s="51" t="s">
+      <c r="C960" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="D960" s="59" t="s">
-        <v>1838</v>
+      <c r="D960" s="52" t="s">
+        <v>898</v>
       </c>
       <c r="E960" s="51">
         <v>5</v>
@@ -58880,30 +58884,30 @@
         <v>1</v>
       </c>
       <c r="G960" s="52" t="s">
-        <v>1935</v>
+        <v>902</v>
       </c>
     </row>
     <row r="961" spans="1:7">
       <c r="A961" s="8">
         <v>960</v>
       </c>
-      <c r="B961" s="8">
-        <v>392</v>
-      </c>
-      <c r="C961" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D961" s="8">
-        <v>1</v>
-      </c>
-      <c r="E961" s="8">
-        <v>3</v>
-      </c>
-      <c r="F961" s="8">
-        <v>1</v>
-      </c>
-      <c r="G961" s="10" t="s">
-        <v>1995</v>
+      <c r="B961" s="51">
+        <v>391</v>
+      </c>
+      <c r="C961" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="D961" s="59" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E961" s="51">
+        <v>5</v>
+      </c>
+      <c r="F961" s="51">
+        <v>1</v>
+      </c>
+      <c r="G961" s="52" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="962" spans="1:7">
@@ -58911,22 +58915,22 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>858</v>
+        <v>1115</v>
       </c>
       <c r="D962" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E962" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F962" s="8">
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>863</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -58936,20 +58940,20 @@
       <c r="B963" s="8">
         <v>393</v>
       </c>
-      <c r="C963" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D963" s="30" t="s">
-        <v>1837</v>
+      <c r="C963" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D963" s="8">
+        <v>0</v>
       </c>
       <c r="E963" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F963" s="8">
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>1973</v>
+        <v>863</v>
       </c>
     </row>
     <row r="964" spans="1:7">
@@ -58957,22 +58961,22 @@
         <v>963</v>
       </c>
       <c r="B964" s="8">
-        <v>394</v>
-      </c>
-      <c r="C964" s="10" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D964" s="8">
-        <v>1607356800</v>
+        <v>393</v>
+      </c>
+      <c r="C964" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D964" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E964" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F964" s="8">
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2027</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="965" spans="1:7">
@@ -58982,20 +58986,20 @@
       <c r="B965" s="8">
         <v>394</v>
       </c>
-      <c r="C965" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D965" s="30" t="s">
-        <v>1837</v>
+      <c r="C965" s="10" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D965" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E965" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F965" s="8">
         <v>1</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>1973</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="966" spans="1:7">
@@ -59003,22 +59007,22 @@
         <v>965</v>
       </c>
       <c r="B966" s="8">
-        <v>395</v>
-      </c>
-      <c r="C966" s="10" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D966" s="8">
-        <v>1607356800</v>
+        <v>394</v>
+      </c>
+      <c r="C966" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D966" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E966" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F966" s="8">
         <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2027</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="967" spans="1:7">
@@ -59029,19 +59033,19 @@
         <v>395</v>
       </c>
       <c r="C967" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D967" s="15" t="s">
-        <v>1027</v>
+        <v>2026</v>
+      </c>
+      <c r="D967" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E967" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F967" s="8">
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="968" spans="1:7">
@@ -59052,19 +59056,19 @@
         <v>395</v>
       </c>
       <c r="C968" s="10" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D968" s="8">
-        <v>1607356800</v>
+        <v>1021</v>
+      </c>
+      <c r="D968" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E968" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F968" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -59075,65 +59079,65 @@
         <v>395</v>
       </c>
       <c r="C969" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D969" s="15" t="s">
-        <v>1746</v>
+        <v>2026</v>
+      </c>
+      <c r="D969" s="8">
+        <v>1607356800</v>
       </c>
       <c r="E969" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F969" s="8">
         <v>2</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="970" spans="1:7">
       <c r="A970" s="8">
         <v>969</v>
       </c>
-      <c r="B970" s="14">
-        <v>396</v>
-      </c>
-      <c r="C970" s="31" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D970" s="14">
-        <v>1607356800</v>
-      </c>
-      <c r="E970" s="14">
-        <v>3</v>
-      </c>
-      <c r="F970" s="14">
-        <v>1</v>
-      </c>
-      <c r="G970" s="31" t="s">
-        <v>2027</v>
+      <c r="B970" s="8">
+        <v>395</v>
+      </c>
+      <c r="C970" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D970" s="15" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E970" s="8">
+        <v>2</v>
+      </c>
+      <c r="F970" s="8">
+        <v>2</v>
+      </c>
+      <c r="G970" s="10" t="s">
+        <v>2030</v>
       </c>
     </row>
     <row r="971" spans="1:7">
       <c r="A971" s="8">
         <v>970</v>
       </c>
-      <c r="B971" s="8">
-        <v>397</v>
-      </c>
-      <c r="C971" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D971" s="10" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E971" s="8">
-        <v>2</v>
-      </c>
-      <c r="F971" s="8">
-        <v>1</v>
-      </c>
-      <c r="G971" s="10" t="s">
-        <v>909</v>
+      <c r="B971" s="14">
+        <v>396</v>
+      </c>
+      <c r="C971" s="31" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D971" s="14">
+        <v>1607356800</v>
+      </c>
+      <c r="E971" s="14">
+        <v>3</v>
+      </c>
+      <c r="F971" s="14">
+        <v>1</v>
+      </c>
+      <c r="G971" s="31" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="972" spans="1:7">
@@ -59141,13 +59145,13 @@
         <v>971</v>
       </c>
       <c r="B972" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C972" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D972" s="10" t="s">
-        <v>914</v>
+        <v>1531</v>
       </c>
       <c r="E972" s="8">
         <v>2</v>
@@ -59156,44 +59160,44 @@
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="973" spans="1:7" s="8" customFormat="1">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7">
       <c r="A973" s="8">
         <v>972</v>
       </c>
       <c r="B973" s="8">
-        <v>399</v>
-      </c>
-      <c r="C973" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D973" s="8">
-        <v>1</v>
+        <v>398</v>
+      </c>
+      <c r="C973" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D973" s="10" t="s">
+        <v>914</v>
       </c>
       <c r="E973" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F973" s="8">
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="974" spans="1:7">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" s="8" customFormat="1">
       <c r="A974" s="8">
         <v>973</v>
       </c>
       <c r="B974" s="8">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C974" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D974" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E974" s="8">
         <v>3</v>
@@ -59202,7 +59206,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="10" t="s">
-        <v>2043</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="975" spans="1:7">
@@ -59210,13 +59214,13 @@
         <v>974</v>
       </c>
       <c r="B975" s="8">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C975" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D975" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E975" s="8">
         <v>3</v>
@@ -59225,30 +59229,30 @@
         <v>1</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="976" spans="1:7" s="8" customFormat="1">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7">
       <c r="A976" s="8">
         <v>975</v>
       </c>
       <c r="B976" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C976" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D976" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D976" s="8">
+        <v>8</v>
       </c>
       <c r="E976" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F976" s="8">
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>902</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -59256,22 +59260,22 @@
         <v>976</v>
       </c>
       <c r="B977" s="8">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C977" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D977" s="8">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="D977" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E977" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F977" s="8">
         <v>1</v>
       </c>
       <c r="G977" s="10" t="s">
-        <v>2054</v>
+        <v>902</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -59279,7 +59283,7 @@
         <v>977</v>
       </c>
       <c r="B978" s="8">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C978" s="10" t="s">
         <v>1115</v>
@@ -59288,13 +59292,13 @@
         <v>0</v>
       </c>
       <c r="E978" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F978" s="8">
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="979" spans="1:7" s="8" customFormat="1">
@@ -59302,22 +59306,22 @@
         <v>978</v>
       </c>
       <c r="B979" s="8">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C979" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D979" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D979" s="8">
+        <v>0</v>
       </c>
       <c r="E979" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F979" s="8">
         <v>1</v>
       </c>
       <c r="G979" s="10" t="s">
-        <v>902</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="980" spans="1:7" s="8" customFormat="1">
@@ -59325,13 +59329,13 @@
         <v>979</v>
       </c>
       <c r="B980" s="8">
-        <v>406</v>
-      </c>
-      <c r="C980" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C980" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D980" s="30" t="s">
-        <v>1837</v>
+      <c r="D980" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E980" s="8">
         <v>5</v>
@@ -59340,53 +59344,53 @@
         <v>1</v>
       </c>
       <c r="G980" s="10" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="981" spans="1:7" s="8" customFormat="1" ht="16.5">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" s="8" customFormat="1">
       <c r="A981" s="8">
         <v>980</v>
       </c>
       <c r="B981" s="8">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C981" s="8" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D981" s="44" t="s">
-        <v>2085</v>
+        <v>845</v>
+      </c>
+      <c r="D981" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E981" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F981" s="8">
         <v>1</v>
       </c>
       <c r="G981" s="10" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="982" spans="1:7" s="8" customFormat="1">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" s="8" customFormat="1" ht="16.5">
       <c r="A982" s="8">
         <v>981</v>
       </c>
       <c r="B982" s="8">
         <v>407</v>
       </c>
-      <c r="C982" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D982" s="8" t="s">
-        <v>2087</v>
+      <c r="C982" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D982" s="44" t="s">
+        <v>2085</v>
       </c>
       <c r="E982" s="8">
         <v>2</v>
       </c>
       <c r="F982" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G982" s="10" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="983" spans="1:7" s="8" customFormat="1">
@@ -59396,11 +59400,11 @@
       <c r="B983" s="8">
         <v>407</v>
       </c>
-      <c r="C983" s="8" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D983" s="10" t="s">
-        <v>2091</v>
+      <c r="C983" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D983" s="8" t="s">
+        <v>2087</v>
       </c>
       <c r="E983" s="8">
         <v>2</v>
@@ -59409,7 +59413,7 @@
         <v>2</v>
       </c>
       <c r="G983" s="10" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="984" spans="1:7" s="8" customFormat="1">
@@ -59419,20 +59423,20 @@
       <c r="B984" s="8">
         <v>407</v>
       </c>
-      <c r="C984" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D984" s="15" t="s">
-        <v>1027</v>
+      <c r="C984" s="8" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D984" s="10" t="s">
+        <v>2091</v>
       </c>
       <c r="E984" s="8">
         <v>2</v>
       </c>
       <c r="F984" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G984" s="10" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="985" spans="1:7" s="8" customFormat="1">
@@ -59442,11 +59446,11 @@
       <c r="B985" s="8">
         <v>407</v>
       </c>
-      <c r="C985" s="8" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D985" s="10" t="s">
-        <v>2090</v>
+      <c r="C985" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D985" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E985" s="8">
         <v>2</v>
@@ -59455,7 +59459,7 @@
         <v>3</v>
       </c>
       <c r="G985" s="10" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="986" spans="1:7" s="8" customFormat="1">
@@ -59463,22 +59467,22 @@
         <v>985</v>
       </c>
       <c r="B986" s="8">
-        <v>408</v>
-      </c>
-      <c r="C986" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D986" s="8" t="s">
-        <v>2087</v>
+        <v>407</v>
+      </c>
+      <c r="C986" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D986" s="10" t="s">
+        <v>2090</v>
       </c>
       <c r="E986" s="8">
         <v>2</v>
       </c>
       <c r="F986" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G986" s="10" t="s">
-        <v>2109</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="987" spans="1:7" s="8" customFormat="1">
@@ -59486,22 +59490,22 @@
         <v>986</v>
       </c>
       <c r="B987" s="8">
-        <v>409</v>
-      </c>
-      <c r="C987" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D987" s="30" t="s">
-        <v>2243</v>
+        <v>408</v>
+      </c>
+      <c r="C987" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D987" s="8" t="s">
+        <v>2087</v>
       </c>
       <c r="E987" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F987" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>1973</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="988" spans="1:7" s="8" customFormat="1">
@@ -59509,22 +59513,22 @@
         <v>987</v>
       </c>
       <c r="B988" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C988" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D988" s="30" t="s">
-        <v>1837</v>
+        <v>2243</v>
       </c>
       <c r="E988" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F988" s="8">
         <v>1</v>
       </c>
       <c r="G988" s="10" t="s">
-        <v>2118</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="989" spans="1:7" s="8" customFormat="1">
@@ -59532,7 +59536,7 @@
         <v>988</v>
       </c>
       <c r="B989" s="8">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C989" s="8" t="s">
         <v>845</v>
@@ -59541,13 +59545,13 @@
         <v>1837</v>
       </c>
       <c r="E989" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F989" s="8">
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>1973</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="990" spans="1:7" s="8" customFormat="1">
@@ -59555,7 +59559,7 @@
         <v>989</v>
       </c>
       <c r="B990" s="8">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C990" s="8" t="s">
         <v>845</v>
@@ -59564,13 +59568,13 @@
         <v>1837</v>
       </c>
       <c r="E990" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F990" s="8">
         <v>1</v>
       </c>
       <c r="G990" s="10" t="s">
-        <v>2124</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="991" spans="1:7" s="8" customFormat="1">
@@ -59578,22 +59582,22 @@
         <v>990</v>
       </c>
       <c r="B991" s="8">
-        <v>413</v>
-      </c>
-      <c r="C991" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D991" s="8">
-        <v>2</v>
+        <v>412</v>
+      </c>
+      <c r="C991" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D991" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E991" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F991" s="8">
         <v>1</v>
       </c>
       <c r="G991" s="10" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="992" spans="1:7" s="8" customFormat="1">
@@ -59601,10 +59605,10 @@
         <v>991</v>
       </c>
       <c r="B992" s="8">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>858</v>
+        <v>1115</v>
       </c>
       <c r="D992" s="8">
         <v>2</v>
@@ -59616,7 +59620,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="993" spans="1:7" s="8" customFormat="1">
@@ -59624,22 +59628,22 @@
         <v>992</v>
       </c>
       <c r="B993" s="8">
-        <v>415</v>
-      </c>
-      <c r="C993" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D993" s="30" t="s">
-        <v>2135</v>
+        <v>414</v>
+      </c>
+      <c r="C993" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D993" s="8">
+        <v>2</v>
       </c>
       <c r="E993" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F993" s="8">
         <v>1</v>
       </c>
       <c r="G993" s="10" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="994" spans="1:7" s="8" customFormat="1">
@@ -59650,19 +59654,19 @@
         <v>415</v>
       </c>
       <c r="C994" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="D994" s="10">
-        <v>86400</v>
+        <v>845</v>
+      </c>
+      <c r="D994" s="30" t="s">
+        <v>2135</v>
       </c>
       <c r="E994" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F994" s="8">
         <v>1</v>
       </c>
       <c r="G994" s="10" t="s">
-        <v>935</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="995" spans="1:7" s="8" customFormat="1">
@@ -59670,22 +59674,22 @@
         <v>994</v>
       </c>
       <c r="B995" s="8">
-        <v>416</v>
-      </c>
-      <c r="C995" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D995" s="8">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="C995" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="D995" s="10">
+        <v>86400</v>
       </c>
       <c r="E995" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F995" s="8">
         <v>1</v>
       </c>
       <c r="G995" s="10" t="s">
-        <v>2143</v>
+        <v>935</v>
       </c>
     </row>
     <row r="996" spans="1:7" s="8" customFormat="1">
@@ -59693,22 +59697,22 @@
         <v>995</v>
       </c>
       <c r="B996" s="8">
-        <v>417</v>
-      </c>
-      <c r="C996" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D996" s="30" t="s">
-        <v>1837</v>
+        <v>416</v>
+      </c>
+      <c r="C996" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D996" s="8">
+        <v>0</v>
       </c>
       <c r="E996" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F996" s="8">
         <v>1</v>
       </c>
       <c r="G996" s="10" t="s">
-        <v>1973</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="997" spans="1:7" s="8" customFormat="1">
@@ -59716,22 +59720,22 @@
         <v>996</v>
       </c>
       <c r="B997" s="8">
-        <v>418</v>
-      </c>
-      <c r="C997" s="10" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D997" s="10" t="s">
-        <v>2149</v>
+        <v>417</v>
+      </c>
+      <c r="C997" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D997" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E997" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F997" s="8">
         <v>1</v>
       </c>
       <c r="G997" s="10" t="s">
-        <v>2150</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="998" spans="1:7" s="8" customFormat="1">
@@ -59742,10 +59746,10 @@
         <v>418</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>2084</v>
+        <v>2161</v>
       </c>
       <c r="D998" s="10" t="s">
-        <v>2085</v>
+        <v>2149</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
@@ -59754,7 +59758,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="10" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="999" spans="1:7" s="8" customFormat="1">
@@ -59765,19 +59769,19 @@
         <v>418</v>
       </c>
       <c r="C999" s="10" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D999" s="8" t="s">
-        <v>2152</v>
+        <v>2084</v>
+      </c>
+      <c r="D999" s="10" t="s">
+        <v>2085</v>
       </c>
       <c r="E999" s="8">
         <v>2</v>
       </c>
       <c r="F999" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G999" s="10" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1000" spans="1:7" s="8" customFormat="1">
@@ -59788,10 +59792,10 @@
         <v>418</v>
       </c>
       <c r="C1000" s="10" t="s">
-        <v>2154</v>
-      </c>
-      <c r="D1000" s="10" t="s">
-        <v>2085</v>
+        <v>2162</v>
+      </c>
+      <c r="D1000" s="8" t="s">
+        <v>2152</v>
       </c>
       <c r="E1000" s="8">
         <v>2</v>
@@ -59800,7 +59804,7 @@
         <v>2</v>
       </c>
       <c r="G1000" s="10" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1001" spans="1:7" s="8" customFormat="1">
@@ -59811,19 +59815,19 @@
         <v>418</v>
       </c>
       <c r="C1001" s="10" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D1001" s="8" t="s">
-        <v>2156</v>
+        <v>2154</v>
+      </c>
+      <c r="D1001" s="10" t="s">
+        <v>2085</v>
       </c>
       <c r="E1001" s="8">
         <v>2</v>
       </c>
       <c r="F1001" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1001" s="10" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1002" spans="1:7" s="8" customFormat="1">
@@ -59834,10 +59838,10 @@
         <v>418</v>
       </c>
       <c r="C1002" s="10" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D1002" s="10" t="s">
-        <v>2085</v>
+        <v>2163</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>2156</v>
       </c>
       <c r="E1002" s="8">
         <v>2</v>
@@ -59846,7 +59850,7 @@
         <v>3</v>
       </c>
       <c r="G1002" s="10" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1003" spans="1:7" s="8" customFormat="1">
@@ -59854,22 +59858,22 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="8">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C1003" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1003" s="15" t="s">
-        <v>2032</v>
+        <v>2084</v>
+      </c>
+      <c r="D1003" s="10" t="s">
+        <v>2085</v>
       </c>
       <c r="E1003" s="8">
         <v>2</v>
       </c>
       <c r="F1003" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1003" s="10" t="s">
-        <v>2034</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1004" spans="1:7" s="8" customFormat="1">
@@ -59879,20 +59883,20 @@
       <c r="B1004" s="8">
         <v>419</v>
       </c>
-      <c r="C1004" s="8" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D1004" s="8">
-        <v>600</v>
+      <c r="C1004" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1004" s="15" t="s">
+        <v>2032</v>
       </c>
       <c r="E1004" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1004" s="8">
         <v>1</v>
       </c>
       <c r="G1004" s="10" t="s">
-        <v>2347</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1005" spans="1:7" s="8" customFormat="1">
@@ -59900,22 +59904,22 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="8">
-        <v>420</v>
-      </c>
-      <c r="C1005" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1005" s="15" t="s">
-        <v>2031</v>
+        <v>419</v>
+      </c>
+      <c r="C1005" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D1005" s="8">
+        <v>600</v>
       </c>
       <c r="E1005" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1005" s="8">
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2033</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1006" spans="1:7" s="8" customFormat="1">
@@ -59925,20 +59929,20 @@
       <c r="B1006" s="8">
         <v>420</v>
       </c>
-      <c r="C1006" s="8" t="s">
-        <v>2171</v>
-      </c>
-      <c r="D1006" s="8">
-        <v>600</v>
+      <c r="C1006" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1006" s="15" t="s">
+        <v>2031</v>
       </c>
       <c r="E1006" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1006" s="8">
         <v>1</v>
       </c>
       <c r="G1006" s="10" t="s">
-        <v>2348</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1007" spans="1:7" s="8" customFormat="1">
@@ -59946,22 +59950,22 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="8">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1007" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1007" s="30" t="s">
-        <v>1837</v>
+        <v>2171</v>
+      </c>
+      <c r="D1007" s="8">
+        <v>600</v>
       </c>
       <c r="E1007" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1007" s="8">
         <v>1</v>
       </c>
       <c r="G1007" s="10" t="s">
-        <v>1973</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1008" spans="1:7" s="8" customFormat="1">
@@ -59969,22 +59973,22 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="8">
-        <v>422</v>
-      </c>
-      <c r="C1008" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1008" s="8">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="C1008" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1008" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1008" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1008" s="8">
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2186</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1009" spans="1:7" s="8" customFormat="1">
@@ -59992,22 +59996,22 @@
         <v>1008</v>
       </c>
       <c r="B1009" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1009" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1009" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1009" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1009" s="8">
         <v>1</v>
       </c>
       <c r="G1009" s="10" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1010" spans="1:7" s="8" customFormat="1">
@@ -60021,16 +60025,16 @@
         <v>1115</v>
       </c>
       <c r="D1010" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1010" s="8">
         <v>3</v>
       </c>
-      <c r="E1010" s="8">
-        <v>4</v>
-      </c>
       <c r="F1010" s="8">
         <v>1</v>
       </c>
       <c r="G1010" s="10" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1011" spans="1:7" s="8" customFormat="1">
@@ -60038,22 +60042,22 @@
         <v>1010</v>
       </c>
       <c r="B1011" s="8">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1011" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1011" s="8">
+        <v>3</v>
+      </c>
+      <c r="E1011" s="8">
         <v>4</v>
       </c>
-      <c r="E1011" s="8">
-        <v>3</v>
-      </c>
       <c r="F1011" s="8">
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1012" spans="1:7" s="8" customFormat="1">
@@ -60067,16 +60071,16 @@
         <v>1115</v>
       </c>
       <c r="D1012" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1012" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1012" s="8">
         <v>1</v>
       </c>
       <c r="G1012" s="10" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1013" spans="1:7" s="8" customFormat="1">
@@ -60084,68 +60088,68 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1013" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1013" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1013" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1013" s="8">
         <v>1</v>
       </c>
       <c r="G1013" s="10" t="s">
-        <v>1990</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1014" spans="1:7" s="8" customFormat="1">
       <c r="A1014" s="8">
         <v>1013</v>
       </c>
-      <c r="B1014" s="16">
-        <v>426</v>
-      </c>
-      <c r="C1014" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1014" s="30" t="s">
-        <v>1837</v>
+      <c r="B1014" s="8">
+        <v>425</v>
+      </c>
+      <c r="C1014" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1014" s="8">
+        <v>8</v>
       </c>
       <c r="E1014" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1014" s="8">
         <v>1</v>
       </c>
       <c r="G1014" s="10" t="s">
-        <v>2185</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1015" spans="1:7" s="8" customFormat="1">
       <c r="A1015" s="8">
         <v>1014</v>
       </c>
-      <c r="B1015" s="8">
-        <v>427</v>
-      </c>
-      <c r="C1015" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1015" s="8">
-        <v>0</v>
+      <c r="B1015" s="16">
+        <v>426</v>
+      </c>
+      <c r="C1015" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1015" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1015" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1015" s="8">
         <v>1</v>
       </c>
       <c r="G1015" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1016" spans="1:7" s="8" customFormat="1">
@@ -60155,20 +60159,20 @@
       <c r="B1016" s="8">
         <v>427</v>
       </c>
-      <c r="C1016" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1016" s="30" t="s">
-        <v>1837</v>
+      <c r="C1016" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1016" s="8">
+        <v>0</v>
       </c>
       <c r="E1016" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1016" s="8">
         <v>1</v>
       </c>
       <c r="G1016" s="10" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1017" spans="1:7" s="8" customFormat="1">
@@ -60176,22 +60180,22 @@
         <v>1016</v>
       </c>
       <c r="B1017" s="8">
-        <v>428</v>
-      </c>
-      <c r="C1017" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1017" s="8">
-        <v>1</v>
+        <v>427</v>
+      </c>
+      <c r="C1017" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1017" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1017" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1017" s="8">
         <v>1</v>
       </c>
       <c r="G1017" s="10" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1018" spans="1:7" s="8" customFormat="1">
@@ -60205,16 +60209,16 @@
         <v>1115</v>
       </c>
       <c r="D1018" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1018" s="8">
         <v>3</v>
       </c>
-      <c r="E1018" s="8">
-        <v>4</v>
-      </c>
       <c r="F1018" s="8">
         <v>1</v>
       </c>
       <c r="G1018" s="10" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1019" spans="1:7" s="8" customFormat="1">
@@ -60224,20 +60228,20 @@
       <c r="B1019" s="8">
         <v>428</v>
       </c>
-      <c r="C1019" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1019" s="30" t="s">
-        <v>1837</v>
+      <c r="C1019" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1019" s="8">
+        <v>3</v>
       </c>
       <c r="E1019" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1019" s="8">
         <v>1</v>
       </c>
       <c r="G1019" s="10" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1020" spans="1:7" s="8" customFormat="1">
@@ -60245,22 +60249,22 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="8">
-        <v>429</v>
-      </c>
-      <c r="C1020" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1020" s="8">
-        <v>4</v>
+        <v>428</v>
+      </c>
+      <c r="C1020" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1020" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1020" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1020" s="8">
         <v>1</v>
       </c>
       <c r="G1020" s="10" t="s">
-        <v>1226</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1021" spans="1:7" s="8" customFormat="1">
@@ -60274,16 +60278,16 @@
         <v>1115</v>
       </c>
       <c r="D1021" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1021" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1021" s="8">
         <v>1</v>
       </c>
       <c r="G1021" s="10" t="s">
-        <v>2188</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1022" spans="1:7" s="8" customFormat="1">
@@ -60293,20 +60297,20 @@
       <c r="B1022" s="8">
         <v>429</v>
       </c>
-      <c r="C1022" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1022" s="30" t="s">
-        <v>1837</v>
+      <c r="C1022" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1022" s="8">
+        <v>7</v>
       </c>
       <c r="E1022" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1022" s="8">
         <v>1</v>
       </c>
       <c r="G1022" s="10" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1023" spans="1:7" s="8" customFormat="1">
@@ -60314,22 +60318,22 @@
         <v>1022</v>
       </c>
       <c r="B1023" s="8">
-        <v>430</v>
-      </c>
-      <c r="C1023" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1023" s="8">
-        <v>8</v>
+        <v>429</v>
+      </c>
+      <c r="C1023" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1023" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1023" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1023" s="8">
         <v>1</v>
       </c>
       <c r="G1023" s="10" t="s">
-        <v>1225</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1024" spans="1:7" s="8" customFormat="1">
@@ -60339,20 +60343,20 @@
       <c r="B1024" s="8">
         <v>430</v>
       </c>
-      <c r="C1024" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1024" s="30" t="s">
-        <v>1837</v>
+      <c r="C1024" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1024" s="8">
+        <v>8</v>
       </c>
       <c r="E1024" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1024" s="8">
         <v>1</v>
       </c>
       <c r="G1024" s="10" t="s">
-        <v>2185</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1025" spans="1:7" s="8" customFormat="1">
@@ -60360,7 +60364,7 @@
         <v>1024</v>
       </c>
       <c r="B1025" s="8">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C1025" s="8" t="s">
         <v>845</v>
@@ -60382,23 +60386,23 @@
       <c r="A1026" s="8">
         <v>1025</v>
       </c>
-      <c r="B1026" s="16">
-        <v>432</v>
-      </c>
-      <c r="C1026" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1026" s="8">
-        <v>0</v>
+      <c r="B1026" s="8">
+        <v>431</v>
+      </c>
+      <c r="C1026" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1026" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1026" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1026" s="8">
         <v>1</v>
       </c>
       <c r="G1026" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1027" spans="1:7" s="8" customFormat="1">
@@ -60408,11 +60412,11 @@
       <c r="B1027" s="16">
         <v>432</v>
       </c>
-      <c r="C1027" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1027" s="10" t="s">
-        <v>1531</v>
+      <c r="C1027" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1027" s="8">
+        <v>0</v>
       </c>
       <c r="E1027" s="8">
         <v>2</v>
@@ -60421,7 +60425,7 @@
         <v>1</v>
       </c>
       <c r="G1027" s="10" t="s">
-        <v>2244</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1028" spans="1:7" s="8" customFormat="1">
@@ -60431,20 +60435,20 @@
       <c r="B1028" s="16">
         <v>432</v>
       </c>
-      <c r="C1028" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1028" s="8">
-        <v>0</v>
+      <c r="C1028" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1028" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1028" s="8">
         <v>2</v>
       </c>
       <c r="F1028" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1028" s="10" t="s">
-        <v>2186</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1029" spans="1:7" s="8" customFormat="1">
@@ -60454,11 +60458,11 @@
       <c r="B1029" s="16">
         <v>432</v>
       </c>
-      <c r="C1029" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1029" s="10" t="s">
-        <v>914</v>
+      <c r="C1029" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1029" s="8">
+        <v>0</v>
       </c>
       <c r="E1029" s="8">
         <v>2</v>
@@ -60467,7 +60471,7 @@
         <v>2</v>
       </c>
       <c r="G1029" s="10" t="s">
-        <v>2245</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1030" spans="1:7" s="8" customFormat="1">
@@ -60477,20 +60481,20 @@
       <c r="B1030" s="16">
         <v>432</v>
       </c>
-      <c r="C1030" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1030" s="8">
-        <v>0</v>
+      <c r="C1030" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1030" s="10" t="s">
+        <v>914</v>
       </c>
       <c r="E1030" s="8">
         <v>2</v>
       </c>
       <c r="F1030" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1030" s="10" t="s">
-        <v>2186</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1031" spans="1:7" s="8" customFormat="1">
@@ -60500,11 +60504,11 @@
       <c r="B1031" s="16">
         <v>432</v>
       </c>
-      <c r="C1031" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1031" s="30" t="s">
-        <v>1837</v>
+      <c r="C1031" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1031" s="8">
+        <v>0</v>
       </c>
       <c r="E1031" s="8">
         <v>2</v>
@@ -60513,7 +60517,7 @@
         <v>3</v>
       </c>
       <c r="G1031" s="10" t="s">
-        <v>2240</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1032" spans="1:7" s="8" customFormat="1">
@@ -60523,20 +60527,20 @@
       <c r="B1032" s="16">
         <v>432</v>
       </c>
-      <c r="C1032" s="10" t="s">
+      <c r="C1032" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1032" s="10" t="s">
-        <v>2242</v>
+      <c r="D1032" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1032" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1032" s="8">
         <v>3</v>
       </c>
       <c r="G1032" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1033" spans="1:7" s="8" customFormat="1">
@@ -60544,22 +60548,22 @@
         <v>1032</v>
       </c>
       <c r="B1033" s="16">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1033" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1033" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D1033" s="10" t="s">
+        <v>2242</v>
       </c>
       <c r="E1033" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1033" s="8">
         <v>3</v>
       </c>
-      <c r="F1033" s="8">
-        <v>1</v>
-      </c>
       <c r="G1033" s="10" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1034" spans="1:7" s="8" customFormat="1">
@@ -60573,16 +60577,16 @@
         <v>1115</v>
       </c>
       <c r="D1034" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1034" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1034" s="8">
         <v>1</v>
       </c>
       <c r="G1034" s="10" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1035" spans="1:7" s="8" customFormat="1">
@@ -60592,20 +60596,20 @@
       <c r="B1035" s="16">
         <v>433</v>
       </c>
-      <c r="C1035" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1035" s="10" t="s">
-        <v>1531</v>
+      <c r="C1035" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1035" s="8">
+        <v>7</v>
       </c>
       <c r="E1035" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1035" s="8">
         <v>1</v>
       </c>
       <c r="G1035" s="10" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1036" spans="1:7" s="8" customFormat="1">
@@ -60615,20 +60619,20 @@
       <c r="B1036" s="16">
         <v>433</v>
       </c>
-      <c r="C1036" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1036" s="8">
-        <v>1</v>
+      <c r="C1036" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1036" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1036" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1036" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1037" spans="1:7" s="8" customFormat="1">
@@ -60642,16 +60646,16 @@
         <v>1115</v>
       </c>
       <c r="D1037" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1037" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1037" s="8">
         <v>2</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1038" spans="1:7" s="8" customFormat="1">
@@ -60661,20 +60665,20 @@
       <c r="B1038" s="16">
         <v>433</v>
       </c>
-      <c r="C1038" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1038" s="10" t="s">
-        <v>914</v>
+      <c r="C1038" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1038" s="8">
+        <v>7</v>
       </c>
       <c r="E1038" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1038" s="8">
         <v>2</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1039" spans="1:7" s="8" customFormat="1">
@@ -60684,20 +60688,20 @@
       <c r="B1039" s="16">
         <v>433</v>
       </c>
-      <c r="C1039" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1039" s="8">
-        <v>1</v>
+      <c r="C1039" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1039" s="10" t="s">
+        <v>914</v>
       </c>
       <c r="E1039" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1039" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>2186</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1040" spans="1:7" s="8" customFormat="1">
@@ -60711,16 +60715,16 @@
         <v>1115</v>
       </c>
       <c r="D1040" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E1040" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1040" s="8">
         <v>3</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>2246</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1041" spans="1:7" s="8" customFormat="1">
@@ -60730,20 +60734,20 @@
       <c r="B1041" s="16">
         <v>433</v>
       </c>
-      <c r="C1041" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1041" s="30" t="s">
-        <v>1837</v>
+      <c r="C1041" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1041" s="8">
+        <v>7</v>
       </c>
       <c r="E1041" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1041" s="8">
         <v>3</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1042" spans="1:7" s="8" customFormat="1">
@@ -60753,20 +60757,20 @@
       <c r="B1042" s="16">
         <v>433</v>
       </c>
-      <c r="C1042" s="10" t="s">
+      <c r="C1042" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1042" s="10" t="s">
-        <v>2242</v>
+      <c r="D1042" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1042" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1042" s="8">
         <v>3</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1043" spans="1:7" s="8" customFormat="1">
@@ -60774,22 +60778,22 @@
         <v>1042</v>
       </c>
       <c r="B1043" s="16">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C1043" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1043" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1043" s="10" t="s">
+        <v>2242</v>
       </c>
       <c r="E1043" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1043" s="8">
         <v>3</v>
       </c>
-      <c r="F1043" s="8">
-        <v>1</v>
-      </c>
       <c r="G1043" s="10" t="s">
-        <v>2249</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1044" spans="1:7" s="8" customFormat="1">
@@ -60799,20 +60803,20 @@
       <c r="B1044" s="16">
         <v>434</v>
       </c>
-      <c r="C1044" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1044" s="10" t="s">
-        <v>1531</v>
+      <c r="C1044" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1044" s="8">
+        <v>8</v>
       </c>
       <c r="E1044" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1044" s="8">
         <v>1</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>2244</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1045" spans="1:7" s="8" customFormat="1">
@@ -60822,20 +60826,20 @@
       <c r="B1045" s="16">
         <v>434</v>
       </c>
-      <c r="C1045" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1045" s="8">
-        <v>8</v>
+      <c r="C1045" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1045" s="10" t="s">
+        <v>1531</v>
       </c>
       <c r="E1045" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1045" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1046" spans="1:7" s="8" customFormat="1">
@@ -60845,20 +60849,20 @@
       <c r="B1046" s="16">
         <v>434</v>
       </c>
-      <c r="C1046" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1046" s="10" t="s">
-        <v>914</v>
+      <c r="C1046" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1046" s="8">
+        <v>8</v>
       </c>
       <c r="E1046" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1046" s="8">
         <v>2</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1047" spans="1:7" s="8" customFormat="1">
@@ -60868,20 +60872,20 @@
       <c r="B1047" s="16">
         <v>434</v>
       </c>
-      <c r="C1047" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1047" s="8">
-        <v>8</v>
+      <c r="C1047" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1047" s="10" t="s">
+        <v>914</v>
       </c>
       <c r="E1047" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1047" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1048" spans="1:7" s="8" customFormat="1">
@@ -60891,20 +60895,20 @@
       <c r="B1048" s="16">
         <v>434</v>
       </c>
-      <c r="C1048" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1048" s="30" t="s">
-        <v>1837</v>
+      <c r="C1048" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1048" s="8">
+        <v>8</v>
       </c>
       <c r="E1048" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1048" s="8">
         <v>3</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>2240</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1049" spans="1:7" s="8" customFormat="1">
@@ -60914,43 +60918,43 @@
       <c r="B1049" s="16">
         <v>434</v>
       </c>
-      <c r="C1049" s="10" t="s">
+      <c r="C1049" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1049" s="10" t="s">
-        <v>2242</v>
+      <c r="D1049" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1049" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1049" s="8">
         <v>3</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1050" spans="1:7" s="8" customFormat="1">
       <c r="A1050" s="8">
         <v>1049</v>
       </c>
-      <c r="B1050" s="8">
-        <v>435</v>
+      <c r="B1050" s="16">
+        <v>434</v>
       </c>
       <c r="C1050" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1050" s="10" t="s">
-        <v>898</v>
+        <v>2242</v>
       </c>
       <c r="E1050" s="8">
         <v>5</v>
       </c>
       <c r="F1050" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>902</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1051" spans="1:7" s="8" customFormat="1">
@@ -60958,22 +60962,22 @@
         <v>1050</v>
       </c>
       <c r="B1051" s="8">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1051" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1051" s="10" t="s">
-        <v>850</v>
+        <v>898</v>
       </c>
       <c r="E1051" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1051" s="8">
         <v>1</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1052" spans="1:7" s="8" customFormat="1">
@@ -60987,16 +60991,16 @@
         <v>845</v>
       </c>
       <c r="D1052" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E1052" s="8">
         <v>2</v>
       </c>
       <c r="F1052" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1053" spans="1:7" s="8" customFormat="1">
@@ -61010,16 +61014,16 @@
         <v>845</v>
       </c>
       <c r="D1053" s="10" t="s">
-        <v>1203</v>
+        <v>854</v>
       </c>
       <c r="E1053" s="8">
         <v>2</v>
       </c>
       <c r="F1053" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>1236</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1054" spans="1:7" s="8" customFormat="1">
@@ -61027,22 +61031,22 @@
         <v>1053</v>
       </c>
       <c r="B1054" s="8">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C1054" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1054" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D1054" s="10" t="s">
+        <v>1203</v>
       </c>
       <c r="E1054" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1054" s="8">
         <v>3</v>
       </c>
-      <c r="F1054" s="8">
-        <v>1</v>
-      </c>
       <c r="G1054" s="10" t="s">
-        <v>1329</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1055" spans="1:7" s="8" customFormat="1">
@@ -61056,16 +61060,16 @@
         <v>1115</v>
       </c>
       <c r="D1055" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1055" s="8">
         <v>3</v>
       </c>
-      <c r="E1055" s="8">
-        <v>4</v>
-      </c>
       <c r="F1055" s="8">
         <v>1</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1056" spans="1:7" s="8" customFormat="1">
@@ -61076,19 +61080,19 @@
         <v>437</v>
       </c>
       <c r="C1056" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1056" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1056" s="8">
+        <v>3</v>
       </c>
       <c r="E1056" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1056" s="8">
         <v>1</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1057" spans="1:7" s="8" customFormat="1">
@@ -61096,22 +61100,22 @@
         <v>1056</v>
       </c>
       <c r="B1057" s="8">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1057" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1057" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D1057" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1057" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1057" s="8">
         <v>1</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1058" spans="1:7" s="8" customFormat="1">
@@ -61125,16 +61129,16 @@
         <v>1115</v>
       </c>
       <c r="D1058" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1058" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1058" s="8">
         <v>1</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1059" spans="1:7" s="8" customFormat="1">
@@ -61145,19 +61149,19 @@
         <v>438</v>
       </c>
       <c r="C1059" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1059" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1059" s="8">
+        <v>7</v>
       </c>
       <c r="E1059" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1059" s="8">
         <v>1</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1060" spans="1:7" s="8" customFormat="1">
@@ -61165,22 +61169,22 @@
         <v>1059</v>
       </c>
       <c r="B1060" s="8">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1060" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1060" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1060" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1060" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1060" s="8">
         <v>1</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1061" spans="1:7" s="8" customFormat="1">
@@ -61194,16 +61198,16 @@
         <v>1115</v>
       </c>
       <c r="D1061" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1061" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1061" s="8">
         <v>1</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1062" spans="1:7" s="8" customFormat="1">
@@ -61214,19 +61218,19 @@
         <v>439</v>
       </c>
       <c r="C1062" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1062" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1062" s="8">
+        <v>12</v>
       </c>
       <c r="E1062" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1062" s="8">
         <v>1</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1063" spans="1:7" s="8" customFormat="1">
@@ -61234,13 +61238,13 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="8">
-        <v>440</v>
-      </c>
-      <c r="C1063" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1063" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D1063" s="30" t="s">
-        <v>1837</v>
+      <c r="D1063" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1063" s="8">
         <v>5</v>
@@ -61249,7 +61253,7 @@
         <v>1</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>2185</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1064" spans="1:7" s="8" customFormat="1">
@@ -61257,7 +61261,7 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="8">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1064" s="8" t="s">
         <v>845</v>
@@ -61266,27 +61270,27 @@
         <v>1837</v>
       </c>
       <c r="E1064" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1064" s="8">
         <v>1</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:7">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" s="8" customFormat="1">
       <c r="A1065" s="8">
         <v>1064</v>
       </c>
       <c r="B1065" s="8">
-        <v>442</v>
-      </c>
-      <c r="C1065" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1065" s="15" t="s">
-        <v>1027</v>
+        <v>441</v>
+      </c>
+      <c r="C1065" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1065" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1065" s="8">
         <v>2</v>
@@ -61295,7 +61299,7 @@
         <v>1</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>2093</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1066" spans="1:7">
@@ -61308,17 +61312,17 @@
       <c r="C1066" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D1066" s="8" t="s">
-        <v>2087</v>
+      <c r="D1066" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="E1066" s="8">
         <v>2</v>
       </c>
       <c r="F1066" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>2109</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1067" spans="1:7">
@@ -61331,17 +61335,17 @@
       <c r="C1067" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D1067" s="10" t="s">
-        <v>2300</v>
+      <c r="D1067" s="8" t="s">
+        <v>2087</v>
       </c>
       <c r="E1067" s="8">
         <v>2</v>
       </c>
       <c r="F1067" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>2301</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1068" spans="1:7">
@@ -61349,22 +61353,22 @@
         <v>1067</v>
       </c>
       <c r="B1068" s="8">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1068" s="10" t="s">
         <v>1021</v>
       </c>
       <c r="D1068" s="10" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="E1068" s="8">
         <v>2</v>
       </c>
       <c r="F1068" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1069" spans="1:7">
@@ -61378,16 +61382,16 @@
         <v>1021</v>
       </c>
       <c r="D1069" s="10" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="E1069" s="8">
         <v>2</v>
       </c>
       <c r="F1069" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1070" spans="1:7">
@@ -61401,16 +61405,16 @@
         <v>1021</v>
       </c>
       <c r="D1070" s="10" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="E1070" s="8">
         <v>2</v>
       </c>
       <c r="F1070" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -61418,22 +61422,22 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="8">
-        <v>444</v>
-      </c>
-      <c r="C1071" s="8" t="s">
-        <v>845</v>
+        <v>443</v>
+      </c>
+      <c r="C1071" s="10" t="s">
+        <v>1021</v>
       </c>
       <c r="D1071" s="10" t="s">
-        <v>1531</v>
+        <v>2305</v>
       </c>
       <c r="E1071" s="8">
         <v>2</v>
       </c>
       <c r="F1071" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>2244</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1072" spans="1:7">
@@ -61443,20 +61447,20 @@
       <c r="B1072" s="8">
         <v>444</v>
       </c>
-      <c r="C1072" s="10" t="s">
+      <c r="C1072" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1072" s="10" t="s">
-        <v>1203</v>
+        <v>1531</v>
       </c>
       <c r="E1072" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1072" s="8">
         <v>1</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>2338</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -61466,20 +61470,20 @@
       <c r="B1073" s="8">
         <v>444</v>
       </c>
-      <c r="C1073" s="8" t="s">
+      <c r="C1073" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>914</v>
+        <v>1203</v>
       </c>
       <c r="E1073" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1073" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>2245</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -61489,20 +61493,20 @@
       <c r="B1074" s="8">
         <v>444</v>
       </c>
-      <c r="C1074" s="10" t="s">
+      <c r="C1074" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1074" s="10" t="s">
-        <v>1203</v>
+        <v>914</v>
       </c>
       <c r="E1074" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1074" s="8">
         <v>2</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>2338</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1075" spans="1:7">
@@ -61510,22 +61514,22 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="8">
-        <v>445</v>
-      </c>
-      <c r="C1075" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1075" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="D1075" s="30" t="s">
-        <v>1837</v>
+      <c r="D1075" s="10" t="s">
+        <v>1203</v>
       </c>
       <c r="E1075" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1075" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>2113</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -61533,13 +61537,13 @@
         <v>1075</v>
       </c>
       <c r="B1076" s="8">
-        <v>446</v>
-      </c>
-      <c r="C1076" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1076" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D1076" s="10" t="s">
-        <v>850</v>
+      <c r="D1076" s="30" t="s">
+        <v>1837</v>
       </c>
       <c r="E1076" s="8">
         <v>2</v>
@@ -61548,7 +61552,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>901</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -61562,16 +61566,16 @@
         <v>845</v>
       </c>
       <c r="D1077" s="10" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E1077" s="8">
         <v>2</v>
       </c>
       <c r="F1077" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -61585,16 +61589,16 @@
         <v>845</v>
       </c>
       <c r="D1078" s="10" t="s">
-        <v>1203</v>
+        <v>854</v>
       </c>
       <c r="E1078" s="8">
         <v>2</v>
       </c>
       <c r="F1078" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>1236</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1079" spans="1:7">
@@ -61602,22 +61606,22 @@
         <v>1078</v>
       </c>
       <c r="B1079" s="8">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C1079" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1079" s="8">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="D1079" s="10" t="s">
+        <v>1203</v>
       </c>
       <c r="E1079" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1079" s="8">
         <v>3</v>
       </c>
-      <c r="F1079" s="8">
-        <v>1</v>
-      </c>
       <c r="G1079" s="10" t="s">
-        <v>1329</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -61631,16 +61635,16 @@
         <v>1115</v>
       </c>
       <c r="D1080" s="8">
+        <v>1</v>
+      </c>
+      <c r="E1080" s="8">
         <v>3</v>
       </c>
-      <c r="E1080" s="8">
-        <v>4</v>
-      </c>
       <c r="F1080" s="8">
         <v>1</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1081" spans="1:7">
@@ -61651,19 +61655,19 @@
         <v>447</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1081" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1081" s="8">
+        <v>3</v>
       </c>
       <c r="E1081" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1081" s="8">
         <v>1</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>902</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -61671,22 +61675,22 @@
         <v>1081</v>
       </c>
       <c r="B1082" s="8">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1082" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1082" s="8">
-        <v>4</v>
+        <v>845</v>
+      </c>
+      <c r="D1082" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1082" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1082" s="8">
         <v>1</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>1331</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1083" spans="1:7">
@@ -61700,16 +61704,16 @@
         <v>1115</v>
       </c>
       <c r="D1083" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1083" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1083" s="8">
         <v>1</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -61720,19 +61724,19 @@
         <v>448</v>
       </c>
       <c r="C1084" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1084" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1084" s="8">
+        <v>7</v>
       </c>
       <c r="E1084" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1084" s="8">
         <v>1</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>902</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -61740,22 +61744,22 @@
         <v>1084</v>
       </c>
       <c r="B1085" s="8">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1085" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1085" s="8">
-        <v>8</v>
+        <v>845</v>
+      </c>
+      <c r="D1085" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="E1085" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1085" s="8">
         <v>1</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>1333</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -61769,16 +61773,16 @@
         <v>1115</v>
       </c>
       <c r="D1086" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1086" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1086" s="8">
         <v>1</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -61789,19 +61793,19 @@
         <v>449</v>
       </c>
       <c r="C1087" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1087" s="10" t="s">
-        <v>898</v>
+        <v>1115</v>
+      </c>
+      <c r="D1087" s="8">
+        <v>12</v>
       </c>
       <c r="E1087" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1087" s="8">
         <v>1</v>
       </c>
       <c r="G1087" s="10" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -61809,22 +61813,22 @@
         <v>1087</v>
       </c>
       <c r="B1088" s="8">
-        <v>450</v>
-      </c>
-      <c r="C1088" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1088" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1088" s="10" t="s">
-        <v>1531</v>
+        <v>898</v>
       </c>
       <c r="E1088" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1088" s="8">
         <v>1</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>2244</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -61838,39 +61842,39 @@
         <v>845</v>
       </c>
       <c r="D1089" s="10" t="s">
-        <v>914</v>
+        <v>1531</v>
       </c>
       <c r="E1089" s="8">
         <v>2</v>
       </c>
       <c r="F1089" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1089" s="10" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:7" s="8" customFormat="1">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
       <c r="A1090" s="8">
         <v>1089</v>
       </c>
       <c r="B1090" s="8">
-        <v>451</v>
-      </c>
-      <c r="C1090" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1090" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1090" s="10" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E1090" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1090" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1090" s="10" t="s">
-        <v>902</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1091" spans="1:7" s="8" customFormat="1">
@@ -61880,20 +61884,20 @@
       <c r="B1091" s="8">
         <v>451</v>
       </c>
-      <c r="C1091" s="8" t="s">
+      <c r="C1091" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1091" s="10" t="s">
-        <v>1531</v>
+        <v>898</v>
       </c>
       <c r="E1091" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1091" s="8">
         <v>1</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>2244</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1092" spans="1:7" s="8" customFormat="1">
@@ -61903,20 +61907,20 @@
       <c r="B1092" s="8">
         <v>451</v>
       </c>
-      <c r="C1092" s="10" t="s">
+      <c r="C1092" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1092" s="10" t="s">
-        <v>898</v>
+        <v>1531</v>
       </c>
       <c r="E1092" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1092" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1092" s="10" t="s">
-        <v>902</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1093" spans="1:7" s="8" customFormat="1">
@@ -61926,43 +61930,43 @@
       <c r="B1093" s="8">
         <v>451</v>
       </c>
-      <c r="C1093" s="8" t="s">
+      <c r="C1093" s="10" t="s">
         <v>845</v>
       </c>
       <c r="D1093" s="10" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="E1093" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1093" s="8">
         <v>2</v>
       </c>
       <c r="G1093" s="10" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:7">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" s="8" customFormat="1">
       <c r="A1094" s="8">
         <v>1093</v>
       </c>
-      <c r="B1094" s="64">
-        <v>452</v>
-      </c>
-      <c r="C1094" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1094" s="65" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E1094" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1094" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1094" s="65" t="s">
-        <v>2306</v>
+      <c r="B1094" s="8">
+        <v>451</v>
+      </c>
+      <c r="C1094" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1094" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1094" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1094" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1094" s="10" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -61972,11 +61976,11 @@
       <c r="B1095" s="64">
         <v>452</v>
       </c>
-      <c r="C1095" s="64" t="s">
-        <v>845</v>
+      <c r="C1095" s="65" t="s">
+        <v>1021</v>
       </c>
       <c r="D1095" s="65" t="s">
-        <v>2549</v>
+        <v>1048</v>
       </c>
       <c r="E1095" s="64">
         <v>2</v>
@@ -61985,7 +61989,7 @@
         <v>1</v>
       </c>
       <c r="G1095" s="65" t="s">
-        <v>2245</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1096" spans="1:7">
@@ -61995,11 +61999,11 @@
       <c r="B1096" s="64">
         <v>452</v>
       </c>
-      <c r="C1096" s="65" t="s">
+      <c r="C1096" s="64" t="s">
         <v>845</v>
       </c>
       <c r="D1096" s="65" t="s">
-        <v>898</v>
+        <v>2549</v>
       </c>
       <c r="E1096" s="64">
         <v>2</v>
@@ -62008,7 +62012,7 @@
         <v>1</v>
       </c>
       <c r="G1096" s="65" t="s">
-        <v>2360</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -62016,13 +62020,13 @@
         <v>1096</v>
       </c>
       <c r="B1097" s="64">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C1097" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1097" s="62" t="s">
-        <v>1027</v>
+        <v>845</v>
+      </c>
+      <c r="D1097" s="65" t="s">
+        <v>898</v>
       </c>
       <c r="E1097" s="64">
         <v>2</v>
@@ -62031,7 +62035,7 @@
         <v>1</v>
       </c>
       <c r="G1097" s="65" t="s">
-        <v>2093</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -62041,11 +62045,11 @@
       <c r="B1098" s="64">
         <v>453</v>
       </c>
-      <c r="C1098" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1098" s="65" t="s">
-        <v>914</v>
+      <c r="C1098" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1098" s="62" t="s">
+        <v>1027</v>
       </c>
       <c r="E1098" s="64">
         <v>2</v>
@@ -62054,7 +62058,7 @@
         <v>1</v>
       </c>
       <c r="G1098" s="65" t="s">
-        <v>2245</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1099" spans="1:7">
@@ -62064,11 +62068,11 @@
       <c r="B1099" s="64">
         <v>453</v>
       </c>
-      <c r="C1099" s="65" t="s">
+      <c r="C1099" s="64" t="s">
         <v>845</v>
       </c>
       <c r="D1099" s="65" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="E1099" s="64">
         <v>2</v>
@@ -62077,7 +62081,7 @@
         <v>1</v>
       </c>
       <c r="G1099" s="65" t="s">
-        <v>2360</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1100" spans="1:7">
@@ -62085,13 +62089,13 @@
         <v>1099</v>
       </c>
       <c r="B1100" s="64">
-        <v>454</v>
-      </c>
-      <c r="C1100" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1100" s="65" t="s">
         <v>845</v>
       </c>
       <c r="D1100" s="65" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="E1100" s="64">
         <v>2</v>
@@ -62100,7 +62104,7 @@
         <v>1</v>
       </c>
       <c r="G1100" s="65" t="s">
-        <v>2245</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -62111,19 +62115,19 @@
         <v>454</v>
       </c>
       <c r="C1101" s="64" t="s">
-        <v>874</v>
-      </c>
-      <c r="D1101" s="68">
-        <v>691200</v>
+        <v>845</v>
+      </c>
+      <c r="D1101" s="65" t="s">
+        <v>914</v>
       </c>
       <c r="E1101" s="64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1101" s="64">
         <v>1</v>
       </c>
       <c r="G1101" s="65" t="s">
-        <v>2366</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1102" spans="1:7">
@@ -62133,20 +62137,20 @@
       <c r="B1102" s="64">
         <v>454</v>
       </c>
-      <c r="C1102" s="65" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D1102" s="70">
-        <v>1615246200</v>
+      <c r="C1102" s="64" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1102" s="68">
+        <v>691200</v>
       </c>
       <c r="E1102" s="64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1102" s="64">
         <v>1</v>
       </c>
       <c r="G1102" s="65" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -62154,22 +62158,22 @@
         <v>1102</v>
       </c>
       <c r="B1103" s="64">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1103" s="65" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1103" s="62" t="s">
-        <v>1027</v>
+        <v>1810</v>
+      </c>
+      <c r="D1103" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1103" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1103" s="64">
         <v>1</v>
       </c>
       <c r="G1103" s="65" t="s">
-        <v>2093</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1104" spans="1:7">
@@ -62179,11 +62183,11 @@
       <c r="B1104" s="64">
         <v>455</v>
       </c>
-      <c r="C1104" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1104" s="65" t="s">
-        <v>914</v>
+      <c r="C1104" s="65" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1104" s="62" t="s">
+        <v>1027</v>
       </c>
       <c r="E1104" s="64">
         <v>2</v>
@@ -62192,7 +62196,7 @@
         <v>1</v>
       </c>
       <c r="G1104" s="65" t="s">
-        <v>2245</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1105" spans="1:7">
@@ -62202,20 +62206,20 @@
       <c r="B1105" s="64">
         <v>455</v>
       </c>
-      <c r="C1105" s="65" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D1105" s="70">
-        <v>1615246200</v>
+      <c r="C1105" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1105" s="65" t="s">
+        <v>914</v>
       </c>
       <c r="E1105" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1105" s="64">
         <v>1</v>
       </c>
       <c r="G1105" s="65" t="s">
-        <v>2370</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1106" spans="1:7">
@@ -62223,22 +62227,22 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="64">
-        <v>456</v>
-      </c>
-      <c r="C1106" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1106" s="65" t="s">
-        <v>1531</v>
+        <v>455</v>
+      </c>
+      <c r="C1106" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D1106" s="70">
+        <v>1615246200</v>
       </c>
       <c r="E1106" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1106" s="64">
         <v>1</v>
       </c>
       <c r="G1106" s="65" t="s">
-        <v>2244</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1107" spans="1:7">
@@ -62248,11 +62252,11 @@
       <c r="B1107" s="64">
         <v>456</v>
       </c>
-      <c r="C1107" s="65" t="s">
-        <v>2432</v>
-      </c>
-      <c r="D1107" s="62" t="s">
-        <v>2375</v>
+      <c r="C1107" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1107" s="65" t="s">
+        <v>1531</v>
       </c>
       <c r="E1107" s="64">
         <v>2</v>
@@ -62261,7 +62265,7 @@
         <v>1</v>
       </c>
       <c r="G1107" s="65" t="s">
-        <v>2376</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1108" spans="1:7">
@@ -62272,10 +62276,10 @@
         <v>456</v>
       </c>
       <c r="C1108" s="65" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D1108" s="65" t="s">
-        <v>2532</v>
+        <v>2432</v>
+      </c>
+      <c r="D1108" s="62" t="s">
+        <v>2375</v>
       </c>
       <c r="E1108" s="64">
         <v>2</v>
@@ -62284,30 +62288,30 @@
         <v>1</v>
       </c>
       <c r="G1108" s="65" t="s">
-        <v>2534</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
       <c r="A1109" s="8">
         <v>1108</v>
       </c>
-      <c r="B1109" s="9">
-        <v>457</v>
-      </c>
-      <c r="C1109" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1109" s="10" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E1109" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1109" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1109" s="10" t="s">
-        <v>2244</v>
+      <c r="B1109" s="64">
+        <v>456</v>
+      </c>
+      <c r="C1109" s="65" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1109" s="65" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E1109" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1109" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1109" s="65" t="s">
+        <v>2534</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -62315,22 +62319,22 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="9">
-        <v>458</v>
-      </c>
-      <c r="C1110" s="65" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D1110" s="65" t="s">
-        <v>914</v>
-      </c>
-      <c r="E1110" s="64">
-        <v>2</v>
-      </c>
-      <c r="F1110" s="64">
-        <v>1</v>
-      </c>
-      <c r="G1110" s="65" t="s">
-        <v>2245</v>
+        <v>457</v>
+      </c>
+      <c r="C1110" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1110" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E1110" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1110" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="10" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -62338,22 +62342,22 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="9">
-        <v>459</v>
-      </c>
-      <c r="C1111" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1111" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1111" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1111" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="10" t="s">
-        <v>1331</v>
+        <v>458</v>
+      </c>
+      <c r="C1111" s="65" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D1111" s="65" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1111" s="64">
+        <v>2</v>
+      </c>
+      <c r="F1111" s="64">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="65" t="s">
+        <v>2245</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -62367,16 +62371,16 @@
         <v>1115</v>
       </c>
       <c r="D1112" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1112" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1112" s="8">
         <v>1</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -62384,13 +62388,13 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="9">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C1113" s="10" t="s">
         <v>1115</v>
       </c>
       <c r="D1113" s="8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1113" s="8">
         <v>4</v>
@@ -62399,7 +62403,7 @@
         <v>1</v>
       </c>
       <c r="G1113" s="10" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -62407,22 +62411,22 @@
         <v>1113</v>
       </c>
       <c r="B1114" s="9">
-        <v>461</v>
-      </c>
-      <c r="C1114" s="8" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D1114" s="10" t="s">
-        <v>2090</v>
+        <v>460</v>
+      </c>
+      <c r="C1114" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1114" s="8">
+        <v>3</v>
       </c>
       <c r="E1114" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1114" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1114" s="10" t="s">
-        <v>2392</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -62430,22 +62434,22 @@
         <v>1114</v>
       </c>
       <c r="B1115" s="9">
-        <v>462</v>
-      </c>
-      <c r="C1115" s="26" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1115" s="26" t="s">
-        <v>2431</v>
-      </c>
-      <c r="E1115" s="9">
+        <v>461</v>
+      </c>
+      <c r="C1115" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1115" s="10" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1115" s="8">
         <v>5</v>
       </c>
-      <c r="F1115" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1115" s="26" t="s">
-        <v>2433</v>
+      <c r="F1115" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1115" s="10" t="s">
+        <v>2392</v>
       </c>
     </row>
     <row r="1116" spans="1:7">
@@ -62453,22 +62457,22 @@
         <v>1115</v>
       </c>
       <c r="B1116" s="9">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1116" s="26" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1116" s="9" t="s">
-        <v>2438</v>
+        <v>1940</v>
+      </c>
+      <c r="D1116" s="26" t="s">
+        <v>2431</v>
       </c>
       <c r="E1116" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1116" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1116" s="26" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
@@ -62478,11 +62482,11 @@
       <c r="B1117" s="9">
         <v>463</v>
       </c>
-      <c r="C1117" s="8" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D1117" s="10" t="s">
-        <v>2090</v>
+      <c r="C1117" s="26" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1117" s="9" t="s">
+        <v>2438</v>
       </c>
       <c r="E1117" s="9">
         <v>2</v>
@@ -62491,7 +62495,7 @@
         <v>1</v>
       </c>
       <c r="G1117" s="26" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -62499,36 +62503,36 @@
         <v>1117</v>
       </c>
       <c r="B1118" s="9">
-        <v>464</v>
-      </c>
-      <c r="C1118" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D1118" s="8">
-        <v>4</v>
-      </c>
-      <c r="E1118" s="8">
-        <v>3</v>
-      </c>
-      <c r="F1118" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="10" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:7" s="8" customFormat="1">
+        <v>463</v>
+      </c>
+      <c r="C1118" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1118" s="10" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1118" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1118" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="26" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7">
       <c r="A1119" s="8">
         <v>1118</v>
       </c>
-      <c r="B1119" s="8">
-        <v>465</v>
+      <c r="B1119" s="9">
+        <v>464</v>
       </c>
       <c r="C1119" s="10" t="s">
-        <v>858</v>
+        <v>1115</v>
       </c>
       <c r="D1119" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1119" s="8">
         <v>3</v>
@@ -62537,7 +62541,7 @@
         <v>1</v>
       </c>
       <c r="G1119" s="10" t="s">
-        <v>872</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1120" spans="1:7" s="8" customFormat="1">
@@ -62545,13 +62549,13 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="8">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1120" s="10" t="s">
         <v>858</v>
       </c>
       <c r="D1120" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1120" s="8">
         <v>3</v>
@@ -62560,7 +62564,7 @@
         <v>1</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>2509</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1121" spans="1:7" s="8" customFormat="1">
@@ -62568,13 +62572,13 @@
         <v>1120</v>
       </c>
       <c r="B1121" s="8">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C1121" s="10" t="s">
         <v>858</v>
       </c>
       <c r="D1121" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1121" s="8">
         <v>3</v>
@@ -62583,30 +62587,30 @@
         <v>1</v>
       </c>
       <c r="G1121" s="10" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:7">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" s="8" customFormat="1">
       <c r="A1122" s="8">
         <v>1121</v>
       </c>
       <c r="B1122" s="8">
-        <v>468</v>
-      </c>
-      <c r="C1122" s="26" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1122" s="26" t="s">
-        <v>2517</v>
-      </c>
-      <c r="E1122" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1122" s="26" t="s">
-        <v>2520</v>
+        <v>467</v>
+      </c>
+      <c r="C1122" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1122" s="8">
+        <v>12</v>
+      </c>
+      <c r="E1122" s="8">
+        <v>3</v>
+      </c>
+      <c r="F1122" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="10" t="s">
+        <v>2510</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -62614,7 +62618,7 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="8">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1123" s="26" t="s">
         <v>1940</v>
@@ -62623,13 +62627,13 @@
         <v>2517</v>
       </c>
       <c r="E1123" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1123" s="9">
         <v>1</v>
       </c>
       <c r="G1123" s="26" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -62637,22 +62641,22 @@
         <v>1123</v>
       </c>
       <c r="B1124" s="8">
-        <v>470</v>
-      </c>
-      <c r="C1124" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1124" s="30" t="s">
-        <v>2524</v>
-      </c>
-      <c r="E1124" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1124" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1124" s="10" t="s">
-        <v>2525</v>
+        <v>469</v>
+      </c>
+      <c r="C1124" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1124" s="26" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E1124" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="26" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -62666,13 +62670,13 @@
         <v>845</v>
       </c>
       <c r="D1125" s="30" t="s">
-        <v>2551</v>
+        <v>2524</v>
       </c>
       <c r="E1125" s="8">
         <v>2</v>
       </c>
       <c r="F1125" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1125" s="10" t="s">
         <v>2525</v>
@@ -62682,20 +62686,20 @@
       <c r="A1126" s="8">
         <v>1125</v>
       </c>
-      <c r="B1126" s="9">
-        <v>471</v>
+      <c r="B1126" s="8">
+        <v>470</v>
       </c>
       <c r="C1126" s="8" t="s">
         <v>845</v>
       </c>
       <c r="D1126" s="30" t="s">
-        <v>2524</v>
+        <v>2551</v>
       </c>
       <c r="E1126" s="8">
         <v>2</v>
       </c>
       <c r="F1126" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1126" s="10" t="s">
         <v>2525</v>
@@ -62708,20 +62712,20 @@
       <c r="B1127" s="9">
         <v>471</v>
       </c>
-      <c r="C1127" s="26" t="s">
-        <v>2531</v>
-      </c>
-      <c r="D1127" s="26" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E1127" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1127" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1127" s="26" t="s">
-        <v>2535</v>
+      <c r="C1127" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1127" s="30" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E1127" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1127" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1127" s="10" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="1128" spans="1:7">
@@ -62731,20 +62735,20 @@
       <c r="B1128" s="9">
         <v>471</v>
       </c>
-      <c r="C1128" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D1128" s="30" t="s">
-        <v>2551</v>
-      </c>
-      <c r="E1128" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1128" s="8">
-        <v>2</v>
-      </c>
-      <c r="G1128" s="10" t="s">
-        <v>2525</v>
+      <c r="C1128" s="26" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1128" s="26" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E1128" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1128" s="26" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -62754,24 +62758,47 @@
       <c r="B1129" s="9">
         <v>471</v>
       </c>
-      <c r="C1129" s="26" t="s">
+      <c r="C1129" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1129" s="30" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E1129" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1129" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1129" s="10" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="8">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="9">
+        <v>471</v>
+      </c>
+      <c r="C1130" s="26" t="s">
         <v>1040</v>
       </c>
-      <c r="D1129" s="26" t="s">
+      <c r="D1130" s="26" t="s">
         <v>1970</v>
       </c>
-      <c r="E1129" s="9">
-        <v>2</v>
-      </c>
-      <c r="F1129" s="9">
-        <v>2</v>
-      </c>
-      <c r="G1129" s="26" t="s">
+      <c r="E1130" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1130" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1130" s="26" t="s">
         <v>1694</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C1093"/>
+  <autoFilter ref="C1:C1094"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
